--- a/Extreme_Weighting_Scoring_Prototype_for_FormWise_REPAIRED.xlsx
+++ b/Extreme_Weighting_Scoring_Prototype_for_FormWise_REPAIRED.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sharon/Library/CloudStorage/OneDrive-Personal/Revenue Streams/Field Factors/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sharon/Downloads/rsc-app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0F3501F-CF08-BF4E-971E-274ACD101B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF2C9306-E1D5-9D44-A323-613055F73A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="24820" windowHeight="21900" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="24820" windowHeight="21900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
     <sheet name="Inputs" sheetId="2" r:id="rId2"/>
     <sheet name="Weights" sheetId="3" r:id="rId3"/>
     <sheet name="Scoring" sheetId="4" r:id="rId4"/>
-    <sheet name="Snippets" sheetId="5" r:id="rId5"/>
-    <sheet name="Results" sheetId="6" r:id="rId6"/>
+    <sheet name="Categories" sheetId="7" r:id="rId5"/>
+    <sheet name="Factors" sheetId="8" r:id="rId6"/>
+    <sheet name="Snippets" sheetId="5" r:id="rId7"/>
+    <sheet name="Results" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -60,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="130">
   <si>
     <t>Section</t>
   </si>
@@ -241,6 +243,219 @@
   </si>
   <si>
     <t>Weaknesses &amp; Threats</t>
+  </si>
+  <si>
+    <t>factor_name</t>
+  </si>
+  <si>
+    <t>factor_id</t>
+  </si>
+  <si>
+    <t>category_name</t>
+  </si>
+  <si>
+    <t>factor_description</t>
+  </si>
+  <si>
+    <t>left_label</t>
+  </si>
+  <si>
+    <t>right_label</t>
+  </si>
+  <si>
+    <t>customer_service_sales</t>
+  </si>
+  <si>
+    <t>Customer Facing Skills</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How confident and experienced are you when it comes to engaging with customers — answering questions, handling service issues, pitching your offerings, and closing a sale (whether in person, by email, or over social media)? </t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>marketing</t>
+  </si>
+  <si>
+    <t>Do you have experience promoting your business through digital and print marketing? This could include things like social media posts, email campaigns, flyers or other printed materials, pitches to media outlets, writing captions, taking great photos, or running paid ads (like on Meta or Google) to help increase visibility and drive sales.</t>
+  </si>
+  <si>
+    <t>personal_connections</t>
+  </si>
+  <si>
+    <t>Networks</t>
+  </si>
+  <si>
+    <t>Do you belong to neighborhood organizations, faith groups, clubs, or social circles where you can share your business, gather support, or spread the word?</t>
+  </si>
+  <si>
+    <t>professional_network</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are you connected with other local businesses, market organizations, or industry groups that could support, promote, or collaborate with your flower business? </t>
+  </si>
+  <si>
+    <t>proximity_to_customers</t>
+  </si>
+  <si>
+    <t>Location and Demand</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Is your farm located near one or more population centers, wedding/event venues, agri-tourism destinations, or established farmers markets? Or are you more remote, requiring longer travel times for you and/or your customers?</t>
+  </si>
+  <si>
+    <t>Aesthetic &amp; Experiential Appeal</t>
+  </si>
+  <si>
+    <t>aesthetic_experiential_appeal</t>
+  </si>
+  <si>
+    <t>Does your farm offer a visually appealing or memorable experience — such as scenic views, rustic buildings, flower fields, or friendly animals — that could enhance on-farm events or help entice customers to visit?</t>
+  </si>
+  <si>
+    <t>customer_friendly_amenities</t>
+  </si>
+  <si>
+    <t>Do you have infrastructure in place to welcome and support visitors, like parking, restrooms, shaded seating, or accessible paths?</t>
+  </si>
+  <si>
+    <t>regulatory_freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Are there zoning laws, HOA restrictions, or permitting requirements that could limit your ability to host events, build structures, or sell directly from your farm?</t>
+  </si>
+  <si>
+    <t>high_volume_production</t>
+  </si>
+  <si>
+    <t>Farm Production</t>
+  </si>
+  <si>
+    <t>Can your farm produce a large quantity of flowers? Or are you limited to smaller-scale production due to space, labor, or other constraints?</t>
+  </si>
+  <si>
+    <t>operational_infrastructure</t>
+  </si>
+  <si>
+    <t>Do you have systems and spaces in place to efficiently store, arrange, and transport your flowers — such as refrigeration, workstations, storage areas, and a reliable vehicle suited for moving product at scale?</t>
+  </si>
+  <si>
+    <t>product_diversity</t>
+  </si>
+  <si>
+    <t>Can you grow a wide variety of floral ingredients, including all six Bouquet Blueprint™ categories? Or is your production limited by space, climate, or your preference for focusing on a single crop (or very limited number of crops)?</t>
+  </si>
+  <si>
+    <t>product_predictability</t>
+  </si>
+  <si>
+    <t>Are you able to consistently predict bloom timing and availability? Have you implemented strategies like succession planting to ensure a steady, well-timed supply?</t>
+  </si>
+  <si>
+    <t>schedule_flexibility</t>
+  </si>
+  <si>
+    <t>Time and Money</t>
+  </si>
+  <si>
+    <t>How much control do you have over your time? Can you adjust when you work to align with customer needs — for example, being available for weddings, events, or farmers market hours — or do you have other commitments or personal boundaries that shape when and how you run your farm business?</t>
+  </si>
+  <si>
+    <t>financial_resources</t>
+  </si>
+  <si>
+    <t>Do you have capital available to invest in your business? If not, are you eligible for grants or loans, and do you have experience successfully applying for them?</t>
+  </si>
+  <si>
+    <t>floral_design</t>
+  </si>
+  <si>
+    <t>Design Skills</t>
+  </si>
+  <si>
+    <t>Do you have experience making bouquets and arrangements? Are you comfortable designing in a range of styles — such as rustic, garden-inspired, modern, or minimalist — to suit different customers and occasions? Do you keep up with floral trends and design aesthetics? Do you enjoy experimenting with new techniques, forms, or ingredients?</t>
+  </si>
+  <si>
+    <t>Color Comprehension &amp; Accuracy</t>
+  </si>
+  <si>
+    <t>color_comprehension_accuracy</t>
+  </si>
+  <si>
+    <t>Do you have a strong eye for color — including the ability to recognize undertones, distinguish between warm and cool hues, and build harmonious palettes? Are you able to communicate these nuances to customers?</t>
+  </si>
+  <si>
+    <t>social_personality</t>
+  </si>
+  <si>
+    <t>Personal Attributes</t>
+  </si>
+  <si>
+    <t>Are you introverted, extroverted, or somewhere in between?</t>
+  </si>
+  <si>
+    <t>introverted</t>
+  </si>
+  <si>
+    <t>extroverted</t>
+  </si>
+  <si>
+    <t>Stress &amp; Risk Tolerance</t>
+  </si>
+  <si>
+    <t>stress_risk_tolerance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How well do you handle uncertainty, pressure, or fast-changing circumstances? Do you lean more towards the “no risk/no reward” point of view, or are you more of a “better safe than sorry” person? </t>
+  </si>
+  <si>
+    <t>low tolerance</t>
+  </si>
+  <si>
+    <t>high tolerance</t>
+  </si>
+  <si>
+    <t>Time Management &amp; Organization</t>
+  </si>
+  <si>
+    <t>time_management_organization</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Are you able to structure your time effectively, stay on top of tasks, and meet deadlines? Can you estimate how long things will take, stay prepared with lists or systems, and keep projects moving forward in a timely way?</t>
+  </si>
+  <si>
+    <t>not time effective</t>
+  </si>
+  <si>
+    <t>very time effective</t>
+  </si>
+  <si>
+    <t>category_description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How you connect with customers — and how often — can vary widely between different sales channels. This section helps you reflect on your comfort and strengths when it comes to engaging with customers, promoting your business, and making the sale.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farming can feel isolating at times — but strong networks can open doors, spread the word, and make the work more sustainable. The connections you already have (or are willing to build) can shape how easily you access new opportunities, especially in revenue streams that thrive on community reach and local engagement. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Where you grow — and who’s around you — shapes everything from market access to hosting customers at the farm. Understanding the strengths and limitations of your location will help you make strategic decisions about which sales channels are most feasible and profitable. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your farm’s growing conditions, infrastructure, and output shape what (and how much of it) you can offer, and how consistently you can offer it. This section helps you assess how well your space supports the type, volume, and timing of production that different revenue streams may require. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your available time and financial capacity shape how quickly you can grow—and how much you can take on. Getting honest about both helps you choose a business model that aligns with your real-life bandwidth and budget. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Some revenue streams—like retail bouquets, weddings, or workshops—depend heavily on strong floral design. This section helps you assess whether those design-focused paths align with your current strengths, your creative interests, or your willingness to grow. </t>
+  </si>
+  <si>
+    <t>Your natural tendencies, preferences, and decision-making style shape how you run your business. Knowing yourself helps you build a business that feels sustainable and enjoyable, not draining.</t>
   </si>
 </sst>
 </file>
@@ -250,7 +465,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -279,6 +494,19 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -329,7 +557,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -339,9 +567,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -371,9 +596,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -901,8 +1139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -911,1179 +1149,1179 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="2" customFormat="1" ht="67" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="S1" s="4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="8">
-        <v>5</v>
-      </c>
-      <c r="C2" s="8">
-        <v>4</v>
-      </c>
-      <c r="D2" s="8">
-        <v>2</v>
-      </c>
-      <c r="E2" s="8">
-        <v>4</v>
-      </c>
-      <c r="F2" s="8">
-        <v>3</v>
-      </c>
-      <c r="G2" s="8">
-        <v>3</v>
-      </c>
-      <c r="H2" s="8">
-        <v>2</v>
-      </c>
-      <c r="I2" s="8">
-        <v>2</v>
-      </c>
-      <c r="J2" s="8">
-        <v>1</v>
-      </c>
-      <c r="K2" s="8">
-        <v>2</v>
-      </c>
-      <c r="L2" s="8">
-        <v>2</v>
-      </c>
-      <c r="M2" s="8">
-        <v>5</v>
-      </c>
-      <c r="N2" s="8">
-        <v>3</v>
-      </c>
-      <c r="O2" s="8">
-        <v>4</v>
-      </c>
-      <c r="P2" s="8">
-        <v>3</v>
-      </c>
-      <c r="Q2" s="8">
-        <v>4</v>
-      </c>
-      <c r="R2" s="8">
-        <v>4</v>
-      </c>
-      <c r="S2" s="8">
+      <c r="B2" s="7">
+        <v>5</v>
+      </c>
+      <c r="C2" s="7">
+        <v>4</v>
+      </c>
+      <c r="D2" s="7">
+        <v>2</v>
+      </c>
+      <c r="E2" s="7">
+        <v>4</v>
+      </c>
+      <c r="F2" s="7">
+        <v>3</v>
+      </c>
+      <c r="G2" s="7">
+        <v>3</v>
+      </c>
+      <c r="H2" s="7">
+        <v>2</v>
+      </c>
+      <c r="I2" s="7">
+        <v>2</v>
+      </c>
+      <c r="J2" s="7">
+        <v>1</v>
+      </c>
+      <c r="K2" s="7">
+        <v>2</v>
+      </c>
+      <c r="L2" s="7">
+        <v>2</v>
+      </c>
+      <c r="M2" s="7">
+        <v>5</v>
+      </c>
+      <c r="N2" s="7">
+        <v>3</v>
+      </c>
+      <c r="O2" s="7">
+        <v>4</v>
+      </c>
+      <c r="P2" s="7">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="7">
+        <v>4</v>
+      </c>
+      <c r="R2" s="7">
+        <v>4</v>
+      </c>
+      <c r="S2" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="8">
-        <v>2</v>
-      </c>
-      <c r="C3" s="8">
-        <v>5</v>
-      </c>
-      <c r="D3" s="8">
-        <v>5</v>
-      </c>
-      <c r="E3" s="8">
-        <v>5</v>
-      </c>
-      <c r="F3" s="8">
-        <v>5</v>
-      </c>
-      <c r="G3" s="8">
-        <v>1</v>
-      </c>
-      <c r="H3" s="8">
-        <v>1</v>
-      </c>
-      <c r="I3" s="8">
-        <v>1</v>
-      </c>
-      <c r="J3" s="8">
-        <v>2</v>
-      </c>
-      <c r="K3" s="8">
-        <v>3</v>
-      </c>
-      <c r="L3" s="8">
-        <v>3</v>
-      </c>
-      <c r="M3" s="8">
-        <v>5</v>
-      </c>
-      <c r="N3" s="8">
-        <v>5</v>
-      </c>
-      <c r="O3" s="8">
-        <v>4</v>
-      </c>
-      <c r="P3" s="8">
-        <v>3</v>
-      </c>
-      <c r="Q3" s="8">
-        <v>5</v>
-      </c>
-      <c r="R3" s="8">
-        <v>5</v>
-      </c>
-      <c r="S3" s="8">
+      <c r="B3" s="7">
+        <v>2</v>
+      </c>
+      <c r="C3" s="7">
+        <v>5</v>
+      </c>
+      <c r="D3" s="7">
+        <v>5</v>
+      </c>
+      <c r="E3" s="7">
+        <v>5</v>
+      </c>
+      <c r="F3" s="7">
+        <v>5</v>
+      </c>
+      <c r="G3" s="7">
+        <v>1</v>
+      </c>
+      <c r="H3" s="7">
+        <v>1</v>
+      </c>
+      <c r="I3" s="7">
+        <v>1</v>
+      </c>
+      <c r="J3" s="7">
+        <v>2</v>
+      </c>
+      <c r="K3" s="7">
+        <v>3</v>
+      </c>
+      <c r="L3" s="7">
+        <v>3</v>
+      </c>
+      <c r="M3" s="7">
+        <v>5</v>
+      </c>
+      <c r="N3" s="7">
+        <v>5</v>
+      </c>
+      <c r="O3" s="7">
+        <v>4</v>
+      </c>
+      <c r="P3" s="7">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="7">
+        <v>5</v>
+      </c>
+      <c r="R3" s="7">
+        <v>5</v>
+      </c>
+      <c r="S3" s="7">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="8">
-        <v>2</v>
-      </c>
-      <c r="C4" s="8">
-        <v>4</v>
-      </c>
-      <c r="D4" s="8">
-        <v>4</v>
-      </c>
-      <c r="E4" s="8">
-        <v>3</v>
-      </c>
-      <c r="F4" s="8">
-        <v>2</v>
-      </c>
-      <c r="G4" s="8">
-        <v>1</v>
-      </c>
-      <c r="H4" s="8">
-        <v>1</v>
-      </c>
-      <c r="I4" s="8">
-        <v>1</v>
-      </c>
-      <c r="J4" s="8">
-        <v>1</v>
-      </c>
-      <c r="K4" s="8">
-        <v>1</v>
-      </c>
-      <c r="L4" s="8">
-        <v>1</v>
-      </c>
-      <c r="M4" s="8">
-        <v>3</v>
-      </c>
-      <c r="N4" s="8">
-        <v>3</v>
-      </c>
-      <c r="O4" s="8">
-        <v>1</v>
-      </c>
-      <c r="P4" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="8">
-        <v>3</v>
-      </c>
-      <c r="R4" s="8">
-        <v>3</v>
-      </c>
-      <c r="S4" s="8">
+      <c r="B4" s="7">
+        <v>2</v>
+      </c>
+      <c r="C4" s="7">
+        <v>4</v>
+      </c>
+      <c r="D4" s="7">
+        <v>4</v>
+      </c>
+      <c r="E4" s="7">
+        <v>3</v>
+      </c>
+      <c r="F4" s="7">
+        <v>2</v>
+      </c>
+      <c r="G4" s="7">
+        <v>1</v>
+      </c>
+      <c r="H4" s="7">
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1</v>
+      </c>
+      <c r="J4" s="7">
+        <v>1</v>
+      </c>
+      <c r="K4" s="7">
+        <v>1</v>
+      </c>
+      <c r="L4" s="7">
+        <v>1</v>
+      </c>
+      <c r="M4" s="7">
+        <v>3</v>
+      </c>
+      <c r="N4" s="7">
+        <v>3</v>
+      </c>
+      <c r="O4" s="7">
+        <v>1</v>
+      </c>
+      <c r="P4" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>3</v>
+      </c>
+      <c r="R4" s="7">
+        <v>3</v>
+      </c>
+      <c r="S4" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="8">
-        <v>1</v>
-      </c>
-      <c r="C5" s="8">
-        <v>1</v>
-      </c>
-      <c r="D5" s="8">
-        <v>1</v>
-      </c>
-      <c r="E5" s="8">
-        <v>1</v>
-      </c>
-      <c r="F5" s="8">
-        <v>1</v>
-      </c>
-      <c r="G5" s="8">
-        <v>1</v>
-      </c>
-      <c r="H5" s="8">
-        <v>1</v>
-      </c>
-      <c r="I5" s="8">
-        <v>1</v>
-      </c>
-      <c r="J5" s="8">
-        <v>3</v>
-      </c>
-      <c r="K5" s="8">
-        <v>4</v>
-      </c>
-      <c r="L5" s="8">
-        <v>4</v>
-      </c>
-      <c r="M5" s="8">
-        <v>1</v>
-      </c>
-      <c r="N5" s="8">
-        <v>1</v>
-      </c>
-      <c r="O5" s="8">
-        <v>4</v>
-      </c>
-      <c r="P5" s="8">
-        <v>4</v>
-      </c>
-      <c r="Q5" s="8">
-        <v>3</v>
-      </c>
-      <c r="R5" s="8">
-        <v>3</v>
-      </c>
-      <c r="S5" s="8">
+      <c r="B5" s="7">
+        <v>1</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="7">
+        <v>1</v>
+      </c>
+      <c r="F5" s="7">
+        <v>1</v>
+      </c>
+      <c r="G5" s="7">
+        <v>1</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1</v>
+      </c>
+      <c r="J5" s="7">
+        <v>3</v>
+      </c>
+      <c r="K5" s="7">
+        <v>4</v>
+      </c>
+      <c r="L5" s="7">
+        <v>4</v>
+      </c>
+      <c r="M5" s="7">
+        <v>1</v>
+      </c>
+      <c r="N5" s="7">
+        <v>1</v>
+      </c>
+      <c r="O5" s="7">
+        <v>4</v>
+      </c>
+      <c r="P5" s="7">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>3</v>
+      </c>
+      <c r="R5" s="7">
+        <v>3</v>
+      </c>
+      <c r="S5" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="8">
-        <v>4</v>
-      </c>
-      <c r="C6" s="8">
-        <v>4</v>
-      </c>
-      <c r="D6" s="8">
-        <v>5</v>
-      </c>
-      <c r="E6" s="8">
-        <v>4</v>
-      </c>
-      <c r="F6" s="8">
-        <v>3</v>
-      </c>
-      <c r="G6" s="8">
-        <v>3</v>
-      </c>
-      <c r="H6" s="8">
-        <v>3</v>
-      </c>
-      <c r="I6" s="8">
-        <v>3</v>
-      </c>
-      <c r="J6" s="8">
-        <v>3</v>
-      </c>
-      <c r="K6" s="8">
-        <v>4</v>
-      </c>
-      <c r="L6" s="8">
-        <v>5</v>
-      </c>
-      <c r="M6" s="8">
-        <v>3</v>
-      </c>
-      <c r="N6" s="8">
-        <v>3</v>
-      </c>
-      <c r="O6" s="8">
-        <v>3</v>
-      </c>
-      <c r="P6" s="8">
-        <v>4</v>
-      </c>
-      <c r="Q6" s="8">
-        <v>3</v>
-      </c>
-      <c r="R6" s="8">
-        <v>3</v>
-      </c>
-      <c r="S6" s="8">
+      <c r="B6" s="7">
+        <v>4</v>
+      </c>
+      <c r="C6" s="7">
+        <v>4</v>
+      </c>
+      <c r="D6" s="7">
+        <v>5</v>
+      </c>
+      <c r="E6" s="7">
+        <v>4</v>
+      </c>
+      <c r="F6" s="7">
+        <v>3</v>
+      </c>
+      <c r="G6" s="7">
+        <v>3</v>
+      </c>
+      <c r="H6" s="7">
+        <v>3</v>
+      </c>
+      <c r="I6" s="7">
+        <v>3</v>
+      </c>
+      <c r="J6" s="7">
+        <v>3</v>
+      </c>
+      <c r="K6" s="7">
+        <v>4</v>
+      </c>
+      <c r="L6" s="7">
+        <v>5</v>
+      </c>
+      <c r="M6" s="7">
+        <v>3</v>
+      </c>
+      <c r="N6" s="7">
+        <v>3</v>
+      </c>
+      <c r="O6" s="7">
+        <v>3</v>
+      </c>
+      <c r="P6" s="7">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>3</v>
+      </c>
+      <c r="R6" s="7">
+        <v>3</v>
+      </c>
+      <c r="S6" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="8">
-        <v>1</v>
-      </c>
-      <c r="C7" s="8">
-        <v>1</v>
-      </c>
-      <c r="D7" s="8">
-        <v>4</v>
-      </c>
-      <c r="E7" s="8">
-        <v>1</v>
-      </c>
-      <c r="F7" s="8">
-        <v>1</v>
-      </c>
-      <c r="G7" s="8">
-        <v>1</v>
-      </c>
-      <c r="H7" s="8">
-        <v>1</v>
-      </c>
-      <c r="I7" s="8">
-        <v>1</v>
-      </c>
-      <c r="J7" s="8">
-        <v>1</v>
-      </c>
-      <c r="K7" s="8">
-        <v>1</v>
-      </c>
-      <c r="L7" s="8">
-        <v>1</v>
-      </c>
-      <c r="M7" s="8">
-        <v>1</v>
-      </c>
-      <c r="N7" s="8">
-        <v>1</v>
-      </c>
-      <c r="O7" s="8">
-        <v>1</v>
-      </c>
-      <c r="P7" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="8">
-        <v>4</v>
-      </c>
-      <c r="R7" s="8">
-        <v>4</v>
-      </c>
-      <c r="S7" s="8">
+      <c r="A7" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7">
+        <v>4</v>
+      </c>
+      <c r="E7" s="7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="7">
+        <v>1</v>
+      </c>
+      <c r="H7" s="7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="7">
+        <v>1</v>
+      </c>
+      <c r="J7" s="7">
+        <v>1</v>
+      </c>
+      <c r="K7" s="7">
+        <v>1</v>
+      </c>
+      <c r="L7" s="7">
+        <v>1</v>
+      </c>
+      <c r="M7" s="7">
+        <v>1</v>
+      </c>
+      <c r="N7" s="7">
+        <v>1</v>
+      </c>
+      <c r="O7" s="7">
+        <v>1</v>
+      </c>
+      <c r="P7" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>4</v>
+      </c>
+      <c r="R7" s="7">
+        <v>4</v>
+      </c>
+      <c r="S7" s="7">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="9">
-        <v>1</v>
-      </c>
-      <c r="C8" s="8">
-        <v>2</v>
-      </c>
-      <c r="D8" s="8">
-        <v>3</v>
-      </c>
-      <c r="E8" s="8">
-        <v>2</v>
-      </c>
-      <c r="F8" s="8">
-        <v>2</v>
-      </c>
-      <c r="G8" s="8">
-        <v>1</v>
-      </c>
-      <c r="H8" s="8">
-        <v>1</v>
-      </c>
-      <c r="I8" s="8">
-        <v>1</v>
-      </c>
-      <c r="J8" s="8">
-        <v>1</v>
-      </c>
-      <c r="K8" s="8">
-        <v>1</v>
-      </c>
-      <c r="L8" s="8">
-        <v>1</v>
-      </c>
-      <c r="M8" s="8">
-        <v>1</v>
-      </c>
-      <c r="N8" s="8">
-        <v>2</v>
-      </c>
-      <c r="O8" s="8">
-        <v>1</v>
-      </c>
-      <c r="P8" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="8">
-        <v>5</v>
-      </c>
-      <c r="R8" s="8">
-        <v>5</v>
-      </c>
-      <c r="S8" s="8">
+      <c r="B8" s="8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="7">
+        <v>2</v>
+      </c>
+      <c r="D8" s="7">
+        <v>3</v>
+      </c>
+      <c r="E8" s="7">
+        <v>2</v>
+      </c>
+      <c r="F8" s="7">
+        <v>2</v>
+      </c>
+      <c r="G8" s="7">
+        <v>1</v>
+      </c>
+      <c r="H8" s="7">
+        <v>1</v>
+      </c>
+      <c r="I8" s="7">
+        <v>1</v>
+      </c>
+      <c r="J8" s="7">
+        <v>1</v>
+      </c>
+      <c r="K8" s="7">
+        <v>1</v>
+      </c>
+      <c r="L8" s="7">
+        <v>1</v>
+      </c>
+      <c r="M8" s="7">
+        <v>1</v>
+      </c>
+      <c r="N8" s="7">
+        <v>2</v>
+      </c>
+      <c r="O8" s="7">
+        <v>1</v>
+      </c>
+      <c r="P8" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>5</v>
+      </c>
+      <c r="R8" s="7">
+        <v>5</v>
+      </c>
+      <c r="S8" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="8">
-        <v>1</v>
-      </c>
-      <c r="C9" s="8">
-        <v>2</v>
-      </c>
-      <c r="D9" s="8">
-        <v>4</v>
-      </c>
-      <c r="E9" s="8">
-        <v>2</v>
-      </c>
-      <c r="F9" s="8">
-        <v>2</v>
-      </c>
-      <c r="G9" s="8">
-        <v>1</v>
-      </c>
-      <c r="H9" s="8">
-        <v>1</v>
-      </c>
-      <c r="I9" s="8">
-        <v>1</v>
-      </c>
-      <c r="J9" s="8">
-        <v>1</v>
-      </c>
-      <c r="K9" s="8">
-        <v>1</v>
-      </c>
-      <c r="L9" s="8">
-        <v>1</v>
-      </c>
-      <c r="M9" s="8">
-        <v>1</v>
-      </c>
-      <c r="N9" s="8">
-        <v>2</v>
-      </c>
-      <c r="O9" s="8">
-        <v>1</v>
-      </c>
-      <c r="P9" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="8">
-        <v>5</v>
-      </c>
-      <c r="R9" s="8">
-        <v>5</v>
-      </c>
-      <c r="S9" s="8">
+      <c r="B9" s="7">
+        <v>1</v>
+      </c>
+      <c r="C9" s="7">
+        <v>2</v>
+      </c>
+      <c r="D9" s="7">
+        <v>4</v>
+      </c>
+      <c r="E9" s="7">
+        <v>2</v>
+      </c>
+      <c r="F9" s="7">
+        <v>2</v>
+      </c>
+      <c r="G9" s="7">
+        <v>1</v>
+      </c>
+      <c r="H9" s="7">
+        <v>1</v>
+      </c>
+      <c r="I9" s="7">
+        <v>1</v>
+      </c>
+      <c r="J9" s="7">
+        <v>1</v>
+      </c>
+      <c r="K9" s="7">
+        <v>1</v>
+      </c>
+      <c r="L9" s="7">
+        <v>1</v>
+      </c>
+      <c r="M9" s="7">
+        <v>1</v>
+      </c>
+      <c r="N9" s="7">
+        <v>2</v>
+      </c>
+      <c r="O9" s="7">
+        <v>1</v>
+      </c>
+      <c r="P9" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>5</v>
+      </c>
+      <c r="R9" s="7">
+        <v>5</v>
+      </c>
+      <c r="S9" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="8">
-        <v>5</v>
-      </c>
-      <c r="C10" s="8">
-        <v>5</v>
-      </c>
-      <c r="D10" s="8">
-        <v>4</v>
-      </c>
-      <c r="E10" s="8">
-        <v>5</v>
-      </c>
-      <c r="F10" s="8">
-        <v>4</v>
-      </c>
-      <c r="G10" s="8">
-        <v>1</v>
-      </c>
-      <c r="H10" s="8">
-        <v>1</v>
-      </c>
-      <c r="I10" s="8">
-        <v>4</v>
-      </c>
-      <c r="J10" s="8">
-        <v>1</v>
-      </c>
-      <c r="K10" s="8">
-        <v>4</v>
-      </c>
-      <c r="L10" s="8">
-        <v>4</v>
-      </c>
-      <c r="M10" s="8">
-        <v>5</v>
-      </c>
-      <c r="N10" s="8">
-        <v>5</v>
-      </c>
-      <c r="O10" s="8">
-        <v>5</v>
-      </c>
-      <c r="P10" s="8">
-        <v>5</v>
-      </c>
-      <c r="Q10" s="8">
-        <v>3</v>
-      </c>
-      <c r="R10" s="8">
-        <v>4</v>
-      </c>
-      <c r="S10" s="8">
+      <c r="B10" s="7">
+        <v>5</v>
+      </c>
+      <c r="C10" s="7">
+        <v>5</v>
+      </c>
+      <c r="D10" s="7">
+        <v>4</v>
+      </c>
+      <c r="E10" s="7">
+        <v>5</v>
+      </c>
+      <c r="F10" s="7">
+        <v>4</v>
+      </c>
+      <c r="G10" s="7">
+        <v>1</v>
+      </c>
+      <c r="H10" s="7">
+        <v>1</v>
+      </c>
+      <c r="I10" s="7">
+        <v>4</v>
+      </c>
+      <c r="J10" s="7">
+        <v>1</v>
+      </c>
+      <c r="K10" s="7">
+        <v>4</v>
+      </c>
+      <c r="L10" s="7">
+        <v>4</v>
+      </c>
+      <c r="M10" s="7">
+        <v>5</v>
+      </c>
+      <c r="N10" s="7">
+        <v>5</v>
+      </c>
+      <c r="O10" s="7">
+        <v>5</v>
+      </c>
+      <c r="P10" s="7">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>3</v>
+      </c>
+      <c r="R10" s="7">
+        <v>4</v>
+      </c>
+      <c r="S10" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="8">
-        <v>3</v>
-      </c>
-      <c r="C11" s="8">
-        <v>3</v>
-      </c>
-      <c r="D11" s="8">
-        <v>3</v>
-      </c>
-      <c r="E11" s="8">
-        <v>3</v>
-      </c>
-      <c r="F11" s="8">
-        <v>3</v>
-      </c>
-      <c r="G11" s="8">
-        <v>2</v>
-      </c>
-      <c r="H11" s="8">
-        <v>5</v>
-      </c>
-      <c r="I11" s="8">
-        <v>5</v>
-      </c>
-      <c r="J11" s="8">
-        <v>3</v>
-      </c>
-      <c r="K11" s="8">
-        <v>1</v>
-      </c>
-      <c r="L11" s="8">
-        <v>1</v>
-      </c>
-      <c r="M11" s="8">
-        <v>3</v>
-      </c>
-      <c r="N11" s="8">
-        <v>2</v>
-      </c>
-      <c r="O11" s="8">
-        <v>2</v>
-      </c>
-      <c r="P11" s="8">
-        <v>2</v>
-      </c>
-      <c r="Q11" s="8">
-        <v>4</v>
-      </c>
-      <c r="R11" s="8">
-        <v>2</v>
-      </c>
-      <c r="S11" s="8">
+      <c r="B11" s="7">
+        <v>3</v>
+      </c>
+      <c r="C11" s="7">
+        <v>3</v>
+      </c>
+      <c r="D11" s="7">
+        <v>3</v>
+      </c>
+      <c r="E11" s="7">
+        <v>3</v>
+      </c>
+      <c r="F11" s="7">
+        <v>3</v>
+      </c>
+      <c r="G11" s="7">
+        <v>2</v>
+      </c>
+      <c r="H11" s="7">
+        <v>5</v>
+      </c>
+      <c r="I11" s="7">
+        <v>5</v>
+      </c>
+      <c r="J11" s="7">
+        <v>3</v>
+      </c>
+      <c r="K11" s="7">
+        <v>1</v>
+      </c>
+      <c r="L11" s="7">
+        <v>1</v>
+      </c>
+      <c r="M11" s="7">
+        <v>3</v>
+      </c>
+      <c r="N11" s="7">
+        <v>2</v>
+      </c>
+      <c r="O11" s="7">
+        <v>2</v>
+      </c>
+      <c r="P11" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q11" s="7">
+        <v>4</v>
+      </c>
+      <c r="R11" s="7">
+        <v>2</v>
+      </c>
+      <c r="S11" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="8">
-        <v>5</v>
-      </c>
-      <c r="C12" s="8">
-        <v>3</v>
-      </c>
-      <c r="D12" s="8">
-        <v>2</v>
-      </c>
-      <c r="E12" s="8">
-        <v>3</v>
-      </c>
-      <c r="F12" s="8">
-        <v>2</v>
-      </c>
-      <c r="G12" s="8">
-        <v>4</v>
-      </c>
-      <c r="H12" s="8">
-        <v>5</v>
-      </c>
-      <c r="I12" s="8">
-        <v>5</v>
-      </c>
-      <c r="J12" s="8">
-        <v>3</v>
-      </c>
-      <c r="K12" s="8">
-        <v>3</v>
-      </c>
-      <c r="L12" s="8">
-        <v>2</v>
-      </c>
-      <c r="M12" s="8">
-        <v>5</v>
-      </c>
-      <c r="N12" s="8">
-        <v>4</v>
-      </c>
-      <c r="O12" s="8">
-        <v>5</v>
-      </c>
-      <c r="P12" s="8">
-        <v>4</v>
-      </c>
-      <c r="Q12" s="8">
-        <v>1</v>
-      </c>
-      <c r="R12" s="8">
-        <v>3</v>
-      </c>
-      <c r="S12" s="8">
+      <c r="B12" s="7">
+        <v>5</v>
+      </c>
+      <c r="C12" s="7">
+        <v>3</v>
+      </c>
+      <c r="D12" s="7">
+        <v>2</v>
+      </c>
+      <c r="E12" s="7">
+        <v>3</v>
+      </c>
+      <c r="F12" s="7">
+        <v>2</v>
+      </c>
+      <c r="G12" s="7">
+        <v>4</v>
+      </c>
+      <c r="H12" s="7">
+        <v>5</v>
+      </c>
+      <c r="I12" s="7">
+        <v>5</v>
+      </c>
+      <c r="J12" s="7">
+        <v>3</v>
+      </c>
+      <c r="K12" s="7">
+        <v>3</v>
+      </c>
+      <c r="L12" s="7">
+        <v>2</v>
+      </c>
+      <c r="M12" s="7">
+        <v>5</v>
+      </c>
+      <c r="N12" s="7">
+        <v>4</v>
+      </c>
+      <c r="O12" s="7">
+        <v>5</v>
+      </c>
+      <c r="P12" s="7">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="7">
+        <v>1</v>
+      </c>
+      <c r="R12" s="7">
+        <v>3</v>
+      </c>
+      <c r="S12" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="8">
-        <v>4</v>
-      </c>
-      <c r="C13" s="8">
-        <v>4</v>
-      </c>
-      <c r="D13" s="8">
-        <v>2</v>
-      </c>
-      <c r="E13" s="8">
-        <v>2</v>
-      </c>
-      <c r="F13" s="8">
-        <v>4</v>
-      </c>
-      <c r="G13" s="8">
-        <v>4</v>
-      </c>
-      <c r="H13" s="8">
-        <v>5</v>
-      </c>
-      <c r="I13" s="8">
-        <v>5</v>
-      </c>
-      <c r="J13" s="8">
-        <v>4</v>
-      </c>
-      <c r="K13" s="8">
-        <v>3</v>
-      </c>
-      <c r="L13" s="8">
-        <v>2</v>
-      </c>
-      <c r="M13" s="8">
-        <v>5</v>
-      </c>
-      <c r="N13" s="8">
-        <v>5</v>
-      </c>
-      <c r="O13" s="8">
-        <v>5</v>
-      </c>
-      <c r="P13" s="8">
-        <v>3</v>
-      </c>
-      <c r="Q13" s="8">
-        <v>3</v>
-      </c>
-      <c r="R13" s="8">
-        <v>3</v>
-      </c>
-      <c r="S13" s="8">
+      <c r="B13" s="7">
+        <v>4</v>
+      </c>
+      <c r="C13" s="7">
+        <v>4</v>
+      </c>
+      <c r="D13" s="7">
+        <v>2</v>
+      </c>
+      <c r="E13" s="7">
+        <v>2</v>
+      </c>
+      <c r="F13" s="7">
+        <v>4</v>
+      </c>
+      <c r="G13" s="7">
+        <v>4</v>
+      </c>
+      <c r="H13" s="7">
+        <v>5</v>
+      </c>
+      <c r="I13" s="7">
+        <v>5</v>
+      </c>
+      <c r="J13" s="7">
+        <v>4</v>
+      </c>
+      <c r="K13" s="7">
+        <v>3</v>
+      </c>
+      <c r="L13" s="7">
+        <v>2</v>
+      </c>
+      <c r="M13" s="7">
+        <v>5</v>
+      </c>
+      <c r="N13" s="7">
+        <v>5</v>
+      </c>
+      <c r="O13" s="7">
+        <v>5</v>
+      </c>
+      <c r="P13" s="7">
+        <v>3</v>
+      </c>
+      <c r="Q13" s="7">
+        <v>3</v>
+      </c>
+      <c r="R13" s="7">
+        <v>3</v>
+      </c>
+      <c r="S13" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="8">
-        <v>4</v>
-      </c>
-      <c r="C14" s="8">
-        <v>1</v>
-      </c>
-      <c r="D14" s="8">
-        <v>1</v>
-      </c>
-      <c r="E14" s="8">
-        <v>4</v>
-      </c>
-      <c r="F14" s="8">
-        <v>2</v>
-      </c>
-      <c r="G14" s="8">
-        <v>3</v>
-      </c>
-      <c r="H14" s="8">
-        <v>4</v>
-      </c>
-      <c r="I14" s="8">
-        <v>5</v>
-      </c>
-      <c r="J14" s="8">
-        <v>3</v>
-      </c>
-      <c r="K14" s="8">
-        <v>3</v>
-      </c>
-      <c r="L14" s="8">
-        <v>4</v>
-      </c>
-      <c r="M14" s="8">
-        <v>5</v>
-      </c>
-      <c r="N14" s="8">
-        <v>5</v>
-      </c>
-      <c r="O14" s="8">
-        <v>5</v>
-      </c>
-      <c r="P14" s="8">
-        <v>4</v>
-      </c>
-      <c r="Q14" s="8">
-        <v>1</v>
-      </c>
-      <c r="R14" s="8">
-        <v>1</v>
-      </c>
-      <c r="S14" s="8">
+      <c r="B14" s="7">
+        <v>4</v>
+      </c>
+      <c r="C14" s="7">
+        <v>1</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1</v>
+      </c>
+      <c r="E14" s="7">
+        <v>4</v>
+      </c>
+      <c r="F14" s="7">
+        <v>2</v>
+      </c>
+      <c r="G14" s="7">
+        <v>3</v>
+      </c>
+      <c r="H14" s="7">
+        <v>4</v>
+      </c>
+      <c r="I14" s="7">
+        <v>5</v>
+      </c>
+      <c r="J14" s="7">
+        <v>3</v>
+      </c>
+      <c r="K14" s="7">
+        <v>3</v>
+      </c>
+      <c r="L14" s="7">
+        <v>4</v>
+      </c>
+      <c r="M14" s="7">
+        <v>5</v>
+      </c>
+      <c r="N14" s="7">
+        <v>5</v>
+      </c>
+      <c r="O14" s="7">
+        <v>5</v>
+      </c>
+      <c r="P14" s="7">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="7">
+        <v>1</v>
+      </c>
+      <c r="R14" s="7">
+        <v>1</v>
+      </c>
+      <c r="S14" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="8">
-        <v>3</v>
-      </c>
-      <c r="C15" s="8">
-        <v>1</v>
-      </c>
-      <c r="D15" s="8">
-        <v>2</v>
-      </c>
-      <c r="E15" s="8">
-        <v>2</v>
-      </c>
-      <c r="F15" s="8">
-        <v>1</v>
-      </c>
-      <c r="G15" s="8">
-        <v>1</v>
-      </c>
-      <c r="H15" s="8">
-        <v>1</v>
-      </c>
-      <c r="I15" s="8">
-        <v>2</v>
-      </c>
-      <c r="J15" s="8">
-        <v>1</v>
-      </c>
-      <c r="K15" s="8">
-        <v>1</v>
-      </c>
-      <c r="L15" s="8">
-        <v>1</v>
-      </c>
-      <c r="M15" s="8">
-        <v>4</v>
-      </c>
-      <c r="N15" s="8">
-        <v>3</v>
-      </c>
-      <c r="O15" s="8">
-        <v>4</v>
-      </c>
-      <c r="P15" s="8">
-        <v>4</v>
-      </c>
-      <c r="Q15" s="8">
-        <v>2</v>
-      </c>
-      <c r="R15" s="8">
-        <v>2</v>
-      </c>
-      <c r="S15" s="8">
+      <c r="B15" s="7">
+        <v>3</v>
+      </c>
+      <c r="C15" s="7">
+        <v>1</v>
+      </c>
+      <c r="D15" s="7">
+        <v>2</v>
+      </c>
+      <c r="E15" s="7">
+        <v>2</v>
+      </c>
+      <c r="F15" s="7">
+        <v>1</v>
+      </c>
+      <c r="G15" s="7">
+        <v>1</v>
+      </c>
+      <c r="H15" s="7">
+        <v>1</v>
+      </c>
+      <c r="I15" s="7">
+        <v>2</v>
+      </c>
+      <c r="J15" s="7">
+        <v>1</v>
+      </c>
+      <c r="K15" s="7">
+        <v>1</v>
+      </c>
+      <c r="L15" s="7">
+        <v>1</v>
+      </c>
+      <c r="M15" s="7">
+        <v>4</v>
+      </c>
+      <c r="N15" s="7">
+        <v>3</v>
+      </c>
+      <c r="O15" s="7">
+        <v>4</v>
+      </c>
+      <c r="P15" s="7">
+        <v>4</v>
+      </c>
+      <c r="Q15" s="7">
+        <v>2</v>
+      </c>
+      <c r="R15" s="7">
+        <v>2</v>
+      </c>
+      <c r="S15" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="8">
-        <v>4</v>
-      </c>
-      <c r="C16" s="8">
-        <v>4</v>
-      </c>
-      <c r="D16" s="8">
-        <v>4</v>
-      </c>
-      <c r="E16" s="8">
-        <v>5</v>
-      </c>
-      <c r="F16" s="8">
-        <v>4</v>
-      </c>
-      <c r="G16" s="8">
-        <v>1</v>
-      </c>
-      <c r="H16" s="8">
-        <v>1</v>
-      </c>
-      <c r="I16" s="8">
-        <v>4</v>
-      </c>
-      <c r="J16" s="8">
-        <v>1</v>
-      </c>
-      <c r="K16" s="8">
-        <v>4</v>
-      </c>
-      <c r="L16" s="8">
-        <v>4</v>
-      </c>
-      <c r="M16" s="8">
-        <v>5</v>
-      </c>
-      <c r="N16" s="8">
-        <v>5</v>
-      </c>
-      <c r="O16" s="8">
-        <v>5</v>
-      </c>
-      <c r="P16" s="8">
-        <v>5</v>
-      </c>
-      <c r="Q16" s="8">
-        <v>1</v>
-      </c>
-      <c r="R16" s="8">
-        <v>5</v>
-      </c>
-      <c r="S16" s="8">
+      <c r="B16" s="7">
+        <v>4</v>
+      </c>
+      <c r="C16" s="7">
+        <v>4</v>
+      </c>
+      <c r="D16" s="7">
+        <v>4</v>
+      </c>
+      <c r="E16" s="7">
+        <v>5</v>
+      </c>
+      <c r="F16" s="7">
+        <v>4</v>
+      </c>
+      <c r="G16" s="7">
+        <v>1</v>
+      </c>
+      <c r="H16" s="7">
+        <v>1</v>
+      </c>
+      <c r="I16" s="7">
+        <v>4</v>
+      </c>
+      <c r="J16" s="7">
+        <v>1</v>
+      </c>
+      <c r="K16" s="7">
+        <v>4</v>
+      </c>
+      <c r="L16" s="7">
+        <v>4</v>
+      </c>
+      <c r="M16" s="7">
+        <v>5</v>
+      </c>
+      <c r="N16" s="7">
+        <v>5</v>
+      </c>
+      <c r="O16" s="7">
+        <v>5</v>
+      </c>
+      <c r="P16" s="7">
+        <v>5</v>
+      </c>
+      <c r="Q16" s="7">
+        <v>1</v>
+      </c>
+      <c r="R16" s="7">
+        <v>5</v>
+      </c>
+      <c r="S16" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="8">
-        <v>3</v>
-      </c>
-      <c r="C17" s="8">
-        <v>3</v>
-      </c>
-      <c r="D17" s="8">
-        <v>3</v>
-      </c>
-      <c r="E17" s="8">
-        <v>4</v>
-      </c>
-      <c r="F17" s="8">
-        <v>3</v>
-      </c>
-      <c r="G17" s="8">
-        <v>4</v>
-      </c>
-      <c r="H17" s="8">
-        <v>1</v>
-      </c>
-      <c r="I17" s="8">
-        <v>1</v>
-      </c>
-      <c r="J17" s="8">
-        <v>1</v>
-      </c>
-      <c r="K17" s="8">
-        <v>1</v>
-      </c>
-      <c r="L17" s="8">
-        <v>1</v>
-      </c>
-      <c r="M17" s="8">
-        <v>5</v>
-      </c>
-      <c r="N17" s="8">
-        <v>5</v>
-      </c>
-      <c r="O17" s="8">
-        <v>4</v>
-      </c>
-      <c r="P17" s="8">
-        <v>3</v>
-      </c>
-      <c r="Q17" s="8">
-        <v>1</v>
-      </c>
-      <c r="R17" s="8">
-        <v>1</v>
-      </c>
-      <c r="S17" s="8">
+      <c r="A17" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" s="7">
+        <v>3</v>
+      </c>
+      <c r="C17" s="7">
+        <v>3</v>
+      </c>
+      <c r="D17" s="7">
+        <v>3</v>
+      </c>
+      <c r="E17" s="7">
+        <v>4</v>
+      </c>
+      <c r="F17" s="7">
+        <v>3</v>
+      </c>
+      <c r="G17" s="7">
+        <v>4</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1</v>
+      </c>
+      <c r="I17" s="7">
+        <v>1</v>
+      </c>
+      <c r="J17" s="7">
+        <v>1</v>
+      </c>
+      <c r="K17" s="7">
+        <v>1</v>
+      </c>
+      <c r="L17" s="7">
+        <v>1</v>
+      </c>
+      <c r="M17" s="7">
+        <v>5</v>
+      </c>
+      <c r="N17" s="7">
+        <v>5</v>
+      </c>
+      <c r="O17" s="7">
+        <v>4</v>
+      </c>
+      <c r="P17" s="7">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="7">
+        <v>1</v>
+      </c>
+      <c r="R17" s="7">
+        <v>1</v>
+      </c>
+      <c r="S17" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="8">
-        <v>5</v>
-      </c>
-      <c r="C18" s="8">
-        <v>3</v>
-      </c>
-      <c r="D18" s="8">
-        <v>2</v>
-      </c>
-      <c r="E18" s="8">
-        <v>3</v>
-      </c>
-      <c r="F18" s="8">
-        <v>2</v>
-      </c>
-      <c r="G18" s="8">
-        <v>2</v>
-      </c>
-      <c r="H18" s="8">
-        <v>2</v>
-      </c>
-      <c r="I18" s="8">
-        <v>2</v>
-      </c>
-      <c r="J18" s="8">
-        <v>2</v>
-      </c>
-      <c r="K18" s="8">
-        <v>2</v>
-      </c>
-      <c r="L18" s="8">
-        <v>2</v>
-      </c>
-      <c r="M18" s="8">
-        <v>3</v>
-      </c>
-      <c r="N18" s="8">
-        <v>3</v>
-      </c>
-      <c r="O18" s="8">
-        <v>3</v>
-      </c>
-      <c r="P18" s="8">
-        <v>3</v>
-      </c>
-      <c r="Q18" s="8">
-        <v>4</v>
-      </c>
-      <c r="R18" s="8">
-        <v>5</v>
-      </c>
-      <c r="S18" s="8">
+      <c r="B18" s="7">
+        <v>5</v>
+      </c>
+      <c r="C18" s="7">
+        <v>3</v>
+      </c>
+      <c r="D18" s="7">
+        <v>2</v>
+      </c>
+      <c r="E18" s="7">
+        <v>3</v>
+      </c>
+      <c r="F18" s="7">
+        <v>2</v>
+      </c>
+      <c r="G18" s="7">
+        <v>2</v>
+      </c>
+      <c r="H18" s="7">
+        <v>2</v>
+      </c>
+      <c r="I18" s="7">
+        <v>2</v>
+      </c>
+      <c r="J18" s="7">
+        <v>2</v>
+      </c>
+      <c r="K18" s="7">
+        <v>2</v>
+      </c>
+      <c r="L18" s="7">
+        <v>2</v>
+      </c>
+      <c r="M18" s="7">
+        <v>3</v>
+      </c>
+      <c r="N18" s="7">
+        <v>3</v>
+      </c>
+      <c r="O18" s="7">
+        <v>3</v>
+      </c>
+      <c r="P18" s="7">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="7">
+        <v>4</v>
+      </c>
+      <c r="R18" s="7">
+        <v>5</v>
+      </c>
+      <c r="S18" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="8">
-        <v>3</v>
-      </c>
-      <c r="C19" s="8">
-        <v>1</v>
-      </c>
-      <c r="D19" s="8">
-        <v>2</v>
-      </c>
-      <c r="E19" s="8">
-        <v>3</v>
-      </c>
-      <c r="F19" s="8">
-        <v>2</v>
-      </c>
-      <c r="G19" s="8">
-        <v>2</v>
-      </c>
-      <c r="H19" s="8">
-        <v>2</v>
-      </c>
-      <c r="I19" s="8">
-        <v>3</v>
-      </c>
-      <c r="J19" s="8">
-        <v>1</v>
-      </c>
-      <c r="K19" s="8">
-        <v>1</v>
-      </c>
-      <c r="L19" s="8">
-        <v>1</v>
-      </c>
-      <c r="M19" s="8">
-        <v>5</v>
-      </c>
-      <c r="N19" s="8">
-        <v>3</v>
-      </c>
-      <c r="O19" s="8">
-        <v>4</v>
-      </c>
-      <c r="P19" s="8">
-        <v>3</v>
-      </c>
-      <c r="Q19" s="8">
-        <v>4</v>
-      </c>
-      <c r="R19" s="8">
-        <v>4</v>
-      </c>
-      <c r="S19" s="8">
+      <c r="A19" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="B19" s="7">
+        <v>3</v>
+      </c>
+      <c r="C19" s="7">
+        <v>1</v>
+      </c>
+      <c r="D19" s="7">
+        <v>2</v>
+      </c>
+      <c r="E19" s="7">
+        <v>3</v>
+      </c>
+      <c r="F19" s="7">
+        <v>2</v>
+      </c>
+      <c r="G19" s="7">
+        <v>2</v>
+      </c>
+      <c r="H19" s="7">
+        <v>2</v>
+      </c>
+      <c r="I19" s="7">
+        <v>3</v>
+      </c>
+      <c r="J19" s="7">
+        <v>1</v>
+      </c>
+      <c r="K19" s="7">
+        <v>1</v>
+      </c>
+      <c r="L19" s="7">
+        <v>1</v>
+      </c>
+      <c r="M19" s="7">
+        <v>5</v>
+      </c>
+      <c r="N19" s="7">
+        <v>3</v>
+      </c>
+      <c r="O19" s="7">
+        <v>4</v>
+      </c>
+      <c r="P19" s="7">
+        <v>3</v>
+      </c>
+      <c r="Q19" s="7">
+        <v>4</v>
+      </c>
+      <c r="R19" s="7">
+        <v>4</v>
+      </c>
+      <c r="S19" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="8">
-        <v>5</v>
-      </c>
-      <c r="C20" s="8">
-        <v>4</v>
-      </c>
-      <c r="D20" s="8">
-        <v>3</v>
-      </c>
-      <c r="E20" s="8">
-        <v>3</v>
-      </c>
-      <c r="F20" s="8">
-        <v>3</v>
-      </c>
-      <c r="G20" s="8">
-        <v>3</v>
-      </c>
-      <c r="H20" s="8">
-        <v>5</v>
-      </c>
-      <c r="I20" s="8">
-        <v>5</v>
-      </c>
-      <c r="J20" s="8">
-        <v>3</v>
-      </c>
-      <c r="K20" s="8">
-        <v>3</v>
-      </c>
-      <c r="L20" s="8">
-        <v>3</v>
-      </c>
-      <c r="M20" s="8">
-        <v>5</v>
-      </c>
-      <c r="N20" s="8">
-        <v>4</v>
-      </c>
-      <c r="O20" s="8">
-        <v>5</v>
-      </c>
-      <c r="P20" s="8">
-        <v>5</v>
-      </c>
-      <c r="Q20" s="8">
-        <v>3</v>
-      </c>
-      <c r="R20" s="8">
-        <v>3</v>
-      </c>
-      <c r="S20" s="8">
+      <c r="A20" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="B20" s="7">
+        <v>5</v>
+      </c>
+      <c r="C20" s="7">
+        <v>4</v>
+      </c>
+      <c r="D20" s="7">
+        <v>3</v>
+      </c>
+      <c r="E20" s="7">
+        <v>3</v>
+      </c>
+      <c r="F20" s="7">
+        <v>3</v>
+      </c>
+      <c r="G20" s="7">
+        <v>3</v>
+      </c>
+      <c r="H20" s="7">
+        <v>5</v>
+      </c>
+      <c r="I20" s="7">
+        <v>5</v>
+      </c>
+      <c r="J20" s="7">
+        <v>3</v>
+      </c>
+      <c r="K20" s="7">
+        <v>3</v>
+      </c>
+      <c r="L20" s="7">
+        <v>3</v>
+      </c>
+      <c r="M20" s="7">
+        <v>5</v>
+      </c>
+      <c r="N20" s="7">
+        <v>4</v>
+      </c>
+      <c r="O20" s="7">
+        <v>5</v>
+      </c>
+      <c r="P20" s="7">
+        <v>5</v>
+      </c>
+      <c r="Q20" s="7">
+        <v>3</v>
+      </c>
+      <c r="R20" s="7">
+        <v>3</v>
+      </c>
+      <c r="S20" s="7">
         <v>1</v>
       </c>
     </row>
@@ -2097,7 +2335,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -2106,7 +2344,7 @@
     <col min="1" max="1" width="24" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="11.1640625" customWidth="1"/>
-    <col min="4" max="4" width="17.1640625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" style="10" customWidth="1"/>
     <col min="5" max="5" width="9.83203125" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
     <col min="7" max="7" width="1.6640625" customWidth="1"/>
@@ -2114,34 +2352,34 @@
     <col min="9" max="9" width="42.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="6" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:9" s="5" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="13" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:9" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
         <v>26</v>
       </c>
       <c r="B2" s="3" cm="1">
@@ -2153,7 +2391,7 @@
         <f>IFERROR(10*SUM(INDEX(Weights!$B$2:$ZZ$20,0,MATCH($A2,Weights!$B$1:$ZZ$1,0))),0)</f>
         <v>610</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="12">
         <f t="shared" ref="D2:D19" si="0">IF(C2&gt;0,B2/C2,0)</f>
         <v>0.49508196721311476</v>
       </c>
@@ -2165,7 +2403,7 @@
         <f>IFERROR(SUMPRODUCT((--Inputs!$B$2:$B$20&lt;=3)*(--(Weights!$B$2:$S$20)&gt;=4)*(TRIM(SUBSTITUTE(Weights!$B$1:$S$1,CHAR(160)," "))=TRIM(SUBSTITUTE($A2,CHAR(160)," ")))),"")</f>
         <v>3</v>
       </c>
-      <c r="H2" s="6" t="str" cm="1">
+      <c r="H2" s="5" t="str" cm="1">
         <f t="array" ref="H2">IFERROR(
    _xlfn.TEXTJOIN(", ",TRUE,
       _xlfn._xlws.FILTER(Weights!$A$2:$A$20,
@@ -2176,7 +2414,7 @@
 "")</f>
         <v>Customer Service &amp; Sales, Schedule Flexibility, Social Personality</v>
       </c>
-      <c r="I2" s="6" t="str" cm="1">
+      <c r="I2" s="5" t="str" cm="1">
         <f t="array" ref="I2">IFERROR(
    _xlfn.TEXTJOIN(", ",TRUE,
       _xlfn._xlws.FILTER(Weights!$A$2:$A$20,
@@ -2188,8 +2426,8 @@
         <v>Proximity to Customers, Product Diversity, Floral Design</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:9" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
         <v>27</v>
       </c>
       <c r="B3" s="3" cm="1">
@@ -2201,7 +2439,7 @@
         <f>IFERROR(10*SUM(INDEX(Weights!$B$2:$ZZ$20,0,MATCH($A3,Weights!$B$1:$ZZ$1,0))),0)</f>
         <v>550</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="12">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
@@ -2213,7 +2451,7 @@
         <f>IFERROR(SUMPRODUCT((--Inputs!$B$2:$B$20&lt;=3)*(--(Weights!$B$2:$S$20)&gt;=4)*(TRIM(SUBSTITUTE(Weights!$B$1:$S$1,CHAR(160)," "))=TRIM(SUBSTITUTE($A3,CHAR(160)," ")))),"")</f>
         <v>2</v>
       </c>
-      <c r="H3" s="6" t="str" cm="1">
+      <c r="H3" s="5" t="str" cm="1">
         <f t="array" ref="H3">IFERROR(
    _xlfn.TEXTJOIN(", ",TRUE,
       _xlfn._xlws.FILTER(Weights!$A$2:$A$20,
@@ -2224,7 +2462,7 @@
 "")</f>
         <v>Customer Service &amp; Sales, Personal Connections</v>
       </c>
-      <c r="I3" s="6" t="str" cm="1">
+      <c r="I3" s="5" t="str" cm="1">
         <f t="array" ref="I3">IFERROR(
    _xlfn.TEXTJOIN(", ",TRUE,
       _xlfn._xlws.FILTER(Weights!$A$2:$A$20,
@@ -2237,7 +2475,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B4" s="3" cm="1">
@@ -2249,7 +2487,7 @@
         <f>IFERROR(10*SUM(INDEX(Weights!$B$2:$ZZ$20,0,MATCH($A4,Weights!$B$1:$ZZ$1,0))),0)</f>
         <v>560</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="12">
         <f t="shared" si="0"/>
         <v>0.52142857142857146</v>
       </c>
@@ -2261,7 +2499,7 @@
         <f>IFERROR(SUMPRODUCT((--Inputs!$B$2:$B$20&lt;=3)*(--(Weights!$B$2:$S$20)&gt;=4)*(TRIM(SUBSTITUTE(Weights!$B$1:$S$1,CHAR(160)," "))=TRIM(SUBSTITUTE($A4,CHAR(160)," ")))),"")</f>
         <v>1</v>
       </c>
-      <c r="H4" s="6" t="str" cm="1">
+      <c r="H4" s="5" t="str" cm="1">
         <f t="array" ref="H4">IFERROR(
    _xlfn.TEXTJOIN(", ",TRUE,
       _xlfn._xlws.FILTER(Weights!$A$2:$A$20,
@@ -2272,7 +2510,7 @@
 "")</f>
         <v>Personal Connections</v>
       </c>
-      <c r="I4" s="6" t="str" cm="1">
+      <c r="I4" s="5" t="str" cm="1">
         <f t="array" ref="I4">IFERROR(
    _xlfn.TEXTJOIN(", ",TRUE,
       _xlfn._xlws.FILTER(Weights!$A$2:$A$20,
@@ -2284,8 +2522,8 @@
         <v>Proximity to Customers, Product Diversity, Floral Design</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:9" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
         <v>29</v>
       </c>
       <c r="B5" s="3" cm="1">
@@ -2297,7 +2535,7 @@
         <f>IFERROR(10*SUM(INDEX(Weights!$B$2:$ZZ$20,0,MATCH($A5,Weights!$B$1:$ZZ$1,0))),0)</f>
         <v>590</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="12">
         <f t="shared" si="0"/>
         <v>0.50169491525423726</v>
       </c>
@@ -2309,7 +2547,7 @@
         <f>IFERROR(SUMPRODUCT((--Inputs!$B$2:$B$20&lt;=3)*(--(Weights!$B$2:$S$20)&gt;=4)*(TRIM(SUBSTITUTE(Weights!$B$1:$S$1,CHAR(160)," "))=TRIM(SUBSTITUTE($A5,CHAR(160)," ")))),"")</f>
         <v>2</v>
       </c>
-      <c r="H5" s="6" t="str" cm="1">
+      <c r="H5" s="5" t="str" cm="1">
         <f t="array" ref="H5">IFERROR(
    _xlfn.TEXTJOIN(", ",TRUE,
       _xlfn._xlws.FILTER(Weights!$A$2:$A$20,
@@ -2320,7 +2558,7 @@
 "")</f>
         <v>Customer Service &amp; Sales, Schedule Flexibility</v>
       </c>
-      <c r="I5" s="6" t="str" cm="1">
+      <c r="I5" s="5" t="str" cm="1">
         <f t="array" ref="I5">IFERROR(
    _xlfn.TEXTJOIN(", ",TRUE,
       _xlfn._xlws.FILTER(Weights!$A$2:$A$20,
@@ -2329,11 +2567,11 @@
       )
    ),
 "")</f>
-        <v>Proximity to Customers, Product Diversity, Floral Design, Color Comprehension and Accuracy</v>
+        <v>Proximity to Customers, Product Diversity, Floral Design, Color Comprehension &amp; Accuracy</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>30</v>
       </c>
       <c r="B6" s="3" cm="1">
@@ -2345,7 +2583,7 @@
         <f>IFERROR(10*SUM(INDEX(Weights!$B$2:$ZZ$20,0,MATCH($A6,Weights!$B$1:$ZZ$1,0))),0)</f>
         <v>490</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="12">
         <f t="shared" si="0"/>
         <v>0.50408163265306127</v>
       </c>
@@ -2357,7 +2595,7 @@
         <f>IFERROR(SUMPRODUCT((--Inputs!$B$2:$B$20&lt;=3)*(--(Weights!$B$2:$S$20)&gt;=4)*(TRIM(SUBSTITUTE(Weights!$B$1:$S$1,CHAR(160)," "))=TRIM(SUBSTITUTE($A6,CHAR(160)," ")))),"")</f>
         <v>0</v>
       </c>
-      <c r="H6" s="6" t="str" cm="1">
+      <c r="H6" s="5" t="str" cm="1">
         <f t="array" ref="H6">IFERROR(
    _xlfn.TEXTJOIN(", ",TRUE,
       _xlfn._xlws.FILTER(Weights!$A$2:$A$20,
@@ -2368,7 +2606,7 @@
 "")</f>
         <v/>
       </c>
-      <c r="I6" s="6" t="str" cm="1">
+      <c r="I6" s="5" t="str" cm="1">
         <f t="array" ref="I6">IFERROR(
    _xlfn.TEXTJOIN(", ",TRUE,
       _xlfn._xlws.FILTER(Weights!$A$2:$A$20,
@@ -2381,7 +2619,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="11" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="3" cm="1">
@@ -2393,7 +2631,7 @@
         <f>IFERROR(10*SUM(INDEX(Weights!$B$2:$ZZ$20,0,MATCH($A7,Weights!$B$1:$ZZ$1,0))),0)</f>
         <v>390</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="12">
         <f t="shared" si="0"/>
         <v>0.49487179487179489</v>
       </c>
@@ -2405,7 +2643,7 @@
         <f>IFERROR(SUMPRODUCT((--Inputs!$B$2:$B$20&lt;=3)*(--(Weights!$B$2:$S$20)&gt;=4)*(TRIM(SUBSTITUTE(Weights!$B$1:$S$1,CHAR(160)," "))=TRIM(SUBSTITUTE($A7,CHAR(160)," ")))),"")</f>
         <v>0</v>
       </c>
-      <c r="H7" s="6" t="str" cm="1">
+      <c r="H7" s="5" t="str" cm="1">
         <f t="array" ref="H7">IFERROR(
    _xlfn.TEXTJOIN(", ",TRUE,
       _xlfn._xlws.FILTER(Weights!$A$2:$A$20,
@@ -2416,7 +2654,7 @@
 "")</f>
         <v/>
       </c>
-      <c r="I7" s="6" t="str" cm="1">
+      <c r="I7" s="5" t="str" cm="1">
         <f t="array" ref="I7">IFERROR(
    _xlfn.TEXTJOIN(", ",TRUE,
       _xlfn._xlws.FILTER(Weights!$A$2:$A$20,
@@ -2425,11 +2663,11 @@
       )
    ),
 "")</f>
-        <v>Color Comprehension and Accuracy</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
+        <v>Color Comprehension &amp; Accuracy</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
         <v>32</v>
       </c>
       <c r="B8" s="3" cm="1">
@@ -2441,19 +2679,19 @@
         <f>IFERROR(10*SUM(INDEX(Weights!$B$2:$ZZ$20,0,MATCH($A8,Weights!$B$1:$ZZ$1,0))),0)</f>
         <v>430</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="12">
         <f t="shared" si="0"/>
         <v>0.4697674418604651</v>
       </c>
-      <c r="E8" s="15" t="str">
+      <c r="E8" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Stretch</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="3">
         <f>IFERROR(SUMPRODUCT((--Inputs!$B$2:$B$20&lt;=3)*(--(Weights!$B$2:$S$20)&gt;=4)*(TRIM(SUBSTITUTE(Weights!$B$1:$S$1,CHAR(160)," "))=TRIM(SUBSTITUTE($A8,CHAR(160)," ")))),"")</f>
         <v>1</v>
       </c>
-      <c r="H8" s="6" t="str" cm="1">
+      <c r="H8" s="5" t="str" cm="1">
         <f t="array" ref="H8">IFERROR(
    _xlfn.TEXTJOIN(", ",TRUE,
       _xlfn._xlws.FILTER(Weights!$A$2:$A$20,
@@ -2464,7 +2702,7 @@
 "")</f>
         <v>Schedule Flexibility</v>
       </c>
-      <c r="I8" s="6" t="str" cm="1">
+      <c r="I8" s="5" t="str" cm="1">
         <f t="array" ref="I8">IFERROR(
    _xlfn.TEXTJOIN(", ",TRUE,
       _xlfn._xlws.FILTER(Weights!$A$2:$A$20,
@@ -2476,8 +2714,8 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
+    <row r="9" spans="1:9" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B9" s="3" cm="1">
@@ -2489,19 +2727,19 @@
         <f>IFERROR(10*SUM(INDEX(Weights!$B$2:$ZZ$20,0,MATCH($A9,Weights!$B$1:$ZZ$1,0))),0)</f>
         <v>520</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="12">
         <f t="shared" si="0"/>
         <v>0.50384615384615383</v>
       </c>
-      <c r="E9" s="15" t="str">
+      <c r="E9" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Could Work</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="3">
         <f>IFERROR(SUMPRODUCT((--Inputs!$B$2:$B$20&lt;=3)*(--(Weights!$B$2:$S$20)&gt;=4)*(TRIM(SUBSTITUTE(Weights!$B$1:$S$1,CHAR(160)," "))=TRIM(SUBSTITUTE($A9,CHAR(160)," ")))),"")</f>
         <v>1</v>
       </c>
-      <c r="H9" s="6" t="str" cm="1">
+      <c r="H9" s="5" t="str" cm="1">
         <f t="array" ref="H9">IFERROR(
    _xlfn.TEXTJOIN(", ",TRUE,
       _xlfn._xlws.FILTER(Weights!$A$2:$A$20,
@@ -2512,7 +2750,7 @@
 "")</f>
         <v>Schedule Flexibility</v>
       </c>
-      <c r="I9" s="6" t="str" cm="1">
+      <c r="I9" s="5" t="str" cm="1">
         <f t="array" ref="I9">IFERROR(
    _xlfn.TEXTJOIN(", ",TRUE,
       _xlfn._xlws.FILTER(Weights!$A$2:$A$20,
@@ -2525,7 +2763,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="11" t="s">
         <v>34</v>
       </c>
       <c r="B10" s="3" cm="1">
@@ -2537,7 +2775,7 @@
         <f>IFERROR(10*SUM(INDEX(Weights!$B$2:$ZZ$20,0,MATCH($A10,Weights!$B$1:$ZZ$1,0))),0)</f>
         <v>360</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="12">
         <f t="shared" si="0"/>
         <v>0.46666666666666667</v>
       </c>
@@ -2549,7 +2787,7 @@
         <f>IFERROR(SUMPRODUCT((--Inputs!$B$2:$B$20&lt;=3)*(--(Weights!$B$2:$S$20)&gt;=4)*(TRIM(SUBSTITUTE(Weights!$B$1:$S$1,CHAR(160)," "))=TRIM(SUBSTITUTE($A10,CHAR(160)," ")))),"")</f>
         <v>0</v>
       </c>
-      <c r="H10" s="6" t="str" cm="1">
+      <c r="H10" s="5" t="str" cm="1">
         <f t="array" ref="H10">IFERROR(
    _xlfn.TEXTJOIN(", ",TRUE,
       _xlfn._xlws.FILTER(Weights!$A$2:$A$20,
@@ -2560,7 +2798,7 @@
 "")</f>
         <v/>
       </c>
-      <c r="I10" s="6" t="str" cm="1">
+      <c r="I10" s="5" t="str" cm="1">
         <f t="array" ref="I10">IFERROR(
    _xlfn.TEXTJOIN(", ",TRUE,
       _xlfn._xlws.FILTER(Weights!$A$2:$A$20,
@@ -2573,7 +2811,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="11" t="s">
         <v>35</v>
       </c>
       <c r="B11" s="3" cm="1">
@@ -2585,7 +2823,7 @@
         <f>IFERROR(10*SUM(INDEX(Weights!$B$2:$ZZ$20,0,MATCH($A11,Weights!$B$1:$ZZ$1,0))),0)</f>
         <v>430</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="12">
         <f t="shared" si="0"/>
         <v>0.50930232558139532</v>
       </c>
@@ -2597,7 +2835,7 @@
         <f>IFERROR(SUMPRODUCT((--Inputs!$B$2:$B$20&lt;=3)*(--(Weights!$B$2:$S$20)&gt;=4)*(TRIM(SUBSTITUTE(Weights!$B$1:$S$1,CHAR(160)," "))=TRIM(SUBSTITUTE($A11,CHAR(160)," ")))),"")</f>
         <v>1</v>
       </c>
-      <c r="H11" s="6" t="str" cm="1">
+      <c r="H11" s="5" t="str" cm="1">
         <f t="array" ref="H11">IFERROR(
    _xlfn.TEXTJOIN(", ",TRUE,
       _xlfn._xlws.FILTER(Weights!$A$2:$A$20,
@@ -2608,7 +2846,7 @@
 "")</f>
         <v>Professional Network</v>
       </c>
-      <c r="I11" s="6" t="str" cm="1">
+      <c r="I11" s="5" t="str" cm="1">
         <f t="array" ref="I11">IFERROR(
    _xlfn.TEXTJOIN(", ",TRUE,
       _xlfn._xlws.FILTER(Weights!$A$2:$A$20,
@@ -2620,8 +2858,8 @@
         <v>Proximity to Customers, Product Diversity, Floral Design</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
+    <row r="12" spans="1:9" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A12" s="11" t="s">
         <v>36</v>
       </c>
       <c r="B12" s="3" cm="1">
@@ -2633,7 +2871,7 @@
         <f>IFERROR(10*SUM(INDEX(Weights!$B$2:$ZZ$20,0,MATCH($A12,Weights!$B$1:$ZZ$1,0))),0)</f>
         <v>430</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="12">
         <f t="shared" si="0"/>
         <v>0.50697674418604655</v>
       </c>
@@ -2645,7 +2883,7 @@
         <f>IFERROR(SUMPRODUCT((--Inputs!$B$2:$B$20&lt;=3)*(--(Weights!$B$2:$S$20)&gt;=4)*(TRIM(SUBSTITUTE(Weights!$B$1:$S$1,CHAR(160)," "))=TRIM(SUBSTITUTE($A12,CHAR(160)," ")))),"")</f>
         <v>2</v>
       </c>
-      <c r="H12" s="6" t="str" cm="1">
+      <c r="H12" s="5" t="str" cm="1">
         <f t="array" ref="H12">IFERROR(
    _xlfn.TEXTJOIN(", ",TRUE,
       _xlfn._xlws.FILTER(Weights!$A$2:$A$20,
@@ -2656,7 +2894,7 @@
 "")</f>
         <v>Professional Network, Schedule Flexibility</v>
       </c>
-      <c r="I12" s="6" t="str" cm="1">
+      <c r="I12" s="5" t="str" cm="1">
         <f t="array" ref="I12">IFERROR(
    _xlfn.TEXTJOIN(", ",TRUE,
       _xlfn._xlws.FILTER(Weights!$A$2:$A$20,
@@ -2668,8 +2906,8 @@
         <v>Proximity to Customers, Product Diversity, Floral Design</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="3" customFormat="1" ht="80" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
+    <row r="13" spans="1:9" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A13" s="11" t="s">
         <v>37</v>
       </c>
       <c r="B13" s="3" cm="1">
@@ -2681,7 +2919,7 @@
         <f>IFERROR(10*SUM(INDEX(Weights!$B$2:$ZZ$20,0,MATCH($A13,Weights!$B$1:$ZZ$1,0))),0)</f>
         <v>700</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="12">
         <f t="shared" si="0"/>
         <v>0.49428571428571427</v>
       </c>
@@ -2693,7 +2931,7 @@
         <f>IFERROR(SUMPRODUCT((--Inputs!$B$2:$B$20&lt;=3)*(--(Weights!$B$2:$S$20)&gt;=4)*(TRIM(SUBSTITUTE(Weights!$B$1:$S$1,CHAR(160)," "))=TRIM(SUBSTITUTE($A13,CHAR(160)," ")))),"")</f>
         <v>3</v>
       </c>
-      <c r="H13" s="6" t="str" cm="1">
+      <c r="H13" s="5" t="str" cm="1">
         <f t="array" ref="H13">IFERROR(
    _xlfn.TEXTJOIN(", ",TRUE,
       _xlfn._xlws.FILTER(Weights!$A$2:$A$20,
@@ -2702,9 +2940,9 @@
       )
    ),
 "")</f>
-        <v>Customer Service &amp; Sales, Schedule Flexibility, Stress and Risk Tolerance</v>
-      </c>
-      <c r="I13" s="6" t="str" cm="1">
+        <v>Customer Service &amp; Sales, Schedule Flexibility, Stress &amp; Risk Tolerance</v>
+      </c>
+      <c r="I13" s="5" t="str" cm="1">
         <f t="array" ref="I13">IFERROR(
    _xlfn.TEXTJOIN(", ",TRUE,
       _xlfn._xlws.FILTER(Weights!$A$2:$A$20,
@@ -2713,11 +2951,11 @@
       )
    ),
 "")</f>
-        <v>Product Diversity, Floral Design, Color Comprehension and Accuracy</v>
+        <v>Product Diversity, Floral Design, Color Comprehension &amp; Accuracy</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="11" t="s">
         <v>38</v>
       </c>
       <c r="B14" s="3" cm="1">
@@ -2729,19 +2967,19 @@
         <f>IFERROR(10*SUM(INDEX(Weights!$B$2:$ZZ$20,0,MATCH($A14,Weights!$B$1:$ZZ$1,0))),0)</f>
         <v>640</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="12">
         <f t="shared" si="0"/>
         <v>0.50937500000000002</v>
       </c>
-      <c r="E14" s="15" t="str">
+      <c r="E14" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Could Work</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F14" s="3">
         <f>IFERROR(SUMPRODUCT((--Inputs!$B$2:$B$20&lt;=3)*(--(Weights!$B$2:$S$20)&gt;=4)*(TRIM(SUBSTITUTE(Weights!$B$1:$S$1,CHAR(160)," "))=TRIM(SUBSTITUTE($A14,CHAR(160)," ")))),"")</f>
         <v>1</v>
       </c>
-      <c r="H14" s="6" t="str" cm="1">
+      <c r="H14" s="5" t="str" cm="1">
         <f t="array" ref="H14">IFERROR(
    _xlfn.TEXTJOIN(", ",TRUE,
       _xlfn._xlws.FILTER(Weights!$A$2:$A$20,
@@ -2752,7 +2990,7 @@
 "")</f>
         <v>Schedule Flexibility</v>
       </c>
-      <c r="I14" s="6" t="str" cm="1">
+      <c r="I14" s="5" t="str" cm="1">
         <f t="array" ref="I14">IFERROR(
    _xlfn.TEXTJOIN(", ",TRUE,
       _xlfn._xlws.FILTER(Weights!$A$2:$A$20,
@@ -2761,11 +2999,11 @@
       )
    ),
 "")</f>
-        <v>Product Diversity, Floral Design, Color Comprehension and Accuracy</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" s="3" customFormat="1" ht="128" x14ac:dyDescent="0.2">
-      <c r="A15" s="12" t="s">
+        <v>Product Diversity, Floral Design, Color Comprehension &amp; Accuracy</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A15" s="11" t="s">
         <v>39</v>
       </c>
       <c r="B15" s="3" cm="1">
@@ -2777,7 +3015,7 @@
         <f>IFERROR(10*SUM(INDEX(Weights!$B$2:$ZZ$20,0,MATCH($A15,Weights!$B$1:$ZZ$1,0))),0)</f>
         <v>660</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="12">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
@@ -2789,7 +3027,7 @@
         <f>IFERROR(SUMPRODUCT((--Inputs!$B$2:$B$20&lt;=3)*(--(Weights!$B$2:$S$20)&gt;=4)*(TRIM(SUBSTITUTE(Weights!$B$1:$S$1,CHAR(160)," "))=TRIM(SUBSTITUTE($A15,CHAR(160)," ")))),"")</f>
         <v>4</v>
       </c>
-      <c r="H15" s="6" t="str" cm="1">
+      <c r="H15" s="5" t="str" cm="1">
         <f t="array" ref="H15">IFERROR(
    _xlfn.TEXTJOIN(", ",TRUE,
       _xlfn._xlws.FILTER(Weights!$A$2:$A$20,
@@ -2798,9 +3036,9 @@
       )
    ),
 "")</f>
-        <v>Customer Service &amp; Sales, Professional Network, Schedule Flexibility, Stress and Risk Tolerance</v>
-      </c>
-      <c r="I15" s="6" t="str" cm="1">
+        <v>Customer Service &amp; Sales, Professional Network, Schedule Flexibility, Stress &amp; Risk Tolerance</v>
+      </c>
+      <c r="I15" s="5" t="str" cm="1">
         <f t="array" ref="I15">IFERROR(
    _xlfn.TEXTJOIN(", ",TRUE,
       _xlfn._xlws.FILTER(Weights!$A$2:$A$20,
@@ -2809,11 +3047,11 @@
       )
    ),
 "")</f>
-        <v>Product Diversity, Floral Design, Color Comprehension and Accuracy</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A16" s="12" t="s">
+        <v>Product Diversity, Floral Design, Color Comprehension &amp; Accuracy</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A16" s="11" t="s">
         <v>40</v>
       </c>
       <c r="B16" s="3" cm="1">
@@ -2825,7 +3063,7 @@
         <f>IFERROR(10*SUM(INDEX(Weights!$B$2:$ZZ$20,0,MATCH($A16,Weights!$B$1:$ZZ$1,0))),0)</f>
         <v>590</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="12">
         <f t="shared" si="0"/>
         <v>0.51186440677966105</v>
       </c>
@@ -2837,7 +3075,7 @@
         <f>IFERROR(SUMPRODUCT((--Inputs!$B$2:$B$20&lt;=3)*(--(Weights!$B$2:$S$20)&gt;=4)*(TRIM(SUBSTITUTE(Weights!$B$1:$S$1,CHAR(160)," "))=TRIM(SUBSTITUTE($A16,CHAR(160)," ")))),"")</f>
         <v>2</v>
       </c>
-      <c r="H16" s="6" t="str" cm="1">
+      <c r="H16" s="5" t="str" cm="1">
         <f t="array" ref="H16">IFERROR(
    _xlfn.TEXTJOIN(", ",TRUE,
       _xlfn._xlws.FILTER(Weights!$A$2:$A$20,
@@ -2848,7 +3086,7 @@
 "")</f>
         <v>Professional Network, Schedule Flexibility</v>
       </c>
-      <c r="I16" s="6" t="str" cm="1">
+      <c r="I16" s="5" t="str" cm="1">
         <f t="array" ref="I16">IFERROR(
    _xlfn.TEXTJOIN(", ",TRUE,
       _xlfn._xlws.FILTER(Weights!$A$2:$A$20,
@@ -2860,8 +3098,8 @@
         <v>Proximity to Customers, Product Diversity, Floral Design</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="3" customFormat="1" ht="112" x14ac:dyDescent="0.2">
-      <c r="A17" s="12" t="s">
+    <row r="17" spans="1:9" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A17" s="11" t="s">
         <v>41</v>
       </c>
       <c r="B17" s="3" cm="1">
@@ -2873,7 +3111,7 @@
         <f>IFERROR(10*SUM(INDEX(Weights!$B$2:$ZZ$20,0,MATCH($A17,Weights!$B$1:$ZZ$1,0))),0)</f>
         <v>590</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="12">
         <f t="shared" si="0"/>
         <v>0.43728813559322033</v>
       </c>
@@ -2885,7 +3123,7 @@
         <f>IFERROR(SUMPRODUCT((--Inputs!$B$2:$B$20&lt;=3)*(--(Weights!$B$2:$S$20)&gt;=4)*(TRIM(SUBSTITUTE(Weights!$B$1:$S$1,CHAR(160)," "))=TRIM(SUBSTITUTE($A17,CHAR(160)," ")))),"")</f>
         <v>4</v>
       </c>
-      <c r="H17" s="6" t="str" cm="1">
+      <c r="H17" s="5" t="str" cm="1">
         <f t="array" ref="H17">IFERROR(
    _xlfn.TEXTJOIN(", ",TRUE,
       _xlfn._xlws.FILTER(Weights!$A$2:$A$20,
@@ -2894,9 +3132,9 @@
       )
    ),
 "")</f>
-        <v>Customer Service &amp; Sales, Customer-Friendly Amenities, Social Personality, Stress and Risk Tolerance</v>
-      </c>
-      <c r="I17" s="6" t="str" cm="1">
+        <v>Customer Service &amp; Sales, Customer-Friendly Amenities, Social Personality, Stress &amp; Risk Tolerance</v>
+      </c>
+      <c r="I17" s="5" t="str" cm="1">
         <f t="array" ref="I17">IFERROR(
    _xlfn.TEXTJOIN(", ",TRUE,
       _xlfn._xlws.FILTER(Weights!$A$2:$A$20,
@@ -2908,8 +3146,8 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:9" s="3" customFormat="1" ht="112" x14ac:dyDescent="0.2">
-      <c r="A18" s="12" t="s">
+    <row r="18" spans="1:9" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A18" s="11" t="s">
         <v>42</v>
       </c>
       <c r="B18" s="3" cm="1">
@@ -2921,7 +3159,7 @@
         <f>IFERROR(10*SUM(INDEX(Weights!$B$2:$ZZ$20,0,MATCH($A18,Weights!$B$1:$ZZ$1,0))),0)</f>
         <v>650</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="12">
         <f t="shared" si="0"/>
         <v>0.47076923076923077</v>
       </c>
@@ -2933,7 +3171,7 @@
         <f>IFERROR(SUMPRODUCT((--Inputs!$B$2:$B$20&lt;=3)*(--(Weights!$B$2:$S$20)&gt;=4)*(TRIM(SUBSTITUTE(Weights!$B$1:$S$1,CHAR(160)," "))=TRIM(SUBSTITUTE($A18,CHAR(160)," ")))),"")</f>
         <v>4</v>
       </c>
-      <c r="H18" s="6" t="str" cm="1">
+      <c r="H18" s="5" t="str" cm="1">
         <f t="array" ref="H18">IFERROR(
    _xlfn.TEXTJOIN(", ",TRUE,
       _xlfn._xlws.FILTER(Weights!$A$2:$A$20,
@@ -2942,9 +3180,9 @@
       )
    ),
 "")</f>
-        <v>Customer Service &amp; Sales, Customer-Friendly Amenities, Social Personality, Stress and Risk Tolerance</v>
-      </c>
-      <c r="I18" s="6" t="str" cm="1">
+        <v>Customer Service &amp; Sales, Customer-Friendly Amenities, Social Personality, Stress &amp; Risk Tolerance</v>
+      </c>
+      <c r="I18" s="5" t="str" cm="1">
         <f t="array" ref="I18">IFERROR(
    _xlfn.TEXTJOIN(", ",TRUE,
       _xlfn._xlws.FILTER(Weights!$A$2:$A$20,
@@ -2956,8 +3194,8 @@
         <v>Product Diversity, Floral Design</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="3" customFormat="1" ht="80" x14ac:dyDescent="0.2">
-      <c r="A19" s="12" t="s">
+    <row r="19" spans="1:9" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A19" s="11" t="s">
         <v>43</v>
       </c>
       <c r="B19" s="3" cm="1">
@@ -2969,7 +3207,7 @@
         <f>IFERROR(10*SUM(INDEX(Weights!$B$2:$ZZ$20,0,MATCH($A19,Weights!$B$1:$ZZ$1,0))),0)</f>
         <v>470</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="12">
         <f t="shared" si="0"/>
         <v>0.46382978723404256</v>
       </c>
@@ -2981,7 +3219,7 @@
         <f>IFERROR(SUMPRODUCT((--Inputs!$B$2:$B$20&lt;=3)*(--(Weights!$B$2:$S$20)&gt;=4)*(TRIM(SUBSTITUTE(Weights!$B$1:$S$1,CHAR(160)," "))=TRIM(SUBSTITUTE($A19,CHAR(160)," ")))),"")</f>
         <v>2</v>
       </c>
-      <c r="H19" s="6" t="str" cm="1">
+      <c r="H19" s="5" t="str" cm="1">
         <f t="array" ref="H19">IFERROR(
    _xlfn.TEXTJOIN(", ",TRUE,
       _xlfn._xlws.FILTER(Weights!$A$2:$A$20,
@@ -2990,9 +3228,9 @@
       )
    ),
 "")</f>
-        <v>Customer-Friendly Amenities, Stress and Risk Tolerance</v>
-      </c>
-      <c r="I19" s="6" t="str" cm="1">
+        <v>Customer-Friendly Amenities, Stress &amp; Risk Tolerance</v>
+      </c>
+      <c r="I19" s="5" t="str" cm="1">
         <f t="array" ref="I19">IFERROR(
    _xlfn.TEXTJOIN(", ",TRUE,
       _xlfn._xlws.FILTER(Weights!$A$2:$A$20,
@@ -3010,6 +3248,511 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{843472F9-263E-924A-9F9A-DC61CDC4480E}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29.6640625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="85.1640625" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A4" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A5" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4685398-D085-6B47-BDBF-4D7FCE78162F}">
+  <dimension ref="A1:F20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="30.83203125" style="14" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" style="15" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="32.5" style="16" customWidth="1"/>
+    <col min="5" max="6" width="10.83203125" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="96" x14ac:dyDescent="0.2">
+      <c r="A2" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="144" x14ac:dyDescent="0.2">
+      <c r="A3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="80" x14ac:dyDescent="0.2">
+      <c r="A4" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="80" x14ac:dyDescent="0.2">
+      <c r="A5" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="96" x14ac:dyDescent="0.2">
+      <c r="A6" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="96" x14ac:dyDescent="0.2">
+      <c r="A7" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A8" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="80" x14ac:dyDescent="0.2">
+      <c r="A9" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A10" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="96" x14ac:dyDescent="0.2">
+      <c r="A11" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="96" x14ac:dyDescent="0.2">
+      <c r="A12" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="80" x14ac:dyDescent="0.2">
+      <c r="A13" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="128" x14ac:dyDescent="0.2">
+      <c r="A14" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="80" x14ac:dyDescent="0.2">
+      <c r="A15" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="160" x14ac:dyDescent="0.2">
+      <c r="A16" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="96" x14ac:dyDescent="0.2">
+      <c r="A17" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A18" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="96" x14ac:dyDescent="0.2">
+      <c r="A19" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="96" x14ac:dyDescent="0.2">
+      <c r="A20" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
@@ -3183,7 +3926,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>

--- a/Extreme_Weighting_Scoring_Prototype_for_FormWise_REPAIRED.xlsx
+++ b/Extreme_Weighting_Scoring_Prototype_for_FormWise_REPAIRED.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sharon/Downloads/rsc-app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF2C9306-E1D5-9D44-A323-613055F73A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D00F2D-483C-5848-8D15-C09C7E6F2EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="24820" windowHeight="21900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="24820" windowHeight="21900" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Factors" sheetId="8" r:id="rId6"/>
     <sheet name="Snippets" sheetId="5" r:id="rId7"/>
     <sheet name="Results" sheetId="6" r:id="rId8"/>
+    <sheet name="Narratives" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1381" uniqueCount="251">
   <si>
     <t>Section</t>
   </si>
@@ -456,6 +457,369 @@
   </si>
   <si>
     <t>Your natural tendencies, preferences, and decision-making style shape how you run your business. Knowing yourself helps you build a business that feels sustainable and enjoyable, not draining.</t>
+  </si>
+  <si>
+    <t>Farmers Markets</t>
+  </si>
+  <si>
+    <t>Farm Stand / Farm Shop</t>
+  </si>
+  <si>
+    <t>Made-to-Order Designs</t>
+  </si>
+  <si>
+    <t>Bulk Sales to the Public</t>
+  </si>
+  <si>
+    <t>Wholesaling to Florists</t>
+  </si>
+  <si>
+    <t>Wholesaling to Wholesalers</t>
+  </si>
+  <si>
+    <t>Wholesaling to Grocery Stores</t>
+  </si>
+  <si>
+    <t>Wholesaling via a Collective</t>
+  </si>
+  <si>
+    <t>Selling as a Stockist</t>
+  </si>
+  <si>
+    <t>Selling on Consignment</t>
+  </si>
+  <si>
+    <t>Full-Service Weddings</t>
+  </si>
+  <si>
+    <t>À La Carte Weddings</t>
+  </si>
+  <si>
+    <t>Community and Corporate Events</t>
+  </si>
+  <si>
+    <t>Hotel and Restaurant Contracts</t>
+  </si>
+  <si>
+    <t>Pick-Your-Own Events</t>
+  </si>
+  <si>
+    <t>Photography Venue</t>
+  </si>
+  <si>
+    <t>channel_name</t>
+  </si>
+  <si>
+    <t>channel_group</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>strength_blurb</t>
+  </si>
+  <si>
+    <t>weakness_blurb</t>
+  </si>
+  <si>
+    <t>weighting_reason</t>
+  </si>
+  <si>
+    <t>Direct-to-Consumer Sales</t>
+  </si>
+  <si>
+    <t>Wholesale</t>
+  </si>
+  <si>
+    <t>Design and Event Services</t>
+  </si>
+  <si>
+    <t>Interactive Events</t>
+  </si>
+  <si>
+    <t>Your strong customer service skills mean you’ll thrive at markets, where friendly interaction and repeat relationships are what keep customers coming back week after week.</t>
+  </si>
+  <si>
+    <t>Farmers Markets are built on direct interactions — chatting with shoppers, building loyalty, and standing out from the crowd. Success depends heavily on your ability to connect and sell face-to-face.</t>
+  </si>
+  <si>
+    <t>Without strong sales and people skills, it’s easy to get overlooked in a busy market. Customers may gravitate toward vendors who are more engaging or approachable.</t>
+  </si>
+  <si>
+    <t>Being close to your market makes it easier to transport flowers, keep them fresh, and build a loyal base of repeat customers.</t>
+  </si>
+  <si>
+    <t>If you’re far from a good market, long drives and time on the road eat into profits and cut into time on the farm.</t>
+  </si>
+  <si>
+    <t>Markets require weekly participation and fresh product; proximity to a strong customer base is a key driver of profitability and efficiency.</t>
+  </si>
+  <si>
+    <t>Without enough variety, it’s hard to build mixed bouquets, which farmers market customers tend to place a high value on.</t>
+  </si>
+  <si>
+    <t>Having a wide range of flowers means you can create the abundant mixed bouquets that customers expect at market, and your stand will look full and appealing.</t>
+  </si>
+  <si>
+    <t>Mixed bouquets are almost a requirement at farmers markets, and doing them well depends on having diverse ingredients to work with.</t>
+  </si>
+  <si>
+    <t>A lack of infrastructure makes your life a lot harder and--worst case--leads to wilted flowers, chaotic setup, and unnecessary stress before customers even arrive.</t>
+  </si>
+  <si>
+    <t>With solid infrastructure like coolers, tents, and ways to transport flowers safely, you’ll arrive prepared and be able to offer the freshest possible flowers.</t>
+  </si>
+  <si>
+    <t>The logistics of transporting, storing, and displaying flowers weekly are demanding; without infrastructure, quality and presentation suffer.</t>
+  </si>
+  <si>
+    <t>A consistent presence at market is critical to building loyal customers. When shoppers know you’ll be there every week with abundant flowers, they’ll seek out your booth instead of buying from the first vendor they see.</t>
+  </si>
+  <si>
+    <t>Careful crop planning and succession planting keep harvests steady, ensuring you have abundant stems every week to fill buckets and build market bouquets.</t>
+  </si>
+  <si>
+    <t>Without strong planning and successions, harvests may come in flushes, leaving you short on product some weeks and unable to meet customer demand.</t>
+  </si>
+  <si>
+    <t>If the market’s schedule conflicts with immovable commitments (like kids’ activities), showing up consistently will be difficult or impossible.</t>
+  </si>
+  <si>
+    <t>Having flexibility in your schedule that matches the market’s rhythm — including harvest, bouquet prep, and the market itself — makes it easier to commit week after week.</t>
+  </si>
+  <si>
+    <t>Farmers markets run on fixed days and times, and success depends on aligning your farm work and personal life to that schedule.</t>
+  </si>
+  <si>
+    <t>Mixed bouquets are the core market product at farmers markets; design skill is directly tied to your ability to attract customers to your booth and keep them coming back.</t>
+  </si>
+  <si>
+    <t>Without solid design skills, your mixed bouquets may look awkward or less professional, making it harder to compete with other vendors.</t>
+  </si>
+  <si>
+    <t>Strong design skills help you build mixed bouquets that are beautiful, balanced, and irresistible on the market table.</t>
+  </si>
+  <si>
+    <t>An outgoing, approachable personality helps you connect with customers, build loyalty, and create a welcoming booth atmosphere.</t>
+  </si>
+  <si>
+    <t>If social interaction drains you, markets may feel exhausting and hinder your ability to engage with buyers.</t>
+  </si>
+  <si>
+    <t>Markets are social by nature — success often depends as much on your presence and demeanor as on the flowers themselves.</t>
+  </si>
+  <si>
+    <t>trong organization and time management let you juggle harvesting, bouquet-making, and market prep without burning out — and ensure you arrive on time, fully prepared, and set up before the crowds arrive.</t>
+  </si>
+  <si>
+    <t>Poor organization can make market days chaotic — forgotten supplies, rushed prep, or late arrival. At many markets, arriving late can even mean losing your spot or being barred from setting up.</t>
+  </si>
+  <si>
+    <t>Farmers markets place firm demands on punctuality and preparedness. With immovable weekly deadlines, only growers with solid time management can consistently show up ready and on time.</t>
+  </si>
+  <si>
+    <t>Unlike a farmers market, subscriptions require you to drive sign-ups yourself. Marketing is essential for attracting customers.</t>
+  </si>
+  <si>
+    <t>Good marketing skills can help you attract new subscribers, highlight the value of your bouquets, and keep your subscriber list full.</t>
+  </si>
+  <si>
+    <t>Without strong marketing capabilities, your subscriber list may stay small or fail to grow.</t>
+  </si>
+  <si>
+    <t>Leveraging personal networks makes it easier to find your first subscribers, as friends, colleagues, and local contacts are often the earliest supporters.</t>
+  </si>
+  <si>
+    <t>Without strong personal connections, launching a subscription can be slow, as it’s harder to build momentum and trust at the start.</t>
+  </si>
+  <si>
+    <t>Many subscription programs start small and grow by word of mouth. A farmer’s existing relationships often determine how quickly a subscriber list fills.</t>
+  </si>
+  <si>
+    <t>Subscriptions depend on regular, reliable fulfillment; proximity to customer helps keep delivery costs manageable.</t>
+  </si>
+  <si>
+    <t>Being close to your delivery route or pickup locations makes it easier to keep deliveries efficient.</t>
+  </si>
+  <si>
+    <t>If customers are spread out, long drives can add costs, stress, and even the risk of wilted flowers.</t>
+  </si>
+  <si>
+    <t>Subscriptions are a promise; predictability underpins the entire model, reducing the likelihood that you have to cancel or reschedule your promised product.</t>
+  </si>
+  <si>
+    <t>A diversity of flower types lets you create interesting, abundant mixed bouquets that keep subscribers excited week after week.</t>
+  </si>
+  <si>
+    <t>Without enough variety of floral ingredients, mixed bouquets can look lackluster and lead to subscriber drop-offs.</t>
+  </si>
+  <si>
+    <t>Subscriptions generally rely heavily on mixed bouquets. To do them well, you need a steady flow of diverse ingredients across the season.</t>
+  </si>
+  <si>
+    <t>Strong planning and succession planting ensure you always have enough stems to fulfill weekly commitments without scrambling.</t>
+  </si>
+  <si>
+    <t>Without reliable production, you risk gaps in your ability to produce bouquets on-schedule. Even when customers are understanding, the extra time spent managing cancellations, rescheduling, and notifications eats into both your profits and your focus.</t>
+  </si>
+  <si>
+    <t>Good design skills keep mixed bouquets looking polished and exciting, even with the same core crops from week to week.</t>
+  </si>
+  <si>
+    <t>Subscription customers are buying your bouquets sight-unseen, and so are placing trust in your ability to create beautiful bouquets week after week.</t>
+  </si>
+  <si>
+    <t>Weak designs can make bouquets feel repetitive or amateur, which may lead subscribers to question the value of continuing.</t>
+  </si>
+  <si>
+    <t>Strong time management means you can harvest, design, and deliver on schedule every week.</t>
+  </si>
+  <si>
+    <t>Poor organization makes subscription weeks stressful and increases the risk of mistakes like late deliveries or missed bouquets.</t>
+  </si>
+  <si>
+    <t>Subscriptions impose fixed weekly deadlines, often with little flexibility. Organization and time discipline are crucial for consistent fulfillment.</t>
+  </si>
+  <si>
+    <t>Subscriptions live or die on customer trust. Clear communication, quick responses, and problem-solving are essential for long-term retention.</t>
+  </si>
+  <si>
+    <t>Without attentive service, small issues like a missed bouquet or unclear pickup instructions can lead to cancellations.</t>
+  </si>
+  <si>
+    <t>Strong customer service skills help you handle delivery issues, substitutions, and questions smoothly, keeping subscribers happy and loyal.</t>
+  </si>
+  <si>
+    <t>Unlike a farmers market that provides built-in traffic, a farm stand depends on your ability to attract visitors to your location.</t>
+  </si>
+  <si>
+    <t>Without marketing, even a well-stocked stand can sit empty if people don’t know it’s there.</t>
+  </si>
+  <si>
+    <t>Strong marketing helps bring customers to your stand, whether through signs, social media, or community word-of-mouth.</t>
+  </si>
+  <si>
+    <t>Tapping into your personal and community networks helps you build a steady stream of visitors, especially in the early days of your stand.</t>
+  </si>
+  <si>
+    <t>Without personal connections, it may take much longer to establish a loyal base of regular customers.</t>
+  </si>
+  <si>
+    <t>Farm stands often thrive on local familiarity and relationships; strong community ties can drive repeat business.</t>
+  </si>
+  <si>
+    <t>Being close to a population center makes it easier for customers to stop by your stand as part of their daily routine.</t>
+  </si>
+  <si>
+    <t>If you’re far from customers, only the most motivated will make the trip, which limits traffic and sales.</t>
+  </si>
+  <si>
+    <t>Farm stands require people to come to you; distance from your customer base is a critical factor in success.</t>
+  </si>
+  <si>
+    <t>An attractive location with welcoming displays makes customers want to stop, browse, and buy.</t>
+  </si>
+  <si>
+    <t>If the farm or surroundings look unkempt or uninviting, customers may pass by without stopping.</t>
+  </si>
+  <si>
+    <t>With farm stands, the farm itself is part of the customer’s shopping experience — the look and feel of the space directly influences sales.</t>
+  </si>
+  <si>
+    <t>Operating in an area with minimal red tape lets you sell freely without heavy oversight or costly permits.</t>
+  </si>
+  <si>
+    <t>If local regulations are strict, you may face barriers like zoning restrictions or complicated permits to operate.</t>
+  </si>
+  <si>
+    <t>Farm stands are highly dependent on local laws and ordinances; prohibitive regulations can make them a non-starter.</t>
+  </si>
+  <si>
+    <t>Thoughtful design turns your flowers into irresistible bouquets, encouraging impulse buys and repeat purchases.</t>
+  </si>
+  <si>
+    <t>Weak design can make flowers feel less appealing, lowering the perceived value of what you’re selling.</t>
+  </si>
+  <si>
+    <t>Bouquets are often the most eye-catching product at a stand; strong design increases both sales and customer satisfaction.</t>
+  </si>
+  <si>
+    <t>A diversity of flower types gives you the ingredients you need to make abundant, eye-catching mixed bouquets that keep your stand looking full and appealing.</t>
+  </si>
+  <si>
+    <t>Mixed bouquets are the core product at many farm stands, and doing them well depends on having diverse ingredients available throughout the season.</t>
+  </si>
+  <si>
+    <t>Without enough floral varieties to use as ingredients, it’s hard to build beautiful mixed bouquets.</t>
+  </si>
+  <si>
+    <t>Made-to-order bouquets depend on clear communication and follow-through; customer service is key to meeting expectations.</t>
+  </si>
+  <si>
+    <t>Without attentive service, you risk miscommunications or disappointed customers when designs don’t match what they envisioned.</t>
+  </si>
+  <si>
+    <t>Strong customer service skills help you listen well, understand customer preferences, and deliver designs that meet expectations.</t>
+  </si>
+  <si>
+    <t>Unlike sales at a market or shop, where you have automatic visibility to potential customers, made-to-order design work requires you to actively generate demand.</t>
+  </si>
+  <si>
+    <t>Without strong marketing, customers won't know your farm exists.</t>
+  </si>
+  <si>
+    <t>Good marketing helps you communicate the advantages you are able to offer when compared to traditional retail florists.</t>
+  </si>
+  <si>
+    <t>If customers are far away, travel time and logistics add cost and complexity to each order.</t>
+  </si>
+  <si>
+    <t>Being near your customer base makes deliveries far easier and lowers delivery costs. It also makes it much more appealing for customers to come pick up their order from the farm.</t>
+  </si>
+  <si>
+    <t>Proximity supports both customer service and product quality; long distances can erode profitability, especially for one-off orders.</t>
+  </si>
+  <si>
+    <t>A diverse selection of flowers gives you the flexibility to design for different tastes, occasions, and price points.</t>
+  </si>
+  <si>
+    <t>Without enough variety, you’ll struggle to create custom looks, and customers may turn elsewhere for specific colors or styles.</t>
+  </si>
+  <si>
+    <t>Made-to-order designs require flexibility; diversity in ingredients is essential to meeting varied customer requests.</t>
+  </si>
+  <si>
+    <t>Strong design skills allow you to translate customer input into polished, professional offerings.</t>
+  </si>
+  <si>
+    <t>Weak design skills can leave customers disappointed and unlikely to order from you again.</t>
+  </si>
+  <si>
+    <t>Design ability is the core of made-to-order work; customers are paying for artistry and expertise, not just stems.</t>
+  </si>
+  <si>
+    <t>Customers often prioritize color in custom work, as they are often seeking flowers for a specific person or event. Being able to understand and deliver on their requests is key.</t>
+  </si>
+  <si>
+    <t>Without color skill, you may miss the mark on a customer’s request, leaving them disappointed if the bouquet doesn’t suit the occasion.</t>
+  </si>
+  <si>
+    <t>A good eye for color allows you to match palettes to customer requests and create bouquets that feel intentional and special.</t>
+  </si>
+  <si>
+    <t>Made-to-order bouquets are usually for a particular day or event; success depends on aligning your workflow with the customer’s timing.</t>
+  </si>
+  <si>
+    <t>If your schedule can’t adapt to customer needs, you may have to turn down orders or risk missing critical deadlines.</t>
+  </si>
+  <si>
+    <t>Flexibility in your schedule makes it easier to accommodate customer requests tied to specific days, such as birthdays, anniversaries, or events.</t>
+  </si>
+  <si>
+    <t>Bulk flower sales don’t have built-in traffic; customers need to discover your offerings through word-of-mouth, social media, or ads.</t>
+  </si>
+  <si>
+    <t>Without marketing, potential customers may not even know bulk buckets are an option, limiting sales.</t>
   </si>
 </sst>
 </file>
@@ -557,7 +921,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -612,6 +976,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1139,8 +1515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1150,58 +1526,58 @@
   <sheetData>
     <row r="1" spans="1:19" s="2" customFormat="1" ht="67" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="4" t="s">
-        <v>26</v>
+        <v>130</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>28</v>
+        <v>131</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>29</v>
+        <v>132</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>30</v>
+        <v>133</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>31</v>
+        <v>134</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>32</v>
+        <v>135</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>33</v>
+        <v>136</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>34</v>
+        <v>137</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>35</v>
+        <v>138</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>36</v>
+        <v>139</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>37</v>
+        <v>140</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>38</v>
+        <v>141</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>39</v>
+        <v>142</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>40</v>
+        <v>143</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>41</v>
+        <v>144</v>
       </c>
       <c r="R1" s="4" t="s">
         <v>42</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>43</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
@@ -1799,7 +2175,7 @@
         <v>17</v>
       </c>
       <c r="B12" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12" s="7">
         <v>3</v>
@@ -2198,7 +2574,7 @@
         <v>3</v>
       </c>
       <c r="Q18" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R18" s="7">
         <v>5</v>
@@ -2385,15 +2761,15 @@
       <c r="B2" s="3" cm="1">
         <f t="array" ref="B2">IFERROR(SUMPRODUCT(--Inputs!$B$2:$B$20,
  --INDEX(Weights!$B$2:$ZZ$20,0,MATCH($A2,Weights!$B$1:$ZZ$1,0))),0)</f>
-        <v>302</v>
+        <v>0</v>
       </c>
       <c r="C2" s="3">
         <f>IFERROR(10*SUM(INDEX(Weights!$B$2:$ZZ$20,0,MATCH($A2,Weights!$B$1:$ZZ$1,0))),0)</f>
-        <v>610</v>
+        <v>0</v>
       </c>
       <c r="D2" s="12">
         <f t="shared" ref="D2:D19" si="0">IF(C2&gt;0,B2/C2,0)</f>
-        <v>0.49508196721311476</v>
+        <v>0</v>
       </c>
       <c r="E2" s="3" t="str">
         <f>IF(D2&gt;=0.65,"Strong Fit",IF(D2&gt;=0.5,"Could Work","Stretch"))</f>
@@ -2401,7 +2777,7 @@
       </c>
       <c r="F2" s="3">
         <f>IFERROR(SUMPRODUCT((--Inputs!$B$2:$B$20&lt;=3)*(--(Weights!$B$2:$S$20)&gt;=4)*(TRIM(SUBSTITUTE(Weights!$B$1:$S$1,CHAR(160)," "))=TRIM(SUBSTITUTE($A2,CHAR(160)," ")))),"")</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H2" s="5" t="str" cm="1">
         <f t="array" ref="H2">IFERROR(
@@ -2412,7 +2788,7 @@
       )
    ),
 "")</f>
-        <v>Customer Service &amp; Sales, Schedule Flexibility, Social Personality</v>
+        <v/>
       </c>
       <c r="I2" s="5" t="str" cm="1">
         <f t="array" ref="I2">IFERROR(
@@ -2423,7 +2799,7 @@
       )
    ),
 "")</f>
-        <v>Proximity to Customers, Product Diversity, Floral Design</v>
+        <v/>
       </c>
     </row>
     <row r="3" spans="1:9" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
@@ -2481,23 +2857,23 @@
       <c r="B4" s="3" cm="1">
         <f t="array" ref="B4">IFERROR(SUMPRODUCT(--Inputs!$B$2:$B$20,
  --INDEX(Weights!$B$2:$ZZ$20,0,MATCH($A4,Weights!$B$1:$ZZ$1,0))),0)</f>
-        <v>292</v>
+        <v>0</v>
       </c>
       <c r="C4" s="3">
         <f>IFERROR(10*SUM(INDEX(Weights!$B$2:$ZZ$20,0,MATCH($A4,Weights!$B$1:$ZZ$1,0))),0)</f>
-        <v>560</v>
+        <v>0</v>
       </c>
       <c r="D4" s="12">
         <f t="shared" si="0"/>
-        <v>0.52142857142857146</v>
+        <v>0</v>
       </c>
       <c r="E4" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Could Work</v>
+        <v>Stretch</v>
       </c>
       <c r="F4" s="3">
         <f>IFERROR(SUMPRODUCT((--Inputs!$B$2:$B$20&lt;=3)*(--(Weights!$B$2:$S$20)&gt;=4)*(TRIM(SUBSTITUTE(Weights!$B$1:$S$1,CHAR(160)," "))=TRIM(SUBSTITUTE($A4,CHAR(160)," ")))),"")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" s="5" t="str" cm="1">
         <f t="array" ref="H4">IFERROR(
@@ -2508,7 +2884,7 @@
       )
    ),
 "")</f>
-        <v>Personal Connections</v>
+        <v/>
       </c>
       <c r="I4" s="5" t="str" cm="1">
         <f t="array" ref="I4">IFERROR(
@@ -2519,7 +2895,7 @@
       )
    ),
 "")</f>
-        <v>Proximity to Customers, Product Diversity, Floral Design</v>
+        <v/>
       </c>
     </row>
     <row r="5" spans="1:9" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
@@ -2529,23 +2905,23 @@
       <c r="B5" s="3" cm="1">
         <f t="array" ref="B5">IFERROR(SUMPRODUCT(--Inputs!$B$2:$B$20,
  --INDEX(Weights!$B$2:$ZZ$20,0,MATCH($A5,Weights!$B$1:$ZZ$1,0))),0)</f>
-        <v>296</v>
+        <v>0</v>
       </c>
       <c r="C5" s="3">
         <f>IFERROR(10*SUM(INDEX(Weights!$B$2:$ZZ$20,0,MATCH($A5,Weights!$B$1:$ZZ$1,0))),0)</f>
-        <v>590</v>
+        <v>0</v>
       </c>
       <c r="D5" s="12">
         <f t="shared" si="0"/>
-        <v>0.50169491525423726</v>
+        <v>0</v>
       </c>
       <c r="E5" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Could Work</v>
+        <v>Stretch</v>
       </c>
       <c r="F5" s="3">
         <f>IFERROR(SUMPRODUCT((--Inputs!$B$2:$B$20&lt;=3)*(--(Weights!$B$2:$S$20)&gt;=4)*(TRIM(SUBSTITUTE(Weights!$B$1:$S$1,CHAR(160)," "))=TRIM(SUBSTITUTE($A5,CHAR(160)," ")))),"")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H5" s="5" t="str" cm="1">
         <f t="array" ref="H5">IFERROR(
@@ -2556,7 +2932,7 @@
       )
    ),
 "")</f>
-        <v>Customer Service &amp; Sales, Schedule Flexibility</v>
+        <v/>
       </c>
       <c r="I5" s="5" t="str" cm="1">
         <f t="array" ref="I5">IFERROR(
@@ -2567,7 +2943,7 @@
       )
    ),
 "")</f>
-        <v>Proximity to Customers, Product Diversity, Floral Design, Color Comprehension &amp; Accuracy</v>
+        <v/>
       </c>
     </row>
     <row r="6" spans="1:9" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -2577,19 +2953,19 @@
       <c r="B6" s="3" cm="1">
         <f t="array" ref="B6">IFERROR(SUMPRODUCT(--Inputs!$B$2:$B$20,
  --INDEX(Weights!$B$2:$ZZ$20,0,MATCH($A6,Weights!$B$1:$ZZ$1,0))),0)</f>
-        <v>247</v>
+        <v>0</v>
       </c>
       <c r="C6" s="3">
         <f>IFERROR(10*SUM(INDEX(Weights!$B$2:$ZZ$20,0,MATCH($A6,Weights!$B$1:$ZZ$1,0))),0)</f>
-        <v>490</v>
+        <v>0</v>
       </c>
       <c r="D6" s="12">
         <f t="shared" si="0"/>
-        <v>0.50408163265306127</v>
+        <v>0</v>
       </c>
       <c r="E6" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Could Work</v>
+        <v>Stretch</v>
       </c>
       <c r="F6" s="3">
         <f>IFERROR(SUMPRODUCT((--Inputs!$B$2:$B$20&lt;=3)*(--(Weights!$B$2:$S$20)&gt;=4)*(TRIM(SUBSTITUTE(Weights!$B$1:$S$1,CHAR(160)," "))=TRIM(SUBSTITUTE($A6,CHAR(160)," ")))),"")</f>
@@ -2615,7 +2991,7 @@
       )
    ),
 "")</f>
-        <v>Product Diversity, Floral Design</v>
+        <v/>
       </c>
     </row>
     <row r="7" spans="1:9" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -2625,15 +3001,15 @@
       <c r="B7" s="3" cm="1">
         <f t="array" ref="B7">IFERROR(SUMPRODUCT(--Inputs!$B$2:$B$20,
  --INDEX(Weights!$B$2:$ZZ$20,0,MATCH($A7,Weights!$B$1:$ZZ$1,0))),0)</f>
-        <v>193</v>
+        <v>0</v>
       </c>
       <c r="C7" s="3">
         <f>IFERROR(10*SUM(INDEX(Weights!$B$2:$ZZ$20,0,MATCH($A7,Weights!$B$1:$ZZ$1,0))),0)</f>
-        <v>390</v>
+        <v>0</v>
       </c>
       <c r="D7" s="12">
         <f t="shared" si="0"/>
-        <v>0.49487179487179489</v>
+        <v>0</v>
       </c>
       <c r="E7" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2663,7 +3039,7 @@
       )
    ),
 "")</f>
-        <v>Color Comprehension &amp; Accuracy</v>
+        <v/>
       </c>
     </row>
     <row r="8" spans="1:9" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -2673,15 +3049,15 @@
       <c r="B8" s="3" cm="1">
         <f t="array" ref="B8">IFERROR(SUMPRODUCT(--Inputs!$B$2:$B$20,
  --INDEX(Weights!$B$2:$ZZ$20,0,MATCH($A8,Weights!$B$1:$ZZ$1,0))),0)</f>
-        <v>202</v>
+        <v>0</v>
       </c>
       <c r="C8" s="3">
         <f>IFERROR(10*SUM(INDEX(Weights!$B$2:$ZZ$20,0,MATCH($A8,Weights!$B$1:$ZZ$1,0))),0)</f>
-        <v>430</v>
+        <v>0</v>
       </c>
       <c r="D8" s="12">
         <f t="shared" si="0"/>
-        <v>0.4697674418604651</v>
+        <v>0</v>
       </c>
       <c r="E8" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2689,7 +3065,7 @@
       </c>
       <c r="F8" s="3">
         <f>IFERROR(SUMPRODUCT((--Inputs!$B$2:$B$20&lt;=3)*(--(Weights!$B$2:$S$20)&gt;=4)*(TRIM(SUBSTITUTE(Weights!$B$1:$S$1,CHAR(160)," "))=TRIM(SUBSTITUTE($A8,CHAR(160)," ")))),"")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" s="5" t="str" cm="1">
         <f t="array" ref="H8">IFERROR(
@@ -2700,7 +3076,7 @@
       )
    ),
 "")</f>
-        <v>Schedule Flexibility</v>
+        <v/>
       </c>
       <c r="I8" s="5" t="str" cm="1">
         <f t="array" ref="I8">IFERROR(
@@ -2721,23 +3097,23 @@
       <c r="B9" s="3" cm="1">
         <f t="array" ref="B9">IFERROR(SUMPRODUCT(--Inputs!$B$2:$B$20,
  --INDEX(Weights!$B$2:$ZZ$20,0,MATCH($A9,Weights!$B$1:$ZZ$1,0))),0)</f>
-        <v>262</v>
+        <v>0</v>
       </c>
       <c r="C9" s="3">
         <f>IFERROR(10*SUM(INDEX(Weights!$B$2:$ZZ$20,0,MATCH($A9,Weights!$B$1:$ZZ$1,0))),0)</f>
-        <v>520</v>
+        <v>0</v>
       </c>
       <c r="D9" s="12">
         <f t="shared" si="0"/>
-        <v>0.50384615384615383</v>
+        <v>0</v>
       </c>
       <c r="E9" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Could Work</v>
+        <v>Stretch</v>
       </c>
       <c r="F9" s="3">
         <f>IFERROR(SUMPRODUCT((--Inputs!$B$2:$B$20&lt;=3)*(--(Weights!$B$2:$S$20)&gt;=4)*(TRIM(SUBSTITUTE(Weights!$B$1:$S$1,CHAR(160)," "))=TRIM(SUBSTITUTE($A9,CHAR(160)," ")))),"")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" s="5" t="str" cm="1">
         <f t="array" ref="H9">IFERROR(
@@ -2748,7 +3124,7 @@
       )
    ),
 "")</f>
-        <v>Schedule Flexibility</v>
+        <v/>
       </c>
       <c r="I9" s="5" t="str" cm="1">
         <f t="array" ref="I9">IFERROR(
@@ -2759,7 +3135,7 @@
       )
    ),
 "")</f>
-        <v>Product Diversity, Floral Design</v>
+        <v/>
       </c>
     </row>
     <row r="10" spans="1:9" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -2769,15 +3145,15 @@
       <c r="B10" s="3" cm="1">
         <f t="array" ref="B10">IFERROR(SUMPRODUCT(--Inputs!$B$2:$B$20,
  --INDEX(Weights!$B$2:$ZZ$20,0,MATCH($A10,Weights!$B$1:$ZZ$1,0))),0)</f>
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="C10" s="3">
         <f>IFERROR(10*SUM(INDEX(Weights!$B$2:$ZZ$20,0,MATCH($A10,Weights!$B$1:$ZZ$1,0))),0)</f>
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="D10" s="12">
         <f t="shared" si="0"/>
-        <v>0.46666666666666667</v>
+        <v>0</v>
       </c>
       <c r="E10" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2817,23 +3193,23 @@
       <c r="B11" s="3" cm="1">
         <f t="array" ref="B11">IFERROR(SUMPRODUCT(--Inputs!$B$2:$B$20,
  --INDEX(Weights!$B$2:$ZZ$20,0,MATCH($A11,Weights!$B$1:$ZZ$1,0))),0)</f>
-        <v>219</v>
+        <v>0</v>
       </c>
       <c r="C11" s="3">
         <f>IFERROR(10*SUM(INDEX(Weights!$B$2:$ZZ$20,0,MATCH($A11,Weights!$B$1:$ZZ$1,0))),0)</f>
-        <v>430</v>
+        <v>0</v>
       </c>
       <c r="D11" s="12">
         <f t="shared" si="0"/>
-        <v>0.50930232558139532</v>
+        <v>0</v>
       </c>
       <c r="E11" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Could Work</v>
+        <v>Stretch</v>
       </c>
       <c r="F11" s="3">
         <f>IFERROR(SUMPRODUCT((--Inputs!$B$2:$B$20&lt;=3)*(--(Weights!$B$2:$S$20)&gt;=4)*(TRIM(SUBSTITUTE(Weights!$B$1:$S$1,CHAR(160)," "))=TRIM(SUBSTITUTE($A11,CHAR(160)," ")))),"")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" s="5" t="str" cm="1">
         <f t="array" ref="H11">IFERROR(
@@ -2844,7 +3220,7 @@
       )
    ),
 "")</f>
-        <v>Professional Network</v>
+        <v/>
       </c>
       <c r="I11" s="5" t="str" cm="1">
         <f t="array" ref="I11">IFERROR(
@@ -2855,7 +3231,7 @@
       )
    ),
 "")</f>
-        <v>Proximity to Customers, Product Diversity, Floral Design</v>
+        <v/>
       </c>
     </row>
     <row r="12" spans="1:9" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
@@ -2865,23 +3241,23 @@
       <c r="B12" s="3" cm="1">
         <f t="array" ref="B12">IFERROR(SUMPRODUCT(--Inputs!$B$2:$B$20,
  --INDEX(Weights!$B$2:$ZZ$20,0,MATCH($A12,Weights!$B$1:$ZZ$1,0))),0)</f>
-        <v>218</v>
+        <v>0</v>
       </c>
       <c r="C12" s="3">
         <f>IFERROR(10*SUM(INDEX(Weights!$B$2:$ZZ$20,0,MATCH($A12,Weights!$B$1:$ZZ$1,0))),0)</f>
-        <v>430</v>
+        <v>0</v>
       </c>
       <c r="D12" s="12">
         <f t="shared" si="0"/>
-        <v>0.50697674418604655</v>
+        <v>0</v>
       </c>
       <c r="E12" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Could Work</v>
+        <v>Stretch</v>
       </c>
       <c r="F12" s="3">
         <f>IFERROR(SUMPRODUCT((--Inputs!$B$2:$B$20&lt;=3)*(--(Weights!$B$2:$S$20)&gt;=4)*(TRIM(SUBSTITUTE(Weights!$B$1:$S$1,CHAR(160)," "))=TRIM(SUBSTITUTE($A12,CHAR(160)," ")))),"")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H12" s="5" t="str" cm="1">
         <f t="array" ref="H12">IFERROR(
@@ -2892,7 +3268,7 @@
       )
    ),
 "")</f>
-        <v>Professional Network, Schedule Flexibility</v>
+        <v/>
       </c>
       <c r="I12" s="5" t="str" cm="1">
         <f t="array" ref="I12">IFERROR(
@@ -2903,7 +3279,7 @@
       )
    ),
 "")</f>
-        <v>Proximity to Customers, Product Diversity, Floral Design</v>
+        <v/>
       </c>
     </row>
     <row r="13" spans="1:9" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -2913,15 +3289,15 @@
       <c r="B13" s="3" cm="1">
         <f t="array" ref="B13">IFERROR(SUMPRODUCT(--Inputs!$B$2:$B$20,
  --INDEX(Weights!$B$2:$ZZ$20,0,MATCH($A13,Weights!$B$1:$ZZ$1,0))),0)</f>
-        <v>346</v>
+        <v>0</v>
       </c>
       <c r="C13" s="3">
         <f>IFERROR(10*SUM(INDEX(Weights!$B$2:$ZZ$20,0,MATCH($A13,Weights!$B$1:$ZZ$1,0))),0)</f>
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="D13" s="12">
         <f t="shared" si="0"/>
-        <v>0.49428571428571427</v>
+        <v>0</v>
       </c>
       <c r="E13" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2929,7 +3305,7 @@
       </c>
       <c r="F13" s="3">
         <f>IFERROR(SUMPRODUCT((--Inputs!$B$2:$B$20&lt;=3)*(--(Weights!$B$2:$S$20)&gt;=4)*(TRIM(SUBSTITUTE(Weights!$B$1:$S$1,CHAR(160)," "))=TRIM(SUBSTITUTE($A13,CHAR(160)," ")))),"")</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H13" s="5" t="str" cm="1">
         <f t="array" ref="H13">IFERROR(
@@ -2940,7 +3316,7 @@
       )
    ),
 "")</f>
-        <v>Customer Service &amp; Sales, Schedule Flexibility, Stress &amp; Risk Tolerance</v>
+        <v/>
       </c>
       <c r="I13" s="5" t="str" cm="1">
         <f t="array" ref="I13">IFERROR(
@@ -2951,7 +3327,7 @@
       )
    ),
 "")</f>
-        <v>Product Diversity, Floral Design, Color Comprehension &amp; Accuracy</v>
+        <v/>
       </c>
     </row>
     <row r="14" spans="1:9" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
@@ -2961,23 +3337,23 @@
       <c r="B14" s="3" cm="1">
         <f t="array" ref="B14">IFERROR(SUMPRODUCT(--Inputs!$B$2:$B$20,
  --INDEX(Weights!$B$2:$ZZ$20,0,MATCH($A14,Weights!$B$1:$ZZ$1,0))),0)</f>
-        <v>326</v>
+        <v>0</v>
       </c>
       <c r="C14" s="3">
         <f>IFERROR(10*SUM(INDEX(Weights!$B$2:$ZZ$20,0,MATCH($A14,Weights!$B$1:$ZZ$1,0))),0)</f>
-        <v>640</v>
+        <v>0</v>
       </c>
       <c r="D14" s="12">
         <f t="shared" si="0"/>
-        <v>0.50937500000000002</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Could Work</v>
+        <v>Stretch</v>
       </c>
       <c r="F14" s="3">
         <f>IFERROR(SUMPRODUCT((--Inputs!$B$2:$B$20&lt;=3)*(--(Weights!$B$2:$S$20)&gt;=4)*(TRIM(SUBSTITUTE(Weights!$B$1:$S$1,CHAR(160)," "))=TRIM(SUBSTITUTE($A14,CHAR(160)," ")))),"")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" s="5" t="str" cm="1">
         <f t="array" ref="H14">IFERROR(
@@ -2988,7 +3364,7 @@
       )
    ),
 "")</f>
-        <v>Schedule Flexibility</v>
+        <v/>
       </c>
       <c r="I14" s="5" t="str" cm="1">
         <f t="array" ref="I14">IFERROR(
@@ -2999,33 +3375,33 @@
       )
    ),
 "")</f>
-        <v>Product Diversity, Floral Design, Color Comprehension &amp; Accuracy</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
         <v>39</v>
       </c>
       <c r="B15" s="3" cm="1">
         <f t="array" ref="B15">IFERROR(SUMPRODUCT(--Inputs!$B$2:$B$20,
  --INDEX(Weights!$B$2:$ZZ$20,0,MATCH($A15,Weights!$B$1:$ZZ$1,0))),0)</f>
-        <v>330</v>
+        <v>0</v>
       </c>
       <c r="C15" s="3">
         <f>IFERROR(10*SUM(INDEX(Weights!$B$2:$ZZ$20,0,MATCH($A15,Weights!$B$1:$ZZ$1,0))),0)</f>
-        <v>660</v>
+        <v>0</v>
       </c>
       <c r="D15" s="12">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E15" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Could Work</v>
+        <v>Stretch</v>
       </c>
       <c r="F15" s="3">
         <f>IFERROR(SUMPRODUCT((--Inputs!$B$2:$B$20&lt;=3)*(--(Weights!$B$2:$S$20)&gt;=4)*(TRIM(SUBSTITUTE(Weights!$B$1:$S$1,CHAR(160)," "))=TRIM(SUBSTITUTE($A15,CHAR(160)," ")))),"")</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H15" s="5" t="str" cm="1">
         <f t="array" ref="H15">IFERROR(
@@ -3036,7 +3412,7 @@
       )
    ),
 "")</f>
-        <v>Customer Service &amp; Sales, Professional Network, Schedule Flexibility, Stress &amp; Risk Tolerance</v>
+        <v/>
       </c>
       <c r="I15" s="5" t="str" cm="1">
         <f t="array" ref="I15">IFERROR(
@@ -3047,7 +3423,7 @@
       )
    ),
 "")</f>
-        <v>Product Diversity, Floral Design, Color Comprehension &amp; Accuracy</v>
+        <v/>
       </c>
     </row>
     <row r="16" spans="1:9" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
@@ -3057,23 +3433,23 @@
       <c r="B16" s="3" cm="1">
         <f t="array" ref="B16">IFERROR(SUMPRODUCT(--Inputs!$B$2:$B$20,
  --INDEX(Weights!$B$2:$ZZ$20,0,MATCH($A16,Weights!$B$1:$ZZ$1,0))),0)</f>
-        <v>302</v>
+        <v>0</v>
       </c>
       <c r="C16" s="3">
         <f>IFERROR(10*SUM(INDEX(Weights!$B$2:$ZZ$20,0,MATCH($A16,Weights!$B$1:$ZZ$1,0))),0)</f>
-        <v>590</v>
+        <v>0</v>
       </c>
       <c r="D16" s="12">
         <f t="shared" si="0"/>
-        <v>0.51186440677966105</v>
+        <v>0</v>
       </c>
       <c r="E16" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Could Work</v>
+        <v>Stretch</v>
       </c>
       <c r="F16" s="3">
         <f>IFERROR(SUMPRODUCT((--Inputs!$B$2:$B$20&lt;=3)*(--(Weights!$B$2:$S$20)&gt;=4)*(TRIM(SUBSTITUTE(Weights!$B$1:$S$1,CHAR(160)," "))=TRIM(SUBSTITUTE($A16,CHAR(160)," ")))),"")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H16" s="5" t="str" cm="1">
         <f t="array" ref="H16">IFERROR(
@@ -3084,7 +3460,7 @@
       )
    ),
 "")</f>
-        <v>Professional Network, Schedule Flexibility</v>
+        <v/>
       </c>
       <c r="I16" s="5" t="str" cm="1">
         <f t="array" ref="I16">IFERROR(
@@ -3095,7 +3471,7 @@
       )
    ),
 "")</f>
-        <v>Proximity to Customers, Product Diversity, Floral Design</v>
+        <v/>
       </c>
     </row>
     <row r="17" spans="1:9" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
@@ -3105,15 +3481,15 @@
       <c r="B17" s="3" cm="1">
         <f t="array" ref="B17">IFERROR(SUMPRODUCT(--Inputs!$B$2:$B$20,
  --INDEX(Weights!$B$2:$ZZ$20,0,MATCH($A17,Weights!$B$1:$ZZ$1,0))),0)</f>
-        <v>258</v>
+        <v>0</v>
       </c>
       <c r="C17" s="3">
         <f>IFERROR(10*SUM(INDEX(Weights!$B$2:$ZZ$20,0,MATCH($A17,Weights!$B$1:$ZZ$1,0))),0)</f>
-        <v>590</v>
+        <v>0</v>
       </c>
       <c r="D17" s="12">
         <f t="shared" si="0"/>
-        <v>0.43728813559322033</v>
+        <v>0</v>
       </c>
       <c r="E17" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3121,7 +3497,7 @@
       </c>
       <c r="F17" s="3">
         <f>IFERROR(SUMPRODUCT((--Inputs!$B$2:$B$20&lt;=3)*(--(Weights!$B$2:$S$20)&gt;=4)*(TRIM(SUBSTITUTE(Weights!$B$1:$S$1,CHAR(160)," "))=TRIM(SUBSTITUTE($A17,CHAR(160)," ")))),"")</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H17" s="5" t="str" cm="1">
         <f t="array" ref="H17">IFERROR(
@@ -3132,7 +3508,7 @@
       )
    ),
 "")</f>
-        <v>Customer Service &amp; Sales, Customer-Friendly Amenities, Social Personality, Stress &amp; Risk Tolerance</v>
+        <v/>
       </c>
       <c r="I17" s="5" t="str" cm="1">
         <f t="array" ref="I17">IFERROR(
@@ -3201,15 +3577,15 @@
       <c r="B19" s="3" cm="1">
         <f t="array" ref="B19">IFERROR(SUMPRODUCT(--Inputs!$B$2:$B$20,
  --INDEX(Weights!$B$2:$ZZ$20,0,MATCH($A19,Weights!$B$1:$ZZ$1,0))),0)</f>
-        <v>218</v>
+        <v>0</v>
       </c>
       <c r="C19" s="3">
         <f>IFERROR(10*SUM(INDEX(Weights!$B$2:$ZZ$20,0,MATCH($A19,Weights!$B$1:$ZZ$1,0))),0)</f>
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="D19" s="12">
         <f t="shared" si="0"/>
-        <v>0.46382978723404256</v>
+        <v>0</v>
       </c>
       <c r="E19" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3217,7 +3593,7 @@
       </c>
       <c r="F19" s="3">
         <f>IFERROR(SUMPRODUCT((--Inputs!$B$2:$B$20&lt;=3)*(--(Weights!$B$2:$S$20)&gt;=4)*(TRIM(SUBSTITUTE(Weights!$B$1:$S$1,CHAR(160)," "))=TRIM(SUBSTITUTE($A19,CHAR(160)," ")))),"")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H19" s="5" t="str" cm="1">
         <f t="array" ref="H19">IFERROR(
@@ -3228,7 +3604,7 @@
       )
    ),
 "")</f>
-        <v>Customer-Friendly Amenities, Stress &amp; Risk Tolerance</v>
+        <v/>
       </c>
       <c r="I19" s="5" t="str" cm="1">
         <f t="array" ref="I19">IFERROR(
@@ -3239,7 +3615,7 @@
       )
    ),
 "")</f>
-        <v>Proximity to Customers</v>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -3335,7 +3711,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4027,4 +4403,5127 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74EBBEDC-5414-B442-BDB4-EC1529FD0ACE}">
+  <dimension ref="A1:G343"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="E79" sqref="E79"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.83203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="23.83203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="25" style="3" customWidth="1"/>
+    <col min="4" max="4" width="6.1640625" style="14" customWidth="1"/>
+    <col min="5" max="5" width="38.6640625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="39.33203125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="33.5" style="5" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="96" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="14">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="14">
+        <v>4</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="14">
+        <v>5</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="14">
+        <v>4</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="96" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="14">
+        <v>4</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="14">
+        <v>4</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="80" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="14">
+        <v>4</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="14">
+        <v>5</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D19" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="80" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D20" s="14">
+        <v>5</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="14">
+        <v>4</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="14">
+        <v>5</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="14">
+        <v>4</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="14">
+        <v>4</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="14">
+        <v>5</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="96" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="14">
+        <v>4</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="14">
+        <v>4</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D36" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D38" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D39" s="14">
+        <v>4</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="14">
+        <v>5</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="14">
+        <v>4</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F42" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="G42" s="23" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="14">
+        <v>1</v>
+      </c>
+      <c r="G43" s="3"/>
+    </row>
+    <row r="44" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" s="14">
+        <v>5</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D45" s="14">
+        <v>4</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="14">
+        <v>3</v>
+      </c>
+      <c r="E46" s="3"/>
+    </row>
+    <row r="47" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" s="14">
+        <v>4</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48" s="14">
+        <v>4</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D51" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D52" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D53" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A54" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D54" s="14">
+        <v>4</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D55" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D56" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D57" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D58" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+      <c r="A59" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59" s="14">
+        <v>4</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+      <c r="A60" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" s="14">
+        <v>5</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D62" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+      <c r="A63" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D63" s="14">
+        <v>4</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D64" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D65" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D66" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A67" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D67" s="14">
+        <v>5</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D68" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D69" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D70" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+      <c r="A71" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D71" s="14">
+        <v>4</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D72" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A73" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D73" s="14">
+        <v>5</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="80" x14ac:dyDescent="0.2">
+      <c r="A74" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D74" s="14">
+        <v>4</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D75" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D76" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D77" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D78" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+      <c r="A79" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D79" s="14">
+        <v>5</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D81" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D82" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D83" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D84" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D85" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D86" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D87" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D88" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D89" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D90" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D91" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D92" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D93" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D94" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D95" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D96" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D97" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D98" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D100" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D101" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D102" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D103" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D104" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D105" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D106" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D107" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D108" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D109" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D110" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D111" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D112" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D113" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D114" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D115" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D116" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D117" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D119" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D120" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D121" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D122" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D123" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D124" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D125" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D126" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D127" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D128" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D129" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D130" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D131" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D132" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D133" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D134" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D135" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D136" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A137" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A138" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D138" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D139" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D140" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D141" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D142" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D143" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A144" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D144" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A145" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D145" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A146" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D146" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A147" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D147" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A148" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D148" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A149" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D149" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A150" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D150" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A151" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D151" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A152" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D152" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A153" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D153" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A154" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D154" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A155" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D155" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A156" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D156" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A157" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D157" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A158" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D158" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A159" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D159" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A160" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D160" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A161" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D161" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A162" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D162" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A163" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D163" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A164" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D164" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A165" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D165" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A166" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D166" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A167" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D167" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A168" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D168" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A169" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D169" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A170" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D170" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A171" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D171" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A172" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D172" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A173" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D173" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A174" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D174" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A175" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D175" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A176" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D176" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A177" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D177" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A178" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D178" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A179" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D179" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A180" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D180" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A181" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D181" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A182" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D182" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A183" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C183" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D183" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A184" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D184" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A185" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D185" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A186" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D186" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A187" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D187" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A188" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D188" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A189" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C189" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D189" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A190" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D190" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A191" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C191" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D191" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A192" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D192" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A193" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D193" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A194" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D194" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A195" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C195" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D195" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A196" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C196" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D196" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A197" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C197" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D197" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A198" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B198" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C198" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D198" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A199" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C199" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D199" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A200" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D200" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A201" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C201" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D201" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A202" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C202" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D202" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A203" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C203" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D203" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A204" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C204" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D204" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A205" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C205" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D205" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A206" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C206" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D206" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A207" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C207" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D207" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A208" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C208" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D208" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A209" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B209" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C209" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D209" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A210" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C210" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D210" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A211" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B211" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C211" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D211" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A212" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D212" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A213" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C213" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D213" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A214" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C214" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D214" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A215" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C215" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D215" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A216" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C216" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D216" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A217" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C217" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D217" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A218" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B218" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C218" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D218" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A219" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B219" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C219" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D219" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A220" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B220" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C220" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D220" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A221" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B221" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C221" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D221" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A222" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B222" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C222" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D222" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A223" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B223" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C223" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D223" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A224" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B224" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C224" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D224" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A225" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B225" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C225" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D225" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A226" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B226" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C226" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D226" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A227" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B227" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C227" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D227" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A228" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B228" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C228" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D228" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A229" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B229" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C229" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D229" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A230" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B230" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C230" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D230" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A231" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B231" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C231" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D231" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A232" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B232" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C232" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D232" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A233" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B233" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C233" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D233" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A234" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B234" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C234" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D234" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A235" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B235" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C235" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D235" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A236" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B236" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C236" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D236" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A237" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B237" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C237" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D237" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A238" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B238" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C238" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D238" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A239" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B239" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C239" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D239" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A240" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B240" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C240" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D240" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A241" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B241" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C241" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D241" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A242" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B242" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C242" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D242" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A243" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B243" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C243" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D243" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A244" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B244" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C244" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D244" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A245" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B245" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C245" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D245" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A246" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B246" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C246" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D246" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A247" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B247" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C247" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D247" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A248" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B248" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C248" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D248" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A249" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B249" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C249" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D249" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A250" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B250" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C250" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D250" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A251" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B251" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C251" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D251" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A252" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B252" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C252" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D252" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A253" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B253" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C253" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D253" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A254" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B254" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C254" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D254" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A255" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B255" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C255" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D255" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A256" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B256" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C256" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D256" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A257" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B257" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C257" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D257" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A258" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B258" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C258" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D258" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A259" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B259" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C259" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D259" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A260" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B260" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C260" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D260" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A261" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B261" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C261" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D261" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A262" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B262" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C262" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D262" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A263" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B263" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C263" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D263" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A264" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B264" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C264" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D264" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A265" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B265" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C265" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D265" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A266" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B266" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C266" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D266" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A267" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B267" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C267" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D267" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A268" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B268" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C268" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D268" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A269" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B269" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C269" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D269" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A270" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B270" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C270" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D270" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A271" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B271" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C271" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D271" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A272" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B272" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C272" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D272" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A273" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B273" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C273" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D273" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A274" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B274" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C274" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D274" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A275" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B275" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C275" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D275" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A276" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B276" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C276" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D276" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A277" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B277" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C277" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D277" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A278" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B278" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C278" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D278" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A279" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B279" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C279" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D279" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A280" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B280" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C280" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D280" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A281" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B281" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C281" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D281" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A282" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B282" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C282" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D282" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A283" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B283" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C283" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D283" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A284" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B284" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C284" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D284" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A285" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B285" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C285" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D285" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A286" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B286" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C286" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D286" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A287" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B287" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C287" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D287" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A288" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B288" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C288" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D288" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A289" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B289" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C289" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D289" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A290" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B290" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C290" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D290" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A291" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B291" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C291" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D291" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A292" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B292" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C292" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D292" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A293" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B293" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C293" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D293" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A294" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B294" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C294" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D294" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A295" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B295" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C295" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D295" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A296" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B296" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C296" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D296" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A297" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B297" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C297" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D297" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A298" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B298" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C298" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D298" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A299" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B299" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C299" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D299" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A300" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B300" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C300" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D300" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A301" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B301" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C301" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D301" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A302" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B302" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C302" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D302" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A303" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B303" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C303" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D303" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A304" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B304" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C304" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D304" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A305" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B305" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C305" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D305" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A306" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B306" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C306" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D306" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A307" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B307" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C307" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D307" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A308" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B308" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C308" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D308" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A309" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B309" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C309" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D309" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A310" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B310" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C310" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D310" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A311" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B311" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C311" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D311" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A312" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B312" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C312" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D312" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A313" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B313" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C313" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D313" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A314" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B314" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C314" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D314" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A315" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B315" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C315" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D315" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A316" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B316" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C316" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D316" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A317" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B317" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C317" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D317" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A318" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B318" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C318" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D318" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A319" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B319" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C319" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D319" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A320" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B320" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C320" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D320" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A321" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B321" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C321" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D321" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A322" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B322" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C322" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D322" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A323" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B323" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C323" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D323" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A324" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B324" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C324" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D324" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A325" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B325" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C325" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D325" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A326" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B326" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C326" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D326" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A327" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B327" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C327" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D327" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A328" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B328" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C328" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D328" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A329" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B329" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C329" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D329" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A330" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B330" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C330" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D330" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A331" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B331" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C331" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D331" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A332" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B332" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C332" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D332" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A333" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B333" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C333" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D333" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A334" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B334" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C334" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D334" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A335" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B335" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C335" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D335" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A336" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B336" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C336" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D336" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A337" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B337" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C337" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D337" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A338" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B338" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C338" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D338" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A339" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B339" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C339" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D339" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A340" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B340" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C340" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D340" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A341" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B341" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C341" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D341" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A342" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B342" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C342" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D342" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A343" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B343" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C343" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D343" s="14">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Extreme_Weighting_Scoring_Prototype_for_FormWise_REPAIRED.xlsx
+++ b/Extreme_Weighting_Scoring_Prototype_for_FormWise_REPAIRED.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sharon/Downloads/rsc-app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D00F2D-483C-5848-8D15-C09C7E6F2EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A678C478-A25F-464F-BF52-56F33C8D6E98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="24820" windowHeight="21900" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1381" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="270">
   <si>
     <t>Section</t>
   </si>
@@ -820,6 +820,63 @@
   </si>
   <si>
     <t>Without marketing, potential customers may not even know bulk buckets are an option, limiting sales.</t>
+  </si>
+  <si>
+    <t>Strong marketing helps you reach customers, even those who hadn't realized that DIY flowers might be a great option for their event.</t>
+  </si>
+  <si>
+    <t>Customers buying buckets want value and flexibility; diversity in ingredients makes the purchase worthwhile.</t>
+  </si>
+  <si>
+    <t>A diverse crop plan ensures your bulk buckets feel plentiful and include the mix of floral ingredients customers trying to create their own designs will need.</t>
+  </si>
+  <si>
+    <t>Without enough diversity of floral ingredients, customers may be frustrated by the difficulty in pulling together balanced, attractive designs.</t>
+  </si>
+  <si>
+    <t>Strong planning and succession planting keep stems available in the quantities promised, so customers get what they expect when they placed their order.</t>
+  </si>
+  <si>
+    <t>Without reliable production, you may fall short on promised quantities, leading to unhappy customers and last-minute scrambles.</t>
+  </si>
+  <si>
+    <t>Bulk orders are often tied to specific events; predictability is essential for delivering promised volume on time.</t>
+  </si>
+  <si>
+    <t>Bulk buckets still depend on thoughtful curation; customers need the right balance of ingredients to succeed in DIY design.</t>
+  </si>
+  <si>
+    <t>Without design sense, buckets may be lopsided or impractical, frustrating customers who expect them to translate easily into designs.</t>
+  </si>
+  <si>
+    <t>Even though customers are arranging themselves, a good design eye helps you assemble balanced buckets with usable ratios of different floral ingredients.</t>
+  </si>
+  <si>
+    <t>Florists depend on consistent quality and timing; your infrastructure is what protects stems from harvest to handoff.</t>
+  </si>
+  <si>
+    <t>Without solid infrastructure, flowers may arrive wilted, damaged, or late, undermining trust with florists.</t>
+  </si>
+  <si>
+    <t>Strong infrastructure — from coolers to delivery systems — keeps stems fresh and organized, ensuring florists receive high-quality product.</t>
+  </si>
+  <si>
+    <t>Florists build their orders and commitments around availability; they need dependable quantities and timing.</t>
+  </si>
+  <si>
+    <t>Without predictability, florists can’t plan their own designs or events, and they may turn to other suppliers.</t>
+  </si>
+  <si>
+    <t>Reliable production and succession planting give florists confidence they can count on you week after week.</t>
+  </si>
+  <si>
+    <t>Without attention to color requests, you risk producing flowers that don’t align with florist expectations, which affect repeat sales and weaken trust.</t>
+  </si>
+  <si>
+    <t>Florists often design with color first; being able to understand their needs and communicate subleties in coloration is often critical to their success.</t>
+  </si>
+  <si>
+    <t>Strong color awareness ensures you grow and supply palettes that match florist demand; making you their go-to source for locally grown flowers.</t>
   </si>
 </sst>
 </file>
@@ -4409,8 +4466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74EBBEDC-5414-B442-BDB4-EC1529FD0ACE}">
   <dimension ref="A1:G343"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="E79" sqref="E79"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="A112" sqref="A112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5820,6 +5877,9 @@
       <c r="D79" s="14">
         <v>5</v>
       </c>
+      <c r="E79" s="5" t="s">
+        <v>251</v>
+      </c>
       <c r="F79" s="5" t="s">
         <v>250</v>
       </c>
@@ -5841,7 +5901,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>133</v>
       </c>
@@ -5855,7 +5915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>133</v>
       </c>
@@ -5869,7 +5929,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>133</v>
       </c>
@@ -5883,7 +5943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>133</v>
       </c>
@@ -5897,7 +5957,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>133</v>
       </c>
@@ -5911,7 +5971,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>133</v>
       </c>
@@ -5924,8 +5984,17 @@
       <c r="D86" s="14">
         <v>4</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E86" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>133</v>
       </c>
@@ -5939,7 +6008,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
         <v>133</v>
       </c>
@@ -5953,7 +6022,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
         <v>133</v>
       </c>
@@ -5966,8 +6035,17 @@
       <c r="D89" s="14">
         <v>4</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E89" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="G89" s="5" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
         <v>133</v>
       </c>
@@ -5981,7 +6059,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>133</v>
       </c>
@@ -5995,7 +6073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
         <v>133</v>
       </c>
@@ -6008,8 +6086,17 @@
       <c r="D92" s="14">
         <v>4</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E92" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="G92" s="5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
         <v>133</v>
       </c>
@@ -6023,7 +6110,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
         <v>133</v>
       </c>
@@ -6037,7 +6124,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
         <v>133</v>
       </c>
@@ -6051,7 +6138,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
         <v>133</v>
       </c>
@@ -6065,7 +6152,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
         <v>134</v>
       </c>
@@ -6079,7 +6166,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
         <v>134</v>
       </c>
@@ -6093,7 +6180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>134</v>
       </c>
@@ -6107,7 +6194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
         <v>134</v>
       </c>
@@ -6121,7 +6208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>134</v>
       </c>
@@ -6135,7 +6222,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
         <v>134</v>
       </c>
@@ -6149,7 +6236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
         <v>134</v>
       </c>
@@ -6163,7 +6250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
         <v>134</v>
       </c>
@@ -6177,7 +6264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
         <v>134</v>
       </c>
@@ -6191,7 +6278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
         <v>134</v>
       </c>
@@ -6205,7 +6292,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
         <v>134</v>
       </c>
@@ -6218,8 +6305,17 @@
       <c r="D107" s="14">
         <v>4</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E107" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="F107" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="G107" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
         <v>134</v>
       </c>
@@ -6232,8 +6328,17 @@
       <c r="D108" s="14">
         <v>4</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E108" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="F108" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="G108" s="5" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
         <v>134</v>
       </c>
@@ -6247,7 +6352,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
         <v>134</v>
       </c>
@@ -6261,7 +6366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
         <v>134</v>
       </c>
@@ -6275,7 +6380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
         <v>134</v>
       </c>
@@ -6287,6 +6392,15 @@
       </c>
       <c r="D112" s="14">
         <v>4</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="F112" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="G112" s="5" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">

--- a/Extreme_Weighting_Scoring_Prototype_for_FormWise_REPAIRED.xlsx
+++ b/Extreme_Weighting_Scoring_Prototype_for_FormWise_REPAIRED.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sharon/Downloads/rsc-app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A678C478-A25F-464F-BF52-56F33C8D6E98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB4E07A-0D20-6D4F-A435-475FA4986C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="24820" windowHeight="21900" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -537,105 +537,6 @@
     <t>Interactive Events</t>
   </si>
   <si>
-    <t>Your strong customer service skills mean you’ll thrive at markets, where friendly interaction and repeat relationships are what keep customers coming back week after week.</t>
-  </si>
-  <si>
-    <t>Farmers Markets are built on direct interactions — chatting with shoppers, building loyalty, and standing out from the crowd. Success depends heavily on your ability to connect and sell face-to-face.</t>
-  </si>
-  <si>
-    <t>Without strong sales and people skills, it’s easy to get overlooked in a busy market. Customers may gravitate toward vendors who are more engaging or approachable.</t>
-  </si>
-  <si>
-    <t>Being close to your market makes it easier to transport flowers, keep them fresh, and build a loyal base of repeat customers.</t>
-  </si>
-  <si>
-    <t>If you’re far from a good market, long drives and time on the road eat into profits and cut into time on the farm.</t>
-  </si>
-  <si>
-    <t>Markets require weekly participation and fresh product; proximity to a strong customer base is a key driver of profitability and efficiency.</t>
-  </si>
-  <si>
-    <t>Without enough variety, it’s hard to build mixed bouquets, which farmers market customers tend to place a high value on.</t>
-  </si>
-  <si>
-    <t>Having a wide range of flowers means you can create the abundant mixed bouquets that customers expect at market, and your stand will look full and appealing.</t>
-  </si>
-  <si>
-    <t>Mixed bouquets are almost a requirement at farmers markets, and doing them well depends on having diverse ingredients to work with.</t>
-  </si>
-  <si>
-    <t>A lack of infrastructure makes your life a lot harder and--worst case--leads to wilted flowers, chaotic setup, and unnecessary stress before customers even arrive.</t>
-  </si>
-  <si>
-    <t>With solid infrastructure like coolers, tents, and ways to transport flowers safely, you’ll arrive prepared and be able to offer the freshest possible flowers.</t>
-  </si>
-  <si>
-    <t>The logistics of transporting, storing, and displaying flowers weekly are demanding; without infrastructure, quality and presentation suffer.</t>
-  </si>
-  <si>
-    <t>A consistent presence at market is critical to building loyal customers. When shoppers know you’ll be there every week with abundant flowers, they’ll seek out your booth instead of buying from the first vendor they see.</t>
-  </si>
-  <si>
-    <t>Careful crop planning and succession planting keep harvests steady, ensuring you have abundant stems every week to fill buckets and build market bouquets.</t>
-  </si>
-  <si>
-    <t>Without strong planning and successions, harvests may come in flushes, leaving you short on product some weeks and unable to meet customer demand.</t>
-  </si>
-  <si>
-    <t>If the market’s schedule conflicts with immovable commitments (like kids’ activities), showing up consistently will be difficult or impossible.</t>
-  </si>
-  <si>
-    <t>Having flexibility in your schedule that matches the market’s rhythm — including harvest, bouquet prep, and the market itself — makes it easier to commit week after week.</t>
-  </si>
-  <si>
-    <t>Farmers markets run on fixed days and times, and success depends on aligning your farm work and personal life to that schedule.</t>
-  </si>
-  <si>
-    <t>Mixed bouquets are the core market product at farmers markets; design skill is directly tied to your ability to attract customers to your booth and keep them coming back.</t>
-  </si>
-  <si>
-    <t>Without solid design skills, your mixed bouquets may look awkward or less professional, making it harder to compete with other vendors.</t>
-  </si>
-  <si>
-    <t>Strong design skills help you build mixed bouquets that are beautiful, balanced, and irresistible on the market table.</t>
-  </si>
-  <si>
-    <t>An outgoing, approachable personality helps you connect with customers, build loyalty, and create a welcoming booth atmosphere.</t>
-  </si>
-  <si>
-    <t>If social interaction drains you, markets may feel exhausting and hinder your ability to engage with buyers.</t>
-  </si>
-  <si>
-    <t>Markets are social by nature — success often depends as much on your presence and demeanor as on the flowers themselves.</t>
-  </si>
-  <si>
-    <t>trong organization and time management let you juggle harvesting, bouquet-making, and market prep without burning out — and ensure you arrive on time, fully prepared, and set up before the crowds arrive.</t>
-  </si>
-  <si>
-    <t>Poor organization can make market days chaotic — forgotten supplies, rushed prep, or late arrival. At many markets, arriving late can even mean losing your spot or being barred from setting up.</t>
-  </si>
-  <si>
-    <t>Farmers markets place firm demands on punctuality and preparedness. With immovable weekly deadlines, only growers with solid time management can consistently show up ready and on time.</t>
-  </si>
-  <si>
-    <t>Unlike a farmers market, subscriptions require you to drive sign-ups yourself. Marketing is essential for attracting customers.</t>
-  </si>
-  <si>
-    <t>Good marketing skills can help you attract new subscribers, highlight the value of your bouquets, and keep your subscriber list full.</t>
-  </si>
-  <si>
-    <t>Without strong marketing capabilities, your subscriber list may stay small or fail to grow.</t>
-  </si>
-  <si>
-    <t>Leveraging personal networks makes it easier to find your first subscribers, as friends, colleagues, and local contacts are often the earliest supporters.</t>
-  </si>
-  <si>
-    <t>Without strong personal connections, launching a subscription can be slow, as it’s harder to build momentum and trust at the start.</t>
-  </si>
-  <si>
-    <t>Many subscription programs start small and grow by word of mouth. A farmer’s existing relationships often determine how quickly a subscriber list fills.</t>
-  </si>
-  <si>
     <t>Subscriptions depend on regular, reliable fulfillment; proximity to customer helps keep delivery costs manageable.</t>
   </si>
   <si>
@@ -645,51 +546,6 @@
     <t>If customers are spread out, long drives can add costs, stress, and even the risk of wilted flowers.</t>
   </si>
   <si>
-    <t>Subscriptions are a promise; predictability underpins the entire model, reducing the likelihood that you have to cancel or reschedule your promised product.</t>
-  </si>
-  <si>
-    <t>A diversity of flower types lets you create interesting, abundant mixed bouquets that keep subscribers excited week after week.</t>
-  </si>
-  <si>
-    <t>Without enough variety of floral ingredients, mixed bouquets can look lackluster and lead to subscriber drop-offs.</t>
-  </si>
-  <si>
-    <t>Subscriptions generally rely heavily on mixed bouquets. To do them well, you need a steady flow of diverse ingredients across the season.</t>
-  </si>
-  <si>
-    <t>Strong planning and succession planting ensure you always have enough stems to fulfill weekly commitments without scrambling.</t>
-  </si>
-  <si>
-    <t>Without reliable production, you risk gaps in your ability to produce bouquets on-schedule. Even when customers are understanding, the extra time spent managing cancellations, rescheduling, and notifications eats into both your profits and your focus.</t>
-  </si>
-  <si>
-    <t>Good design skills keep mixed bouquets looking polished and exciting, even with the same core crops from week to week.</t>
-  </si>
-  <si>
-    <t>Subscription customers are buying your bouquets sight-unseen, and so are placing trust in your ability to create beautiful bouquets week after week.</t>
-  </si>
-  <si>
-    <t>Weak designs can make bouquets feel repetitive or amateur, which may lead subscribers to question the value of continuing.</t>
-  </si>
-  <si>
-    <t>Strong time management means you can harvest, design, and deliver on schedule every week.</t>
-  </si>
-  <si>
-    <t>Poor organization makes subscription weeks stressful and increases the risk of mistakes like late deliveries or missed bouquets.</t>
-  </si>
-  <si>
-    <t>Subscriptions impose fixed weekly deadlines, often with little flexibility. Organization and time discipline are crucial for consistent fulfillment.</t>
-  </si>
-  <si>
-    <t>Subscriptions live or die on customer trust. Clear communication, quick responses, and problem-solving are essential for long-term retention.</t>
-  </si>
-  <si>
-    <t>Without attentive service, small issues like a missed bouquet or unclear pickup instructions can lead to cancellations.</t>
-  </si>
-  <si>
-    <t>Strong customer service skills help you handle delivery issues, substitutions, and questions smoothly, keeping subscribers happy and loyal.</t>
-  </si>
-  <si>
     <t>Unlike a farmers market that provides built-in traffic, a farm stand depends on your ability to attract visitors to your location.</t>
   </si>
   <si>
@@ -877,6 +733,150 @@
   </si>
   <si>
     <t>Strong color awareness ensures you grow and supply palettes that match florist demand; making you their go-to source for locally grown flowers.</t>
+  </si>
+  <si>
+    <t>markets are built on direct interactions</t>
+  </si>
+  <si>
+    <t>strong customer service skills and sales ability help you build a loyal following, sell (and upsell) effectively, and position yourself for growth into other revenue streams</t>
+  </si>
+  <si>
+    <t>weaker customer service and sales skills make it easy to get overlooked in a busy market, with customers gravitating toward more engaging vendors</t>
+  </si>
+  <si>
+    <t>diverse crop offerings give you the ingredients needed to create abundant, eye-catching mixed bouquets that attract a wide range of buyers</t>
+  </si>
+  <si>
+    <t>limited crop diversity makes it hard to build mixed bouquets, leaving your booth looking sparse compared to other vendors</t>
+  </si>
+  <si>
+    <t>mixed bouquets are nearly required at farmers markets, and doing them well depends on having diverse ingredients</t>
+  </si>
+  <si>
+    <t>proximity to markets makes it easier to transport flowers, saving time and money, and reducing stress</t>
+  </si>
+  <si>
+    <t>being far from markets adds long drives and transport stress, cutting into profits and reducing farm time</t>
+  </si>
+  <si>
+    <t>time and transport costs directly affect profitability; the closer you are to a market, the stronger your bottom line</t>
+  </si>
+  <si>
+    <t>solid infrastructure like coolers, tents, and safe transport keeps flowers fresh, setup smooth, and you prepared each week</t>
+  </si>
+  <si>
+    <t>weak infrastructure leads to wilted flowers, chaotic setup, and stress before customers even arrive</t>
+  </si>
+  <si>
+    <t>transporting, storing, and displaying flowers is demanding; without infrastructure, quality and presentation suffer</t>
+  </si>
+  <si>
+    <t>careful crop planning and succession planting keep harvests steady, ensuring abundant stems every week for market bouquets</t>
+  </si>
+  <si>
+    <t>poor planning and failed successions cause harvests to come in flushes, leaving you short on product some weeks and unable to meet demand</t>
+  </si>
+  <si>
+    <t>consistent presence at market is critical to building loyal customers; when shoppers know you’ll be there every week with abundant offerings, they’ll seek out your booth</t>
+  </si>
+  <si>
+    <t>flexibility in your schedule that matches the market’s rhythm — including harvest, prep, and market day — makes weekly commitment possible</t>
+  </si>
+  <si>
+    <t>if the market’s schedule conflicts with immovable commitments, showing up consistently will be difficult or impossible</t>
+  </si>
+  <si>
+    <t>markets run on fixed days and times; success depends on aligning farm work and personal life to that schedule</t>
+  </si>
+  <si>
+    <t>strong design skills help build mixed bouquets that are beautiful, balanced, and irresistible on the market table</t>
+  </si>
+  <si>
+    <t>weaker design skills can make bouquets look awkward or less professional, making it harder to compete with other vendors</t>
+  </si>
+  <si>
+    <t>mixed bouquets are a core market product; design skill directly affects your ability to attract customers and keep them coming back</t>
+  </si>
+  <si>
+    <t>an outgoing, approachable personality helps connect with customers, build loyalty, and create a welcoming booth atmosphere</t>
+  </si>
+  <si>
+    <t>if social interaction is draining, markets may feel exhausting and limit your ability to engage effectively with buyers</t>
+  </si>
+  <si>
+    <t>markets are inherently social; success often depends as much on your presence and demeanor as on the flowers themselves</t>
+  </si>
+  <si>
+    <t>strong time management and organization let you juggle harvesting, bouquet-making, and market prep while arriving on time, fully prepared, and all set up before customers arrive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">weaker time management and organization skills can create chaotic market days — forgotten supplies, rushed prep, or late arrival that can even cost you your spot </t>
+  </si>
+  <si>
+    <t>markets place firm demands on punctuality and preparedness; most have immovable weekly deadlines and strict rules about set-up times</t>
+  </si>
+  <si>
+    <t>strong customer service skills help handle delivery issues, substitutions, and questions smoothly, keeping subscribers happy and loyal</t>
+  </si>
+  <si>
+    <t>subscriptions live or die on customer trust; clear communication, quick responses, and problem-solving are essential for retention</t>
+  </si>
+  <si>
+    <t>good marketing skills help attract new subscribers, highlight the value of bouquets, and keep your subscriber list full</t>
+  </si>
+  <si>
+    <t>weak marketing capabilities may cause your subscriber list to stay small or fail to grow</t>
+  </si>
+  <si>
+    <t>unlike farmers markets, subscriptions require you to drive sign-ups yourself; marketing is essential for attracting customers</t>
+  </si>
+  <si>
+    <t>leveraging personal networks makes it easier to find first subscribers, as friends, colleagues, and local contacts are often earliest supporters</t>
+  </si>
+  <si>
+    <t>without strong personal connections, launching a subscription can be slow and momentum harder to build</t>
+  </si>
+  <si>
+    <t>many subscription programs start small and grow by word of mouth; a farmer’s existing relationships often determine how quickly a list fills</t>
+  </si>
+  <si>
+    <t>inattentive service means issues like a missed bouquet or unclear pickup instructions can lead to cancellations</t>
+  </si>
+  <si>
+    <t>diverse flower types let you create abundant mixed bouquets that keep subscribers excited week after week</t>
+  </si>
+  <si>
+    <t>limited variety of floral ingredients makes bouquets look lackluster and can lead to subscriber drop-offs</t>
+  </si>
+  <si>
+    <t>subscriptions rely heavily on mixed bouquets; doing them well requires a steady flow of diverse ingredients</t>
+  </si>
+  <si>
+    <t>strong planning and succession planting ensure enough stems each week to meet commitments without scrambling</t>
+  </si>
+  <si>
+    <t>unreliable production risks gaps in weekly deliveries; managing cancellations and reschedules cuts into profits and focus</t>
+  </si>
+  <si>
+    <t>subscriptions are a promise; predictability underpins the model and reduces risk of cancellations or reschedules</t>
+  </si>
+  <si>
+    <t>strong design skills keep mixed bouquets polished and exciting and help you build them quickly</t>
+  </si>
+  <si>
+    <t>subscription customers buy bouquets sight-unseen, trusting your ability to create beautiful designs each week</t>
+  </si>
+  <si>
+    <t>weak designs make bouquets feel repetitive or amateur, leading subscribers to question the value of continuing</t>
+  </si>
+  <si>
+    <t>strong time management ensures you can harvest, design, and deliver on schedule every week and organization skills are key to pulling off efficient delivery schedules</t>
+  </si>
+  <si>
+    <t>poor time management and organization makes subscription weeks stressful and increases the risk of late deliveries or missed bouquets</t>
+  </si>
+  <si>
+    <t>subscriptions assume fixed weekly deadlines with limited flexibility; organization and discipline are crucial for consistency</t>
   </si>
 </sst>
 </file>
@@ -978,7 +978,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1041,9 +1041,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2811,7 +2808,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>26</v>
       </c>
@@ -2907,7 +2904,7 @@
         <v>Proximity to Customers, Product Diversity, Floral Design</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
         <v>28</v>
       </c>
@@ -2955,7 +2952,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:9" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>29</v>
       </c>
@@ -3243,7 +3240,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
         <v>35</v>
       </c>
@@ -3291,7 +3288,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
         <v>36</v>
       </c>
@@ -3339,7 +3336,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
         <v>37</v>
       </c>
@@ -3387,7 +3384,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
         <v>38</v>
       </c>
@@ -3435,7 +3432,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
         <v>39</v>
       </c>
@@ -3483,7 +3480,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
         <v>40</v>
       </c>
@@ -3531,7 +3528,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:9" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
         <v>41</v>
       </c>
@@ -3627,7 +3624,7 @@
         <v>Product Diversity, Floral Design</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
         <v>43</v>
       </c>
@@ -4466,8 +4463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74EBBEDC-5414-B442-BDB4-EC1529FD0ACE}">
   <dimension ref="A1:G343"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="A112" sqref="A112"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4505,7 +4502,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="96" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>130</v>
       </c>
@@ -4519,13 +4516,13 @@
         <v>5</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>156</v>
+        <v>223</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>158</v>
+        <v>224</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>157</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -4570,7 +4567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>130</v>
       </c>
@@ -4584,13 +4581,13 @@
         <v>4</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>159</v>
+        <v>228</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>160</v>
+        <v>229</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>161</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -4635,7 +4632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>130</v>
       </c>
@@ -4649,13 +4646,13 @@
         <v>5</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>163</v>
+        <v>225</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>162</v>
+        <v>226</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>164</v>
+        <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -4686,16 +4683,16 @@
         <v>4</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>166</v>
+        <v>231</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>165</v>
+        <v>232</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="96" x14ac:dyDescent="0.2">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="80" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>130</v>
       </c>
@@ -4709,13 +4706,13 @@
         <v>4</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>169</v>
+        <v>234</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>170</v>
+        <v>235</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>168</v>
+        <v>236</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="64" x14ac:dyDescent="0.2">
@@ -4732,13 +4729,13 @@
         <v>4</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>172</v>
+        <v>237</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>171</v>
+        <v>238</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>173</v>
+        <v>239</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -4755,7 +4752,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="80" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>130</v>
       </c>
@@ -4769,13 +4766,13 @@
         <v>4</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>176</v>
+        <v>240</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>175</v>
+        <v>241</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>174</v>
+        <v>242</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -4806,13 +4803,13 @@
         <v>5</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>177</v>
+        <v>243</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>178</v>
+        <v>244</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>179</v>
+        <v>245</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -4829,7 +4826,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="80" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>130</v>
       </c>
@@ -4843,82 +4840,82 @@
         <v>5</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>180</v>
+        <v>246</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>181</v>
+        <v>247</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>182</v>
+        <v>248</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="64" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
+      <c r="A21" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" t="s">
         <v>152</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="14">
-        <v>4</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>205</v>
+      <c r="D21">
+        <v>4</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>257</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>204</v>
+        <v>250</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="64" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
+      <c r="A22" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" t="s">
         <v>152</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="14">
-        <v>5</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>184</v>
+      <c r="D22">
+        <v>5</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>251</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>185</v>
+        <v>252</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>183</v>
+        <v>253</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="64" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
+      <c r="A23" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" t="s">
         <v>152</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="14">
-        <v>4</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>188</v>
+      <c r="D23">
+        <v>4</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -4949,13 +4946,13 @@
         <v>4</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>190</v>
+        <v>157</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>191</v>
+        <v>158</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>189</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -5000,7 +4997,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>27</v>
       </c>
@@ -5014,13 +5011,13 @@
         <v>5</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>193</v>
+        <v>258</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>194</v>
+        <v>259</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>195</v>
+        <v>260</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -5051,7 +5048,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="96" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>27</v>
       </c>
@@ -5065,13 +5062,13 @@
         <v>4</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>196</v>
+        <v>261</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>197</v>
+        <v>262</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>192</v>
+        <v>263</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -5102,7 +5099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>27</v>
       </c>
@@ -5116,13 +5113,13 @@
         <v>4</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>198</v>
+        <v>264</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>200</v>
+        <v>266</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>199</v>
+        <v>265</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -5181,13 +5178,13 @@
         <v>4</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>201</v>
+        <v>267</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>202</v>
+        <v>268</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>203</v>
+        <v>269</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
@@ -5218,13 +5215,13 @@
         <v>5</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>209</v>
+        <v>161</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>208</v>
+        <v>160</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>207</v>
+        <v>159</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="48" x14ac:dyDescent="0.2">
@@ -5241,13 +5238,13 @@
         <v>4</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="F42" s="23" t="s">
-        <v>211</v>
-      </c>
-      <c r="G42" s="23" t="s">
-        <v>212</v>
+        <v>162</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -5263,7 +5260,6 @@
       <c r="D43" s="14">
         <v>1</v>
       </c>
-      <c r="G43" s="3"/>
     </row>
     <row r="44" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
@@ -5279,13 +5275,13 @@
         <v>5</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>213</v>
+        <v>165</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>214</v>
+        <v>166</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>215</v>
+        <v>167</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="64" x14ac:dyDescent="0.2">
@@ -5302,13 +5298,13 @@
         <v>4</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>216</v>
+        <v>168</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>217</v>
+        <v>169</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>218</v>
+        <v>170</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
@@ -5324,7 +5320,6 @@
       <c r="D46" s="14">
         <v>3</v>
       </c>
-      <c r="E46" s="3"/>
     </row>
     <row r="47" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
@@ -5340,13 +5335,13 @@
         <v>4</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>219</v>
+        <v>171</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>220</v>
+        <v>172</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>221</v>
+        <v>173</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="64" x14ac:dyDescent="0.2">
@@ -5363,13 +5358,13 @@
         <v>4</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>225</v>
+        <v>177</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>227</v>
+        <v>179</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>226</v>
+        <v>178</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
@@ -5456,13 +5451,13 @@
         <v>4</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>222</v>
+        <v>174</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>223</v>
+        <v>175</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>224</v>
+        <v>176</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
@@ -5535,13 +5530,13 @@
         <v>4</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>230</v>
+        <v>182</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>229</v>
+        <v>181</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>228</v>
+        <v>180</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="64" x14ac:dyDescent="0.2">
@@ -5558,13 +5553,13 @@
         <v>5</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>233</v>
+        <v>185</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>232</v>
+        <v>184</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>231</v>
+        <v>183</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
@@ -5609,13 +5604,13 @@
         <v>4</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>235</v>
+        <v>187</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>234</v>
+        <v>186</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>236</v>
+        <v>188</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
@@ -5674,13 +5669,13 @@
         <v>5</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>237</v>
+        <v>189</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>238</v>
+        <v>190</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>239</v>
+        <v>191</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
@@ -5739,13 +5734,13 @@
         <v>4</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>248</v>
+        <v>200</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>247</v>
+        <v>199</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>246</v>
+        <v>198</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
@@ -5776,13 +5771,13 @@
         <v>5</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>240</v>
+        <v>192</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>241</v>
+        <v>193</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>242</v>
+        <v>194</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="80" x14ac:dyDescent="0.2">
@@ -5799,13 +5794,13 @@
         <v>4</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>245</v>
+        <v>197</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>244</v>
+        <v>196</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>243</v>
+        <v>195</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
@@ -5878,13 +5873,13 @@
         <v>5</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>251</v>
+        <v>203</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>250</v>
+        <v>202</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>249</v>
+        <v>201</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
@@ -5985,13 +5980,13 @@
         <v>4</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>253</v>
+        <v>205</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>254</v>
+        <v>206</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>252</v>
+        <v>204</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
@@ -6036,13 +6031,13 @@
         <v>4</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>255</v>
+        <v>207</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>256</v>
+        <v>208</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>257</v>
+        <v>209</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
@@ -6087,13 +6082,13 @@
         <v>4</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>260</v>
+        <v>212</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>259</v>
+        <v>211</v>
       </c>
       <c r="G92" s="5" t="s">
-        <v>258</v>
+        <v>210</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
@@ -6306,13 +6301,13 @@
         <v>4</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>263</v>
+        <v>215</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>262</v>
+        <v>214</v>
       </c>
       <c r="G107" s="5" t="s">
-        <v>261</v>
+        <v>213</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="48" x14ac:dyDescent="0.2">
@@ -6329,13 +6324,13 @@
         <v>4</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>266</v>
+        <v>218</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>265</v>
+        <v>217</v>
       </c>
       <c r="G108" s="5" t="s">
-        <v>264</v>
+        <v>216</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
@@ -6394,13 +6389,13 @@
         <v>4</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>269</v>
+        <v>221</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>267</v>
+        <v>219</v>
       </c>
       <c r="G112" s="5" t="s">
-        <v>268</v>
+        <v>220</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">

--- a/Extreme_Weighting_Scoring_Prototype_for_FormWise_REPAIRED.xlsx
+++ b/Extreme_Weighting_Scoring_Prototype_for_FormWise_REPAIRED.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sharon/Downloads/rsc-app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB4E07A-0D20-6D4F-A435-475FA4986C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70F50901-3CC7-874F-8CA3-1ED8C2FCB765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="24820" windowHeight="21900" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -738,30 +738,9 @@
     <t>markets are built on direct interactions</t>
   </si>
   <si>
-    <t>strong customer service skills and sales ability help you build a loyal following, sell (and upsell) effectively, and position yourself for growth into other revenue streams</t>
-  </si>
-  <si>
-    <t>weaker customer service and sales skills make it easy to get overlooked in a busy market, with customers gravitating toward more engaging vendors</t>
-  </si>
-  <si>
-    <t>diverse crop offerings give you the ingredients needed to create abundant, eye-catching mixed bouquets that attract a wide range of buyers</t>
-  </si>
-  <si>
-    <t>limited crop diversity makes it hard to build mixed bouquets, leaving your booth looking sparse compared to other vendors</t>
-  </si>
-  <si>
     <t>mixed bouquets are nearly required at farmers markets, and doing them well depends on having diverse ingredients</t>
   </si>
   <si>
-    <t>proximity to markets makes it easier to transport flowers, saving time and money, and reducing stress</t>
-  </si>
-  <si>
-    <t>being far from markets adds long drives and transport stress, cutting into profits and reducing farm time</t>
-  </si>
-  <si>
-    <t>time and transport costs directly affect profitability; the closer you are to a market, the stronger your bottom line</t>
-  </si>
-  <si>
     <t>solid infrastructure like coolers, tents, and safe transport keeps flowers fresh, setup smooth, and you prepared each week</t>
   </si>
   <si>
@@ -877,6 +856,27 @@
   </si>
   <si>
     <t>subscriptions assume fixed weekly deadlines with limited flexibility; organization and discipline are crucial for consistency</t>
+  </si>
+  <si>
+    <t>your strong customer service skills and sales ability help you build a loyal following, sell (and upsell) effectively, and position yourself for growth into other revenue streams</t>
+  </si>
+  <si>
+    <t>your weaker customer service and sales skills make it easy to get overlooked in a busy market, with customers gravitating toward more engaging vendors</t>
+  </si>
+  <si>
+    <t>your proximity to markets makes it easier to transport flowers, saving time and money, and reducing stress</t>
+  </si>
+  <si>
+    <t>time and transport costs directly affect profitability</t>
+  </si>
+  <si>
+    <t>your diverse crop offerings give you the ingredients needed to create abundant, eye-catching mixed bouquets that attract a wide range of buyers</t>
+  </si>
+  <si>
+    <t>your limited crop diversity makes it hard to build mixed bouquets, leaving your booth looking sparse compared to other vendors</t>
+  </si>
+  <si>
+    <t>your distance from markets means long drives and transport stress</t>
   </si>
 </sst>
 </file>
@@ -4463,8 +4463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74EBBEDC-5414-B442-BDB4-EC1529FD0ACE}">
   <dimension ref="A1:G343"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4516,10 +4516,10 @@
         <v>5</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>223</v>
+        <v>263</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>224</v>
+        <v>264</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>222</v>
@@ -4581,13 +4581,13 @@
         <v>4</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>228</v>
+        <v>265</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>229</v>
+        <v>269</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>230</v>
+        <v>266</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -4632,7 +4632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>130</v>
       </c>
@@ -4646,13 +4646,13 @@
         <v>5</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>225</v>
+        <v>267</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>226</v>
+        <v>268</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -4683,13 +4683,13 @@
         <v>4</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="80" x14ac:dyDescent="0.2">
@@ -4706,13 +4706,13 @@
         <v>4</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="64" x14ac:dyDescent="0.2">
@@ -4729,13 +4729,13 @@
         <v>4</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -4766,13 +4766,13 @@
         <v>4</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -4803,13 +4803,13 @@
         <v>5</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -4840,13 +4840,13 @@
         <v>5</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="64" x14ac:dyDescent="0.2">
@@ -4863,13 +4863,13 @@
         <v>4</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="64" x14ac:dyDescent="0.2">
@@ -4886,13 +4886,13 @@
         <v>5</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="64" x14ac:dyDescent="0.2">
@@ -4909,13 +4909,13 @@
         <v>4</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -5011,13 +5011,13 @@
         <v>5</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -5062,13 +5062,13 @@
         <v>4</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -5113,13 +5113,13 @@
         <v>4</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -5178,13 +5178,13 @@
         <v>4</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">

--- a/Extreme_Weighting_Scoring_Prototype_for_FormWise_REPAIRED.xlsx
+++ b/Extreme_Weighting_Scoring_Prototype_for_FormWise_REPAIRED.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sharon/Downloads/rsc-app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70F50901-3CC7-874F-8CA3-1ED8C2FCB765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{975EFA93-1E37-4240-B47A-6DFDD790C531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="24820" windowHeight="21900" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -858,9 +858,6 @@
     <t>subscriptions assume fixed weekly deadlines with limited flexibility; organization and discipline are crucial for consistency</t>
   </si>
   <si>
-    <t>your strong customer service skills and sales ability help you build a loyal following, sell (and upsell) effectively, and position yourself for growth into other revenue streams</t>
-  </si>
-  <si>
     <t>your weaker customer service and sales skills make it easy to get overlooked in a busy market, with customers gravitating toward more engaging vendors</t>
   </si>
   <si>
@@ -877,6 +874,9 @@
   </si>
   <si>
     <t>your distance from markets means long drives and transport stress</t>
+  </si>
+  <si>
+    <t>your strong customer service skills and sales ability will help you build a loyal following, sell (and upsell) effectively, and position yourself for growth into other revenue streams</t>
   </si>
 </sst>
 </file>
@@ -4464,7 +4464,7 @@
   <dimension ref="A1:G343"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4516,10 +4516,10 @@
         <v>5</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>263</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>264</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>222</v>
@@ -4581,13 +4581,13 @@
         <v>4</v>
       </c>
       <c r="E6" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>265</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -4646,10 +4646,10 @@
         <v>5</v>
       </c>
       <c r="E10" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>267</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>268</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>223</v>

--- a/Extreme_Weighting_Scoring_Prototype_for_FormWise_REPAIRED.xlsx
+++ b/Extreme_Weighting_Scoring_Prototype_for_FormWise_REPAIRED.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sharon/Downloads/rsc-app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{975EFA93-1E37-4240-B47A-6DFDD790C531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A52D000E-139F-0B43-A9E4-C695D221C895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="24820" windowHeight="21900" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="24820" windowHeight="21900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1514" uniqueCount="373">
   <si>
     <t>Section</t>
   </si>
@@ -714,18 +714,12 @@
     <t>Without solid infrastructure, flowers may arrive wilted, damaged, or late, undermining trust with florists.</t>
   </si>
   <si>
-    <t>Strong infrastructure — from coolers to delivery systems — keeps stems fresh and organized, ensuring florists receive high-quality product.</t>
-  </si>
-  <si>
     <t>Florists build their orders and commitments around availability; they need dependable quantities and timing.</t>
   </si>
   <si>
     <t>Without predictability, florists can’t plan their own designs or events, and they may turn to other suppliers.</t>
   </si>
   <si>
-    <t>Reliable production and succession planting give florists confidence they can count on you week after week.</t>
-  </si>
-  <si>
     <t>Without attention to color requests, you risk producing flowers that don’t align with florist expectations, which affect repeat sales and weaken trust.</t>
   </si>
   <si>
@@ -877,6 +871,321 @@
   </si>
   <si>
     <t>your strong customer service skills and sales ability will help you build a loyal following, sell (and upsell) effectively, and position yourself for growth into other revenue streams</t>
+  </si>
+  <si>
+    <t>not having the ability to achieve high volume production means you may have trouble growing enough material to satisfy the demands of a wholesaler</t>
+  </si>
+  <si>
+    <t>having the ability to achieve high volume production means you will likely be able to grow enough material to satisfy the demands of a wholesaler</t>
+  </si>
+  <si>
+    <t>Strong infrastructure — from coolers to delivery systems — keeps stems fresh and organized, ensuring florists receive high-quality product</t>
+  </si>
+  <si>
+    <t>Wholesalers depend on consistent quality and timing; your infrastructure is what protects stems from harvest to handoff.</t>
+  </si>
+  <si>
+    <t>Without solid infrastructure, your flowers may not meet the wholesalers' standards</t>
+  </si>
+  <si>
+    <t>Strong infrastructure — from coolers to delivery systems — keeps stems fresh and organized, ensuring you can deliver high quality product to the wholesaler</t>
+  </si>
+  <si>
+    <t>Reliable production and succession planting give florists confidence they can count on you week after week, or to deliver product in time for large events</t>
+  </si>
+  <si>
+    <t>Your ability to predict when your flowers will be ready for harvest means you can provide wholesalers with this information in a timely way</t>
+  </si>
+  <si>
+    <t>your limited ability to predict when your flowers will be ready for harvest means you cannot provide wholesalers with this information in a timely way</t>
+  </si>
+  <si>
+    <t>Wholesalers build their availability listings well in advance of their customers' needs; they need quantity and timing information that is highly accurate -- as far in advance of delivery as possible</t>
+  </si>
+  <si>
+    <t>having the ability to achieve high volume production means you will likely be able to grow enough material to satisfy the demands of a large grocery store</t>
+  </si>
+  <si>
+    <t>wholesalers work with large volumes of floral material; small transactions of blooms are likely not worth the effort for them</t>
+  </si>
+  <si>
+    <t>not having the ability to achieve high volume production means you may have trouble growing enough material to satisfy the demands of a large grocery store</t>
+  </si>
+  <si>
+    <t>grocery stores move very large volumes of flowers; small transactions may not be of interest to them</t>
+  </si>
+  <si>
+    <t>Without solid infrastructure, your flowers may not meet the store's standards for freshness</t>
+  </si>
+  <si>
+    <t>Strong infrastructure — from coolers to delivery systems — keeps bouquets fresh, ensuring you can deliver high quality product</t>
+  </si>
+  <si>
+    <t>Your ability to predict when your flowers will be ready for harvest means you will be in a strong position to deliver exactly what you've promised</t>
+  </si>
+  <si>
+    <t>grocery stores depend on consistent quality and precise timing</t>
+  </si>
+  <si>
+    <t>grocery stores are looking for mixed bouquets that will attract customers; your ability to make attractive bouquets quickly is key to profitability</t>
+  </si>
+  <si>
+    <t>weak design skills may result in your bouquets not selling well</t>
+  </si>
+  <si>
+    <t>grocery stores often operate on extremely tight schedules and have very narrow delivery windows</t>
+  </si>
+  <si>
+    <t>strong time management ensures you can harvest, design, and deliver on schedule every week</t>
+  </si>
+  <si>
+    <t>poor time management and organization increases the risk of late deliveries or delivery of the wrong product</t>
+  </si>
+  <si>
+    <t>your ability to predict when your flowers will be ready for harvest means you will be in a strong position to deliver exactly what you've promised and can provide this information early</t>
+  </si>
+  <si>
+    <t>florists looking to purchase from a collective appreciate having availability information as early as possible, so that they can make informed buying decisions</t>
+  </si>
+  <si>
+    <t>your limited ability to predict when your flowers will be ready for harvest means you may end up without available product when you thought you would have it</t>
+  </si>
+  <si>
+    <t>grocery stores buy well in advance of their sales to their customers, and expect regular, recurring delivery</t>
+  </si>
+  <si>
+    <t>your limited network of relationships with other local business owners means fewer opportunities to leverage existing relationships to create stockist opportunities</t>
+  </si>
+  <si>
+    <t>your strong network of relationships with other local business owners means more opportunities to leverage existing relationships to create stockist opportunities</t>
+  </si>
+  <si>
+    <t>your farm's location close to your customers makes it easy to keep deliveries efficient</t>
+  </si>
+  <si>
+    <t>Mixed bouquets are a core product for grocery stores, and doing them well depends on having diverse ingredients available throughout the season.</t>
+  </si>
+  <si>
+    <t>A diversity of flower types gives you the ingredients you need to make abundant, eye-catching mixed bouquets</t>
+  </si>
+  <si>
+    <t>Mixed bouquets are a popular product when selling them via consignment; doing them well depends on having diverse ingredients available throughout the season.</t>
+  </si>
+  <si>
+    <t>strong design skills help build mixed bouquets that are beautiful, balanced, and irresistible to customers</t>
+  </si>
+  <si>
+    <t>weaker design skills can make bouquets look awkward or less professional, making them a harder sell</t>
+  </si>
+  <si>
+    <t>because your farm is located far from population centers where customers are located, long drives can add costs, stress, and even the risk of wilted flowers</t>
+  </si>
+  <si>
+    <t>Proximity to population centers and other locations where shopkeepers exist helps keep delivery costs manageable</t>
+  </si>
+  <si>
+    <t>Mixed bouquets are a popular product for stores interested in selling your flowers; doing them well depends on having diverse ingredients available throughout the season.</t>
+  </si>
+  <si>
+    <t>mixed bouquets are a core product when selling on consignment; design skill has a major impact on their attractiveness to customers</t>
+  </si>
+  <si>
+    <t>mixed bouquets are a core product when selling as a stockist; your design skills directly affect your customer's ability to sell them in their shop</t>
+  </si>
+  <si>
+    <t>your strong network of relationships with other local business owners means more opportunities to leverage existing relationships to create consignment opportunities</t>
+  </si>
+  <si>
+    <t>your limited network of relationships with other local business owners means fewer opportunities to leverage existing relationships to create consignment opportunities</t>
+  </si>
+  <si>
+    <t>existing relationships increase the likelihood of finding potential shop owners willing to sell your flowers; more relationships mean more sales opportunities</t>
+  </si>
+  <si>
+    <t>existing relationships increase the likelihood of identifying potential stockists willing to stock your flowers; more relationships mean more sales opportunities</t>
+  </si>
+  <si>
+    <t>because consignment sales often mean you are responsible for keeping your display looking fresh and attractive, this can mean multiple trips to the shop where they are being sold</t>
+  </si>
+  <si>
+    <t>time spent on the road lowers your productivity and transportation costs cut into your profits</t>
+  </si>
+  <si>
+    <t>less time spent on the road protects your productivity and keeps transportation costs  low</t>
+  </si>
+  <si>
+    <t>weak customer service and sales ability can make consultations stressful, erode client trust, and risk losing referrals</t>
+  </si>
+  <si>
+    <t>full-service weddings involve high emotion, big budgets, and many decisions; strong service and sales skills are critical for both landing clients and keeping them happy</t>
+  </si>
+  <si>
+    <t>strong customer service and sales skills help you guide couples through decisions, manage expectations, and handle inevitable changes smoothly</t>
+  </si>
+  <si>
+    <t>effective marketing helps you stand out in a competitive market, showcase your style, and attract couples who align with your aesthetic</t>
+  </si>
+  <si>
+    <t>weak marketing presence makes it hard for couples to find you, limiting inquiries and leaving your calendar underbooked</t>
+  </si>
+  <si>
+    <t>the wedding market is crowded; clear, consistent marketing is essential for visibility and attracting the right-fit clients</t>
+  </si>
+  <si>
+    <t>Weddings &amp; Events</t>
+  </si>
+  <si>
+    <t>diverse crop offerings and access to supplemental product allow you to design for varied palettes and styles throughout wedding season</t>
+  </si>
+  <si>
+    <t>limited diversity or access to ingredients makes it difficult to meet client requests and can force costly last-minute purchases</t>
+  </si>
+  <si>
+    <t>full-service weddings demand a wide range of flowers and foliage to create the various designs required and satisfy client preferences</t>
+  </si>
+  <si>
+    <t>lack of reliable infrastructure leads to wilted flowers, delayed setups, and logistical breakdowns on event day</t>
+  </si>
+  <si>
+    <t>weddings require large volumes of product to be processed, stored, and transported; infrastructure underpins quality and professionalism</t>
+  </si>
+  <si>
+    <t>consistent crop planning and reliable sourcing give you confidence to promise specific designs to clients</t>
+  </si>
+  <si>
+    <t>unreliable production or sourcing undermines your ability to commit to palettes and varieties, risking client disappointment</t>
+  </si>
+  <si>
+    <t>weddings are booked months in advance; predictable product supply is essential to delivering promised designs</t>
+  </si>
+  <si>
+    <t>flexible scheduling allows you to manage harvest, design, delivery, and on-site setup around fixed wedding timelines</t>
+  </si>
+  <si>
+    <t>conflicts or rigid schedules make it hard to accommodate demanding event timelines, leading to stress and potential mistakes</t>
+  </si>
+  <si>
+    <t>weddings run on strict event schedules; flexibility is crucial for meeting immovable deadlines</t>
+  </si>
+  <si>
+    <t>strong financial resources allow you to cover upfront costs for product, labor, and rentals until final client payments arrive</t>
+  </si>
+  <si>
+    <t>limited financial reserves create cash-flow stress, making it hard to purchase supplies or hire help when needed</t>
+  </si>
+  <si>
+    <t>alignment issues or weak design skills result in arrangements that fall short of client expectations and harm reputation</t>
+  </si>
+  <si>
+    <t>wedding clients are paying for artistry and aesthetic excellence; design quality is central to perceived value</t>
+  </si>
+  <si>
+    <t>a strong eye for color ensures palettes match client vision and elevate event design</t>
+  </si>
+  <si>
+    <t>poor color choices result in mismatched or disappointing arrangements that don’t fit the wedding aesthetic</t>
+  </si>
+  <si>
+    <t>color is often the client’s highest priority; matching palettes is critical for satisfaction and referrals</t>
+  </si>
+  <si>
+    <t>high tolerance for stress and risk helps you stay calm under pressure and adapt to last-minute changes</t>
+  </si>
+  <si>
+    <t>low stress tolerance makes wedding work overwhelming and can lead to burnout or mistakes</t>
+  </si>
+  <si>
+    <t>weddings are high-stakes events with no do-overs; stress management is essential for success</t>
+  </si>
+  <si>
+    <t>strong organization and time management ensure complex workflows from harvest to installation run smoothly</t>
+  </si>
+  <si>
+    <t>poor organization risks missed details, late setups, or forgotten elements on event day</t>
+  </si>
+  <si>
+    <t>weddings require coordinating many moving pieces; time discipline and organization are critical to execution</t>
+  </si>
+  <si>
+    <t>strong infrastructure like coolers, vehicles, and workspace ensures flowers stay fresh and designs can be executed at scale</t>
+  </si>
+  <si>
+    <t>full-service weddings require significant upfront investment before the event revenue is received</t>
+  </si>
+  <si>
+    <t>strong design skills allow you to create cohesive, large-scale wedding florals that impress clients and photographers and lead to referrals</t>
+  </si>
+  <si>
+    <t>effective marketing helps you reach couples who want floral design but not full-service packages</t>
+  </si>
+  <si>
+    <t>weak marketing presence limits visibility and reduces inquiries from budget-conscious or DIY-minded couples</t>
+  </si>
+  <si>
+    <t>à la carte weddings appeal to a specific client segment; strong marketing is needed to connect with those looking for partial design support</t>
+  </si>
+  <si>
+    <t>diverse crop offerings give you flexibility to design à la carte pieces that match varied palettes and wedding styles</t>
+  </si>
+  <si>
+    <t>limited product diversity makes it difficult to accommodate specific client color requests or design preferences</t>
+  </si>
+  <si>
+    <t>à la carte clients expect the same design quality as full-service weddings but with less customization; diversity allows you to deliver within constraints</t>
+  </si>
+  <si>
+    <t>reliable infrastructure like coolers and delivery systems ensures flowers stay fresh and pieces arrive intact</t>
+  </si>
+  <si>
+    <t>lack of infrastructure risks wilted product and poor presentation on event day</t>
+  </si>
+  <si>
+    <t>even without full-service installations, à la carte designs must be stored and delivered with professional quality</t>
+  </si>
+  <si>
+    <t>consistent crop planning and reliable sourcing allow you to confidently promise à la carte offerings to clients</t>
+  </si>
+  <si>
+    <t>unpredictable supply makes it risky to commit to specific designs or palettes for weddings</t>
+  </si>
+  <si>
+    <t>clients expect contracted items to be delivered as promised; predictability underpins trust and satisfaction</t>
+  </si>
+  <si>
+    <t>flexible scheduling helps you manage harvest, design, and delivery around multiple smaller events</t>
+  </si>
+  <si>
+    <t>conflicting commitments or rigid schedules make it hard to meet fixed pickup or drop-off times</t>
+  </si>
+  <si>
+    <t>à la carte weddings still run on immovable timelines; flexibility ensures you can meet them consistently</t>
+  </si>
+  <si>
+    <t>strong design skills let you create polished bouquets, centerpieces, and wearables that meet professional standards</t>
+  </si>
+  <si>
+    <t>weak design skills leave arrangements looking amateur and may cause clients to regret skipping full-service packages</t>
+  </si>
+  <si>
+    <t>clients choose à la carte to save money but still expect professional-quality designs</t>
+  </si>
+  <si>
+    <t>a strong eye for color ensures you match palettes precisely and meet client expectations</t>
+  </si>
+  <si>
+    <t>misjudging or mis-matching colors disappoints clients and undermines trust</t>
+  </si>
+  <si>
+    <t>color is often the client’s top priority in à la carte orders; accuracy is critical even without full customization</t>
+  </si>
+  <si>
+    <t>strong time management allows you to juggle farm tasks with smaller event orders and deliver on time</t>
+  </si>
+  <si>
+    <t>poor organization risks late deliveries, forgotten items, or rushed design work</t>
+  </si>
+  <si>
+    <t>even small à la carte weddings carry client expectations; deadlines must be met reliably</t>
   </si>
 </sst>
 </file>
@@ -886,7 +1195,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -932,13 +1241,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -978,7 +1300,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1040,6 +1362,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1569,8 +1912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2221,7 +2564,7 @@
         <v>2</v>
       </c>
       <c r="S11" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
@@ -2327,7 +2670,7 @@
         <v>5</v>
       </c>
       <c r="O13" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P13" s="7">
         <v>3</v>
@@ -2365,7 +2708,7 @@
         <v>3</v>
       </c>
       <c r="H14" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I14" s="7">
         <v>5</v>
@@ -4463,8 +4806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74EBBEDC-5414-B442-BDB4-EC1529FD0ACE}">
   <dimension ref="A1:G343"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="A228" workbookViewId="0">
+      <selection activeCell="G254" sqref="G254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4516,13 +4859,13 @@
         <v>5</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -4581,13 +4924,13 @@
         <v>4</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -4646,13 +4989,13 @@
         <v>5</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -4683,13 +5026,13 @@
         <v>4</v>
       </c>
       <c r="E12" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>224</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="80" x14ac:dyDescent="0.2">
@@ -4706,13 +5049,13 @@
         <v>4</v>
       </c>
       <c r="E13" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="G13" s="5" t="s">
         <v>227</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="64" x14ac:dyDescent="0.2">
@@ -4729,13 +5072,13 @@
         <v>4</v>
       </c>
       <c r="E14" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G14" s="5" t="s">
         <v>230</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -4766,13 +5109,13 @@
         <v>4</v>
       </c>
       <c r="E16" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="G16" s="5" t="s">
         <v>233</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -4803,13 +5146,13 @@
         <v>5</v>
       </c>
       <c r="E18" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="G18" s="5" t="s">
         <v>236</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -4840,13 +5183,13 @@
         <v>5</v>
       </c>
       <c r="E20" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="64" x14ac:dyDescent="0.2">
@@ -4863,13 +5206,13 @@
         <v>4</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="64" x14ac:dyDescent="0.2">
@@ -4886,13 +5229,13 @@
         <v>5</v>
       </c>
       <c r="E22" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>244</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="64" x14ac:dyDescent="0.2">
@@ -4909,13 +5252,13 @@
         <v>4</v>
       </c>
       <c r="E23" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>247</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -5011,13 +5354,13 @@
         <v>5</v>
       </c>
       <c r="E29" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="G29" s="5" t="s">
         <v>251</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -5062,13 +5405,13 @@
         <v>4</v>
       </c>
       <c r="E32" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>254</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -5113,13 +5456,13 @@
         <v>4</v>
       </c>
       <c r="E35" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="F35" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="F35" s="5" t="s">
-        <v>259</v>
-      </c>
       <c r="G35" s="5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -5178,13 +5521,13 @@
         <v>4</v>
       </c>
       <c r="E39" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="G39" s="5" t="s">
         <v>260</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
@@ -6301,7 +6644,7 @@
         <v>4</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>215</v>
+        <v>270</v>
       </c>
       <c r="F107" s="5" t="s">
         <v>214</v>
@@ -6310,7 +6653,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
         <v>134</v>
       </c>
@@ -6324,13 +6667,13 @@
         <v>4</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>218</v>
+        <v>274</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G108" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
@@ -6389,16 +6732,16 @@
         <v>4</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G112" s="5" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
         <v>134</v>
       </c>
@@ -6412,7 +6755,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
         <v>134</v>
       </c>
@@ -6426,7 +6769,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
         <v>134</v>
       </c>
@@ -6440,7 +6783,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
         <v>135</v>
       </c>
@@ -6454,7 +6797,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
         <v>135</v>
       </c>
@@ -6468,7 +6811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
         <v>135</v>
       </c>
@@ -6482,7 +6825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
         <v>135</v>
       </c>
@@ -6496,7 +6839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
         <v>135</v>
       </c>
@@ -6510,7 +6853,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
         <v>135</v>
       </c>
@@ -6524,7 +6867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
         <v>135</v>
       </c>
@@ -6538,7 +6881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
         <v>135</v>
       </c>
@@ -6552,7 +6895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
         <v>135</v>
       </c>
@@ -6566,63 +6909,93 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A125" s="3" t="s">
+    <row r="125" spans="1:7" s="23" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A125" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="B125" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C125" s="3" t="s">
+      <c r="B125" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="C125" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D125" s="14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A126" s="3" t="s">
+      <c r="D125" s="24">
+        <v>5</v>
+      </c>
+      <c r="E125" s="25" t="s">
+        <v>269</v>
+      </c>
+      <c r="F125" s="25" t="s">
+        <v>268</v>
+      </c>
+      <c r="G125" s="25" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" s="23" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A126" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="B126" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C126" s="3" t="s">
+      <c r="B126" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="C126" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D126" s="14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A127" s="3" t="s">
+      <c r="D126" s="24">
+        <v>5</v>
+      </c>
+      <c r="E126" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="F126" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="G126" s="5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" s="23" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A127" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="B127" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C127" s="3" t="s">
+      <c r="B127" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="C127" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D127" s="14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A128" s="3" t="s">
+      <c r="D127" s="24">
+        <v>5</v>
+      </c>
+      <c r="E127" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="F127" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="G127" s="5" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="B128" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C128" s="3" t="s">
+      <c r="B128" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="C128" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D128" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D128" s="24">
+        <v>3</v>
+      </c>
+      <c r="E128" s="25"/>
+      <c r="F128" s="25"/>
+      <c r="G128" s="25"/>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
         <v>135</v>
       </c>
@@ -6636,7 +7009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
         <v>135</v>
       </c>
@@ -6650,7 +7023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
         <v>135</v>
       </c>
@@ -6664,7 +7037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
         <v>135</v>
       </c>
@@ -6678,7 +7051,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
         <v>135</v>
       </c>
@@ -6692,21 +7065,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A134" s="3" t="s">
+    <row r="134" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="B134" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C134" s="3" t="s">
+      <c r="B134" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="C134" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="D134" s="14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D134" s="27">
+        <v>5</v>
+      </c>
+      <c r="E134" s="28"/>
+      <c r="F134" s="28"/>
+      <c r="G134" s="28"/>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
         <v>136</v>
       </c>
@@ -6720,7 +7096,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
         <v>136</v>
       </c>
@@ -6734,7 +7110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
         <v>136</v>
       </c>
@@ -6748,7 +7124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
         <v>136</v>
       </c>
@@ -6762,7 +7138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
         <v>136</v>
       </c>
@@ -6776,7 +7152,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
         <v>136</v>
       </c>
@@ -6790,7 +7166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
         <v>136</v>
       </c>
@@ -6804,7 +7180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
         <v>136</v>
       </c>
@@ -6818,77 +7194,116 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A143" s="3" t="s">
+    <row r="143" spans="1:7" s="23" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A143" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="B143" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C143" s="3" t="s">
+      <c r="B143" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="C143" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D143" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A144" s="3" t="s">
+      <c r="D143" s="24">
+        <v>4</v>
+      </c>
+      <c r="E143" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="F143" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="G143" s="5" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" s="23" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A144" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="B144" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C144" s="3" t="s">
+      <c r="B144" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="C144" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D144" s="14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A145" s="3" t="s">
+      <c r="D144" s="24">
+        <v>5</v>
+      </c>
+      <c r="E144" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="F144" s="25" t="s">
+        <v>280</v>
+      </c>
+      <c r="G144" s="25" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" s="23" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A145" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="B145" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C145" s="3" t="s">
+      <c r="B145" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="C145" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D145" s="14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A146" s="3" t="s">
+      <c r="D145" s="24">
+        <v>5</v>
+      </c>
+      <c r="E145" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="F145" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="G145" s="5" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" s="23" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A146" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="B146" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C146" s="3" t="s">
+      <c r="B146" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="C146" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D146" s="14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A147" s="3" t="s">
+      <c r="D146" s="24">
+        <v>5</v>
+      </c>
+      <c r="E146" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="F146" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="G146" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="B147" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C147" s="3" t="s">
+      <c r="B147" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="C147" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D147" s="14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D147" s="24">
+        <v>5</v>
+      </c>
+      <c r="E147" s="25"/>
+      <c r="F147" s="25"/>
+      <c r="G147" s="25"/>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
         <v>136</v>
       </c>
@@ -6902,21 +7317,30 @@
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A149" s="3" t="s">
+    <row r="149" spans="1:7" s="23" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A149" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="B149" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C149" s="3" t="s">
+      <c r="B149" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="C149" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D149" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D149" s="24">
+        <v>4</v>
+      </c>
+      <c r="E149" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="F149" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="G149" s="5" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
         <v>136</v>
       </c>
@@ -6930,7 +7354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
         <v>136</v>
       </c>
@@ -6944,7 +7368,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
         <v>136</v>
       </c>
@@ -6958,21 +7382,30 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A153" s="3" t="s">
+    <row r="153" spans="1:7" s="23" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A153" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="B153" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C153" s="3" t="s">
+      <c r="B153" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="C153" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="D153" s="14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D153" s="24">
+        <v>5</v>
+      </c>
+      <c r="E153" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="F153" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="G153" s="25" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
         <v>137</v>
       </c>
@@ -6986,7 +7419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
         <v>137</v>
       </c>
@@ -7000,7 +7433,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
         <v>137</v>
       </c>
@@ -7014,7 +7447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
         <v>137</v>
       </c>
@@ -7028,7 +7461,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
         <v>137</v>
       </c>
@@ -7042,7 +7475,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
         <v>137</v>
       </c>
@@ -7056,7 +7489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
         <v>137</v>
       </c>
@@ -7070,7 +7503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
         <v>137</v>
       </c>
@@ -7084,7 +7517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
         <v>137</v>
       </c>
@@ -7098,7 +7531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
         <v>137</v>
       </c>
@@ -7112,7 +7545,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
         <v>137</v>
       </c>
@@ -7126,21 +7559,30 @@
         <v>3</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A165" s="3" t="s">
+    <row r="165" spans="1:7" s="23" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A165" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="B165" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C165" s="3" t="s">
+      <c r="B165" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="C165" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D165" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D165" s="24">
+        <v>4</v>
+      </c>
+      <c r="E165" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="F165" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="G165" s="5" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
         <v>137</v>
       </c>
@@ -7154,7 +7596,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
         <v>137</v>
       </c>
@@ -7168,7 +7610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
         <v>137</v>
       </c>
@@ -7182,7 +7624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
         <v>137</v>
       </c>
@@ -7196,7 +7638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
         <v>137</v>
       </c>
@@ -7210,7 +7652,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
         <v>137</v>
       </c>
@@ -7224,7 +7666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
         <v>137</v>
       </c>
@@ -7238,7 +7680,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="s">
         <v>138</v>
       </c>
@@ -7252,7 +7694,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="s">
         <v>138</v>
       </c>
@@ -7266,7 +7708,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="s">
         <v>138</v>
       </c>
@@ -7280,35 +7722,53 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A176" s="3" t="s">
+    <row r="176" spans="1:7" s="23" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A176" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="B176" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C176" s="3" t="s">
+      <c r="B176" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="C176" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="D176" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A177" s="3" t="s">
+      <c r="D176" s="24">
+        <v>4</v>
+      </c>
+      <c r="E176" s="25" t="s">
+        <v>296</v>
+      </c>
+      <c r="F176" s="25" t="s">
+        <v>295</v>
+      </c>
+      <c r="G176" s="25" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" s="23" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A177" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="B177" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C177" s="3" t="s">
+      <c r="B177" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="C177" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D177" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D177" s="24">
+        <v>4</v>
+      </c>
+      <c r="E177" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="F177" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="G177" s="5" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" s="3" t="s">
         <v>138</v>
       </c>
@@ -7322,7 +7782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" s="3" t="s">
         <v>138</v>
       </c>
@@ -7336,7 +7796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" s="3" t="s">
         <v>138</v>
       </c>
@@ -7350,21 +7810,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A181" s="3" t="s">
+    <row r="181" spans="1:7" s="23" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A181" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="B181" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C181" s="3" t="s">
+      <c r="B181" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="C181" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D181" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D181" s="24">
+        <v>4</v>
+      </c>
+      <c r="E181" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="F181" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="G181" s="29" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" s="3" t="s">
         <v>138</v>
       </c>
@@ -7378,7 +7847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="s">
         <v>138</v>
       </c>
@@ -7392,7 +7861,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" s="3" t="s">
         <v>138</v>
       </c>
@@ -7406,7 +7875,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" s="3" t="s">
         <v>138</v>
       </c>
@@ -7420,7 +7889,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" s="3" t="s">
         <v>138</v>
       </c>
@@ -7434,21 +7903,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A187" s="3" t="s">
+    <row r="187" spans="1:7" s="23" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A187" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="B187" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C187" s="3" t="s">
+      <c r="B187" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="C187" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D187" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D187" s="24">
+        <v>4</v>
+      </c>
+      <c r="E187" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="F187" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="G187" s="5" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" s="3" t="s">
         <v>138</v>
       </c>
@@ -7462,7 +7940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" s="3" t="s">
         <v>138</v>
       </c>
@@ -7476,7 +7954,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190" s="3" t="s">
         <v>138</v>
       </c>
@@ -7490,7 +7968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" s="3" t="s">
         <v>138</v>
       </c>
@@ -7504,7 +7982,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192" s="3" t="s">
         <v>139</v>
       </c>
@@ -7518,7 +7996,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" s="3" t="s">
         <v>139</v>
       </c>
@@ -7532,7 +8010,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" s="3" t="s">
         <v>139</v>
       </c>
@@ -7546,35 +8024,53 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A195" s="3" t="s">
+    <row r="195" spans="1:7" s="23" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A195" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="B195" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C195" s="3" t="s">
+      <c r="B195" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="C195" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="D195" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A196" s="3" t="s">
+      <c r="D195" s="24">
+        <v>4</v>
+      </c>
+      <c r="E195" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="F195" s="25" t="s">
+        <v>309</v>
+      </c>
+      <c r="G195" s="25" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" s="23" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A196" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="B196" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C196" s="3" t="s">
+      <c r="B196" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="C196" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D196" s="14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D196" s="24">
+        <v>5</v>
+      </c>
+      <c r="E196" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="F196" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="G196" s="5" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197" s="3" t="s">
         <v>139</v>
       </c>
@@ -7588,7 +8084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198" s="3" t="s">
         <v>139</v>
       </c>
@@ -7602,7 +8098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199" s="3" t="s">
         <v>139</v>
       </c>
@@ -7616,21 +8112,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A200" s="3" t="s">
+    <row r="200" spans="1:7" s="23" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A200" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="B200" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C200" s="3" t="s">
+      <c r="B200" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="C200" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D200" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D200" s="24">
+        <v>4</v>
+      </c>
+      <c r="E200" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="F200" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="G200" s="29" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" s="3" t="s">
         <v>139</v>
       </c>
@@ -7644,7 +8149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" s="3" t="s">
         <v>139</v>
       </c>
@@ -7658,7 +8163,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" s="3" t="s">
         <v>139</v>
       </c>
@@ -7672,21 +8177,30 @@
         <v>2</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A204" s="3" t="s">
+    <row r="204" spans="1:7" s="23" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A204" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="B204" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C204" s="3" t="s">
+      <c r="B204" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="C204" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D204" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D204" s="24">
+        <v>4</v>
+      </c>
+      <c r="E204" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="F204" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="G204" s="25" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205" s="3" t="s">
         <v>139</v>
       </c>
@@ -7700,21 +8214,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A206" s="3" t="s">
+    <row r="206" spans="1:7" s="23" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A206" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="B206" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C206" s="3" t="s">
+      <c r="B206" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="C206" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D206" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D206" s="24">
+        <v>4</v>
+      </c>
+      <c r="E206" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="F206" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="G206" s="5" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207" s="3" t="s">
         <v>139</v>
       </c>
@@ -7728,7 +8251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208" s="3" t="s">
         <v>139</v>
       </c>
@@ -7742,7 +8265,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209" s="3" t="s">
         <v>139</v>
       </c>
@@ -7756,7 +8279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210" s="3" t="s">
         <v>139</v>
       </c>
@@ -7770,35 +8293,53 @@
         <v>3</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A211" s="3" t="s">
+    <row r="211" spans="1:7" s="23" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A211" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="B211" s="3" t="s">
+      <c r="B211" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="C211" s="3" t="s">
+      <c r="C211" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D211" s="14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A212" s="3" t="s">
+      <c r="D211" s="24">
+        <v>5</v>
+      </c>
+      <c r="E211" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="F211" s="25" t="s">
+        <v>315</v>
+      </c>
+      <c r="G211" s="25" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" s="23" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A212" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="B212" s="3" t="s">
+      <c r="B212" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="C212" s="3" t="s">
+      <c r="C212" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D212" s="14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D212" s="24">
+        <v>5</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="F212" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="G212" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A213" s="3" t="s">
         <v>140</v>
       </c>
@@ -7812,7 +8353,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A214" s="3" t="s">
         <v>140</v>
       </c>
@@ -7826,7 +8367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A215" s="3" t="s">
         <v>140</v>
       </c>
@@ -7840,7 +8381,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A216" s="3" t="s">
         <v>140</v>
       </c>
@@ -7854,7 +8395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A217" s="3" t="s">
         <v>140</v>
       </c>
@@ -7868,7 +8409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A218" s="3" t="s">
         <v>140</v>
       </c>
@@ -7882,21 +8423,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A219" s="3" t="s">
+    <row r="219" spans="1:7" s="23" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A219" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="B219" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C219" s="3" t="s">
+      <c r="B219" s="23" t="s">
+        <v>321</v>
+      </c>
+      <c r="C219" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D219" s="14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D219" s="24">
+        <v>5</v>
+      </c>
+      <c r="E219" s="25" t="s">
+        <v>322</v>
+      </c>
+      <c r="F219" s="25" t="s">
+        <v>323</v>
+      </c>
+      <c r="G219" s="25" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A220" s="3" t="s">
         <v>140</v>
       </c>
@@ -7910,91 +8460,145 @@
         <v>3</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A221" s="3" t="s">
+    <row r="221" spans="1:7" s="23" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A221" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="B221" s="3" t="s">
+      <c r="B221" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="C221" s="3" t="s">
+      <c r="C221" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D221" s="14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A222" s="3" t="s">
+      <c r="D221" s="24">
+        <v>4</v>
+      </c>
+      <c r="E221" s="25" t="s">
+        <v>346</v>
+      </c>
+      <c r="F221" s="25" t="s">
+        <v>325</v>
+      </c>
+      <c r="G221" s="25" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" s="23" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A222" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="B222" s="3" t="s">
+      <c r="B222" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="C222" s="3" t="s">
+      <c r="C222" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D222" s="14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A223" s="3" t="s">
+      <c r="D222" s="24">
+        <v>5</v>
+      </c>
+      <c r="E222" s="25" t="s">
+        <v>327</v>
+      </c>
+      <c r="F222" s="25" t="s">
+        <v>328</v>
+      </c>
+      <c r="G222" s="25" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" s="23" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A223" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="B223" s="3" t="s">
+      <c r="B223" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="C223" s="3" t="s">
+      <c r="C223" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D223" s="14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A224" s="3" t="s">
+      <c r="D223" s="24">
+        <v>4</v>
+      </c>
+      <c r="E223" s="25" t="s">
+        <v>330</v>
+      </c>
+      <c r="F223" s="25" t="s">
+        <v>331</v>
+      </c>
+      <c r="G223" s="25" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" s="23" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A224" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="B224" s="3" t="s">
+      <c r="B224" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="C224" s="3" t="s">
+      <c r="C224" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D224" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A225" s="3" t="s">
+      <c r="D224" s="24">
+        <v>4</v>
+      </c>
+      <c r="E224" s="25" t="s">
+        <v>333</v>
+      </c>
+      <c r="F224" s="25" t="s">
+        <v>334</v>
+      </c>
+      <c r="G224" s="25" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" s="23" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A225" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="B225" s="3" t="s">
+      <c r="B225" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="C225" s="3" t="s">
+      <c r="C225" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D225" s="14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A226" s="3" t="s">
+      <c r="D225" s="24">
+        <v>5</v>
+      </c>
+      <c r="E225" s="25" t="s">
+        <v>348</v>
+      </c>
+      <c r="F225" s="25" t="s">
+        <v>335</v>
+      </c>
+      <c r="G225" s="25" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" s="23" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A226" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="B226" s="3" t="s">
+      <c r="B226" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="C226" s="3" t="s">
+      <c r="C226" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="D226" s="14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D226" s="24">
+        <v>5</v>
+      </c>
+      <c r="E226" s="25" t="s">
+        <v>337</v>
+      </c>
+      <c r="F226" s="25" t="s">
+        <v>338</v>
+      </c>
+      <c r="G226" s="25" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A227" s="3" t="s">
         <v>140</v>
       </c>
@@ -8008,35 +8612,53 @@
         <v>3</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A228" s="3" t="s">
+    <row r="228" spans="1:7" s="23" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A228" s="23" t="s">
         <v>140</v>
       </c>
       <c r="B228" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C228" s="3" t="s">
+      <c r="C228" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="D228" s="14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A229" s="3" t="s">
+      <c r="D228" s="24">
+        <v>4</v>
+      </c>
+      <c r="E228" s="25" t="s">
+        <v>340</v>
+      </c>
+      <c r="F228" s="25" t="s">
+        <v>341</v>
+      </c>
+      <c r="G228" s="25" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" s="23" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A229" s="23" t="s">
         <v>140</v>
       </c>
       <c r="B229" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C229" s="3" t="s">
+      <c r="C229" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="D229" s="14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D229" s="24">
+        <v>5</v>
+      </c>
+      <c r="E229" s="25" t="s">
+        <v>343</v>
+      </c>
+      <c r="F229" s="25" t="s">
+        <v>344</v>
+      </c>
+      <c r="G229" s="25" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A230" s="3" t="s">
         <v>141</v>
       </c>
@@ -8046,25 +8668,31 @@
       <c r="C230" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D230" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A231" s="3" t="s">
+    </row>
+    <row r="231" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A231" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="B231" s="3" t="s">
+      <c r="B231" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="C231" s="3" t="s">
+      <c r="C231" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D231" s="14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D231" s="24">
+        <v>5</v>
+      </c>
+      <c r="E231" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="F231" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="G231" s="25" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A232" s="3" t="s">
         <v>141</v>
       </c>
@@ -8078,7 +8706,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A233" s="3" t="s">
         <v>141</v>
       </c>
@@ -8092,7 +8720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A234" s="3" t="s">
         <v>141</v>
       </c>
@@ -8106,7 +8734,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A235" s="3" t="s">
         <v>141</v>
       </c>
@@ -8120,7 +8748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A236" s="3" t="s">
         <v>141</v>
       </c>
@@ -8134,7 +8762,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A237" s="3" t="s">
         <v>141</v>
       </c>
@@ -8148,21 +8776,30 @@
         <v>2</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A238" s="3" t="s">
+    <row r="238" spans="1:7" s="23" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A238" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="B238" s="3" t="s">
+      <c r="B238" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="C238" s="3" t="s">
+      <c r="C238" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D238" s="14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D238" s="24">
+        <v>5</v>
+      </c>
+      <c r="E238" s="25" t="s">
+        <v>352</v>
+      </c>
+      <c r="F238" s="25" t="s">
+        <v>353</v>
+      </c>
+      <c r="G238" s="25" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A239" s="3" t="s">
         <v>141</v>
       </c>
@@ -8176,49 +8813,76 @@
         <v>2</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A240" s="3" t="s">
+    <row r="240" spans="1:7" s="23" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A240" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="B240" s="3" t="s">
+      <c r="B240" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="C240" s="3" t="s">
+      <c r="C240" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D240" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A241" s="3" t="s">
+      <c r="D240" s="24">
+        <v>4</v>
+      </c>
+      <c r="E240" s="25" t="s">
+        <v>355</v>
+      </c>
+      <c r="F240" s="25" t="s">
+        <v>356</v>
+      </c>
+      <c r="G240" s="25" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" s="23" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A241" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="B241" s="3" t="s">
+      <c r="B241" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="C241" s="3" t="s">
+      <c r="C241" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D241" s="14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A242" s="3" t="s">
+      <c r="D241" s="24">
+        <v>5</v>
+      </c>
+      <c r="E241" s="25" t="s">
+        <v>358</v>
+      </c>
+      <c r="F241" s="25" t="s">
+        <v>359</v>
+      </c>
+      <c r="G241" s="25" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" s="23" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A242" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="B242" s="3" t="s">
+      <c r="B242" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="C242" s="3" t="s">
+      <c r="C242" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D242" s="14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D242" s="24">
+        <v>5</v>
+      </c>
+      <c r="E242" s="25" t="s">
+        <v>361</v>
+      </c>
+      <c r="F242" s="25" t="s">
+        <v>362</v>
+      </c>
+      <c r="G242" s="25" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A243" s="3" t="s">
         <v>141</v>
       </c>
@@ -8232,35 +8896,53 @@
         <v>3</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A244" s="3" t="s">
+    <row r="244" spans="1:7" s="23" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A244" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="B244" s="3" t="s">
+      <c r="B244" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="C244" s="3" t="s">
+      <c r="C244" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D244" s="14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A245" s="3" t="s">
+      <c r="D244" s="24">
+        <v>5</v>
+      </c>
+      <c r="E244" s="25" t="s">
+        <v>364</v>
+      </c>
+      <c r="F244" s="25" t="s">
+        <v>365</v>
+      </c>
+      <c r="G244" s="25" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" s="23" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A245" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="B245" s="3" t="s">
+      <c r="B245" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="C245" s="3" t="s">
+      <c r="C245" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="D245" s="14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D245" s="24">
+        <v>5</v>
+      </c>
+      <c r="E245" s="25" t="s">
+        <v>367</v>
+      </c>
+      <c r="F245" s="25" t="s">
+        <v>368</v>
+      </c>
+      <c r="G245" s="25" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A246" s="3" t="s">
         <v>141</v>
       </c>
@@ -8274,7 +8956,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A247" s="3" t="s">
         <v>141</v>
       </c>
@@ -8288,49 +8970,64 @@
         <v>3</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A248" s="3" t="s">
+    <row r="248" spans="1:7" s="23" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A248" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="B248" s="3" t="s">
+      <c r="B248" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="C248" s="3" t="s">
+      <c r="C248" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="D248" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A249" s="3" t="s">
+      <c r="D248" s="24">
+        <v>4</v>
+      </c>
+      <c r="E248" s="25" t="s">
+        <v>370</v>
+      </c>
+      <c r="F248" s="25" t="s">
+        <v>371</v>
+      </c>
+      <c r="G248" s="25" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A249" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="B249" s="3" t="s">
+      <c r="B249" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="C249" s="3" t="s">
+      <c r="C249" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D249" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A250" s="3" t="s">
+      <c r="D249" s="24">
+        <v>4</v>
+      </c>
+      <c r="E249" s="25"/>
+      <c r="F249" s="25"/>
+      <c r="G249" s="25"/>
+    </row>
+    <row r="250" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A250" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="B250" s="3" t="s">
+      <c r="B250" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="C250" s="3" t="s">
+      <c r="C250" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D250" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D250" s="24">
+        <v>4</v>
+      </c>
+      <c r="E250" s="25"/>
+      <c r="F250" s="25"/>
+      <c r="G250" s="25"/>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A251" s="3" t="s">
         <v>142</v>
       </c>
@@ -8344,21 +9041,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A252" s="3" t="s">
+    <row r="252" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A252" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="B252" s="3" t="s">
+      <c r="B252" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="C252" s="3" t="s">
+      <c r="C252" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="D252" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D252" s="24">
+        <v>4</v>
+      </c>
+      <c r="E252" s="25"/>
+      <c r="F252" s="25"/>
+      <c r="G252" s="25"/>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A253" s="3" t="s">
         <v>142</v>
       </c>
@@ -8372,7 +9072,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A254" s="3" t="s">
         <v>142</v>
       </c>
@@ -8386,7 +9086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A255" s="3" t="s">
         <v>142</v>
       </c>
@@ -8400,7 +9100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A256" s="3" t="s">
         <v>142</v>
       </c>
@@ -8414,21 +9114,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A257" s="3" t="s">
+    <row r="257" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A257" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="B257" s="3" t="s">
+      <c r="B257" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="C257" s="3" t="s">
+      <c r="C257" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D257" s="14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D257" s="24">
+        <v>5</v>
+      </c>
+      <c r="E257" s="25"/>
+      <c r="F257" s="25"/>
+      <c r="G257" s="25"/>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A258" s="3" t="s">
         <v>142</v>
       </c>
@@ -8442,77 +9145,92 @@
         <v>2</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A259" s="3" t="s">
+    <row r="259" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A259" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="B259" s="3" t="s">
+      <c r="B259" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="C259" s="3" t="s">
+      <c r="C259" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D259" s="14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A260" s="3" t="s">
+      <c r="D259" s="24">
+        <v>5</v>
+      </c>
+      <c r="E259" s="25"/>
+      <c r="F259" s="25"/>
+      <c r="G259" s="25"/>
+    </row>
+    <row r="260" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A260" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="B260" s="3" t="s">
+      <c r="B260" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="C260" s="3" t="s">
+      <c r="C260" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D260" s="14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A261" s="3" t="s">
+      <c r="D260" s="24">
+        <v>5</v>
+      </c>
+      <c r="E260" s="25"/>
+      <c r="F260" s="25"/>
+      <c r="G260" s="25"/>
+    </row>
+    <row r="261" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A261" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="B261" s="3" t="s">
+      <c r="B261" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="C261" s="3" t="s">
+      <c r="C261" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D261" s="14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A262" s="3" t="s">
+      <c r="D261" s="24">
+        <v>5</v>
+      </c>
+      <c r="E261" s="25"/>
+      <c r="F261" s="25"/>
+      <c r="G261" s="25"/>
+    </row>
+    <row r="262" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A262" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="B262" s="3" t="s">
+      <c r="B262" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="C262" s="3" t="s">
+      <c r="C262" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D262" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A263" s="3" t="s">
+      <c r="D262" s="24">
+        <v>4</v>
+      </c>
+      <c r="E262" s="25"/>
+      <c r="F262" s="25"/>
+      <c r="G262" s="25"/>
+    </row>
+    <row r="263" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A263" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="B263" s="3" t="s">
+      <c r="B263" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="C263" s="3" t="s">
+      <c r="C263" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D263" s="14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D263" s="24">
+        <v>5</v>
+      </c>
+      <c r="E263" s="25"/>
+      <c r="F263" s="25"/>
+      <c r="G263" s="25"/>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A264" s="3" t="s">
         <v>142</v>
       </c>
@@ -8526,7 +9244,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A265" s="3" t="s">
         <v>142</v>
       </c>
@@ -8540,35 +9258,41 @@
         <v>3</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A266" s="3" t="s">
+    <row r="266" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A266" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="B266" s="3" t="s">
+      <c r="B266" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="C266" s="3" t="s">
+      <c r="C266" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="D266" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A267" s="3" t="s">
+      <c r="D266" s="24">
+        <v>4</v>
+      </c>
+      <c r="E266" s="25"/>
+      <c r="F266" s="25"/>
+      <c r="G266" s="25"/>
+    </row>
+    <row r="267" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A267" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="B267" s="3" t="s">
+      <c r="B267" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="C267" s="3" t="s">
+      <c r="C267" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="D267" s="14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D267" s="24">
+        <v>5</v>
+      </c>
+      <c r="E267" s="25"/>
+      <c r="F267" s="25"/>
+      <c r="G267" s="25"/>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A268" s="3" t="s">
         <v>143</v>
       </c>
@@ -8582,7 +9306,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A269" s="3" t="s">
         <v>143</v>
       </c>
@@ -8596,7 +9320,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A270" s="3" t="s">
         <v>143</v>
       </c>
@@ -8610,35 +9334,41 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A271" s="3" t="s">
+    <row r="271" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A271" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="B271" s="3" t="s">
+      <c r="B271" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="C271" s="3" t="s">
+      <c r="C271" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="D271" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A272" s="3" t="s">
+      <c r="D271" s="24">
+        <v>4</v>
+      </c>
+      <c r="E271" s="25"/>
+      <c r="F271" s="25"/>
+      <c r="G271" s="25"/>
+    </row>
+    <row r="272" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A272" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="B272" s="3" t="s">
+      <c r="B272" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="C272" s="3" t="s">
+      <c r="C272" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D272" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D272" s="24">
+        <v>4</v>
+      </c>
+      <c r="E272" s="25"/>
+      <c r="F272" s="25"/>
+      <c r="G272" s="25"/>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A273" s="3" t="s">
         <v>143</v>
       </c>
@@ -8652,7 +9382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A274" s="3" t="s">
         <v>143</v>
       </c>
@@ -8666,7 +9396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A275" s="3" t="s">
         <v>143</v>
       </c>
@@ -8680,21 +9410,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A276" s="3" t="s">
+    <row r="276" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A276" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="B276" s="3" t="s">
+      <c r="B276" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="C276" s="3" t="s">
+      <c r="C276" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D276" s="14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D276" s="24">
+        <v>5</v>
+      </c>
+      <c r="E276" s="25"/>
+      <c r="F276" s="25"/>
+      <c r="G276" s="25"/>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A277" s="3" t="s">
         <v>143</v>
       </c>
@@ -8708,21 +9441,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A278" s="3" t="s">
+    <row r="278" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A278" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="B278" s="3" t="s">
+      <c r="B278" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="C278" s="3" t="s">
+      <c r="C278" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D278" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D278" s="24">
+        <v>4</v>
+      </c>
+      <c r="E278" s="25"/>
+      <c r="F278" s="25"/>
+      <c r="G278" s="25"/>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A279" s="3" t="s">
         <v>143</v>
       </c>
@@ -8736,49 +9472,58 @@
         <v>3</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A280" s="3" t="s">
+    <row r="280" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A280" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="B280" s="3" t="s">
+      <c r="B280" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="C280" s="3" t="s">
+      <c r="C280" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D280" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A281" s="3" t="s">
+      <c r="D280" s="24">
+        <v>4</v>
+      </c>
+      <c r="E280" s="25"/>
+      <c r="F280" s="25"/>
+      <c r="G280" s="25"/>
+    </row>
+    <row r="281" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A281" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="B281" s="3" t="s">
+      <c r="B281" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="C281" s="3" t="s">
+      <c r="C281" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D281" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A282" s="3" t="s">
+      <c r="D281" s="24">
+        <v>4</v>
+      </c>
+      <c r="E281" s="25"/>
+      <c r="F281" s="25"/>
+      <c r="G281" s="25"/>
+    </row>
+    <row r="282" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A282" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="B282" s="3" t="s">
+      <c r="B282" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="C282" s="3" t="s">
+      <c r="C282" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D282" s="14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D282" s="24">
+        <v>5</v>
+      </c>
+      <c r="E282" s="25"/>
+      <c r="F282" s="25"/>
+      <c r="G282" s="25"/>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A283" s="3" t="s">
         <v>143</v>
       </c>
@@ -8792,7 +9537,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A284" s="3" t="s">
         <v>143</v>
       </c>
@@ -8806,7 +9551,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A285" s="3" t="s">
         <v>143</v>
       </c>
@@ -8820,49 +9565,58 @@
         <v>3</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A286" s="3" t="s">
+    <row r="286" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A286" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="B286" s="3" t="s">
+      <c r="B286" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="C286" s="3" t="s">
+      <c r="C286" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="D286" s="14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A287" s="3" t="s">
+      <c r="D286" s="24">
+        <v>5</v>
+      </c>
+      <c r="E286" s="25"/>
+      <c r="F286" s="25"/>
+      <c r="G286" s="25"/>
+    </row>
+    <row r="287" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A287" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="B287" s="3" t="s">
+      <c r="B287" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="C287" s="3" t="s">
+      <c r="C287" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D287" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A288" s="3" t="s">
+      <c r="D287" s="24">
+        <v>4</v>
+      </c>
+      <c r="E287" s="25"/>
+      <c r="F287" s="25"/>
+      <c r="G287" s="25"/>
+    </row>
+    <row r="288" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A288" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="B288" s="3" t="s">
+      <c r="B288" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="C288" s="3" t="s">
+      <c r="C288" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D288" s="14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D288" s="24">
+        <v>5</v>
+      </c>
+      <c r="E288" s="25"/>
+      <c r="F288" s="25"/>
+      <c r="G288" s="25"/>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A289" s="3" t="s">
         <v>144</v>
       </c>
@@ -8876,7 +9630,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A290" s="3" t="s">
         <v>144</v>
       </c>
@@ -8890,7 +9644,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A291" s="3" t="s">
         <v>144</v>
       </c>
@@ -8904,49 +9658,58 @@
         <v>3</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A292" s="3" t="s">
+    <row r="292" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A292" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="B292" s="3" t="s">
+      <c r="B292" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="C292" s="3" t="s">
+      <c r="C292" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="D292" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A293" s="3" t="s">
+      <c r="D292" s="24">
+        <v>4</v>
+      </c>
+      <c r="E292" s="25"/>
+      <c r="F292" s="25"/>
+      <c r="G292" s="25"/>
+    </row>
+    <row r="293" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A293" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="B293" s="3" t="s">
+      <c r="B293" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="C293" s="3" t="s">
+      <c r="C293" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D293" s="14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A294" s="3" t="s">
+      <c r="D293" s="24">
+        <v>5</v>
+      </c>
+      <c r="E293" s="25"/>
+      <c r="F293" s="25"/>
+      <c r="G293" s="25"/>
+    </row>
+    <row r="294" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A294" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="B294" s="3" t="s">
+      <c r="B294" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="C294" s="3" t="s">
+      <c r="C294" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D294" s="14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D294" s="24">
+        <v>5</v>
+      </c>
+      <c r="E294" s="25"/>
+      <c r="F294" s="25"/>
+      <c r="G294" s="25"/>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A295" s="3" t="s">
         <v>144</v>
       </c>
@@ -8960,21 +9723,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A296" s="3" t="s">
+    <row r="296" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A296" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="B296" s="3" t="s">
+      <c r="B296" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="C296" s="3" t="s">
+      <c r="C296" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D296" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D296" s="24">
+        <v>4</v>
+      </c>
+      <c r="E296" s="25"/>
+      <c r="F296" s="25"/>
+      <c r="G296" s="25"/>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A297" s="3" t="s">
         <v>144</v>
       </c>
@@ -8988,7 +9754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A298" s="3" t="s">
         <v>144</v>
       </c>
@@ -9002,7 +9768,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A299" s="3" t="s">
         <v>144</v>
       </c>
@@ -9016,7 +9782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A300" s="3" t="s">
         <v>144</v>
       </c>
@@ -9030,7 +9796,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A301" s="3" t="s">
         <v>144</v>
       </c>
@@ -9044,7 +9810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A302" s="3" t="s">
         <v>144</v>
       </c>
@@ -9058,7 +9824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A303" s="3" t="s">
         <v>144</v>
       </c>
@@ -9072,21 +9838,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A304" s="3" t="s">
+    <row r="304" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A304" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="B304" s="3" t="s">
+      <c r="B304" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="C304" s="3" t="s">
+      <c r="C304" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="D304" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D304" s="24">
+        <v>4</v>
+      </c>
+      <c r="E304" s="25"/>
+      <c r="F304" s="25"/>
+      <c r="G304" s="25"/>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A305" s="3" t="s">
         <v>144</v>
       </c>
@@ -9100,35 +9869,41 @@
         <v>3</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A306" s="3" t="s">
+    <row r="306" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A306" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="B306" s="3" t="s">
+      <c r="B306" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="C306" s="3" t="s">
+      <c r="C306" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D306" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A307" s="3" t="s">
+      <c r="D306" s="24">
+        <v>4</v>
+      </c>
+      <c r="E306" s="25"/>
+      <c r="F306" s="25"/>
+      <c r="G306" s="25"/>
+    </row>
+    <row r="307" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A307" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="B307" s="3" t="s">
+      <c r="B307" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="C307" s="3" t="s">
+      <c r="C307" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D307" s="14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D307" s="24">
+        <v>5</v>
+      </c>
+      <c r="E307" s="25"/>
+      <c r="F307" s="25"/>
+      <c r="G307" s="25"/>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A308" s="3" t="s">
         <v>42</v>
       </c>
@@ -9142,7 +9917,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A309" s="3" t="s">
         <v>42</v>
       </c>
@@ -9156,7 +9931,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A310" s="3" t="s">
         <v>42</v>
       </c>
@@ -9170,63 +9945,75 @@
         <v>3</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A311" s="3" t="s">
+    <row r="311" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A311" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="B311" s="3" t="s">
+      <c r="B311" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="C311" s="3" t="s">
+      <c r="C311" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="D311" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A312" s="3" t="s">
+      <c r="D311" s="24">
+        <v>4</v>
+      </c>
+      <c r="E311" s="25"/>
+      <c r="F311" s="25"/>
+      <c r="G311" s="25"/>
+    </row>
+    <row r="312" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A312" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="B312" s="3" t="s">
+      <c r="B312" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="C312" s="3" t="s">
+      <c r="C312" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D312" s="14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A313" s="3" t="s">
+      <c r="D312" s="24">
+        <v>5</v>
+      </c>
+      <c r="E312" s="25"/>
+      <c r="F312" s="25"/>
+      <c r="G312" s="25"/>
+    </row>
+    <row r="313" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A313" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="B313" s="3" t="s">
+      <c r="B313" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="C313" s="3" t="s">
+      <c r="C313" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D313" s="14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A314" s="3" t="s">
+      <c r="D313" s="24">
+        <v>5</v>
+      </c>
+      <c r="E313" s="25"/>
+      <c r="F313" s="25"/>
+      <c r="G313" s="25"/>
+    </row>
+    <row r="314" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A314" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="B314" s="3" t="s">
+      <c r="B314" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="C314" s="3" t="s">
+      <c r="C314" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D314" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D314" s="24">
+        <v>4</v>
+      </c>
+      <c r="E314" s="25"/>
+      <c r="F314" s="25"/>
+      <c r="G314" s="25"/>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A315" s="3" t="s">
         <v>42</v>
       </c>
@@ -9240,7 +10027,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A316" s="3" t="s">
         <v>42</v>
       </c>
@@ -9254,7 +10041,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A317" s="3" t="s">
         <v>42</v>
       </c>
@@ -9268,7 +10055,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A318" s="3" t="s">
         <v>42</v>
       </c>
@@ -9282,7 +10069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A319" s="3" t="s">
         <v>42</v>
       </c>
@@ -9296,21 +10083,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A320" s="3" t="s">
+    <row r="320" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A320" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="B320" s="3" t="s">
+      <c r="B320" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="C320" s="3" t="s">
+      <c r="C320" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D320" s="14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D320" s="24">
+        <v>5</v>
+      </c>
+      <c r="E320" s="25"/>
+      <c r="F320" s="25"/>
+      <c r="G320" s="25"/>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A321" s="3" t="s">
         <v>42</v>
       </c>
@@ -9324,35 +10114,41 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A322" s="3" t="s">
+    <row r="322" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A322" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="B322" s="3" t="s">
+      <c r="B322" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="C322" s="3" t="s">
+      <c r="C322" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D322" s="14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A323" s="3" t="s">
+      <c r="D322" s="24">
+        <v>5</v>
+      </c>
+      <c r="E322" s="25"/>
+      <c r="F322" s="25"/>
+      <c r="G322" s="25"/>
+    </row>
+    <row r="323" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A323" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="B323" s="3" t="s">
+      <c r="B323" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="C323" s="3" t="s">
+      <c r="C323" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="D323" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D323" s="24">
+        <v>4</v>
+      </c>
+      <c r="E323" s="25"/>
+      <c r="F323" s="25"/>
+      <c r="G323" s="25"/>
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A324" s="3" t="s">
         <v>42</v>
       </c>
@@ -9366,7 +10162,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A325" s="3" t="s">
         <v>145</v>
       </c>
@@ -9380,7 +10176,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A326" s="3" t="s">
         <v>145</v>
       </c>
@@ -9394,7 +10190,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A327" s="3" t="s">
         <v>145</v>
       </c>
@@ -9408,7 +10204,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A328" s="3" t="s">
         <v>145</v>
       </c>
@@ -9422,49 +10218,58 @@
         <v>2</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A329" s="3" t="s">
+    <row r="329" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A329" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="B329" s="3" t="s">
+      <c r="B329" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="C329" s="3" t="s">
+      <c r="C329" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D329" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A330" s="3" t="s">
+      <c r="D329" s="24">
+        <v>4</v>
+      </c>
+      <c r="E329" s="25"/>
+      <c r="F329" s="25"/>
+      <c r="G329" s="25"/>
+    </row>
+    <row r="330" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A330" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="B330" s="3" t="s">
+      <c r="B330" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="C330" s="3" t="s">
+      <c r="C330" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="D330" s="14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A331" s="3" t="s">
+      <c r="D330" s="24">
+        <v>5</v>
+      </c>
+      <c r="E330" s="25"/>
+      <c r="F330" s="25"/>
+      <c r="G330" s="25"/>
+    </row>
+    <row r="331" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A331" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="B331" s="3" t="s">
+      <c r="B331" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="C331" s="3" t="s">
+      <c r="C331" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D331" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D331" s="24">
+        <v>4</v>
+      </c>
+      <c r="E331" s="25"/>
+      <c r="F331" s="25"/>
+      <c r="G331" s="25"/>
+    </row>
+    <row r="332" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A332" s="3" t="s">
         <v>145</v>
       </c>
@@ -9478,7 +10283,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A333" s="3" t="s">
         <v>145</v>
       </c>
@@ -9492,21 +10297,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A334" s="3" t="s">
+    <row r="334" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A334" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="B334" s="3" t="s">
+      <c r="B334" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="C334" s="3" t="s">
+      <c r="C334" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D334" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D334" s="27">
+        <v>3</v>
+      </c>
+      <c r="E334" s="28"/>
+      <c r="F334" s="28"/>
+      <c r="G334" s="28"/>
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A335" s="3" t="s">
         <v>145</v>
       </c>
@@ -9520,7 +10328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A336" s="3" t="s">
         <v>145</v>
       </c>
@@ -9534,7 +10342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A337" s="3" t="s">
         <v>145</v>
       </c>
@@ -9548,7 +10356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A338" s="3" t="s">
         <v>145</v>
       </c>
@@ -9562,7 +10370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A339" s="3" t="s">
         <v>145</v>
       </c>
@@ -9576,7 +10384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A340" s="3" t="s">
         <v>145</v>
       </c>
@@ -9590,7 +10398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A341" s="3" t="s">
         <v>145</v>
       </c>
@@ -9604,21 +10412,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A342" s="3" t="s">
+    <row r="342" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A342" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="B342" s="3" t="s">
+      <c r="B342" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="C342" s="3" t="s">
+      <c r="C342" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="D342" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D342" s="24">
+        <v>4</v>
+      </c>
+      <c r="E342" s="25"/>
+      <c r="F342" s="25"/>
+      <c r="G342" s="25"/>
+    </row>
+    <row r="343" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A343" s="3" t="s">
         <v>145</v>
       </c>

--- a/Extreme_Weighting_Scoring_Prototype_for_FormWise_REPAIRED.xlsx
+++ b/Extreme_Weighting_Scoring_Prototype_for_FormWise_REPAIRED.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sharon/Downloads/rsc-app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A52D000E-139F-0B43-A9E4-C695D221C895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF2747B6-AD71-1F4F-A405-17A6D209C3A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="24820" windowHeight="21900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1913,7 +1913,7 @@
   <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P30" sqref="P30"/>
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2372,7 +2372,7 @@
         <v>1</v>
       </c>
       <c r="N8" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O8" s="7">
         <v>1</v>
@@ -2431,7 +2431,7 @@
         <v>1</v>
       </c>
       <c r="N9" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O9" s="7">
         <v>1</v>
@@ -2726,7 +2726,7 @@
         <v>5</v>
       </c>
       <c r="N14" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O14" s="7">
         <v>5</v>
@@ -4806,8 +4806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74EBBEDC-5414-B442-BDB4-EC1529FD0ACE}">
   <dimension ref="A1:G343"/>
   <sheetViews>
-    <sheetView topLeftCell="A228" workbookViewId="0">
-      <selection activeCell="G254" sqref="G254"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/Extreme_Weighting_Scoring_Prototype_for_FormWise_REPAIRED.xlsx
+++ b/Extreme_Weighting_Scoring_Prototype_for_FormWise_REPAIRED.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sharon/Downloads/rsc-app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF2747B6-AD71-1F4F-A405-17A6D209C3A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5D9D0E4-DF4D-354D-B8CC-FEAFD9D173B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="24820" windowHeight="21900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1913,7 +1913,7 @@
   <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2640,7 +2640,7 @@
         <v>2</v>
       </c>
       <c r="E13" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13" s="7">
         <v>4</v>

--- a/Extreme_Weighting_Scoring_Prototype_for_FormWise_REPAIRED.xlsx
+++ b/Extreme_Weighting_Scoring_Prototype_for_FormWise_REPAIRED.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sharon/Downloads/rsc-app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5D9D0E4-DF4D-354D-B8CC-FEAFD9D173B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE979989-782B-A74A-B140-A1A2244909D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="24820" windowHeight="21900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="24820" windowHeight="21900" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -327,9 +327,6 @@
     <t>regulatory_freedom</t>
   </si>
   <si>
-    <t xml:space="preserve"> Are there zoning laws, HOA restrictions, or permitting requirements that could limit your ability to host events, build structures, or sell directly from your farm?</t>
-  </si>
-  <si>
     <t>high_volume_production</t>
   </si>
   <si>
@@ -1186,6 +1183,9 @@
   </si>
   <si>
     <t>even small à la carte weddings carry client expectations; deadlines must be met reliably</t>
+  </si>
+  <si>
+    <t>Do you have the flexibility to operate without restrictive zoning laws, HOA rules, or permitting requirements that might limit hosting events, building structures, or selling directly from your farm?</t>
   </si>
 </sst>
 </file>
@@ -1912,7 +1912,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
@@ -1923,58 +1923,58 @@
   <sheetData>
     <row r="1" spans="1:19" s="2" customFormat="1" ht="67" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>143</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>144</v>
       </c>
       <c r="R1" s="4" t="s">
         <v>42</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
@@ -2864,7 +2864,7 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B17" s="7">
         <v>3</v>
@@ -2982,7 +2982,7 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B19" s="7">
         <v>3</v>
@@ -3041,7 +3041,7 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B20" s="7">
         <v>5</v>
@@ -4039,7 +4039,7 @@
         <v>61</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="48" x14ac:dyDescent="0.2">
@@ -4047,7 +4047,7 @@
         <v>66</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="64" x14ac:dyDescent="0.2">
@@ -4055,7 +4055,7 @@
         <v>73</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="48" x14ac:dyDescent="0.2">
@@ -4063,39 +4063,39 @@
         <v>78</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -4107,8 +4107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4685398-D085-6B47-BDBF-4D7FCE78162F}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4280,7 +4280,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="80" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="96" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
         <v>14</v>
       </c>
@@ -4291,7 +4291,7 @@
         <v>78</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>86</v>
+        <v>372</v>
       </c>
       <c r="E9" s="14" t="s">
         <v>68</v>
@@ -4305,13 +4305,13 @@
         <v>16</v>
       </c>
       <c r="B10" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="D10" s="16" t="s">
         <v>88</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>89</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>68</v>
@@ -4325,13 +4325,13 @@
         <v>17</v>
       </c>
       <c r="B11" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>68</v>
@@ -4345,13 +4345,13 @@
         <v>15</v>
       </c>
       <c r="B12" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="16" t="s">
         <v>92</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>93</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>68</v>
@@ -4365,13 +4365,13 @@
         <v>18</v>
       </c>
       <c r="B13" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="16" t="s">
         <v>94</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>95</v>
       </c>
       <c r="E13" s="14" t="s">
         <v>68</v>
@@ -4385,13 +4385,13 @@
         <v>19</v>
       </c>
       <c r="B14" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="D14" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="E14" s="14" t="s">
         <v>68</v>
@@ -4405,13 +4405,13 @@
         <v>20</v>
       </c>
       <c r="B15" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" s="16" t="s">
         <v>99</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>100</v>
       </c>
       <c r="E15" s="14" t="s">
         <v>68</v>
@@ -4425,13 +4425,13 @@
         <v>21</v>
       </c>
       <c r="B16" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="D16" s="16" t="s">
         <v>102</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>103</v>
       </c>
       <c r="E16" s="14" t="s">
         <v>68</v>
@@ -4442,16 +4442,16 @@
     </row>
     <row r="17" spans="1:6" ht="96" x14ac:dyDescent="0.2">
       <c r="A17" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="B17" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="C17" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="E17" s="14" t="s">
         <v>68</v>
@@ -4465,59 +4465,59 @@
         <v>23</v>
       </c>
       <c r="B18" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C18" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="D18" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="E18" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="F18" s="14" t="s">
         <v>110</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="96" x14ac:dyDescent="0.2">
       <c r="A19" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="B19" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="C19" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="D19" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="C19" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="D19" s="16" t="s">
+      <c r="E19" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="F19" s="14" t="s">
         <v>115</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="96" x14ac:dyDescent="0.2">
       <c r="A20" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="B20" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="C20" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="D20" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="C20" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="D20" s="16" t="s">
+      <c r="E20" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="F20" s="14" t="s">
         <v>120</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -4806,8 +4806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74EBBEDC-5414-B442-BDB4-EC1529FD0ACE}">
   <dimension ref="A1:G343"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="A243" workbookViewId="0">
+      <selection activeCell="E249" sqref="E249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4824,33 +4824,33 @@
   <sheetData>
     <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>146</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>147</v>
       </c>
       <c r="C1" s="20" t="s">
         <v>59</v>
       </c>
       <c r="D1" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="E1" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="F1" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="G1" s="22" t="s">
         <v>150</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
@@ -4859,21 +4859,21 @@
         <v>5</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>8</v>
@@ -4884,10 +4884,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>9</v>
@@ -4898,10 +4898,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>10</v>
@@ -4912,10 +4912,10 @@
     </row>
     <row r="6" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>11</v>
@@ -4924,21 +4924,21 @@
         <v>4</v>
       </c>
       <c r="E6" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>262</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>80</v>
@@ -4949,10 +4949,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>13</v>
@@ -4963,10 +4963,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>14</v>
@@ -4977,10 +4977,10 @@
     </row>
     <row r="10" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>15</v>
@@ -4989,21 +4989,21 @@
         <v>5</v>
       </c>
       <c r="E10" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>265</v>
-      </c>
       <c r="G10" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>16</v>
@@ -5014,10 +5014,10 @@
     </row>
     <row r="12" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>17</v>
@@ -5026,21 +5026,21 @@
         <v>4</v>
       </c>
       <c r="E12" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="G12" s="5" t="s">
         <v>223</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="80" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>18</v>
@@ -5049,21 +5049,21 @@
         <v>4</v>
       </c>
       <c r="E13" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="G13" s="5" t="s">
         <v>226</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>19</v>
@@ -5072,21 +5072,21 @@
         <v>4</v>
       </c>
       <c r="E14" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="G14" s="5" t="s">
         <v>229</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>20</v>
@@ -5097,10 +5097,10 @@
     </row>
     <row r="16" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>21</v>
@@ -5109,24 +5109,24 @@
         <v>4</v>
       </c>
       <c r="E16" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="G16" s="5" t="s">
         <v>232</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D17" s="14">
         <v>3</v>
@@ -5134,10 +5134,10 @@
     </row>
     <row r="18" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>23</v>
@@ -5146,24 +5146,24 @@
         <v>5</v>
       </c>
       <c r="E18" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="F18" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="G18" s="5" t="s">
         <v>235</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D19" s="14">
         <v>3</v>
@@ -5171,25 +5171,25 @@
     </row>
     <row r="20" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D20" s="14">
         <v>5</v>
       </c>
       <c r="E20" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="F20" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="G20" s="2" t="s">
         <v>238</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="64" x14ac:dyDescent="0.2">
@@ -5197,7 +5197,7 @@
         <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C21" t="s">
         <v>7</v>
@@ -5206,13 +5206,13 @@
         <v>4</v>
       </c>
       <c r="E21" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>240</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="64" x14ac:dyDescent="0.2">
@@ -5220,7 +5220,7 @@
         <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C22" t="s">
         <v>8</v>
@@ -5229,13 +5229,13 @@
         <v>5</v>
       </c>
       <c r="E22" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="G22" s="2" t="s">
         <v>243</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="64" x14ac:dyDescent="0.2">
@@ -5243,7 +5243,7 @@
         <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C23" t="s">
         <v>9</v>
@@ -5252,13 +5252,13 @@
         <v>4</v>
       </c>
       <c r="E23" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="G23" s="2" t="s">
         <v>246</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -5266,7 +5266,7 @@
         <v>27</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>10</v>
@@ -5280,7 +5280,7 @@
         <v>27</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>11</v>
@@ -5289,13 +5289,13 @@
         <v>4</v>
       </c>
       <c r="E25" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="F25" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="F25" s="5" t="s">
-        <v>158</v>
-      </c>
       <c r="G25" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -5303,7 +5303,7 @@
         <v>27</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>80</v>
@@ -5317,7 +5317,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>13</v>
@@ -5331,7 +5331,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>14</v>
@@ -5345,7 +5345,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>15</v>
@@ -5354,13 +5354,13 @@
         <v>5</v>
       </c>
       <c r="E29" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="F29" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="G29" s="5" t="s">
         <v>250</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -5368,7 +5368,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>16</v>
@@ -5382,7 +5382,7 @@
         <v>27</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>17</v>
@@ -5396,7 +5396,7 @@
         <v>27</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>18</v>
@@ -5405,13 +5405,13 @@
         <v>4</v>
       </c>
       <c r="E32" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="G32" s="2" t="s">
         <v>253</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -5419,7 +5419,7 @@
         <v>27</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>19</v>
@@ -5433,7 +5433,7 @@
         <v>27</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>20</v>
@@ -5447,7 +5447,7 @@
         <v>27</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>21</v>
@@ -5456,13 +5456,13 @@
         <v>4</v>
       </c>
       <c r="E35" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="G35" s="5" t="s">
         <v>255</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -5470,10 +5470,10 @@
         <v>27</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D36" s="14">
         <v>3</v>
@@ -5484,7 +5484,7 @@
         <v>27</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>23</v>
@@ -5498,10 +5498,10 @@
         <v>27</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D38" s="14">
         <v>1</v>
@@ -5512,30 +5512,30 @@
         <v>27</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D39" s="14">
         <v>4</v>
       </c>
       <c r="E39" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="F39" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="F39" s="5" t="s">
+      <c r="G39" s="5" t="s">
         <v>259</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>7</v>
@@ -5546,10 +5546,10 @@
     </row>
     <row r="41" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>8</v>
@@ -5558,21 +5558,21 @@
         <v>5</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>9</v>
@@ -5581,21 +5581,21 @@
         <v>4</v>
       </c>
       <c r="E42" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F42" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="G42" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>10</v>
@@ -5606,10 +5606,10 @@
     </row>
     <row r="44" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>11</v>
@@ -5618,21 +5618,21 @@
         <v>5</v>
       </c>
       <c r="E44" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F44" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="G44" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>80</v>
@@ -5641,21 +5641,21 @@
         <v>4</v>
       </c>
       <c r="E45" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F45" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="G45" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>13</v>
@@ -5666,10 +5666,10 @@
     </row>
     <row r="47" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>14</v>
@@ -5678,21 +5678,21 @@
         <v>4</v>
       </c>
       <c r="E47" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="F47" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="F47" s="5" t="s">
+      <c r="G47" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>15</v>
@@ -5701,21 +5701,21 @@
         <v>4</v>
       </c>
       <c r="E48" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="G48" s="5" t="s">
         <v>177</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="G48" s="5" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>16</v>
@@ -5726,10 +5726,10 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>17</v>
@@ -5740,10 +5740,10 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>18</v>
@@ -5754,10 +5754,10 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>19</v>
@@ -5768,10 +5768,10 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>20</v>
@@ -5782,10 +5782,10 @@
     </row>
     <row r="54" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>21</v>
@@ -5794,24 +5794,24 @@
         <v>4</v>
       </c>
       <c r="E54" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="F54" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="F54" s="5" t="s">
+      <c r="G54" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D55" s="14">
         <v>3</v>
@@ -5819,10 +5819,10 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>23</v>
@@ -5833,13 +5833,13 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D57" s="14">
         <v>2</v>
@@ -5847,13 +5847,13 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D58" s="14">
         <v>3</v>
@@ -5861,10 +5861,10 @@
     </row>
     <row r="59" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>7</v>
@@ -5873,21 +5873,21 @@
         <v>4</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>8</v>
@@ -5896,21 +5896,21 @@
         <v>5</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>9</v>
@@ -5921,10 +5921,10 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>10</v>
@@ -5935,10 +5935,10 @@
     </row>
     <row r="63" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>11</v>
@@ -5947,21 +5947,21 @@
         <v>4</v>
       </c>
       <c r="E63" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="G63" s="5" t="s">
         <v>187</v>
-      </c>
-      <c r="F63" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="G63" s="5" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>80</v>
@@ -5972,10 +5972,10 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>13</v>
@@ -5986,10 +5986,10 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>14</v>
@@ -6000,10 +6000,10 @@
     </row>
     <row r="67" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>15</v>
@@ -6012,21 +6012,21 @@
         <v>5</v>
       </c>
       <c r="E67" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="F67" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="F67" s="5" t="s">
+      <c r="G67" s="5" t="s">
         <v>190</v>
-      </c>
-      <c r="G67" s="5" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>16</v>
@@ -6037,10 +6037,10 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>17</v>
@@ -6051,10 +6051,10 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>18</v>
@@ -6065,10 +6065,10 @@
     </row>
     <row r="71" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>19</v>
@@ -6077,21 +6077,21 @@
         <v>4</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>20</v>
@@ -6102,10 +6102,10 @@
     </row>
     <row r="73" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>21</v>
@@ -6114,44 +6114,44 @@
         <v>5</v>
       </c>
       <c r="E73" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="F73" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="F73" s="5" t="s">
+      <c r="G73" s="5" t="s">
         <v>193</v>
-      </c>
-      <c r="G73" s="5" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="80" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D74" s="14">
         <v>4</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>23</v>
@@ -6162,13 +6162,13 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D76" s="14">
         <v>3</v>
@@ -6176,13 +6176,13 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D77" s="14">
         <v>3</v>
@@ -6190,10 +6190,10 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>7</v>
@@ -6204,10 +6204,10 @@
     </row>
     <row r="79" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>8</v>
@@ -6216,21 +6216,21 @@
         <v>5</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>9</v>
@@ -6241,10 +6241,10 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>10</v>
@@ -6255,10 +6255,10 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>11</v>
@@ -6269,10 +6269,10 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>80</v>
@@ -6283,10 +6283,10 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>13</v>
@@ -6297,10 +6297,10 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>14</v>
@@ -6311,10 +6311,10 @@
     </row>
     <row r="86" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>15</v>
@@ -6323,21 +6323,21 @@
         <v>4</v>
       </c>
       <c r="E86" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="F86" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="F86" s="5" t="s">
-        <v>206</v>
-      </c>
       <c r="G86" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>16</v>
@@ -6348,10 +6348,10 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>17</v>
@@ -6362,10 +6362,10 @@
     </row>
     <row r="89" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>18</v>
@@ -6374,21 +6374,21 @@
         <v>4</v>
       </c>
       <c r="E89" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="F89" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="F89" s="5" t="s">
+      <c r="G89" s="5" t="s">
         <v>208</v>
-      </c>
-      <c r="G89" s="5" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>19</v>
@@ -6399,10 +6399,10 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>20</v>
@@ -6413,10 +6413,10 @@
     </row>
     <row r="92" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>21</v>
@@ -6425,24 +6425,24 @@
         <v>4</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G92" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D93" s="14">
         <v>3</v>
@@ -6450,10 +6450,10 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>23</v>
@@ -6464,13 +6464,13 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D95" s="14">
         <v>2</v>
@@ -6478,13 +6478,13 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D96" s="14">
         <v>3</v>
@@ -6492,10 +6492,10 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>7</v>
@@ -6506,10 +6506,10 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>8</v>
@@ -6520,10 +6520,10 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>9</v>
@@ -6534,10 +6534,10 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>10</v>
@@ -6548,10 +6548,10 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>11</v>
@@ -6562,10 +6562,10 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>80</v>
@@ -6576,10 +6576,10 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>13</v>
@@ -6590,10 +6590,10 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>14</v>
@@ -6604,10 +6604,10 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>15</v>
@@ -6618,10 +6618,10 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>16</v>
@@ -6632,10 +6632,10 @@
     </row>
     <row r="107" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>17</v>
@@ -6644,21 +6644,21 @@
         <v>4</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G107" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>18</v>
@@ -6667,21 +6667,21 @@
         <v>4</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G108" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>19</v>
@@ -6692,10 +6692,10 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>20</v>
@@ -6706,10 +6706,10 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C111" s="3" t="s">
         <v>21</v>
@@ -6720,33 +6720,33 @@
     </row>
     <row r="112" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D112" s="14">
         <v>4</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F112" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="G112" s="5" t="s">
         <v>217</v>
-      </c>
-      <c r="G112" s="5" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C113" s="3" t="s">
         <v>23</v>
@@ -6757,13 +6757,13 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D114" s="14">
         <v>2</v>
@@ -6771,13 +6771,13 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D115" s="14">
         <v>3</v>
@@ -6785,10 +6785,10 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>7</v>
@@ -6799,10 +6799,10 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C117" s="3" t="s">
         <v>8</v>
@@ -6813,10 +6813,10 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C118" s="3" t="s">
         <v>9</v>
@@ -6827,10 +6827,10 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C119" s="3" t="s">
         <v>10</v>
@@ -6841,10 +6841,10 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C120" s="3" t="s">
         <v>11</v>
@@ -6855,10 +6855,10 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>80</v>
@@ -6869,10 +6869,10 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>13</v>
@@ -6883,10 +6883,10 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>14</v>
@@ -6897,10 +6897,10 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C124" s="3" t="s">
         <v>15</v>
@@ -6911,10 +6911,10 @@
     </row>
     <row r="125" spans="1:7" s="23" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A125" s="23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B125" s="23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C125" s="23" t="s">
         <v>16</v>
@@ -6923,21 +6923,21 @@
         <v>5</v>
       </c>
       <c r="E125" s="25" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F125" s="25" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G125" s="25" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="126" spans="1:7" s="23" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A126" s="23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B126" s="23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C126" s="23" t="s">
         <v>17</v>
@@ -6946,21 +6946,21 @@
         <v>5</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G126" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="127" spans="1:7" s="23" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A127" s="23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B127" s="23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C127" s="23" t="s">
         <v>18</v>
@@ -6969,21 +6969,21 @@
         <v>5</v>
       </c>
       <c r="E127" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="F127" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="F127" s="5" t="s">
+      <c r="G127" s="5" t="s">
         <v>276</v>
-      </c>
-      <c r="G127" s="5" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="128" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A128" s="23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B128" s="23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C128" s="23" t="s">
         <v>19</v>
@@ -6997,10 +6997,10 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C129" s="3" t="s">
         <v>20</v>
@@ -7011,10 +7011,10 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C130" s="3" t="s">
         <v>21</v>
@@ -7025,13 +7025,13 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D131" s="14">
         <v>1</v>
@@ -7039,10 +7039,10 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C132" s="3" t="s">
         <v>23</v>
@@ -7053,13 +7053,13 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D133" s="14">
         <v>2</v>
@@ -7067,13 +7067,13 @@
     </row>
     <row r="134" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134" s="26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B134" s="26" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C134" s="26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D134" s="27">
         <v>5</v>
@@ -7084,10 +7084,10 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C135" s="3" t="s">
         <v>7</v>
@@ -7098,10 +7098,10 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C136" s="3" t="s">
         <v>8</v>
@@ -7112,10 +7112,10 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C137" s="3" t="s">
         <v>9</v>
@@ -7126,10 +7126,10 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C138" s="3" t="s">
         <v>10</v>
@@ -7140,10 +7140,10 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C139" s="3" t="s">
         <v>11</v>
@@ -7154,10 +7154,10 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C140" s="3" t="s">
         <v>80</v>
@@ -7168,10 +7168,10 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C141" s="3" t="s">
         <v>13</v>
@@ -7182,10 +7182,10 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C142" s="3" t="s">
         <v>14</v>
@@ -7196,10 +7196,10 @@
     </row>
     <row r="143" spans="1:7" s="23" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A143" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B143" s="23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C143" s="23" t="s">
         <v>15</v>
@@ -7208,21 +7208,21 @@
         <v>4</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F143" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G143" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="144" spans="1:7" s="23" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A144" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B144" s="23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C144" s="23" t="s">
         <v>16</v>
@@ -7231,21 +7231,21 @@
         <v>5</v>
       </c>
       <c r="E144" s="25" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F144" s="25" t="s">
+        <v>279</v>
+      </c>
+      <c r="G144" s="25" t="s">
         <v>280</v>
-      </c>
-      <c r="G144" s="25" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="145" spans="1:7" s="23" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A145" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B145" s="23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C145" s="23" t="s">
         <v>17</v>
@@ -7254,21 +7254,21 @@
         <v>5</v>
       </c>
       <c r="E145" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F145" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G145" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="146" spans="1:7" s="23" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A146" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B146" s="23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C146" s="23" t="s">
         <v>18</v>
@@ -7277,21 +7277,21 @@
         <v>5</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F146" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="G146" s="5" t="s">
         <v>293</v>
-      </c>
-      <c r="G146" s="5" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="147" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A147" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B147" s="23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C147" s="23" t="s">
         <v>19</v>
@@ -7305,10 +7305,10 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C148" s="3" t="s">
         <v>20</v>
@@ -7319,10 +7319,10 @@
     </row>
     <row r="149" spans="1:7" s="23" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A149" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B149" s="23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C149" s="23" t="s">
         <v>21</v>
@@ -7331,24 +7331,24 @@
         <v>4</v>
       </c>
       <c r="E149" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F149" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G149" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D150" s="14">
         <v>1</v>
@@ -7356,10 +7356,10 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C151" s="3" t="s">
         <v>23</v>
@@ -7370,13 +7370,13 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D152" s="14">
         <v>3</v>
@@ -7384,33 +7384,33 @@
     </row>
     <row r="153" spans="1:7" s="23" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A153" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B153" s="23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C153" s="23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D153" s="24">
         <v>5</v>
       </c>
       <c r="E153" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="F153" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="F153" s="5" t="s">
-        <v>290</v>
-      </c>
       <c r="G153" s="25" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C154" s="3" t="s">
         <v>7</v>
@@ -7421,10 +7421,10 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C155" s="3" t="s">
         <v>8</v>
@@ -7435,10 +7435,10 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C156" s="3" t="s">
         <v>9</v>
@@ -7449,10 +7449,10 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C157" s="3" t="s">
         <v>10</v>
@@ -7463,10 +7463,10 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C158" s="3" t="s">
         <v>11</v>
@@ -7477,10 +7477,10 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C159" s="3" t="s">
         <v>80</v>
@@ -7491,10 +7491,10 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C160" s="3" t="s">
         <v>13</v>
@@ -7505,10 +7505,10 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C161" s="3" t="s">
         <v>14</v>
@@ -7519,10 +7519,10 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C162" s="3" t="s">
         <v>15</v>
@@ -7533,10 +7533,10 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C163" s="3" t="s">
         <v>16</v>
@@ -7547,10 +7547,10 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C164" s="3" t="s">
         <v>17</v>
@@ -7561,10 +7561,10 @@
     </row>
     <row r="165" spans="1:7" s="23" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A165" s="23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B165" s="23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C165" s="23" t="s">
         <v>18</v>
@@ -7573,21 +7573,21 @@
         <v>4</v>
       </c>
       <c r="E165" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="F165" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="G165" s="5" t="s">
         <v>291</v>
-      </c>
-      <c r="F165" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="G165" s="5" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C166" s="3" t="s">
         <v>19</v>
@@ -7598,10 +7598,10 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C167" s="3" t="s">
         <v>20</v>
@@ -7612,10 +7612,10 @@
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C168" s="3" t="s">
         <v>21</v>
@@ -7626,13 +7626,13 @@
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D169" s="14">
         <v>1</v>
@@ -7640,10 +7640,10 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C170" s="3" t="s">
         <v>23</v>
@@ -7654,13 +7654,13 @@
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D171" s="14">
         <v>1</v>
@@ -7668,13 +7668,13 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D172" s="14">
         <v>3</v>
@@ -7682,10 +7682,10 @@
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C173" s="3" t="s">
         <v>7</v>
@@ -7696,10 +7696,10 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C174" s="3" t="s">
         <v>8</v>
@@ -7710,10 +7710,10 @@
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C175" s="3" t="s">
         <v>9</v>
@@ -7724,10 +7724,10 @@
     </row>
     <row r="176" spans="1:7" s="23" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A176" s="23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B176" s="23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C176" s="23" t="s">
         <v>10</v>
@@ -7736,21 +7736,21 @@
         <v>4</v>
       </c>
       <c r="E176" s="25" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F176" s="25" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G176" s="25" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="177" spans="1:7" s="23" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A177" s="23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B177" s="23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C177" s="23" t="s">
         <v>11</v>
@@ -7759,21 +7759,21 @@
         <v>4</v>
       </c>
       <c r="E177" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F177" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="G177" s="5" t="s">
         <v>303</v>
-      </c>
-      <c r="G177" s="5" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C178" s="3" t="s">
         <v>80</v>
@@ -7784,10 +7784,10 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C179" s="3" t="s">
         <v>13</v>
@@ -7798,10 +7798,10 @@
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C180" s="3" t="s">
         <v>14</v>
@@ -7812,10 +7812,10 @@
     </row>
     <row r="181" spans="1:7" s="23" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A181" s="23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B181" s="23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C181" s="23" t="s">
         <v>15</v>
@@ -7824,21 +7824,21 @@
         <v>4</v>
       </c>
       <c r="E181" s="29" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F181" s="29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G181" s="29" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C182" s="3" t="s">
         <v>16</v>
@@ -7849,10 +7849,10 @@
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C183" s="3" t="s">
         <v>17</v>
@@ -7863,10 +7863,10 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C184" s="3" t="s">
         <v>18</v>
@@ -7877,10 +7877,10 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C185" s="3" t="s">
         <v>19</v>
@@ -7891,10 +7891,10 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C186" s="3" t="s">
         <v>20</v>
@@ -7905,10 +7905,10 @@
     </row>
     <row r="187" spans="1:7" s="23" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A187" s="23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B187" s="23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C187" s="23" t="s">
         <v>21</v>
@@ -7917,24 +7917,24 @@
         <v>4</v>
       </c>
       <c r="E187" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="F187" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="F187" s="5" t="s">
-        <v>302</v>
-      </c>
       <c r="G187" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D188" s="14">
         <v>1</v>
@@ -7942,10 +7942,10 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C189" s="3" t="s">
         <v>23</v>
@@ -7956,13 +7956,13 @@
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D190" s="14">
         <v>1</v>
@@ -7970,13 +7970,13 @@
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D191" s="14">
         <v>3</v>
@@ -7984,10 +7984,10 @@
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C192" s="3" t="s">
         <v>7</v>
@@ -7998,10 +7998,10 @@
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C193" s="3" t="s">
         <v>8</v>
@@ -8012,10 +8012,10 @@
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C194" s="3" t="s">
         <v>9</v>
@@ -8026,10 +8026,10 @@
     </row>
     <row r="195" spans="1:7" s="23" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A195" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B195" s="23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C195" s="23" t="s">
         <v>10</v>
@@ -8038,21 +8038,21 @@
         <v>4</v>
       </c>
       <c r="E195" s="25" t="s">
+        <v>307</v>
+      </c>
+      <c r="F195" s="25" t="s">
         <v>308</v>
       </c>
-      <c r="F195" s="25" t="s">
+      <c r="G195" s="25" t="s">
         <v>309</v>
-      </c>
-      <c r="G195" s="25" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="196" spans="1:7" s="23" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A196" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B196" s="23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C196" s="23" t="s">
         <v>11</v>
@@ -8061,21 +8061,21 @@
         <v>5</v>
       </c>
       <c r="E196" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F196" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="G196" s="5" t="s">
         <v>303</v>
-      </c>
-      <c r="G196" s="5" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C197" s="3" t="s">
         <v>80</v>
@@ -8086,10 +8086,10 @@
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C198" s="3" t="s">
         <v>13</v>
@@ -8100,10 +8100,10 @@
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C199" s="3" t="s">
         <v>14</v>
@@ -8114,10 +8114,10 @@
     </row>
     <row r="200" spans="1:7" s="23" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A200" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B200" s="23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C200" s="23" t="s">
         <v>15</v>
@@ -8126,21 +8126,21 @@
         <v>4</v>
       </c>
       <c r="E200" s="29" t="s">
+        <v>298</v>
+      </c>
+      <c r="F200" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="G200" s="29" t="s">
         <v>299</v>
-      </c>
-      <c r="F200" s="29" t="s">
-        <v>179</v>
-      </c>
-      <c r="G200" s="29" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C201" s="3" t="s">
         <v>16</v>
@@ -8151,10 +8151,10 @@
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C202" s="3" t="s">
         <v>17</v>
@@ -8165,10 +8165,10 @@
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C203" s="3" t="s">
         <v>18</v>
@@ -8179,10 +8179,10 @@
     </row>
     <row r="204" spans="1:7" s="23" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A204" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B204" s="23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C204" s="23" t="s">
         <v>19</v>
@@ -8191,21 +8191,21 @@
         <v>4</v>
       </c>
       <c r="E204" s="25" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F204" s="25" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G204" s="25" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C205" s="3" t="s">
         <v>20</v>
@@ -8216,10 +8216,10 @@
     </row>
     <row r="206" spans="1:7" s="23" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A206" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B206" s="23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C206" s="23" t="s">
         <v>21</v>
@@ -8228,24 +8228,24 @@
         <v>4</v>
       </c>
       <c r="E206" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="F206" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="F206" s="5" t="s">
-        <v>302</v>
-      </c>
       <c r="G206" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D207" s="14">
         <v>1</v>
@@ -8253,10 +8253,10 @@
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C208" s="3" t="s">
         <v>23</v>
@@ -8267,13 +8267,13 @@
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D209" s="14">
         <v>1</v>
@@ -8281,13 +8281,13 @@
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D210" s="14">
         <v>3</v>
@@ -8295,10 +8295,10 @@
     </row>
     <row r="211" spans="1:7" s="23" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A211" s="23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B211" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C211" s="23" t="s">
         <v>7</v>
@@ -8307,21 +8307,21 @@
         <v>5</v>
       </c>
       <c r="E211" s="25" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F211" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="G211" s="25" t="s">
         <v>315</v>
-      </c>
-      <c r="G211" s="25" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="212" spans="1:7" s="23" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A212" s="23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B212" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C212" s="23" t="s">
         <v>8</v>
@@ -8330,21 +8330,21 @@
         <v>5</v>
       </c>
       <c r="E212" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="F212" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="F212" s="2" t="s">
+      <c r="G212" s="2" t="s">
         <v>319</v>
-      </c>
-      <c r="G212" s="2" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A213" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C213" s="3" t="s">
         <v>9</v>
@@ -8355,10 +8355,10 @@
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A214" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C214" s="3" t="s">
         <v>10</v>
@@ -8369,10 +8369,10 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A215" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C215" s="3" t="s">
         <v>11</v>
@@ -8383,10 +8383,10 @@
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A216" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C216" s="3" t="s">
         <v>80</v>
@@ -8397,10 +8397,10 @@
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A217" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C217" s="3" t="s">
         <v>13</v>
@@ -8411,10 +8411,10 @@
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A218" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C218" s="3" t="s">
         <v>14</v>
@@ -8425,10 +8425,10 @@
     </row>
     <row r="219" spans="1:7" s="23" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A219" s="23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B219" s="23" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C219" s="23" t="s">
         <v>15</v>
@@ -8437,21 +8437,21 @@
         <v>5</v>
       </c>
       <c r="E219" s="25" t="s">
+        <v>321</v>
+      </c>
+      <c r="F219" s="25" t="s">
         <v>322</v>
       </c>
-      <c r="F219" s="25" t="s">
+      <c r="G219" s="25" t="s">
         <v>323</v>
-      </c>
-      <c r="G219" s="25" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A220" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C220" s="3" t="s">
         <v>16</v>
@@ -8462,10 +8462,10 @@
     </row>
     <row r="221" spans="1:7" s="23" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A221" s="23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B221" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C221" s="23" t="s">
         <v>17</v>
@@ -8474,21 +8474,21 @@
         <v>4</v>
       </c>
       <c r="E221" s="25" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F221" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="G221" s="25" t="s">
         <v>325</v>
-      </c>
-      <c r="G221" s="25" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="222" spans="1:7" s="23" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A222" s="23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B222" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C222" s="23" t="s">
         <v>18</v>
@@ -8497,21 +8497,21 @@
         <v>5</v>
       </c>
       <c r="E222" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="F222" s="25" t="s">
         <v>327</v>
       </c>
-      <c r="F222" s="25" t="s">
+      <c r="G222" s="25" t="s">
         <v>328</v>
-      </c>
-      <c r="G222" s="25" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="223" spans="1:7" s="23" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A223" s="23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B223" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C223" s="23" t="s">
         <v>19</v>
@@ -8520,21 +8520,21 @@
         <v>4</v>
       </c>
       <c r="E223" s="25" t="s">
+        <v>329</v>
+      </c>
+      <c r="F223" s="25" t="s">
         <v>330</v>
       </c>
-      <c r="F223" s="25" t="s">
+      <c r="G223" s="25" t="s">
         <v>331</v>
-      </c>
-      <c r="G223" s="25" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="224" spans="1:7" s="23" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A224" s="23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B224" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C224" s="23" t="s">
         <v>20</v>
@@ -8543,21 +8543,21 @@
         <v>4</v>
       </c>
       <c r="E224" s="25" t="s">
+        <v>332</v>
+      </c>
+      <c r="F224" s="25" t="s">
         <v>333</v>
       </c>
-      <c r="F224" s="25" t="s">
-        <v>334</v>
-      </c>
       <c r="G224" s="25" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="225" spans="1:7" s="23" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A225" s="23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B225" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C225" s="23" t="s">
         <v>21</v>
@@ -8566,44 +8566,44 @@
         <v>5</v>
       </c>
       <c r="E225" s="25" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F225" s="25" t="s">
+        <v>334</v>
+      </c>
+      <c r="G225" s="25" t="s">
         <v>335</v>
-      </c>
-      <c r="G225" s="25" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="226" spans="1:7" s="23" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A226" s="23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B226" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C226" s="23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D226" s="24">
         <v>5</v>
       </c>
       <c r="E226" s="25" t="s">
+        <v>336</v>
+      </c>
+      <c r="F226" s="25" t="s">
         <v>337</v>
       </c>
-      <c r="F226" s="25" t="s">
+      <c r="G226" s="25" t="s">
         <v>338</v>
-      </c>
-      <c r="G226" s="25" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A227" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C227" s="3" t="s">
         <v>23</v>
@@ -8614,56 +8614,56 @@
     </row>
     <row r="228" spans="1:7" s="23" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A228" s="23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C228" s="23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D228" s="24">
         <v>4</v>
       </c>
       <c r="E228" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="F228" s="25" t="s">
         <v>340</v>
       </c>
-      <c r="F228" s="25" t="s">
+      <c r="G228" s="25" t="s">
         <v>341</v>
-      </c>
-      <c r="G228" s="25" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="229" spans="1:7" s="23" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A229" s="23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C229" s="23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D229" s="24">
         <v>5</v>
       </c>
       <c r="E229" s="25" t="s">
+        <v>342</v>
+      </c>
+      <c r="F229" s="25" t="s">
         <v>343</v>
       </c>
-      <c r="F229" s="25" t="s">
+      <c r="G229" s="25" t="s">
         <v>344</v>
-      </c>
-      <c r="G229" s="25" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A230" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C230" s="3" t="s">
         <v>7</v>
@@ -8671,10 +8671,10 @@
     </row>
     <row r="231" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A231" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B231" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C231" s="23" t="s">
         <v>8</v>
@@ -8683,21 +8683,21 @@
         <v>5</v>
       </c>
       <c r="E231" s="25" t="s">
+        <v>348</v>
+      </c>
+      <c r="F231" s="25" t="s">
         <v>349</v>
       </c>
-      <c r="F231" s="25" t="s">
+      <c r="G231" s="25" t="s">
         <v>350</v>
-      </c>
-      <c r="G231" s="25" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A232" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C232" s="3" t="s">
         <v>9</v>
@@ -8708,10 +8708,10 @@
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A233" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C233" s="3" t="s">
         <v>10</v>
@@ -8722,10 +8722,10 @@
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A234" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C234" s="3" t="s">
         <v>11</v>
@@ -8736,10 +8736,10 @@
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A235" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C235" s="3" t="s">
         <v>80</v>
@@ -8750,10 +8750,10 @@
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A236" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C236" s="3" t="s">
         <v>13</v>
@@ -8764,10 +8764,10 @@
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A237" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C237" s="3" t="s">
         <v>14</v>
@@ -8778,10 +8778,10 @@
     </row>
     <row r="238" spans="1:7" s="23" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A238" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B238" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C238" s="23" t="s">
         <v>15</v>
@@ -8790,21 +8790,21 @@
         <v>5</v>
       </c>
       <c r="E238" s="25" t="s">
+        <v>351</v>
+      </c>
+      <c r="F238" s="25" t="s">
         <v>352</v>
       </c>
-      <c r="F238" s="25" t="s">
+      <c r="G238" s="25" t="s">
         <v>353</v>
-      </c>
-      <c r="G238" s="25" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A239" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C239" s="3" t="s">
         <v>16</v>
@@ -8815,10 +8815,10 @@
     </row>
     <row r="240" spans="1:7" s="23" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A240" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B240" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C240" s="23" t="s">
         <v>17</v>
@@ -8827,21 +8827,21 @@
         <v>4</v>
       </c>
       <c r="E240" s="25" t="s">
+        <v>354</v>
+      </c>
+      <c r="F240" s="25" t="s">
         <v>355</v>
       </c>
-      <c r="F240" s="25" t="s">
+      <c r="G240" s="25" t="s">
         <v>356</v>
-      </c>
-      <c r="G240" s="25" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="241" spans="1:7" s="23" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A241" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B241" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C241" s="23" t="s">
         <v>18</v>
@@ -8850,21 +8850,21 @@
         <v>5</v>
       </c>
       <c r="E241" s="25" t="s">
+        <v>357</v>
+      </c>
+      <c r="F241" s="25" t="s">
         <v>358</v>
       </c>
-      <c r="F241" s="25" t="s">
+      <c r="G241" s="25" t="s">
         <v>359</v>
-      </c>
-      <c r="G241" s="25" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="242" spans="1:7" s="23" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A242" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B242" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C242" s="23" t="s">
         <v>19</v>
@@ -8873,21 +8873,21 @@
         <v>5</v>
       </c>
       <c r="E242" s="25" t="s">
+        <v>360</v>
+      </c>
+      <c r="F242" s="25" t="s">
         <v>361</v>
       </c>
-      <c r="F242" s="25" t="s">
+      <c r="G242" s="25" t="s">
         <v>362</v>
-      </c>
-      <c r="G242" s="25" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A243" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C243" s="3" t="s">
         <v>20</v>
@@ -8898,10 +8898,10 @@
     </row>
     <row r="244" spans="1:7" s="23" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A244" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B244" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C244" s="23" t="s">
         <v>21</v>
@@ -8910,44 +8910,44 @@
         <v>5</v>
       </c>
       <c r="E244" s="25" t="s">
+        <v>363</v>
+      </c>
+      <c r="F244" s="25" t="s">
         <v>364</v>
       </c>
-      <c r="F244" s="25" t="s">
+      <c r="G244" s="25" t="s">
         <v>365</v>
-      </c>
-      <c r="G244" s="25" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="245" spans="1:7" s="23" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A245" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B245" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C245" s="23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D245" s="24">
         <v>5</v>
       </c>
       <c r="E245" s="25" t="s">
+        <v>366</v>
+      </c>
+      <c r="F245" s="25" t="s">
         <v>367</v>
       </c>
-      <c r="F245" s="25" t="s">
+      <c r="G245" s="25" t="s">
         <v>368</v>
-      </c>
-      <c r="G245" s="25" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A246" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C246" s="3" t="s">
         <v>23</v>
@@ -8958,13 +8958,13 @@
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A247" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C247" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D247" s="14">
         <v>3</v>
@@ -8972,33 +8972,33 @@
     </row>
     <row r="248" spans="1:7" s="23" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A248" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B248" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C248" s="23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D248" s="24">
         <v>4</v>
       </c>
       <c r="E248" s="25" t="s">
+        <v>369</v>
+      </c>
+      <c r="F248" s="25" t="s">
         <v>370</v>
       </c>
-      <c r="F248" s="25" t="s">
+      <c r="G248" s="25" t="s">
         <v>371</v>
-      </c>
-      <c r="G248" s="25" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="249" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A249" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B249" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C249" s="23" t="s">
         <v>7</v>
@@ -9012,10 +9012,10 @@
     </row>
     <row r="250" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A250" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B250" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C250" s="23" t="s">
         <v>8</v>
@@ -9029,10 +9029,10 @@
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A251" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C251" s="3" t="s">
         <v>9</v>
@@ -9043,10 +9043,10 @@
     </row>
     <row r="252" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A252" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B252" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C252" s="23" t="s">
         <v>10</v>
@@ -9060,10 +9060,10 @@
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A253" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C253" s="3" t="s">
         <v>11</v>
@@ -9074,10 +9074,10 @@
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A254" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C254" s="3" t="s">
         <v>80</v>
@@ -9088,10 +9088,10 @@
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A255" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C255" s="3" t="s">
         <v>13</v>
@@ -9102,10 +9102,10 @@
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A256" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C256" s="3" t="s">
         <v>14</v>
@@ -9116,10 +9116,10 @@
     </row>
     <row r="257" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A257" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B257" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C257" s="23" t="s">
         <v>15</v>
@@ -9133,10 +9133,10 @@
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A258" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C258" s="3" t="s">
         <v>16</v>
@@ -9147,10 +9147,10 @@
     </row>
     <row r="259" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A259" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B259" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C259" s="23" t="s">
         <v>17</v>
@@ -9164,10 +9164,10 @@
     </row>
     <row r="260" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A260" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B260" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C260" s="23" t="s">
         <v>18</v>
@@ -9181,10 +9181,10 @@
     </row>
     <row r="261" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A261" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B261" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C261" s="23" t="s">
         <v>19</v>
@@ -9198,10 +9198,10 @@
     </row>
     <row r="262" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A262" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B262" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C262" s="23" t="s">
         <v>20</v>
@@ -9215,10 +9215,10 @@
     </row>
     <row r="263" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A263" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B263" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C263" s="23" t="s">
         <v>21</v>
@@ -9232,13 +9232,13 @@
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A264" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C264" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D264" s="14">
         <v>4</v>
@@ -9246,10 +9246,10 @@
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A265" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C265" s="3" t="s">
         <v>23</v>
@@ -9260,13 +9260,13 @@
     </row>
     <row r="266" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A266" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B266" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C266" s="23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D266" s="24">
         <v>4</v>
@@ -9277,13 +9277,13 @@
     </row>
     <row r="267" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A267" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B267" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C267" s="23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D267" s="24">
         <v>5</v>
@@ -9294,10 +9294,10 @@
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A268" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C268" s="3" t="s">
         <v>7</v>
@@ -9308,10 +9308,10 @@
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A269" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C269" s="3" t="s">
         <v>8</v>
@@ -9322,10 +9322,10 @@
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A270" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C270" s="3" t="s">
         <v>9</v>
@@ -9336,10 +9336,10 @@
     </row>
     <row r="271" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A271" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B271" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C271" s="23" t="s">
         <v>10</v>
@@ -9353,10 +9353,10 @@
     </row>
     <row r="272" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A272" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B272" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C272" s="23" t="s">
         <v>11</v>
@@ -9370,10 +9370,10 @@
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A273" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C273" s="3" t="s">
         <v>80</v>
@@ -9384,10 +9384,10 @@
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A274" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C274" s="3" t="s">
         <v>13</v>
@@ -9398,10 +9398,10 @@
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A275" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C275" s="3" t="s">
         <v>14</v>
@@ -9412,10 +9412,10 @@
     </row>
     <row r="276" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A276" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B276" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C276" s="23" t="s">
         <v>15</v>
@@ -9429,10 +9429,10 @@
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A277" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C277" s="3" t="s">
         <v>16</v>
@@ -9443,10 +9443,10 @@
     </row>
     <row r="278" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A278" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B278" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C278" s="23" t="s">
         <v>17</v>
@@ -9460,10 +9460,10 @@
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A279" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C279" s="3" t="s">
         <v>18</v>
@@ -9474,10 +9474,10 @@
     </row>
     <row r="280" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A280" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B280" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C280" s="23" t="s">
         <v>19</v>
@@ -9491,10 +9491,10 @@
     </row>
     <row r="281" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A281" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B281" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C281" s="23" t="s">
         <v>20</v>
@@ -9508,10 +9508,10 @@
     </row>
     <row r="282" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A282" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B282" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C282" s="23" t="s">
         <v>21</v>
@@ -9525,13 +9525,13 @@
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A283" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C283" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D283" s="14">
         <v>3</v>
@@ -9539,10 +9539,10 @@
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A284" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C284" s="3" t="s">
         <v>23</v>
@@ -9553,13 +9553,13 @@
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A285" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C285" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D285" s="14">
         <v>3</v>
@@ -9567,13 +9567,13 @@
     </row>
     <row r="286" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A286" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B286" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C286" s="23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D286" s="24">
         <v>5</v>
@@ -9584,10 +9584,10 @@
     </row>
     <row r="287" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A287" s="23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B287" s="23" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C287" s="23" t="s">
         <v>7</v>
@@ -9601,10 +9601,10 @@
     </row>
     <row r="288" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A288" s="23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B288" s="23" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C288" s="23" t="s">
         <v>8</v>
@@ -9618,10 +9618,10 @@
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A289" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C289" s="3" t="s">
         <v>9</v>
@@ -9632,10 +9632,10 @@
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A290" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C290" s="3" t="s">
         <v>10</v>
@@ -9646,10 +9646,10 @@
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A291" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C291" s="3" t="s">
         <v>11</v>
@@ -9660,10 +9660,10 @@
     </row>
     <row r="292" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A292" s="23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B292" s="23" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C292" s="23" t="s">
         <v>80</v>
@@ -9677,10 +9677,10 @@
     </row>
     <row r="293" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A293" s="23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B293" s="23" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C293" s="23" t="s">
         <v>13</v>
@@ -9694,10 +9694,10 @@
     </row>
     <row r="294" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A294" s="23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B294" s="23" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C294" s="23" t="s">
         <v>14</v>
@@ -9711,10 +9711,10 @@
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A295" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C295" s="3" t="s">
         <v>15</v>
@@ -9725,10 +9725,10 @@
     </row>
     <row r="296" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A296" s="23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B296" s="23" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C296" s="23" t="s">
         <v>16</v>
@@ -9742,10 +9742,10 @@
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A297" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C297" s="3" t="s">
         <v>17</v>
@@ -9756,10 +9756,10 @@
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A298" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C298" s="3" t="s">
         <v>18</v>
@@ -9770,10 +9770,10 @@
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A299" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C299" s="3" t="s">
         <v>19</v>
@@ -9784,10 +9784,10 @@
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A300" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C300" s="3" t="s">
         <v>20</v>
@@ -9798,10 +9798,10 @@
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A301" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C301" s="3" t="s">
         <v>21</v>
@@ -9812,13 +9812,13 @@
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A302" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C302" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D302" s="14">
         <v>1</v>
@@ -9826,10 +9826,10 @@
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A303" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C303" s="3" t="s">
         <v>23</v>
@@ -9840,13 +9840,13 @@
     </row>
     <row r="304" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A304" s="23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B304" s="23" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C304" s="23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D304" s="24">
         <v>4</v>
@@ -9857,13 +9857,13 @@
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A305" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C305" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D305" s="14">
         <v>3</v>
@@ -9874,7 +9874,7 @@
         <v>42</v>
       </c>
       <c r="B306" s="23" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C306" s="23" t="s">
         <v>7</v>
@@ -9891,7 +9891,7 @@
         <v>42</v>
       </c>
       <c r="B307" s="23" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C307" s="23" t="s">
         <v>8</v>
@@ -9908,7 +9908,7 @@
         <v>42</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C308" s="3" t="s">
         <v>9</v>
@@ -9922,7 +9922,7 @@
         <v>42</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C309" s="3" t="s">
         <v>10</v>
@@ -9936,7 +9936,7 @@
         <v>42</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C310" s="3" t="s">
         <v>11</v>
@@ -9950,7 +9950,7 @@
         <v>42</v>
       </c>
       <c r="B311" s="23" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C311" s="23" t="s">
         <v>80</v>
@@ -9967,7 +9967,7 @@
         <v>42</v>
       </c>
       <c r="B312" s="23" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C312" s="23" t="s">
         <v>13</v>
@@ -9984,7 +9984,7 @@
         <v>42</v>
       </c>
       <c r="B313" s="23" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C313" s="23" t="s">
         <v>14</v>
@@ -10001,7 +10001,7 @@
         <v>42</v>
       </c>
       <c r="B314" s="23" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C314" s="23" t="s">
         <v>15</v>
@@ -10018,7 +10018,7 @@
         <v>42</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C315" s="3" t="s">
         <v>16</v>
@@ -10032,7 +10032,7 @@
         <v>42</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C316" s="3" t="s">
         <v>17</v>
@@ -10046,7 +10046,7 @@
         <v>42</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C317" s="3" t="s">
         <v>18</v>
@@ -10060,7 +10060,7 @@
         <v>42</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C318" s="3" t="s">
         <v>19</v>
@@ -10074,7 +10074,7 @@
         <v>42</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C319" s="3" t="s">
         <v>20</v>
@@ -10088,7 +10088,7 @@
         <v>42</v>
       </c>
       <c r="B320" s="23" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C320" s="23" t="s">
         <v>21</v>
@@ -10105,10 +10105,10 @@
         <v>42</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C321" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D321" s="14">
         <v>1</v>
@@ -10119,7 +10119,7 @@
         <v>42</v>
       </c>
       <c r="B322" s="23" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C322" s="23" t="s">
         <v>23</v>
@@ -10136,10 +10136,10 @@
         <v>42</v>
       </c>
       <c r="B323" s="23" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C323" s="23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D323" s="24">
         <v>4</v>
@@ -10153,10 +10153,10 @@
         <v>42</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C324" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D324" s="14">
         <v>3</v>
@@ -10164,10 +10164,10 @@
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A325" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C325" s="3" t="s">
         <v>7</v>
@@ -10178,10 +10178,10 @@
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A326" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C326" s="3" t="s">
         <v>8</v>
@@ -10192,10 +10192,10 @@
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A327" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C327" s="3" t="s">
         <v>9</v>
@@ -10206,10 +10206,10 @@
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A328" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C328" s="3" t="s">
         <v>10</v>
@@ -10220,10 +10220,10 @@
     </row>
     <row r="329" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A329" s="23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B329" s="23" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C329" s="23" t="s">
         <v>11</v>
@@ -10237,10 +10237,10 @@
     </row>
     <row r="330" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A330" s="23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B330" s="23" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C330" s="23" t="s">
         <v>80</v>
@@ -10254,10 +10254,10 @@
     </row>
     <row r="331" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A331" s="23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B331" s="23" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C331" s="23" t="s">
         <v>13</v>
@@ -10271,10 +10271,10 @@
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A332" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C332" s="3" t="s">
         <v>14</v>
@@ -10285,10 +10285,10 @@
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A333" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C333" s="3" t="s">
         <v>15</v>
@@ -10299,10 +10299,10 @@
     </row>
     <row r="334" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A334" s="26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B334" s="26" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C334" s="26" t="s">
         <v>16</v>
@@ -10316,10 +10316,10 @@
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A335" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C335" s="3" t="s">
         <v>17</v>
@@ -10330,10 +10330,10 @@
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A336" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C336" s="3" t="s">
         <v>18</v>
@@ -10344,10 +10344,10 @@
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A337" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C337" s="3" t="s">
         <v>19</v>
@@ -10358,10 +10358,10 @@
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A338" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C338" s="3" t="s">
         <v>20</v>
@@ -10372,10 +10372,10 @@
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A339" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C339" s="3" t="s">
         <v>21</v>
@@ -10386,13 +10386,13 @@
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A340" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C340" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D340" s="14">
         <v>1</v>
@@ -10400,10 +10400,10 @@
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A341" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C341" s="3" t="s">
         <v>23</v>
@@ -10414,13 +10414,13 @@
     </row>
     <row r="342" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A342" s="23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B342" s="23" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C342" s="23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D342" s="24">
         <v>4</v>
@@ -10431,13 +10431,13 @@
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A343" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C343" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D343" s="14">
         <v>1</v>

--- a/Extreme_Weighting_Scoring_Prototype_for_FormWise_REPAIRED.xlsx
+++ b/Extreme_Weighting_Scoring_Prototype_for_FormWise_REPAIRED.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sharon/Downloads/rsc-app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE979989-782B-A74A-B140-A1A2244909D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D6F6CAE-0937-1541-8909-C79DDAEA4018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="24820" windowHeight="21900" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="24820" windowHeight="21900" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1514" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1634" uniqueCount="493">
   <si>
     <t>Section</t>
   </si>
@@ -1186,6 +1186,366 @@
   </si>
   <si>
     <t>Do you have the flexibility to operate without restrictive zoning laws, HOA rules, or permitting requirements that might limit hosting events, building structures, or selling directly from your farm?</t>
+  </si>
+  <si>
+    <t>strong customer service and sales skills help you book repeat clients, manage expectations, and respond smoothly to requests</t>
+  </si>
+  <si>
+    <t>weak customer service and sales ability makes it harder to secure contracts or maintain long-term client relationships</t>
+  </si>
+  <si>
+    <t>events often depend on reputation and repeat business; service and sales skills directly influence bookings and retention</t>
+  </si>
+  <si>
+    <t>effective marketing helps you showcase your work and connect with organizations looking for floral services</t>
+  </si>
+  <si>
+    <t>weak marketing presence limits visibility and reduces opportunities to pitch for event contracts</t>
+  </si>
+  <si>
+    <t>organizations often plan events months in advance; consistent marketing ensures you’re on their radar at the right time</t>
+  </si>
+  <si>
+    <t>lack of networking may make it harder to learn about opportunities or get your foot in the door when making cold inquiries</t>
+  </si>
+  <si>
+    <t>relationships drive event work; being known and trusted in professional circles is helpful for access</t>
+  </si>
+  <si>
+    <t>a strong professional network can help connect you with planners, venues, and organizations that regularly need floral design</t>
+  </si>
+  <si>
+    <t>diverse crops allow you to create designs for varied event themes and client needs</t>
+  </si>
+  <si>
+    <t>limited product diversity restricts your ability to match palettes or styles for different organizations and different types of events</t>
+  </si>
+  <si>
+    <t>events may require anything from small arrangements to large installations; diversity of floral materials ensures you have all of the ingredients needed to make beautiful designs</t>
+  </si>
+  <si>
+    <t>reliable infrastructure like coolers, vehicles, and staff capacity ensures flowers arrive fresh and setups run smoothly</t>
+  </si>
+  <si>
+    <t>weak infrastructure risks wilted flowers, delayed setups, or chaotic delivery logistics</t>
+  </si>
+  <si>
+    <t>events often require large orders delivered on strict timelines; infrastructure is essential for professional execution</t>
+  </si>
+  <si>
+    <t>unpredictable supply undermines your ability to meet client expectations and deadlines</t>
+  </si>
+  <si>
+    <t>consistent crop planning and effective succession plantings allow you to promise and deliver event orders with confidence</t>
+  </si>
+  <si>
+    <t>organizations expect guaranteed delivery and bookings may be made well in advance of the event; crop predictability is key to being able to accurately describe what you will be able to provide on the day of the event</t>
+  </si>
+  <si>
+    <t>events are often fixed to specific dates and times; flexibility ensures you can say yes and deliver reliably</t>
+  </si>
+  <si>
+    <t>your ability to adapt to the clients' schedule ensures you can book more events, which drives revenue higher</t>
+  </si>
+  <si>
+    <t>conflicting commitments make it difficult to meet event timelines and may cause you to have to pass on opportunities</t>
+  </si>
+  <si>
+    <t>strong financial resources allow you to cover upfront costs for large orders or staffing until payment arrives</t>
+  </si>
+  <si>
+    <t>events often require investment before payment; financial resources give you the ability to commit confidently</t>
+  </si>
+  <si>
+    <t>limited financial reserves create cash-flow stress and may make it harder to take on bigger contracts</t>
+  </si>
+  <si>
+    <t>strong design skills let you create professional arrangements that elevate events and impress clients</t>
+  </si>
+  <si>
+    <t>weak design skills lead to underwhelming displays that may prevent repeat business</t>
+  </si>
+  <si>
+    <t>organizations hire florists to enhance their events; design quality directly affects satisfaction and reputation</t>
+  </si>
+  <si>
+    <t>high stress tolerance helps you manage tight timelines, large orders, and event-day pressures</t>
+  </si>
+  <si>
+    <t>low stress tolerance can make event work overwhelming and increase the chance of mistakes</t>
+  </si>
+  <si>
+    <t>events often involve last-minute changes and high client expectations; stress management is essential</t>
+  </si>
+  <si>
+    <t>poor organization risks late arrivals, forgotten items, or rushed setups</t>
+  </si>
+  <si>
+    <t>events involve many moving parts on fixed schedules; time discipline and organization are critical to success</t>
+  </si>
+  <si>
+    <t>strong organization and time management ensures smooth coordination from booking to harvest to design to delivery and setup</t>
+  </si>
+  <si>
+    <t>a strong eye for color ensures you can match palettes to client branding, event themes, or seasonal styles</t>
+  </si>
+  <si>
+    <t>color accuracy is especially important for organizations that prioritize branding or consistent visual presentation</t>
+  </si>
+  <si>
+    <t>weak color comprehension risks arrangements that don’t align with event aesthetics or client expectations</t>
+  </si>
+  <si>
+    <t>strong professional relationships with chefs, managers, and hospitality staff help secure and maintain contracts</t>
+  </si>
+  <si>
+    <t>hotel and restaurant work is built on relationships; trusted connections often determine who gets the contract</t>
+  </si>
+  <si>
+    <t>long travel distances increase costs, stress, and the risk of damaged product</t>
+  </si>
+  <si>
+    <t>lack of networking limits opportunities and may make it harder to get connected with potential clients</t>
+  </si>
+  <si>
+    <t>hospitality accounts require frequent, reliable delivery, including touch-ups and refreshing of arrangements; proximity directly affects profitability</t>
+  </si>
+  <si>
+    <t>being located near hotels and restaurants makes deliveries efficient and makes repeat trips less taxing on bottom-line profits</t>
+  </si>
+  <si>
+    <t>limited diversity restricts your ability to provide consistent variety and may make your work feel repetitive</t>
+  </si>
+  <si>
+    <t>diverse crop offerings allow you to meet varied design needs, from simple restaurant table bud vases to large hotel lobby arrangements</t>
+  </si>
+  <si>
+    <t>hospitality clients expect fresh, changing arrangements; a diversity of floral materials is key to being able to create beautiful arrangements</t>
+  </si>
+  <si>
+    <t>weak infrastructure risks wilted product, missed drop-offs, or logistical breakdowns</t>
+  </si>
+  <si>
+    <t>hospitality contracts involve frequent, scheduled deliveries; infrastructure underpins quality and reliability</t>
+  </si>
+  <si>
+    <t>reliable infrastructure like coolers, vehicles, and storage for hardgoods ensures you can deliver quality product with high efficiency</t>
+  </si>
+  <si>
+    <t>rigid schedules make it difficult to meet hospitality delivery windows and may cause lost contracts</t>
+  </si>
+  <si>
+    <t>flexible scheduling allows you to accommodate the customers' desired delivery windows</t>
+  </si>
+  <si>
+    <t>these clients often require deliveries on regular, set schedules; flexibility is crucial to meeting their needs</t>
+  </si>
+  <si>
+    <t>strong financial resources allow you to cover upfront costs for supplies and labor until regular payments are received</t>
+  </si>
+  <si>
+    <t>limited financial reserves make it difficult to handle delays or invest in capacity growth</t>
+  </si>
+  <si>
+    <t>hospitality contracts are usually stable but may pay on net terms; financial resources help bridge gaps</t>
+  </si>
+  <si>
+    <t>strong design skills let you create arrangements that enhance the ambiance and align with brand aesthetics</t>
+  </si>
+  <si>
+    <t>weak design skills result in uninspired arrangements that fail to impress staff or guests</t>
+  </si>
+  <si>
+    <t>hotels and restaurants use flowers to reinforce their brand; design quality directly affects client satisfaction</t>
+  </si>
+  <si>
+    <t>strong organization ensures consistent harvest, design, and delivery to meet weekly hospitality schedules</t>
+  </si>
+  <si>
+    <t>poor time management risks late or missed deliveries, eroding client trust</t>
+  </si>
+  <si>
+    <t>hospitality clients expect precise, regular delivery; time discipline is critical for retaining contracts</t>
+  </si>
+  <si>
+    <t>strong customer service and sales skills help you welcome guests, answer questions, and encourage purchases beyond admission fees</t>
+  </si>
+  <si>
+    <t>weak service or sales ability may leave visitors feeling unsupported or reduce upsell opportunities</t>
+  </si>
+  <si>
+    <t>PYO events depend on hospitality and interaction; customer service directly influences satisfaction and repeat visits</t>
+  </si>
+  <si>
+    <t>effective marketing helps you attract families, groups, and visitors to your farm</t>
+  </si>
+  <si>
+    <t>weak marketing presence makes it hard to bring in enough participants to cover event costs</t>
+  </si>
+  <si>
+    <t>PYO events rely on visitor turnout; strong marketing drives attendance and revenue</t>
+  </si>
+  <si>
+    <t>strong visual appeal and immersive experiences make your farm a destination people want to visit</t>
+  </si>
+  <si>
+    <t>PYO events are as much about the experience as the flowers; aesthetics shape customer enjoyment</t>
+  </si>
+  <si>
+    <t>lack of visual or experiential appeal may make events feel underwhelming and discourages repeat visits</t>
+  </si>
+  <si>
+    <t>offering amenities like parking, restrooms, and shade keeps guests comfortable and increases satisfaction</t>
+  </si>
+  <si>
+    <t>lack of amenities creates frustration and shortens visits, reducing overall sales</t>
+  </si>
+  <si>
+    <t>PYO events are family-friendly experiences; basic amenities make them accessible and enjoyable</t>
+  </si>
+  <si>
+    <t>operating in an area with few restrictions allows you to host events easily and frequently</t>
+  </si>
+  <si>
+    <t>local rules often determine whether you can legally and affordably host PYO events</t>
+  </si>
+  <si>
+    <t>strict regulations or zoning barriers make events harder or impossible to run and may limit attendance</t>
+  </si>
+  <si>
+    <t>high production levels ensure there are enough flowers for visitors to pick throughout the event</t>
+  </si>
+  <si>
+    <t>low production creates scarcity, disappointing visitors and reducing revenue</t>
+  </si>
+  <si>
+    <t>PYO events require abundance; guests expect plentiful flowers to choose from</t>
+  </si>
+  <si>
+    <t>high stress tolerance helps you handle unpredictable weather, visitor behavior, and event logistics</t>
+  </si>
+  <si>
+    <t>low stress tolerance can make events overwhelming</t>
+  </si>
+  <si>
+    <t>PYO events means having strangers on your property and involves many variables outside your control; resilience is helpful for success</t>
+  </si>
+  <si>
+    <t>weak service or sales ability can make workshops feel flat, leaving participants less likely to return</t>
+  </si>
+  <si>
+    <t>strong customer service and sales skills help you engage participants, answer questions, and encourage additional purchases and return visits for future workshops</t>
+  </si>
+  <si>
+    <t>workshops are built on interaction and trust; customer engagement and attention to serving their needs directly influences participant experience and repeat business</t>
+  </si>
+  <si>
+    <t>effective marketing helps you fill seats and promote workshops as special experiences</t>
+  </si>
+  <si>
+    <t>weak marketing presence makes it difficult to attract enough participants to cover costs</t>
+  </si>
+  <si>
+    <t>workshops depend on drawing an audience; strong marketing drives attendance and profitability</t>
+  </si>
+  <si>
+    <t>an attractive setting and engaging atmosphere make workshops feel special and worth the price</t>
+  </si>
+  <si>
+    <t>lack of appeal in the environment or experience reduces participant satisfaction and word-of-mouth</t>
+  </si>
+  <si>
+    <t>workshops are experiences as much as educational events; your farm's aesthetics help shape how memorable they are</t>
+  </si>
+  <si>
+    <t>offering amenities like parking, restrooms, and comfortable seating keeps participants relaxed and focused</t>
+  </si>
+  <si>
+    <t>lack of amenities creates discomfort and detracts from the learning experience</t>
+  </si>
+  <si>
+    <t>workshops require basic comfort to support a positive participant experience</t>
+  </si>
+  <si>
+    <t>operating in an area with minimal restrictions makes it easy to host workshops on your farm</t>
+  </si>
+  <si>
+    <t>regulations can determine whether workshops are feasible and profitable on your property</t>
+  </si>
+  <si>
+    <t>strict local rules or permits may complicate hosting events and add costs or significant restrictions</t>
+  </si>
+  <si>
+    <t>diverse flower offerings allow you to teach different design techniques and keep classes interesting</t>
+  </si>
+  <si>
+    <t>limited variety makes workshops repetitive and less inspiring for participants</t>
+  </si>
+  <si>
+    <t>product diversity gives participants a richer, more engaging experience and increases perceived value</t>
+  </si>
+  <si>
+    <t>strong design skills allow you to confidently teach techniques and demonstrate professional-quality results</t>
+  </si>
+  <si>
+    <t>workshops rely on teaching and inspiration; design skill is central to participant confidence in your expertise</t>
+  </si>
+  <si>
+    <t>weak design skills can potentially undermine your authority as an instructor and can leave participants dissatisfied</t>
+  </si>
+  <si>
+    <t>an outgoing, approachable personality helps you connect with participants and create an enjoyable group dynamic</t>
+  </si>
+  <si>
+    <t>workshops are social learning experiences; personality plays a big role in participant enjoyment</t>
+  </si>
+  <si>
+    <t>introversion or discomfort in social settings can make workshops feel stiff or less engaging, and/or drain you of energy</t>
+  </si>
+  <si>
+    <t>high stress tolerance helps you manage live teaching, event logistics, and unexpected participant needs</t>
+  </si>
+  <si>
+    <t>low stress tolerance can make workshop delivery overwhelming and prone to mistakes</t>
+  </si>
+  <si>
+    <t>workshops involve teaching in real time and often involve having strangers on your property; resilience is essential for smooth execution</t>
+  </si>
+  <si>
+    <t>effective marketing helps you reach photographers, families, and couples looking for scenic backdrops</t>
+  </si>
+  <si>
+    <t>photography venues rely on visibility and word-of-mouth; strong marketing ensures steady interest and rentals</t>
+  </si>
+  <si>
+    <t>weak marketing presence makes it difficult to attract bookings</t>
+  </si>
+  <si>
+    <t>strong visual appeal makes your farm an attractive backdrop for photos and increases bookings</t>
+  </si>
+  <si>
+    <t>lack of aesthetic appeal reduces demand and limits the types of shoots your venue can host</t>
+  </si>
+  <si>
+    <t>photography venues succeed on appearance; visual quality directly influences desirability</t>
+  </si>
+  <si>
+    <t>lack of amenities creates inconvenience and reduces the professionalism of the experience</t>
+  </si>
+  <si>
+    <t>photography clients expect basic comfort and ease of use; amenities enhance satisfaction and repeat business</t>
+  </si>
+  <si>
+    <t>offering amenities like parking, changing areas, and restrooms makes sessions more comfortable for clients and photographers</t>
+  </si>
+  <si>
+    <t>low stress tolerance can make client management or sudden changes overwhelming</t>
+  </si>
+  <si>
+    <t>photography venues involve giving access to your farm to strangers</t>
+  </si>
+  <si>
+    <t>high stress tolerance helps you manage unpredictable weather, scheduling conflicts, and other variables that may arise with ease</t>
   </si>
 </sst>
 </file>
@@ -1913,7 +2273,7 @@
   <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2269,7 +2629,7 @@
         <v>3</v>
       </c>
       <c r="S6" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
@@ -4107,7 +4467,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4685398-D085-6B47-BDBF-4D7FCE78162F}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -4806,8 +5166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74EBBEDC-5414-B442-BDB4-EC1529FD0ACE}">
   <dimension ref="A1:G343"/>
   <sheetViews>
-    <sheetView topLeftCell="A243" workbookViewId="0">
-      <selection activeCell="E249" sqref="E249"/>
+    <sheetView tabSelected="1" topLeftCell="A319" workbookViewId="0">
+      <selection activeCell="F346" sqref="F346"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8993,7 +9353,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="249" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:7" s="23" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A249" s="23" t="s">
         <v>141</v>
       </c>
@@ -9004,13 +9364,19 @@
         <v>7</v>
       </c>
       <c r="D249" s="24">
-        <v>4</v>
-      </c>
-      <c r="E249" s="25"/>
-      <c r="F249" s="25"/>
-      <c r="G249" s="25"/>
-    </row>
-    <row r="250" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="E249" s="25" t="s">
+        <v>373</v>
+      </c>
+      <c r="F249" s="25" t="s">
+        <v>374</v>
+      </c>
+      <c r="G249" s="25" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" s="23" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A250" s="23" t="s">
         <v>141</v>
       </c>
@@ -9023,9 +9389,15 @@
       <c r="D250" s="24">
         <v>4</v>
       </c>
-      <c r="E250" s="25"/>
-      <c r="F250" s="25"/>
-      <c r="G250" s="25"/>
+      <c r="E250" s="25" t="s">
+        <v>376</v>
+      </c>
+      <c r="F250" s="25" t="s">
+        <v>377</v>
+      </c>
+      <c r="G250" s="25" t="s">
+        <v>378</v>
+      </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A251" s="3" t="s">
@@ -9041,7 +9413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:7" s="23" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A252" s="23" t="s">
         <v>141</v>
       </c>
@@ -9054,9 +9426,15 @@
       <c r="D252" s="24">
         <v>4</v>
       </c>
-      <c r="E252" s="25"/>
-      <c r="F252" s="25"/>
-      <c r="G252" s="25"/>
+      <c r="E252" s="25" t="s">
+        <v>381</v>
+      </c>
+      <c r="F252" s="25" t="s">
+        <v>379</v>
+      </c>
+      <c r="G252" s="25" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A253" s="3" t="s">
@@ -9114,7 +9492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:7" s="23" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A257" s="23" t="s">
         <v>141</v>
       </c>
@@ -9127,9 +9505,15 @@
       <c r="D257" s="24">
         <v>5</v>
       </c>
-      <c r="E257" s="25"/>
-      <c r="F257" s="25"/>
-      <c r="G257" s="25"/>
+      <c r="E257" s="25" t="s">
+        <v>382</v>
+      </c>
+      <c r="F257" s="25" t="s">
+        <v>383</v>
+      </c>
+      <c r="G257" s="25" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A258" s="3" t="s">
@@ -9145,7 +9529,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="259" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:7" s="23" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A259" s="23" t="s">
         <v>141</v>
       </c>
@@ -9158,11 +9542,17 @@
       <c r="D259" s="24">
         <v>5</v>
       </c>
-      <c r="E259" s="25"/>
-      <c r="F259" s="25"/>
-      <c r="G259" s="25"/>
-    </row>
-    <row r="260" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E259" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="F259" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="G259" s="25" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" s="23" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A260" s="23" t="s">
         <v>141</v>
       </c>
@@ -9175,11 +9565,17 @@
       <c r="D260" s="24">
         <v>5</v>
       </c>
-      <c r="E260" s="25"/>
-      <c r="F260" s="25"/>
-      <c r="G260" s="25"/>
-    </row>
-    <row r="261" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E260" s="25" t="s">
+        <v>389</v>
+      </c>
+      <c r="F260" s="25" t="s">
+        <v>388</v>
+      </c>
+      <c r="G260" s="25" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" s="23" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A261" s="23" t="s">
         <v>141</v>
       </c>
@@ -9192,11 +9588,17 @@
       <c r="D261" s="24">
         <v>5</v>
       </c>
-      <c r="E261" s="25"/>
-      <c r="F261" s="25"/>
-      <c r="G261" s="25"/>
-    </row>
-    <row r="262" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E261" s="25" t="s">
+        <v>392</v>
+      </c>
+      <c r="F261" s="25" t="s">
+        <v>393</v>
+      </c>
+      <c r="G261" s="25" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" s="23" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A262" s="23" t="s">
         <v>141</v>
       </c>
@@ -9209,11 +9611,17 @@
       <c r="D262" s="24">
         <v>4</v>
       </c>
-      <c r="E262" s="25"/>
-      <c r="F262" s="25"/>
-      <c r="G262" s="25"/>
-    </row>
-    <row r="263" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E262" s="25" t="s">
+        <v>394</v>
+      </c>
+      <c r="F262" s="25" t="s">
+        <v>396</v>
+      </c>
+      <c r="G262" s="25" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" s="23" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A263" s="23" t="s">
         <v>141</v>
       </c>
@@ -9226,22 +9634,37 @@
       <c r="D263" s="24">
         <v>5</v>
       </c>
-      <c r="E263" s="25"/>
-      <c r="F263" s="25"/>
-      <c r="G263" s="25"/>
-    </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A264" s="3" t="s">
+      <c r="E263" s="25" t="s">
+        <v>397</v>
+      </c>
+      <c r="F263" s="25" t="s">
+        <v>398</v>
+      </c>
+      <c r="G263" s="25" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" s="23" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A264" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="B264" s="3" t="s">
+      <c r="B264" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="C264" s="3" t="s">
+      <c r="C264" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="D264" s="14">
-        <v>4</v>
+      <c r="D264" s="24">
+        <v>4</v>
+      </c>
+      <c r="E264" s="25" t="s">
+        <v>406</v>
+      </c>
+      <c r="F264" s="25" t="s">
+        <v>408</v>
+      </c>
+      <c r="G264" s="25" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.2">
@@ -9258,7 +9681,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="266" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:7" s="23" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A266" s="23" t="s">
         <v>141</v>
       </c>
@@ -9271,11 +9694,17 @@
       <c r="D266" s="24">
         <v>4</v>
       </c>
-      <c r="E266" s="25"/>
-      <c r="F266" s="25"/>
-      <c r="G266" s="25"/>
-    </row>
-    <row r="267" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E266" s="25" t="s">
+        <v>400</v>
+      </c>
+      <c r="F266" s="25" t="s">
+        <v>401</v>
+      </c>
+      <c r="G266" s="25" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" s="23" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A267" s="23" t="s">
         <v>141</v>
       </c>
@@ -9288,9 +9717,15 @@
       <c r="D267" s="24">
         <v>5</v>
       </c>
-      <c r="E267" s="25"/>
-      <c r="F267" s="25"/>
-      <c r="G267" s="25"/>
+      <c r="E267" s="25" t="s">
+        <v>405</v>
+      </c>
+      <c r="F267" s="25" t="s">
+        <v>403</v>
+      </c>
+      <c r="G267" s="25" t="s">
+        <v>404</v>
+      </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A268" s="3" t="s">
@@ -9334,7 +9769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:7" s="23" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A271" s="23" t="s">
         <v>142</v>
       </c>
@@ -9347,11 +9782,17 @@
       <c r="D271" s="24">
         <v>4</v>
       </c>
-      <c r="E271" s="25"/>
-      <c r="F271" s="25"/>
-      <c r="G271" s="25"/>
-    </row>
-    <row r="272" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E271" s="25" t="s">
+        <v>409</v>
+      </c>
+      <c r="F271" s="25" t="s">
+        <v>412</v>
+      </c>
+      <c r="G271" s="25" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" s="23" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A272" s="23" t="s">
         <v>142</v>
       </c>
@@ -9364,9 +9805,15 @@
       <c r="D272" s="24">
         <v>4</v>
       </c>
-      <c r="E272" s="25"/>
-      <c r="F272" s="25"/>
-      <c r="G272" s="25"/>
+      <c r="E272" s="25" t="s">
+        <v>414</v>
+      </c>
+      <c r="F272" s="25" t="s">
+        <v>411</v>
+      </c>
+      <c r="G272" s="25" t="s">
+        <v>413</v>
+      </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A273" s="3" t="s">
@@ -9410,7 +9857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:7" s="23" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A276" s="23" t="s">
         <v>142</v>
       </c>
@@ -9423,9 +9870,15 @@
       <c r="D276" s="24">
         <v>5</v>
       </c>
-      <c r="E276" s="25"/>
-      <c r="F276" s="25"/>
-      <c r="G276" s="25"/>
+      <c r="E276" s="25" t="s">
+        <v>416</v>
+      </c>
+      <c r="F276" s="25" t="s">
+        <v>415</v>
+      </c>
+      <c r="G276" s="25" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A277" s="3" t="s">
@@ -9441,7 +9894,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="278" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:7" s="23" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A278" s="23" t="s">
         <v>142</v>
       </c>
@@ -9454,9 +9907,15 @@
       <c r="D278" s="24">
         <v>4</v>
       </c>
-      <c r="E278" s="25"/>
-      <c r="F278" s="25"/>
-      <c r="G278" s="25"/>
+      <c r="E278" s="25" t="s">
+        <v>420</v>
+      </c>
+      <c r="F278" s="25" t="s">
+        <v>418</v>
+      </c>
+      <c r="G278" s="25" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A279" s="3" t="s">
@@ -9472,7 +9931,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="280" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:7" s="23" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A280" s="23" t="s">
         <v>142</v>
       </c>
@@ -9485,11 +9944,17 @@
       <c r="D280" s="24">
         <v>4</v>
       </c>
-      <c r="E280" s="25"/>
-      <c r="F280" s="25"/>
-      <c r="G280" s="25"/>
-    </row>
-    <row r="281" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E280" s="25" t="s">
+        <v>422</v>
+      </c>
+      <c r="F280" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="G280" s="25" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" s="23" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A281" s="23" t="s">
         <v>142</v>
       </c>
@@ -9502,11 +9967,17 @@
       <c r="D281" s="24">
         <v>4</v>
       </c>
-      <c r="E281" s="25"/>
-      <c r="F281" s="25"/>
-      <c r="G281" s="25"/>
-    </row>
-    <row r="282" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E281" s="25" t="s">
+        <v>424</v>
+      </c>
+      <c r="F281" s="25" t="s">
+        <v>425</v>
+      </c>
+      <c r="G281" s="25" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" s="23" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A282" s="23" t="s">
         <v>142</v>
       </c>
@@ -9519,9 +9990,15 @@
       <c r="D282" s="24">
         <v>5</v>
       </c>
-      <c r="E282" s="25"/>
-      <c r="F282" s="25"/>
-      <c r="G282" s="25"/>
+      <c r="E282" s="25" t="s">
+        <v>427</v>
+      </c>
+      <c r="F282" s="25" t="s">
+        <v>428</v>
+      </c>
+      <c r="G282" s="25" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A283" s="3" t="s">
@@ -9565,7 +10042,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="286" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:7" s="23" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A286" s="23" t="s">
         <v>142</v>
       </c>
@@ -9578,11 +10055,17 @@
       <c r="D286" s="24">
         <v>5</v>
       </c>
-      <c r="E286" s="25"/>
-      <c r="F286" s="25"/>
-      <c r="G286" s="25"/>
-    </row>
-    <row r="287" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E286" s="25" t="s">
+        <v>430</v>
+      </c>
+      <c r="F286" s="25" t="s">
+        <v>431</v>
+      </c>
+      <c r="G286" s="25" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" s="23" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A287" s="23" t="s">
         <v>143</v>
       </c>
@@ -9595,11 +10078,17 @@
       <c r="D287" s="24">
         <v>4</v>
       </c>
-      <c r="E287" s="25"/>
-      <c r="F287" s="25"/>
-      <c r="G287" s="25"/>
-    </row>
-    <row r="288" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E287" s="25" t="s">
+        <v>433</v>
+      </c>
+      <c r="F287" s="25" t="s">
+        <v>434</v>
+      </c>
+      <c r="G287" s="25" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" s="23" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A288" s="23" t="s">
         <v>143</v>
       </c>
@@ -9612,9 +10101,15 @@
       <c r="D288" s="24">
         <v>5</v>
       </c>
-      <c r="E288" s="25"/>
-      <c r="F288" s="25"/>
-      <c r="G288" s="25"/>
+      <c r="E288" s="25" t="s">
+        <v>436</v>
+      </c>
+      <c r="F288" s="25" t="s">
+        <v>437</v>
+      </c>
+      <c r="G288" s="25" t="s">
+        <v>438</v>
+      </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A289" s="3" t="s">
@@ -9658,7 +10153,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="292" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:7" s="23" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A292" s="23" t="s">
         <v>143</v>
       </c>
@@ -9671,11 +10166,17 @@
       <c r="D292" s="24">
         <v>4</v>
       </c>
-      <c r="E292" s="25"/>
-      <c r="F292" s="25"/>
-      <c r="G292" s="25"/>
-    </row>
-    <row r="293" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E292" s="25" t="s">
+        <v>439</v>
+      </c>
+      <c r="F292" s="25" t="s">
+        <v>441</v>
+      </c>
+      <c r="G292" s="25" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" s="23" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A293" s="23" t="s">
         <v>143</v>
       </c>
@@ -9688,11 +10189,17 @@
       <c r="D293" s="24">
         <v>5</v>
       </c>
-      <c r="E293" s="25"/>
-      <c r="F293" s="25"/>
-      <c r="G293" s="25"/>
-    </row>
-    <row r="294" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E293" s="25" t="s">
+        <v>442</v>
+      </c>
+      <c r="F293" s="25" t="s">
+        <v>443</v>
+      </c>
+      <c r="G293" s="25" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" s="23" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A294" s="23" t="s">
         <v>143</v>
       </c>
@@ -9705,9 +10212,15 @@
       <c r="D294" s="24">
         <v>5</v>
       </c>
-      <c r="E294" s="25"/>
-      <c r="F294" s="25"/>
-      <c r="G294" s="25"/>
+      <c r="E294" s="25" t="s">
+        <v>445</v>
+      </c>
+      <c r="F294" s="25" t="s">
+        <v>447</v>
+      </c>
+      <c r="G294" s="25" t="s">
+        <v>446</v>
+      </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A295" s="3" t="s">
@@ -9723,7 +10236,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="296" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:7" s="23" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A296" s="23" t="s">
         <v>143</v>
       </c>
@@ -9736,9 +10249,15 @@
       <c r="D296" s="24">
         <v>4</v>
       </c>
-      <c r="E296" s="25"/>
-      <c r="F296" s="25"/>
-      <c r="G296" s="25"/>
+      <c r="E296" s="25" t="s">
+        <v>448</v>
+      </c>
+      <c r="F296" s="25" t="s">
+        <v>449</v>
+      </c>
+      <c r="G296" s="25" t="s">
+        <v>450</v>
+      </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A297" s="3" t="s">
@@ -9838,7 +10357,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="304" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:7" s="23" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A304" s="23" t="s">
         <v>143</v>
       </c>
@@ -9851,9 +10370,15 @@
       <c r="D304" s="24">
         <v>4</v>
       </c>
-      <c r="E304" s="25"/>
-      <c r="F304" s="25"/>
-      <c r="G304" s="25"/>
+      <c r="E304" s="25" t="s">
+        <v>451</v>
+      </c>
+      <c r="F304" s="25" t="s">
+        <v>452</v>
+      </c>
+      <c r="G304" s="25" t="s">
+        <v>453</v>
+      </c>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A305" s="3" t="s">
@@ -9869,7 +10394,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="306" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:7" s="23" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A306" s="23" t="s">
         <v>42</v>
       </c>
@@ -9882,11 +10407,17 @@
       <c r="D306" s="24">
         <v>4</v>
       </c>
-      <c r="E306" s="25"/>
-      <c r="F306" s="25"/>
-      <c r="G306" s="25"/>
-    </row>
-    <row r="307" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E306" s="25" t="s">
+        <v>455</v>
+      </c>
+      <c r="F306" s="25" t="s">
+        <v>454</v>
+      </c>
+      <c r="G306" s="25" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" s="23" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A307" s="23" t="s">
         <v>42</v>
       </c>
@@ -9899,9 +10430,15 @@
       <c r="D307" s="24">
         <v>5</v>
       </c>
-      <c r="E307" s="25"/>
-      <c r="F307" s="25"/>
-      <c r="G307" s="25"/>
+      <c r="E307" s="25" t="s">
+        <v>457</v>
+      </c>
+      <c r="F307" s="25" t="s">
+        <v>458</v>
+      </c>
+      <c r="G307" s="25" t="s">
+        <v>459</v>
+      </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A308" s="3" t="s">
@@ -9945,7 +10482,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="311" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:7" s="23" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A311" s="23" t="s">
         <v>42</v>
       </c>
@@ -9958,11 +10495,17 @@
       <c r="D311" s="24">
         <v>4</v>
       </c>
-      <c r="E311" s="25"/>
-      <c r="F311" s="25"/>
-      <c r="G311" s="25"/>
-    </row>
-    <row r="312" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E311" s="25" t="s">
+        <v>460</v>
+      </c>
+      <c r="F311" s="25" t="s">
+        <v>461</v>
+      </c>
+      <c r="G311" s="25" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" s="23" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A312" s="23" t="s">
         <v>42</v>
       </c>
@@ -9975,11 +10518,17 @@
       <c r="D312" s="24">
         <v>5</v>
       </c>
-      <c r="E312" s="25"/>
-      <c r="F312" s="25"/>
-      <c r="G312" s="25"/>
-    </row>
-    <row r="313" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E312" s="25" t="s">
+        <v>463</v>
+      </c>
+      <c r="F312" s="25" t="s">
+        <v>464</v>
+      </c>
+      <c r="G312" s="25" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" s="23" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A313" s="23" t="s">
         <v>42</v>
       </c>
@@ -9992,11 +10541,17 @@
       <c r="D313" s="24">
         <v>5</v>
       </c>
-      <c r="E313" s="25"/>
-      <c r="F313" s="25"/>
-      <c r="G313" s="25"/>
-    </row>
-    <row r="314" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E313" s="25" t="s">
+        <v>466</v>
+      </c>
+      <c r="F313" s="25" t="s">
+        <v>468</v>
+      </c>
+      <c r="G313" s="25" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" s="23" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A314" s="23" t="s">
         <v>42</v>
       </c>
@@ -10009,9 +10564,15 @@
       <c r="D314" s="24">
         <v>4</v>
       </c>
-      <c r="E314" s="25"/>
-      <c r="F314" s="25"/>
-      <c r="G314" s="25"/>
+      <c r="E314" s="25" t="s">
+        <v>469</v>
+      </c>
+      <c r="F314" s="25" t="s">
+        <v>470</v>
+      </c>
+      <c r="G314" s="25" t="s">
+        <v>471</v>
+      </c>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A315" s="3" t="s">
@@ -10083,7 +10644,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="320" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:7" s="23" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A320" s="23" t="s">
         <v>42</v>
       </c>
@@ -10096,9 +10657,15 @@
       <c r="D320" s="24">
         <v>5</v>
       </c>
-      <c r="E320" s="25"/>
-      <c r="F320" s="25"/>
-      <c r="G320" s="25"/>
+      <c r="E320" s="25" t="s">
+        <v>472</v>
+      </c>
+      <c r="F320" s="25" t="s">
+        <v>474</v>
+      </c>
+      <c r="G320" s="25" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A321" s="3" t="s">
@@ -10114,7 +10681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:7" s="23" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A322" s="23" t="s">
         <v>42</v>
       </c>
@@ -10127,11 +10694,17 @@
       <c r="D322" s="24">
         <v>5</v>
       </c>
-      <c r="E322" s="25"/>
-      <c r="F322" s="25"/>
-      <c r="G322" s="25"/>
-    </row>
-    <row r="323" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E322" s="25" t="s">
+        <v>475</v>
+      </c>
+      <c r="F322" s="25" t="s">
+        <v>477</v>
+      </c>
+      <c r="G322" s="25" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" s="23" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A323" s="23" t="s">
         <v>42</v>
       </c>
@@ -10144,9 +10717,15 @@
       <c r="D323" s="24">
         <v>4</v>
       </c>
-      <c r="E323" s="25"/>
-      <c r="F323" s="25"/>
-      <c r="G323" s="25"/>
+      <c r="E323" s="25" t="s">
+        <v>478</v>
+      </c>
+      <c r="F323" s="25" t="s">
+        <v>479</v>
+      </c>
+      <c r="G323" s="25" t="s">
+        <v>480</v>
+      </c>
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A324" s="3" t="s">
@@ -10176,18 +10755,27 @@
         <v>2</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A326" s="3" t="s">
+    <row r="326" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A326" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="B326" s="3" t="s">
+      <c r="B326" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="C326" s="3" t="s">
+      <c r="C326" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D326" s="14">
-        <v>5</v>
+      <c r="D326" s="24">
+        <v>5</v>
+      </c>
+      <c r="E326" s="25" t="s">
+        <v>481</v>
+      </c>
+      <c r="F326" s="25" t="s">
+        <v>483</v>
+      </c>
+      <c r="G326" s="25" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.2">
@@ -10218,24 +10806,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="329" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A329" s="23" t="s">
+    <row r="329" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A329" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="B329" s="23" t="s">
+      <c r="B329" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="C329" s="23" t="s">
+      <c r="C329" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D329" s="24">
-        <v>4</v>
-      </c>
-      <c r="E329" s="25"/>
-      <c r="F329" s="25"/>
-      <c r="G329" s="25"/>
-    </row>
-    <row r="330" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D329" s="27">
+        <v>3</v>
+      </c>
+      <c r="E329" s="28"/>
+      <c r="F329" s="28"/>
+      <c r="G329" s="28"/>
+    </row>
+    <row r="330" spans="1:7" s="23" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A330" s="23" t="s">
         <v>144</v>
       </c>
@@ -10248,11 +10836,17 @@
       <c r="D330" s="24">
         <v>5</v>
       </c>
-      <c r="E330" s="25"/>
-      <c r="F330" s="25"/>
-      <c r="G330" s="25"/>
-    </row>
-    <row r="331" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E330" s="25" t="s">
+        <v>484</v>
+      </c>
+      <c r="F330" s="25" t="s">
+        <v>485</v>
+      </c>
+      <c r="G330" s="25" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7" s="23" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A331" s="23" t="s">
         <v>144</v>
       </c>
@@ -10265,9 +10859,15 @@
       <c r="D331" s="24">
         <v>4</v>
       </c>
-      <c r="E331" s="25"/>
-      <c r="F331" s="25"/>
-      <c r="G331" s="25"/>
+      <c r="E331" s="25" t="s">
+        <v>489</v>
+      </c>
+      <c r="F331" s="25" t="s">
+        <v>487</v>
+      </c>
+      <c r="G331" s="25" t="s">
+        <v>488</v>
+      </c>
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A332" s="3" t="s">
@@ -10412,7 +11012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:7" s="23" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A342" s="23" t="s">
         <v>144</v>
       </c>
@@ -10425,9 +11025,15 @@
       <c r="D342" s="24">
         <v>4</v>
       </c>
-      <c r="E342" s="25"/>
-      <c r="F342" s="25"/>
-      <c r="G342" s="25"/>
+      <c r="E342" s="25" t="s">
+        <v>492</v>
+      </c>
+      <c r="F342" s="25" t="s">
+        <v>490</v>
+      </c>
+      <c r="G342" s="25" t="s">
+        <v>491</v>
+      </c>
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A343" s="3" t="s">

--- a/Extreme_Weighting_Scoring_Prototype_for_FormWise_REPAIRED.xlsx
+++ b/Extreme_Weighting_Scoring_Prototype_for_FormWise_REPAIRED.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sharon/Downloads/rsc-app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D6F6CAE-0937-1541-8909-C79DDAEA4018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4AD236F-4077-4B4F-AB07-554CEED0EF89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="24820" windowHeight="21900" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="24820" windowHeight="21900" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1634" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1650" uniqueCount="509">
   <si>
     <t>Section</t>
   </si>
@@ -1546,6 +1546,54 @@
   </si>
   <si>
     <t>high stress tolerance helps you manage unpredictable weather, scheduling conflicts, and other variables that may arise with ease</t>
+  </si>
+  <si>
+    <t>category_color</t>
+  </si>
+  <si>
+    <t>#ffc7ee</t>
+  </si>
+  <si>
+    <t>#fecaa8</t>
+  </si>
+  <si>
+    <t>#ffe7a5</t>
+  </si>
+  <si>
+    <t>yellow</t>
+  </si>
+  <si>
+    <t>orange</t>
+  </si>
+  <si>
+    <t>pink</t>
+  </si>
+  <si>
+    <t>#e6eb99</t>
+  </si>
+  <si>
+    <t>green</t>
+  </si>
+  <si>
+    <t>#d7f4ff</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>#dbd9ff</t>
+  </si>
+  <si>
+    <t>purple</t>
+  </si>
+  <si>
+    <t>#ffdee7</t>
+  </si>
+  <si>
+    <t>light pink</t>
+  </si>
+  <si>
+    <t>category_color_name</t>
   </si>
 </sst>
 </file>
@@ -1660,7 +1708,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1731,15 +1779,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4382,80 +4421,130 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{843472F9-263E-924A-9F9A-DC61CDC4480E}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29.6640625" style="14" customWidth="1"/>
     <col min="2" max="2" width="85.1640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>61</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="C1" s="14" t="s">
+        <v>493</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>66</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="C2" s="14" t="s">
+        <v>494</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>73</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="C3" s="14" t="s">
+        <v>506</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>78</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="C4" s="14" t="s">
+        <v>495</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>87</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="C5" s="14" t="s">
+        <v>496</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>96</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="C6" s="14" t="s">
+        <v>500</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>101</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="C7" s="14" t="s">
+        <v>502</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>107</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>128</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>504</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>505</v>
       </c>
     </row>
   </sheetData>
@@ -4467,8 +4556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4685398-D085-6B47-BDBF-4D7FCE78162F}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5166,7 +5255,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74EBBEDC-5414-B442-BDB4-EC1529FD0ACE}">
   <dimension ref="A1:G343"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A319" workbookViewId="0">
+    <sheetView topLeftCell="A319" workbookViewId="0">
       <selection activeCell="F346" sqref="F346"/>
     </sheetView>
   </sheetViews>
@@ -7425,22 +7514,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="26" t="s">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A134" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B134" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="C134" s="26" t="s">
+      <c r="B134" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C134" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D134" s="27">
-        <v>5</v>
-      </c>
-      <c r="E134" s="28"/>
-      <c r="F134" s="28"/>
-      <c r="G134" s="28"/>
+      <c r="D134" s="14">
+        <v>5</v>
+      </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
@@ -8183,13 +8269,13 @@
       <c r="D181" s="24">
         <v>4</v>
       </c>
-      <c r="E181" s="29" t="s">
+      <c r="E181" s="26" t="s">
         <v>298</v>
       </c>
-      <c r="F181" s="29" t="s">
+      <c r="F181" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="G181" s="29" t="s">
+      <c r="G181" s="26" t="s">
         <v>304</v>
       </c>
     </row>
@@ -8485,13 +8571,13 @@
       <c r="D200" s="24">
         <v>4</v>
       </c>
-      <c r="E200" s="29" t="s">
+      <c r="E200" s="26" t="s">
         <v>298</v>
       </c>
-      <c r="F200" s="29" t="s">
+      <c r="F200" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="G200" s="29" t="s">
+      <c r="G200" s="26" t="s">
         <v>299</v>
       </c>
     </row>
@@ -9029,7 +9115,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="231" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:7" s="23" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A231" s="23" t="s">
         <v>140</v>
       </c>
@@ -10806,22 +10892,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="329" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A329" s="26" t="s">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A329" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B329" s="26" t="s">
+      <c r="B329" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C329" s="26" t="s">
+      <c r="C329" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D329" s="27">
-        <v>3</v>
-      </c>
-      <c r="E329" s="28"/>
-      <c r="F329" s="28"/>
-      <c r="G329" s="28"/>
+      <c r="D329" s="14">
+        <v>3</v>
+      </c>
     </row>
     <row r="330" spans="1:7" s="23" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A330" s="23" t="s">
@@ -10897,22 +10980,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="334" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A334" s="26" t="s">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A334" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B334" s="26" t="s">
+      <c r="B334" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C334" s="26" t="s">
+      <c r="C334" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D334" s="27">
-        <v>3</v>
-      </c>
-      <c r="E334" s="28"/>
-      <c r="F334" s="28"/>
-      <c r="G334" s="28"/>
+      <c r="D334" s="14">
+        <v>3</v>
+      </c>
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A335" s="3" t="s">

--- a/Extreme_Weighting_Scoring_Prototype_for_FormWise_REPAIRED.xlsx
+++ b/Extreme_Weighting_Scoring_Prototype_for_FormWise_REPAIRED.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10921"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sharon/Downloads/rsc-app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4AD236F-4077-4B4F-AB07-554CEED0EF89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E41BB53B-3964-F948-9A2B-839CE9E3B533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="24820" windowHeight="21900" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="24820" windowHeight="21900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1650" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1668" uniqueCount="527">
   <si>
     <t>Section</t>
   </si>
@@ -1594,6 +1594,60 @@
   </si>
   <si>
     <t>category_color_name</t>
+  </si>
+  <si>
+    <t>farmers_markets</t>
+  </si>
+  <si>
+    <t>subscriptions</t>
+  </si>
+  <si>
+    <t>farm_stand_farm_shop</t>
+  </si>
+  <si>
+    <t>made_to_order_designs</t>
+  </si>
+  <si>
+    <t>bulk_sales_to_the_public</t>
+  </si>
+  <si>
+    <t>wholesaling_to_florists</t>
+  </si>
+  <si>
+    <t>wholesaling_to_wholesalers</t>
+  </si>
+  <si>
+    <t>wholesaling_to_grocery_stores</t>
+  </si>
+  <si>
+    <t>wholesaling_via_a_collective</t>
+  </si>
+  <si>
+    <t>selling_as_a_stockist</t>
+  </si>
+  <si>
+    <t>selling_on_consignment</t>
+  </si>
+  <si>
+    <t>full_service_weddings</t>
+  </si>
+  <si>
+    <t>a_la_carte_weddings</t>
+  </si>
+  <si>
+    <t>community_and_corporate_events</t>
+  </si>
+  <si>
+    <t>hotel_and_restaurant_contracts</t>
+  </si>
+  <si>
+    <t>pick_your_own_events</t>
+  </si>
+  <si>
+    <t>workshops</t>
+  </si>
+  <si>
+    <t>photography_venue</t>
   </si>
 </sst>
 </file>
@@ -1603,7 +1657,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1655,6 +1709,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1708,7 +1767,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1783,6 +1842,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2311,8 +2373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q27" sqref="Q27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4556,7 +4618,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4685398-D085-6B47-BDBF-4D7FCE78162F}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:F20"/>
     </sheetView>
   </sheetViews>
@@ -4978,7 +5040,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4999,148 +5063,202 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D2" s="27" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D3" s="27" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D4" s="27" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D5" s="27" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D6" s="27" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D7" s="27" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D8" s="27" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D9" s="27" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D10" s="27" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D11" s="27" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D12" s="27" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D13" s="27" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D14" s="27" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D15" s="27" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D16" s="27" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D17" s="27" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D18" s="27" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
         <v>43</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>526</v>
       </c>
     </row>
   </sheetData>
@@ -5255,7 +5373,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74EBBEDC-5414-B442-BDB4-EC1529FD0ACE}">
   <dimension ref="A1:G343"/>
   <sheetViews>
-    <sheetView topLeftCell="A319" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F346" sqref="F346"/>
     </sheetView>
   </sheetViews>

--- a/Extreme_Weighting_Scoring_Prototype_for_FormWise_REPAIRED.xlsx
+++ b/Extreme_Weighting_Scoring_Prototype_for_FormWise_REPAIRED.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sharon/Downloads/rsc-app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E41BB53B-3964-F948-9A2B-839CE9E3B533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23152DF4-CB6D-3043-9864-6319B35B1B81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="24820" windowHeight="21900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -495,9 +495,6 @@
     <t>Community and Corporate Events</t>
   </si>
   <si>
-    <t>Hotel and Restaurant Contracts</t>
-  </si>
-  <si>
     <t>Pick-Your-Own Events</t>
   </si>
   <si>
@@ -1638,9 +1635,6 @@
     <t>community_and_corporate_events</t>
   </si>
   <si>
-    <t>hotel_and_restaurant_contracts</t>
-  </si>
-  <si>
     <t>pick_your_own_events</t>
   </si>
   <si>
@@ -1648,6 +1642,12 @@
   </si>
   <si>
     <t>photography_venue</t>
+  </si>
+  <si>
+    <t>Hospitality Contracts</t>
+  </si>
+  <si>
+    <t>hospitality_contracts</t>
   </si>
 </sst>
 </file>
@@ -2374,7 +2374,7 @@
   <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2426,16 +2426,16 @@
         <v>141</v>
       </c>
       <c r="P1" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>142</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>143</v>
       </c>
       <c r="R1" s="4" t="s">
         <v>42</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
@@ -3376,7 +3376,7 @@
         <v>1</v>
       </c>
       <c r="R17" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S17" s="7">
         <v>1</v>
@@ -4387,15 +4387,15 @@
       <c r="B18" s="3" cm="1">
         <f t="array" ref="B18">IFERROR(SUMPRODUCT(--Inputs!$B$2:$B$20,
  --INDEX(Weights!$B$2:$ZZ$20,0,MATCH($A18,Weights!$B$1:$ZZ$1,0))),0)</f>
-        <v>306</v>
+        <v>322</v>
       </c>
       <c r="C18" s="3">
         <f>IFERROR(10*SUM(INDEX(Weights!$B$2:$ZZ$20,0,MATCH($A18,Weights!$B$1:$ZZ$1,0))),0)</f>
-        <v>650</v>
+        <v>670</v>
       </c>
       <c r="D18" s="12">
         <f t="shared" si="0"/>
-        <v>0.47076923076923077</v>
+        <v>0.48059701492537316</v>
       </c>
       <c r="E18" s="3" t="str">
         <f t="shared" si="1"/>
@@ -4505,10 +4505,10 @@
         <v>121</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="48" x14ac:dyDescent="0.2">
@@ -4519,10 +4519,10 @@
         <v>122</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="64" x14ac:dyDescent="0.2">
@@ -4533,10 +4533,10 @@
         <v>123</v>
       </c>
       <c r="C3" s="14" t="s">
+        <v>505</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>506</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="48" x14ac:dyDescent="0.2">
@@ -4547,10 +4547,10 @@
         <v>124</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="48" x14ac:dyDescent="0.2">
@@ -4561,10 +4561,10 @@
         <v>125</v>
       </c>
       <c r="C5" s="14" t="s">
+        <v>495</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>496</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="48" x14ac:dyDescent="0.2">
@@ -4575,10 +4575,10 @@
         <v>126</v>
       </c>
       <c r="C6" s="14" t="s">
+        <v>499</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>500</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="48" x14ac:dyDescent="0.2">
@@ -4589,10 +4589,10 @@
         <v>127</v>
       </c>
       <c r="C7" s="14" t="s">
+        <v>501</v>
+      </c>
+      <c r="D7" s="14" t="s">
         <v>502</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="32" x14ac:dyDescent="0.2">
@@ -4603,10 +4603,10 @@
         <v>128</v>
       </c>
       <c r="C8" s="14" t="s">
+        <v>503</v>
+      </c>
+      <c r="D8" s="14" t="s">
         <v>504</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>505</v>
       </c>
     </row>
   </sheetData>
@@ -4618,7 +4618,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4685398-D085-6B47-BDBF-4D7FCE78162F}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection sqref="A1:F20"/>
     </sheetView>
   </sheetViews>
@@ -4802,7 +4802,7 @@
         <v>78</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E9" s="14" t="s">
         <v>68</v>
@@ -5041,7 +5041,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D19"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5071,7 +5071,7 @@
         <v>26</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -5082,7 +5082,7 @@
         <v>27</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -5093,7 +5093,7 @@
         <v>28</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -5104,7 +5104,7 @@
         <v>29</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -5115,7 +5115,7 @@
         <v>30</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -5126,7 +5126,7 @@
         <v>31</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -5137,7 +5137,7 @@
         <v>32</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -5148,7 +5148,7 @@
         <v>33</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -5159,7 +5159,7 @@
         <v>34</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -5170,7 +5170,7 @@
         <v>35</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -5181,7 +5181,7 @@
         <v>36</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -5192,7 +5192,7 @@
         <v>37</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -5203,7 +5203,7 @@
         <v>38</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -5214,7 +5214,7 @@
         <v>39</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -5225,7 +5225,7 @@
         <v>40</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -5236,7 +5236,7 @@
         <v>41</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -5247,7 +5247,7 @@
         <v>42</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -5258,7 +5258,7 @@
         <v>43</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
   </sheetData>
@@ -5374,7 +5374,7 @@
   <dimension ref="A1:G343"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F346" sqref="F346"/>
+      <selection activeCell="B280" sqref="B280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5391,25 +5391,25 @@
   <sheetData>
     <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>145</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>146</v>
       </c>
       <c r="C1" s="20" t="s">
         <v>59</v>
       </c>
       <c r="D1" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="F1" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="G1" s="22" t="s">
         <v>149</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="64" x14ac:dyDescent="0.2">
@@ -5417,7 +5417,7 @@
         <v>129</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
@@ -5426,13 +5426,13 @@
         <v>5</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -5440,7 +5440,7 @@
         <v>129</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>8</v>
@@ -5454,7 +5454,7 @@
         <v>129</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>9</v>
@@ -5468,7 +5468,7 @@
         <v>129</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>10</v>
@@ -5482,7 +5482,7 @@
         <v>129</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>11</v>
@@ -5491,13 +5491,13 @@
         <v>4</v>
       </c>
       <c r="E6" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>261</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -5505,7 +5505,7 @@
         <v>129</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>80</v>
@@ -5519,7 +5519,7 @@
         <v>129</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>13</v>
@@ -5533,7 +5533,7 @@
         <v>129</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>14</v>
@@ -5547,7 +5547,7 @@
         <v>129</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>15</v>
@@ -5556,13 +5556,13 @@
         <v>5</v>
       </c>
       <c r="E10" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>264</v>
-      </c>
       <c r="G10" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -5570,7 +5570,7 @@
         <v>129</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>16</v>
@@ -5584,7 +5584,7 @@
         <v>129</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>17</v>
@@ -5593,13 +5593,13 @@
         <v>4</v>
       </c>
       <c r="E12" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="G12" s="5" t="s">
         <v>222</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="80" x14ac:dyDescent="0.2">
@@ -5607,7 +5607,7 @@
         <v>129</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>18</v>
@@ -5616,13 +5616,13 @@
         <v>4</v>
       </c>
       <c r="E13" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="G13" s="5" t="s">
         <v>225</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="64" x14ac:dyDescent="0.2">
@@ -5630,7 +5630,7 @@
         <v>129</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>19</v>
@@ -5639,13 +5639,13 @@
         <v>4</v>
       </c>
       <c r="E14" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="G14" s="5" t="s">
         <v>228</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -5653,7 +5653,7 @@
         <v>129</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>20</v>
@@ -5667,7 +5667,7 @@
         <v>129</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>21</v>
@@ -5676,13 +5676,13 @@
         <v>4</v>
       </c>
       <c r="E16" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="G16" s="5" t="s">
         <v>231</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -5690,7 +5690,7 @@
         <v>129</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>103</v>
@@ -5704,7 +5704,7 @@
         <v>129</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>23</v>
@@ -5713,13 +5713,13 @@
         <v>5</v>
       </c>
       <c r="E18" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="F18" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="G18" s="5" t="s">
         <v>234</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -5727,7 +5727,7 @@
         <v>129</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>111</v>
@@ -5741,7 +5741,7 @@
         <v>129</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>116</v>
@@ -5750,13 +5750,13 @@
         <v>5</v>
       </c>
       <c r="E20" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="F20" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="G20" s="2" t="s">
         <v>237</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="64" x14ac:dyDescent="0.2">
@@ -5764,7 +5764,7 @@
         <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C21" t="s">
         <v>7</v>
@@ -5773,13 +5773,13 @@
         <v>4</v>
       </c>
       <c r="E21" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="64" x14ac:dyDescent="0.2">
@@ -5787,7 +5787,7 @@
         <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C22" t="s">
         <v>8</v>
@@ -5796,13 +5796,13 @@
         <v>5</v>
       </c>
       <c r="E22" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="G22" s="2" t="s">
         <v>242</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="64" x14ac:dyDescent="0.2">
@@ -5810,7 +5810,7 @@
         <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C23" t="s">
         <v>9</v>
@@ -5819,13 +5819,13 @@
         <v>4</v>
       </c>
       <c r="E23" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="G23" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -5833,7 +5833,7 @@
         <v>27</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>10</v>
@@ -5847,7 +5847,7 @@
         <v>27</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>11</v>
@@ -5856,13 +5856,13 @@
         <v>4</v>
       </c>
       <c r="E25" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="F25" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="F25" s="5" t="s">
-        <v>157</v>
-      </c>
       <c r="G25" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -5870,7 +5870,7 @@
         <v>27</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>80</v>
@@ -5884,7 +5884,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>13</v>
@@ -5898,7 +5898,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>14</v>
@@ -5912,7 +5912,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>15</v>
@@ -5921,13 +5921,13 @@
         <v>5</v>
       </c>
       <c r="E29" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="F29" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="G29" s="5" t="s">
         <v>249</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -5935,7 +5935,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>16</v>
@@ -5949,7 +5949,7 @@
         <v>27</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>17</v>
@@ -5963,7 +5963,7 @@
         <v>27</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>18</v>
@@ -5972,13 +5972,13 @@
         <v>4</v>
       </c>
       <c r="E32" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="G32" s="2" t="s">
         <v>252</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -5986,7 +5986,7 @@
         <v>27</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>19</v>
@@ -6000,7 +6000,7 @@
         <v>27</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>20</v>
@@ -6014,7 +6014,7 @@
         <v>27</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>21</v>
@@ -6023,13 +6023,13 @@
         <v>4</v>
       </c>
       <c r="E35" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="G35" s="5" t="s">
         <v>254</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -6037,7 +6037,7 @@
         <v>27</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>103</v>
@@ -6051,7 +6051,7 @@
         <v>27</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>23</v>
@@ -6065,7 +6065,7 @@
         <v>27</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>111</v>
@@ -6079,7 +6079,7 @@
         <v>27</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>116</v>
@@ -6088,13 +6088,13 @@
         <v>4</v>
       </c>
       <c r="E39" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="F39" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="F39" s="5" t="s">
+      <c r="G39" s="5" t="s">
         <v>258</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
@@ -6102,7 +6102,7 @@
         <v>130</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>7</v>
@@ -6116,7 +6116,7 @@
         <v>130</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>8</v>
@@ -6125,13 +6125,13 @@
         <v>5</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="48" x14ac:dyDescent="0.2">
@@ -6139,7 +6139,7 @@
         <v>130</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>9</v>
@@ -6148,13 +6148,13 @@
         <v>4</v>
       </c>
       <c r="E42" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F42" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="G42" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -6162,7 +6162,7 @@
         <v>130</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>10</v>
@@ -6176,7 +6176,7 @@
         <v>130</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>11</v>
@@ -6185,13 +6185,13 @@
         <v>5</v>
       </c>
       <c r="E44" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F44" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="G44" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="64" x14ac:dyDescent="0.2">
@@ -6199,7 +6199,7 @@
         <v>130</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>80</v>
@@ -6208,13 +6208,13 @@
         <v>4</v>
       </c>
       <c r="E45" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F45" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="G45" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
@@ -6222,7 +6222,7 @@
         <v>130</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>13</v>
@@ -6236,7 +6236,7 @@
         <v>130</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>14</v>
@@ -6245,13 +6245,13 @@
         <v>4</v>
       </c>
       <c r="E47" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="F47" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="F47" s="5" t="s">
+      <c r="G47" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="64" x14ac:dyDescent="0.2">
@@ -6259,7 +6259,7 @@
         <v>130</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>15</v>
@@ -6268,13 +6268,13 @@
         <v>4</v>
       </c>
       <c r="E48" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="G48" s="5" t="s">
         <v>176</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="G48" s="5" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
@@ -6282,7 +6282,7 @@
         <v>130</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>16</v>
@@ -6296,7 +6296,7 @@
         <v>130</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>17</v>
@@ -6310,7 +6310,7 @@
         <v>130</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>18</v>
@@ -6324,7 +6324,7 @@
         <v>130</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>19</v>
@@ -6338,7 +6338,7 @@
         <v>130</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>20</v>
@@ -6352,7 +6352,7 @@
         <v>130</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>21</v>
@@ -6361,13 +6361,13 @@
         <v>4</v>
       </c>
       <c r="E54" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="F54" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="F54" s="5" t="s">
+      <c r="G54" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
@@ -6375,7 +6375,7 @@
         <v>130</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>103</v>
@@ -6389,7 +6389,7 @@
         <v>130</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>23</v>
@@ -6403,7 +6403,7 @@
         <v>130</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>111</v>
@@ -6417,7 +6417,7 @@
         <v>130</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>116</v>
@@ -6431,7 +6431,7 @@
         <v>131</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>7</v>
@@ -6440,13 +6440,13 @@
         <v>4</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="64" x14ac:dyDescent="0.2">
@@ -6454,7 +6454,7 @@
         <v>131</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>8</v>
@@ -6463,13 +6463,13 @@
         <v>5</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
@@ -6477,7 +6477,7 @@
         <v>131</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>9</v>
@@ -6491,7 +6491,7 @@
         <v>131</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>10</v>
@@ -6505,7 +6505,7 @@
         <v>131</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>11</v>
@@ -6514,13 +6514,13 @@
         <v>4</v>
       </c>
       <c r="E63" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="G63" s="5" t="s">
         <v>186</v>
-      </c>
-      <c r="F63" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="G63" s="5" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
@@ -6528,7 +6528,7 @@
         <v>131</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>80</v>
@@ -6542,7 +6542,7 @@
         <v>131</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>13</v>
@@ -6556,7 +6556,7 @@
         <v>131</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>14</v>
@@ -6570,7 +6570,7 @@
         <v>131</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>15</v>
@@ -6579,13 +6579,13 @@
         <v>5</v>
       </c>
       <c r="E67" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="F67" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="F67" s="5" t="s">
+      <c r="G67" s="5" t="s">
         <v>189</v>
-      </c>
-      <c r="G67" s="5" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
@@ -6593,7 +6593,7 @@
         <v>131</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>16</v>
@@ -6607,7 +6607,7 @@
         <v>131</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>17</v>
@@ -6621,7 +6621,7 @@
         <v>131</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>18</v>
@@ -6635,7 +6635,7 @@
         <v>131</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>19</v>
@@ -6644,13 +6644,13 @@
         <v>4</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
@@ -6658,7 +6658,7 @@
         <v>131</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>20</v>
@@ -6672,7 +6672,7 @@
         <v>131</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>21</v>
@@ -6681,13 +6681,13 @@
         <v>5</v>
       </c>
       <c r="E73" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="F73" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="F73" s="5" t="s">
+      <c r="G73" s="5" t="s">
         <v>192</v>
-      </c>
-      <c r="G73" s="5" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="80" x14ac:dyDescent="0.2">
@@ -6695,7 +6695,7 @@
         <v>131</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>103</v>
@@ -6704,13 +6704,13 @@
         <v>4</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
@@ -6718,7 +6718,7 @@
         <v>131</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>23</v>
@@ -6732,7 +6732,7 @@
         <v>131</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>111</v>
@@ -6746,7 +6746,7 @@
         <v>131</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>116</v>
@@ -6760,7 +6760,7 @@
         <v>132</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>7</v>
@@ -6774,7 +6774,7 @@
         <v>132</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>8</v>
@@ -6783,13 +6783,13 @@
         <v>5</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
@@ -6797,7 +6797,7 @@
         <v>132</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>9</v>
@@ -6811,7 +6811,7 @@
         <v>132</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>10</v>
@@ -6825,7 +6825,7 @@
         <v>132</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>11</v>
@@ -6839,7 +6839,7 @@
         <v>132</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>80</v>
@@ -6853,7 +6853,7 @@
         <v>132</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>13</v>
@@ -6867,7 +6867,7 @@
         <v>132</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>14</v>
@@ -6881,7 +6881,7 @@
         <v>132</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>15</v>
@@ -6890,13 +6890,13 @@
         <v>4</v>
       </c>
       <c r="E86" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="F86" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="F86" s="5" t="s">
-        <v>205</v>
-      </c>
       <c r="G86" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
@@ -6904,7 +6904,7 @@
         <v>132</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>16</v>
@@ -6918,7 +6918,7 @@
         <v>132</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>17</v>
@@ -6932,7 +6932,7 @@
         <v>132</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>18</v>
@@ -6941,13 +6941,13 @@
         <v>4</v>
       </c>
       <c r="E89" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="F89" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="F89" s="5" t="s">
+      <c r="G89" s="5" t="s">
         <v>207</v>
-      </c>
-      <c r="G89" s="5" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
@@ -6955,7 +6955,7 @@
         <v>132</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>19</v>
@@ -6969,7 +6969,7 @@
         <v>132</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>20</v>
@@ -6983,7 +6983,7 @@
         <v>132</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>21</v>
@@ -6992,13 +6992,13 @@
         <v>4</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G92" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
@@ -7006,7 +7006,7 @@
         <v>132</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>103</v>
@@ -7020,7 +7020,7 @@
         <v>132</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>23</v>
@@ -7034,7 +7034,7 @@
         <v>132</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>111</v>
@@ -7048,7 +7048,7 @@
         <v>132</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>116</v>
@@ -7062,7 +7062,7 @@
         <v>133</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>7</v>
@@ -7076,7 +7076,7 @@
         <v>133</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>8</v>
@@ -7090,7 +7090,7 @@
         <v>133</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>9</v>
@@ -7104,7 +7104,7 @@
         <v>133</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>10</v>
@@ -7118,7 +7118,7 @@
         <v>133</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>11</v>
@@ -7132,7 +7132,7 @@
         <v>133</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>80</v>
@@ -7146,7 +7146,7 @@
         <v>133</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>13</v>
@@ -7160,7 +7160,7 @@
         <v>133</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>14</v>
@@ -7174,7 +7174,7 @@
         <v>133</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>15</v>
@@ -7188,7 +7188,7 @@
         <v>133</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>16</v>
@@ -7202,7 +7202,7 @@
         <v>133</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>17</v>
@@ -7211,13 +7211,13 @@
         <v>4</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G107" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="64" x14ac:dyDescent="0.2">
@@ -7225,7 +7225,7 @@
         <v>133</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>18</v>
@@ -7234,13 +7234,13 @@
         <v>4</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G108" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
@@ -7248,7 +7248,7 @@
         <v>133</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>19</v>
@@ -7262,7 +7262,7 @@
         <v>133</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>20</v>
@@ -7276,7 +7276,7 @@
         <v>133</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C111" s="3" t="s">
         <v>21</v>
@@ -7290,7 +7290,7 @@
         <v>133</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>103</v>
@@ -7299,13 +7299,13 @@
         <v>4</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F112" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="G112" s="5" t="s">
         <v>216</v>
-      </c>
-      <c r="G112" s="5" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
@@ -7313,7 +7313,7 @@
         <v>133</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C113" s="3" t="s">
         <v>23</v>
@@ -7327,7 +7327,7 @@
         <v>133</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>111</v>
@@ -7341,7 +7341,7 @@
         <v>133</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>116</v>
@@ -7355,7 +7355,7 @@
         <v>134</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>7</v>
@@ -7369,7 +7369,7 @@
         <v>134</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C117" s="3" t="s">
         <v>8</v>
@@ -7383,7 +7383,7 @@
         <v>134</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C118" s="3" t="s">
         <v>9</v>
@@ -7397,7 +7397,7 @@
         <v>134</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C119" s="3" t="s">
         <v>10</v>
@@ -7411,7 +7411,7 @@
         <v>134</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C120" s="3" t="s">
         <v>11</v>
@@ -7425,7 +7425,7 @@
         <v>134</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>80</v>
@@ -7439,7 +7439,7 @@
         <v>134</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>13</v>
@@ -7453,7 +7453,7 @@
         <v>134</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>14</v>
@@ -7467,7 +7467,7 @@
         <v>134</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C124" s="3" t="s">
         <v>15</v>
@@ -7481,7 +7481,7 @@
         <v>134</v>
       </c>
       <c r="B125" s="23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C125" s="23" t="s">
         <v>16</v>
@@ -7490,13 +7490,13 @@
         <v>5</v>
       </c>
       <c r="E125" s="25" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F125" s="25" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G125" s="25" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="126" spans="1:7" s="23" customFormat="1" ht="64" x14ac:dyDescent="0.2">
@@ -7504,7 +7504,7 @@
         <v>134</v>
       </c>
       <c r="B126" s="23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C126" s="23" t="s">
         <v>17</v>
@@ -7513,13 +7513,13 @@
         <v>5</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G126" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="127" spans="1:7" s="23" customFormat="1" ht="80" x14ac:dyDescent="0.2">
@@ -7527,7 +7527,7 @@
         <v>134</v>
       </c>
       <c r="B127" s="23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C127" s="23" t="s">
         <v>18</v>
@@ -7536,13 +7536,13 @@
         <v>5</v>
       </c>
       <c r="E127" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="F127" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="F127" s="5" t="s">
+      <c r="G127" s="5" t="s">
         <v>275</v>
-      </c>
-      <c r="G127" s="5" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="128" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
@@ -7550,7 +7550,7 @@
         <v>134</v>
       </c>
       <c r="B128" s="23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C128" s="23" t="s">
         <v>19</v>
@@ -7567,7 +7567,7 @@
         <v>134</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C129" s="3" t="s">
         <v>20</v>
@@ -7581,7 +7581,7 @@
         <v>134</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C130" s="3" t="s">
         <v>21</v>
@@ -7595,7 +7595,7 @@
         <v>134</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C131" s="3" t="s">
         <v>103</v>
@@ -7609,7 +7609,7 @@
         <v>134</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C132" s="3" t="s">
         <v>23</v>
@@ -7623,7 +7623,7 @@
         <v>134</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C133" s="3" t="s">
         <v>111</v>
@@ -7637,7 +7637,7 @@
         <v>134</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C134" s="3" t="s">
         <v>116</v>
@@ -7651,7 +7651,7 @@
         <v>135</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C135" s="3" t="s">
         <v>7</v>
@@ -7665,7 +7665,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C136" s="3" t="s">
         <v>8</v>
@@ -7679,7 +7679,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C137" s="3" t="s">
         <v>9</v>
@@ -7693,7 +7693,7 @@
         <v>135</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C138" s="3" t="s">
         <v>10</v>
@@ -7707,7 +7707,7 @@
         <v>135</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C139" s="3" t="s">
         <v>11</v>
@@ -7721,7 +7721,7 @@
         <v>135</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C140" s="3" t="s">
         <v>80</v>
@@ -7735,7 +7735,7 @@
         <v>135</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C141" s="3" t="s">
         <v>13</v>
@@ -7749,7 +7749,7 @@
         <v>135</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C142" s="3" t="s">
         <v>14</v>
@@ -7763,7 +7763,7 @@
         <v>135</v>
       </c>
       <c r="B143" s="23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C143" s="23" t="s">
         <v>15</v>
@@ -7772,13 +7772,13 @@
         <v>4</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F143" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G143" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="144" spans="1:7" s="23" customFormat="1" ht="64" x14ac:dyDescent="0.2">
@@ -7786,7 +7786,7 @@
         <v>135</v>
       </c>
       <c r="B144" s="23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C144" s="23" t="s">
         <v>16</v>
@@ -7795,13 +7795,13 @@
         <v>5</v>
       </c>
       <c r="E144" s="25" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F144" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="G144" s="25" t="s">
         <v>279</v>
-      </c>
-      <c r="G144" s="25" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="145" spans="1:7" s="23" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -7809,7 +7809,7 @@
         <v>135</v>
       </c>
       <c r="B145" s="23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C145" s="23" t="s">
         <v>17</v>
@@ -7818,13 +7818,13 @@
         <v>5</v>
       </c>
       <c r="E145" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F145" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G145" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="146" spans="1:7" s="23" customFormat="1" ht="64" x14ac:dyDescent="0.2">
@@ -7832,7 +7832,7 @@
         <v>135</v>
       </c>
       <c r="B146" s="23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C146" s="23" t="s">
         <v>18</v>
@@ -7841,13 +7841,13 @@
         <v>5</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F146" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="G146" s="5" t="s">
         <v>292</v>
-      </c>
-      <c r="G146" s="5" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="147" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
@@ -7855,7 +7855,7 @@
         <v>135</v>
       </c>
       <c r="B147" s="23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C147" s="23" t="s">
         <v>19</v>
@@ -7872,7 +7872,7 @@
         <v>135</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C148" s="3" t="s">
         <v>20</v>
@@ -7886,7 +7886,7 @@
         <v>135</v>
       </c>
       <c r="B149" s="23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C149" s="23" t="s">
         <v>21</v>
@@ -7895,13 +7895,13 @@
         <v>4</v>
       </c>
       <c r="E149" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F149" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G149" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.2">
@@ -7909,7 +7909,7 @@
         <v>135</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C150" s="3" t="s">
         <v>103</v>
@@ -7923,7 +7923,7 @@
         <v>135</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C151" s="3" t="s">
         <v>23</v>
@@ -7937,7 +7937,7 @@
         <v>135</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C152" s="3" t="s">
         <v>111</v>
@@ -7951,7 +7951,7 @@
         <v>135</v>
       </c>
       <c r="B153" s="23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C153" s="23" t="s">
         <v>116</v>
@@ -7960,13 +7960,13 @@
         <v>5</v>
       </c>
       <c r="E153" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="F153" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="F153" s="5" t="s">
-        <v>289</v>
-      </c>
       <c r="G153" s="25" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.2">
@@ -7974,7 +7974,7 @@
         <v>136</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C154" s="3" t="s">
         <v>7</v>
@@ -7988,7 +7988,7 @@
         <v>136</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C155" s="3" t="s">
         <v>8</v>
@@ -8002,7 +8002,7 @@
         <v>136</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C156" s="3" t="s">
         <v>9</v>
@@ -8016,7 +8016,7 @@
         <v>136</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C157" s="3" t="s">
         <v>10</v>
@@ -8030,7 +8030,7 @@
         <v>136</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C158" s="3" t="s">
         <v>11</v>
@@ -8044,7 +8044,7 @@
         <v>136</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C159" s="3" t="s">
         <v>80</v>
@@ -8058,7 +8058,7 @@
         <v>136</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C160" s="3" t="s">
         <v>13</v>
@@ -8072,7 +8072,7 @@
         <v>136</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C161" s="3" t="s">
         <v>14</v>
@@ -8086,7 +8086,7 @@
         <v>136</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C162" s="3" t="s">
         <v>15</v>
@@ -8100,7 +8100,7 @@
         <v>136</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C163" s="3" t="s">
         <v>16</v>
@@ -8114,7 +8114,7 @@
         <v>136</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C164" s="3" t="s">
         <v>17</v>
@@ -8128,7 +8128,7 @@
         <v>136</v>
       </c>
       <c r="B165" s="23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C165" s="23" t="s">
         <v>18</v>
@@ -8137,13 +8137,13 @@
         <v>4</v>
       </c>
       <c r="E165" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="F165" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="G165" s="5" t="s">
         <v>290</v>
-      </c>
-      <c r="F165" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="G165" s="5" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.2">
@@ -8151,7 +8151,7 @@
         <v>136</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C166" s="3" t="s">
         <v>19</v>
@@ -8165,7 +8165,7 @@
         <v>136</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C167" s="3" t="s">
         <v>20</v>
@@ -8179,7 +8179,7 @@
         <v>136</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C168" s="3" t="s">
         <v>21</v>
@@ -8193,7 +8193,7 @@
         <v>136</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C169" s="3" t="s">
         <v>103</v>
@@ -8207,7 +8207,7 @@
         <v>136</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C170" s="3" t="s">
         <v>23</v>
@@ -8221,7 +8221,7 @@
         <v>136</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C171" s="3" t="s">
         <v>111</v>
@@ -8235,7 +8235,7 @@
         <v>136</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C172" s="3" t="s">
         <v>116</v>
@@ -8249,7 +8249,7 @@
         <v>137</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C173" s="3" t="s">
         <v>7</v>
@@ -8263,7 +8263,7 @@
         <v>137</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C174" s="3" t="s">
         <v>8</v>
@@ -8277,7 +8277,7 @@
         <v>137</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C175" s="3" t="s">
         <v>9</v>
@@ -8291,7 +8291,7 @@
         <v>137</v>
       </c>
       <c r="B176" s="23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C176" s="23" t="s">
         <v>10</v>
@@ -8300,13 +8300,13 @@
         <v>4</v>
       </c>
       <c r="E176" s="25" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F176" s="25" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G176" s="25" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="177" spans="1:7" s="23" customFormat="1" ht="64" x14ac:dyDescent="0.2">
@@ -8314,7 +8314,7 @@
         <v>137</v>
       </c>
       <c r="B177" s="23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C177" s="23" t="s">
         <v>11</v>
@@ -8323,13 +8323,13 @@
         <v>4</v>
       </c>
       <c r="E177" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F177" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="G177" s="5" t="s">
         <v>302</v>
-      </c>
-      <c r="G177" s="5" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.2">
@@ -8337,7 +8337,7 @@
         <v>137</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C178" s="3" t="s">
         <v>80</v>
@@ -8351,7 +8351,7 @@
         <v>137</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C179" s="3" t="s">
         <v>13</v>
@@ -8365,7 +8365,7 @@
         <v>137</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C180" s="3" t="s">
         <v>14</v>
@@ -8379,7 +8379,7 @@
         <v>137</v>
       </c>
       <c r="B181" s="23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C181" s="23" t="s">
         <v>15</v>
@@ -8388,13 +8388,13 @@
         <v>4</v>
       </c>
       <c r="E181" s="26" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F181" s="26" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G181" s="26" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.2">
@@ -8402,7 +8402,7 @@
         <v>137</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C182" s="3" t="s">
         <v>16</v>
@@ -8416,7 +8416,7 @@
         <v>137</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C183" s="3" t="s">
         <v>17</v>
@@ -8430,7 +8430,7 @@
         <v>137</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C184" s="3" t="s">
         <v>18</v>
@@ -8444,7 +8444,7 @@
         <v>137</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C185" s="3" t="s">
         <v>19</v>
@@ -8458,7 +8458,7 @@
         <v>137</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C186" s="3" t="s">
         <v>20</v>
@@ -8472,7 +8472,7 @@
         <v>137</v>
       </c>
       <c r="B187" s="23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C187" s="23" t="s">
         <v>21</v>
@@ -8481,13 +8481,13 @@
         <v>4</v>
       </c>
       <c r="E187" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="F187" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="F187" s="5" t="s">
-        <v>301</v>
-      </c>
       <c r="G187" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.2">
@@ -8495,7 +8495,7 @@
         <v>137</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C188" s="3" t="s">
         <v>103</v>
@@ -8509,7 +8509,7 @@
         <v>137</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C189" s="3" t="s">
         <v>23</v>
@@ -8523,7 +8523,7 @@
         <v>137</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C190" s="3" t="s">
         <v>111</v>
@@ -8537,7 +8537,7 @@
         <v>137</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C191" s="3" t="s">
         <v>116</v>
@@ -8551,7 +8551,7 @@
         <v>138</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C192" s="3" t="s">
         <v>7</v>
@@ -8565,7 +8565,7 @@
         <v>138</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C193" s="3" t="s">
         <v>8</v>
@@ -8579,7 +8579,7 @@
         <v>138</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C194" s="3" t="s">
         <v>9</v>
@@ -8593,7 +8593,7 @@
         <v>138</v>
       </c>
       <c r="B195" s="23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C195" s="23" t="s">
         <v>10</v>
@@ -8602,13 +8602,13 @@
         <v>4</v>
       </c>
       <c r="E195" s="25" t="s">
+        <v>306</v>
+      </c>
+      <c r="F195" s="25" t="s">
         <v>307</v>
       </c>
-      <c r="F195" s="25" t="s">
+      <c r="G195" s="25" t="s">
         <v>308</v>
-      </c>
-      <c r="G195" s="25" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="196" spans="1:7" s="23" customFormat="1" ht="64" x14ac:dyDescent="0.2">
@@ -8616,7 +8616,7 @@
         <v>138</v>
       </c>
       <c r="B196" s="23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C196" s="23" t="s">
         <v>11</v>
@@ -8625,13 +8625,13 @@
         <v>5</v>
       </c>
       <c r="E196" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F196" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="G196" s="5" t="s">
         <v>302</v>
-      </c>
-      <c r="G196" s="5" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.2">
@@ -8639,7 +8639,7 @@
         <v>138</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C197" s="3" t="s">
         <v>80</v>
@@ -8653,7 +8653,7 @@
         <v>138</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C198" s="3" t="s">
         <v>13</v>
@@ -8667,7 +8667,7 @@
         <v>138</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C199" s="3" t="s">
         <v>14</v>
@@ -8681,7 +8681,7 @@
         <v>138</v>
       </c>
       <c r="B200" s="23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C200" s="23" t="s">
         <v>15</v>
@@ -8690,13 +8690,13 @@
         <v>4</v>
       </c>
       <c r="E200" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="F200" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="G200" s="26" t="s">
         <v>298</v>
-      </c>
-      <c r="F200" s="26" t="s">
-        <v>178</v>
-      </c>
-      <c r="G200" s="26" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.2">
@@ -8704,7 +8704,7 @@
         <v>138</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C201" s="3" t="s">
         <v>16</v>
@@ -8718,7 +8718,7 @@
         <v>138</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C202" s="3" t="s">
         <v>17</v>
@@ -8732,7 +8732,7 @@
         <v>138</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C203" s="3" t="s">
         <v>18</v>
@@ -8746,7 +8746,7 @@
         <v>138</v>
       </c>
       <c r="B204" s="23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C204" s="23" t="s">
         <v>19</v>
@@ -8755,13 +8755,13 @@
         <v>4</v>
       </c>
       <c r="E204" s="25" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F204" s="25" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G204" s="25" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.2">
@@ -8769,7 +8769,7 @@
         <v>138</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C205" s="3" t="s">
         <v>20</v>
@@ -8783,7 +8783,7 @@
         <v>138</v>
       </c>
       <c r="B206" s="23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C206" s="23" t="s">
         <v>21</v>
@@ -8792,13 +8792,13 @@
         <v>4</v>
       </c>
       <c r="E206" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="F206" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="F206" s="5" t="s">
-        <v>301</v>
-      </c>
       <c r="G206" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.2">
@@ -8806,7 +8806,7 @@
         <v>138</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C207" s="3" t="s">
         <v>103</v>
@@ -8820,7 +8820,7 @@
         <v>138</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C208" s="3" t="s">
         <v>23</v>
@@ -8834,7 +8834,7 @@
         <v>138</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C209" s="3" t="s">
         <v>111</v>
@@ -8848,7 +8848,7 @@
         <v>138</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C210" s="3" t="s">
         <v>116</v>
@@ -8862,7 +8862,7 @@
         <v>139</v>
       </c>
       <c r="B211" s="23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C211" s="23" t="s">
         <v>7</v>
@@ -8871,13 +8871,13 @@
         <v>5</v>
       </c>
       <c r="E211" s="25" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F211" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="G211" s="25" t="s">
         <v>314</v>
-      </c>
-      <c r="G211" s="25" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="212" spans="1:7" s="23" customFormat="1" ht="64" x14ac:dyDescent="0.2">
@@ -8885,7 +8885,7 @@
         <v>139</v>
       </c>
       <c r="B212" s="23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C212" s="23" t="s">
         <v>8</v>
@@ -8894,13 +8894,13 @@
         <v>5</v>
       </c>
       <c r="E212" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="F212" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="F212" s="2" t="s">
+      <c r="G212" s="2" t="s">
         <v>318</v>
-      </c>
-      <c r="G212" s="2" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.2">
@@ -8908,7 +8908,7 @@
         <v>139</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C213" s="3" t="s">
         <v>9</v>
@@ -8922,7 +8922,7 @@
         <v>139</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C214" s="3" t="s">
         <v>10</v>
@@ -8936,7 +8936,7 @@
         <v>139</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C215" s="3" t="s">
         <v>11</v>
@@ -8950,7 +8950,7 @@
         <v>139</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C216" s="3" t="s">
         <v>80</v>
@@ -8964,7 +8964,7 @@
         <v>139</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C217" s="3" t="s">
         <v>13</v>
@@ -8978,7 +8978,7 @@
         <v>139</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C218" s="3" t="s">
         <v>14</v>
@@ -8992,7 +8992,7 @@
         <v>139</v>
       </c>
       <c r="B219" s="23" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C219" s="23" t="s">
         <v>15</v>
@@ -9001,13 +9001,13 @@
         <v>5</v>
       </c>
       <c r="E219" s="25" t="s">
+        <v>320</v>
+      </c>
+      <c r="F219" s="25" t="s">
         <v>321</v>
       </c>
-      <c r="F219" s="25" t="s">
+      <c r="G219" s="25" t="s">
         <v>322</v>
-      </c>
-      <c r="G219" s="25" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.2">
@@ -9015,7 +9015,7 @@
         <v>139</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C220" s="3" t="s">
         <v>16</v>
@@ -9029,7 +9029,7 @@
         <v>139</v>
       </c>
       <c r="B221" s="23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C221" s="23" t="s">
         <v>17</v>
@@ -9038,13 +9038,13 @@
         <v>4</v>
       </c>
       <c r="E221" s="25" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F221" s="25" t="s">
+        <v>323</v>
+      </c>
+      <c r="G221" s="25" t="s">
         <v>324</v>
-      </c>
-      <c r="G221" s="25" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="222" spans="1:7" s="23" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -9052,7 +9052,7 @@
         <v>139</v>
       </c>
       <c r="B222" s="23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C222" s="23" t="s">
         <v>18</v>
@@ -9061,13 +9061,13 @@
         <v>5</v>
       </c>
       <c r="E222" s="25" t="s">
+        <v>325</v>
+      </c>
+      <c r="F222" s="25" t="s">
         <v>326</v>
       </c>
-      <c r="F222" s="25" t="s">
+      <c r="G222" s="25" t="s">
         <v>327</v>
-      </c>
-      <c r="G222" s="25" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="223" spans="1:7" s="23" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -9075,7 +9075,7 @@
         <v>139</v>
       </c>
       <c r="B223" s="23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C223" s="23" t="s">
         <v>19</v>
@@ -9084,13 +9084,13 @@
         <v>4</v>
       </c>
       <c r="E223" s="25" t="s">
+        <v>328</v>
+      </c>
+      <c r="F223" s="25" t="s">
         <v>329</v>
       </c>
-      <c r="F223" s="25" t="s">
+      <c r="G223" s="25" t="s">
         <v>330</v>
-      </c>
-      <c r="G223" s="25" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="224" spans="1:7" s="23" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -9098,7 +9098,7 @@
         <v>139</v>
       </c>
       <c r="B224" s="23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C224" s="23" t="s">
         <v>20</v>
@@ -9107,13 +9107,13 @@
         <v>4</v>
       </c>
       <c r="E224" s="25" t="s">
+        <v>331</v>
+      </c>
+      <c r="F224" s="25" t="s">
         <v>332</v>
       </c>
-      <c r="F224" s="25" t="s">
-        <v>333</v>
-      </c>
       <c r="G224" s="25" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="225" spans="1:7" s="23" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -9121,7 +9121,7 @@
         <v>139</v>
       </c>
       <c r="B225" s="23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C225" s="23" t="s">
         <v>21</v>
@@ -9130,13 +9130,13 @@
         <v>5</v>
       </c>
       <c r="E225" s="25" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F225" s="25" t="s">
+        <v>333</v>
+      </c>
+      <c r="G225" s="25" t="s">
         <v>334</v>
-      </c>
-      <c r="G225" s="25" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="226" spans="1:7" s="23" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -9144,7 +9144,7 @@
         <v>139</v>
       </c>
       <c r="B226" s="23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C226" s="23" t="s">
         <v>103</v>
@@ -9153,13 +9153,13 @@
         <v>5</v>
       </c>
       <c r="E226" s="25" t="s">
+        <v>335</v>
+      </c>
+      <c r="F226" s="25" t="s">
         <v>336</v>
       </c>
-      <c r="F226" s="25" t="s">
+      <c r="G226" s="25" t="s">
         <v>337</v>
-      </c>
-      <c r="G226" s="25" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.2">
@@ -9167,7 +9167,7 @@
         <v>139</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C227" s="3" t="s">
         <v>23</v>
@@ -9181,7 +9181,7 @@
         <v>139</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C228" s="23" t="s">
         <v>111</v>
@@ -9190,13 +9190,13 @@
         <v>4</v>
       </c>
       <c r="E228" s="25" t="s">
+        <v>338</v>
+      </c>
+      <c r="F228" s="25" t="s">
         <v>339</v>
       </c>
-      <c r="F228" s="25" t="s">
+      <c r="G228" s="25" t="s">
         <v>340</v>
-      </c>
-      <c r="G228" s="25" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="229" spans="1:7" s="23" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -9204,7 +9204,7 @@
         <v>139</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C229" s="23" t="s">
         <v>116</v>
@@ -9213,13 +9213,13 @@
         <v>5</v>
       </c>
       <c r="E229" s="25" t="s">
+        <v>341</v>
+      </c>
+      <c r="F229" s="25" t="s">
         <v>342</v>
       </c>
-      <c r="F229" s="25" t="s">
+      <c r="G229" s="25" t="s">
         <v>343</v>
-      </c>
-      <c r="G229" s="25" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.2">
@@ -9227,7 +9227,7 @@
         <v>140</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C230" s="3" t="s">
         <v>7</v>
@@ -9238,7 +9238,7 @@
         <v>140</v>
       </c>
       <c r="B231" s="23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C231" s="23" t="s">
         <v>8</v>
@@ -9247,13 +9247,13 @@
         <v>5</v>
       </c>
       <c r="E231" s="25" t="s">
+        <v>347</v>
+      </c>
+      <c r="F231" s="25" t="s">
         <v>348</v>
       </c>
-      <c r="F231" s="25" t="s">
+      <c r="G231" s="25" t="s">
         <v>349</v>
-      </c>
-      <c r="G231" s="25" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.2">
@@ -9261,7 +9261,7 @@
         <v>140</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C232" s="3" t="s">
         <v>9</v>
@@ -9275,7 +9275,7 @@
         <v>140</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C233" s="3" t="s">
         <v>10</v>
@@ -9289,7 +9289,7 @@
         <v>140</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C234" s="3" t="s">
         <v>11</v>
@@ -9303,7 +9303,7 @@
         <v>140</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C235" s="3" t="s">
         <v>80</v>
@@ -9317,7 +9317,7 @@
         <v>140</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C236" s="3" t="s">
         <v>13</v>
@@ -9331,7 +9331,7 @@
         <v>140</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C237" s="3" t="s">
         <v>14</v>
@@ -9345,7 +9345,7 @@
         <v>140</v>
       </c>
       <c r="B238" s="23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C238" s="23" t="s">
         <v>15</v>
@@ -9354,13 +9354,13 @@
         <v>5</v>
       </c>
       <c r="E238" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="F238" s="25" t="s">
         <v>351</v>
       </c>
-      <c r="F238" s="25" t="s">
+      <c r="G238" s="25" t="s">
         <v>352</v>
-      </c>
-      <c r="G238" s="25" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.2">
@@ -9368,7 +9368,7 @@
         <v>140</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C239" s="3" t="s">
         <v>16</v>
@@ -9382,7 +9382,7 @@
         <v>140</v>
       </c>
       <c r="B240" s="23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C240" s="23" t="s">
         <v>17</v>
@@ -9391,13 +9391,13 @@
         <v>4</v>
       </c>
       <c r="E240" s="25" t="s">
+        <v>353</v>
+      </c>
+      <c r="F240" s="25" t="s">
         <v>354</v>
       </c>
-      <c r="F240" s="25" t="s">
+      <c r="G240" s="25" t="s">
         <v>355</v>
-      </c>
-      <c r="G240" s="25" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="241" spans="1:7" s="23" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -9405,7 +9405,7 @@
         <v>140</v>
       </c>
       <c r="B241" s="23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C241" s="23" t="s">
         <v>18</v>
@@ -9414,13 +9414,13 @@
         <v>5</v>
       </c>
       <c r="E241" s="25" t="s">
+        <v>356</v>
+      </c>
+      <c r="F241" s="25" t="s">
         <v>357</v>
       </c>
-      <c r="F241" s="25" t="s">
+      <c r="G241" s="25" t="s">
         <v>358</v>
-      </c>
-      <c r="G241" s="25" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="242" spans="1:7" s="23" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -9428,7 +9428,7 @@
         <v>140</v>
       </c>
       <c r="B242" s="23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C242" s="23" t="s">
         <v>19</v>
@@ -9437,13 +9437,13 @@
         <v>5</v>
       </c>
       <c r="E242" s="25" t="s">
+        <v>359</v>
+      </c>
+      <c r="F242" s="25" t="s">
         <v>360</v>
       </c>
-      <c r="F242" s="25" t="s">
+      <c r="G242" s="25" t="s">
         <v>361</v>
-      </c>
-      <c r="G242" s="25" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.2">
@@ -9451,7 +9451,7 @@
         <v>140</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C243" s="3" t="s">
         <v>20</v>
@@ -9465,7 +9465,7 @@
         <v>140</v>
       </c>
       <c r="B244" s="23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C244" s="23" t="s">
         <v>21</v>
@@ -9474,13 +9474,13 @@
         <v>5</v>
       </c>
       <c r="E244" s="25" t="s">
+        <v>362</v>
+      </c>
+      <c r="F244" s="25" t="s">
         <v>363</v>
       </c>
-      <c r="F244" s="25" t="s">
+      <c r="G244" s="25" t="s">
         <v>364</v>
-      </c>
-      <c r="G244" s="25" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="245" spans="1:7" s="23" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -9488,7 +9488,7 @@
         <v>140</v>
       </c>
       <c r="B245" s="23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C245" s="23" t="s">
         <v>103</v>
@@ -9497,13 +9497,13 @@
         <v>5</v>
       </c>
       <c r="E245" s="25" t="s">
+        <v>365</v>
+      </c>
+      <c r="F245" s="25" t="s">
         <v>366</v>
       </c>
-      <c r="F245" s="25" t="s">
+      <c r="G245" s="25" t="s">
         <v>367</v>
-      </c>
-      <c r="G245" s="25" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.2">
@@ -9511,7 +9511,7 @@
         <v>140</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C246" s="3" t="s">
         <v>23</v>
@@ -9525,7 +9525,7 @@
         <v>140</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C247" s="3" t="s">
         <v>111</v>
@@ -9539,7 +9539,7 @@
         <v>140</v>
       </c>
       <c r="B248" s="23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C248" s="23" t="s">
         <v>116</v>
@@ -9548,13 +9548,13 @@
         <v>4</v>
       </c>
       <c r="E248" s="25" t="s">
+        <v>368</v>
+      </c>
+      <c r="F248" s="25" t="s">
         <v>369</v>
       </c>
-      <c r="F248" s="25" t="s">
+      <c r="G248" s="25" t="s">
         <v>370</v>
-      </c>
-      <c r="G248" s="25" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="249" spans="1:7" s="23" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -9562,7 +9562,7 @@
         <v>141</v>
       </c>
       <c r="B249" s="23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C249" s="23" t="s">
         <v>7</v>
@@ -9571,13 +9571,13 @@
         <v>5</v>
       </c>
       <c r="E249" s="25" t="s">
+        <v>372</v>
+      </c>
+      <c r="F249" s="25" t="s">
         <v>373</v>
       </c>
-      <c r="F249" s="25" t="s">
+      <c r="G249" s="25" t="s">
         <v>374</v>
-      </c>
-      <c r="G249" s="25" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="250" spans="1:7" s="23" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -9585,7 +9585,7 @@
         <v>141</v>
       </c>
       <c r="B250" s="23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C250" s="23" t="s">
         <v>8</v>
@@ -9594,13 +9594,13 @@
         <v>4</v>
       </c>
       <c r="E250" s="25" t="s">
+        <v>375</v>
+      </c>
+      <c r="F250" s="25" t="s">
         <v>376</v>
       </c>
-      <c r="F250" s="25" t="s">
+      <c r="G250" s="25" t="s">
         <v>377</v>
-      </c>
-      <c r="G250" s="25" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.2">
@@ -9608,7 +9608,7 @@
         <v>141</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C251" s="3" t="s">
         <v>9</v>
@@ -9622,7 +9622,7 @@
         <v>141</v>
       </c>
       <c r="B252" s="23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C252" s="23" t="s">
         <v>10</v>
@@ -9631,13 +9631,13 @@
         <v>4</v>
       </c>
       <c r="E252" s="25" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F252" s="25" t="s">
+        <v>378</v>
+      </c>
+      <c r="G252" s="25" t="s">
         <v>379</v>
-      </c>
-      <c r="G252" s="25" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.2">
@@ -9645,7 +9645,7 @@
         <v>141</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C253" s="3" t="s">
         <v>11</v>
@@ -9659,7 +9659,7 @@
         <v>141</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C254" s="3" t="s">
         <v>80</v>
@@ -9673,7 +9673,7 @@
         <v>141</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C255" s="3" t="s">
         <v>13</v>
@@ -9687,7 +9687,7 @@
         <v>141</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C256" s="3" t="s">
         <v>14</v>
@@ -9701,7 +9701,7 @@
         <v>141</v>
       </c>
       <c r="B257" s="23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C257" s="23" t="s">
         <v>15</v>
@@ -9710,13 +9710,13 @@
         <v>5</v>
       </c>
       <c r="E257" s="25" t="s">
+        <v>381</v>
+      </c>
+      <c r="F257" s="25" t="s">
         <v>382</v>
       </c>
-      <c r="F257" s="25" t="s">
+      <c r="G257" s="25" t="s">
         <v>383</v>
-      </c>
-      <c r="G257" s="25" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.2">
@@ -9724,7 +9724,7 @@
         <v>141</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C258" s="3" t="s">
         <v>16</v>
@@ -9738,7 +9738,7 @@
         <v>141</v>
       </c>
       <c r="B259" s="23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C259" s="23" t="s">
         <v>17</v>
@@ -9747,13 +9747,13 @@
         <v>5</v>
       </c>
       <c r="E259" s="25" t="s">
+        <v>384</v>
+      </c>
+      <c r="F259" s="25" t="s">
         <v>385</v>
       </c>
-      <c r="F259" s="25" t="s">
+      <c r="G259" s="25" t="s">
         <v>386</v>
-      </c>
-      <c r="G259" s="25" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="260" spans="1:7" s="23" customFormat="1" ht="96" x14ac:dyDescent="0.2">
@@ -9761,7 +9761,7 @@
         <v>141</v>
       </c>
       <c r="B260" s="23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C260" s="23" t="s">
         <v>18</v>
@@ -9770,13 +9770,13 @@
         <v>5</v>
       </c>
       <c r="E260" s="25" t="s">
+        <v>388</v>
+      </c>
+      <c r="F260" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="G260" s="25" t="s">
         <v>389</v>
-      </c>
-      <c r="F260" s="25" t="s">
-        <v>388</v>
-      </c>
-      <c r="G260" s="25" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="261" spans="1:7" s="23" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -9784,7 +9784,7 @@
         <v>141</v>
       </c>
       <c r="B261" s="23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C261" s="23" t="s">
         <v>19</v>
@@ -9793,13 +9793,13 @@
         <v>5</v>
       </c>
       <c r="E261" s="25" t="s">
+        <v>391</v>
+      </c>
+      <c r="F261" s="25" t="s">
         <v>392</v>
       </c>
-      <c r="F261" s="25" t="s">
-        <v>393</v>
-      </c>
       <c r="G261" s="25" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="262" spans="1:7" s="23" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -9807,7 +9807,7 @@
         <v>141</v>
       </c>
       <c r="B262" s="23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C262" s="23" t="s">
         <v>20</v>
@@ -9816,13 +9816,13 @@
         <v>4</v>
       </c>
       <c r="E262" s="25" t="s">
+        <v>393</v>
+      </c>
+      <c r="F262" s="25" t="s">
+        <v>395</v>
+      </c>
+      <c r="G262" s="25" t="s">
         <v>394</v>
-      </c>
-      <c r="F262" s="25" t="s">
-        <v>396</v>
-      </c>
-      <c r="G262" s="25" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="263" spans="1:7" s="23" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -9830,7 +9830,7 @@
         <v>141</v>
       </c>
       <c r="B263" s="23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C263" s="23" t="s">
         <v>21</v>
@@ -9839,13 +9839,13 @@
         <v>5</v>
       </c>
       <c r="E263" s="25" t="s">
+        <v>396</v>
+      </c>
+      <c r="F263" s="25" t="s">
         <v>397</v>
       </c>
-      <c r="F263" s="25" t="s">
+      <c r="G263" s="25" t="s">
         <v>398</v>
-      </c>
-      <c r="G263" s="25" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="264" spans="1:7" s="23" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -9853,7 +9853,7 @@
         <v>141</v>
       </c>
       <c r="B264" s="23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C264" s="23" t="s">
         <v>103</v>
@@ -9862,13 +9862,13 @@
         <v>4</v>
       </c>
       <c r="E264" s="25" t="s">
+        <v>405</v>
+      </c>
+      <c r="F264" s="25" t="s">
+        <v>407</v>
+      </c>
+      <c r="G264" s="25" t="s">
         <v>406</v>
-      </c>
-      <c r="F264" s="25" t="s">
-        <v>408</v>
-      </c>
-      <c r="G264" s="25" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.2">
@@ -9876,7 +9876,7 @@
         <v>141</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C265" s="3" t="s">
         <v>23</v>
@@ -9890,7 +9890,7 @@
         <v>141</v>
       </c>
       <c r="B266" s="23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C266" s="23" t="s">
         <v>111</v>
@@ -9899,13 +9899,13 @@
         <v>4</v>
       </c>
       <c r="E266" s="25" t="s">
+        <v>399</v>
+      </c>
+      <c r="F266" s="25" t="s">
         <v>400</v>
       </c>
-      <c r="F266" s="25" t="s">
+      <c r="G266" s="25" t="s">
         <v>401</v>
-      </c>
-      <c r="G266" s="25" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="267" spans="1:7" s="23" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -9913,7 +9913,7 @@
         <v>141</v>
       </c>
       <c r="B267" s="23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C267" s="23" t="s">
         <v>116</v>
@@ -9922,21 +9922,21 @@
         <v>5</v>
       </c>
       <c r="E267" s="25" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F267" s="25" t="s">
+        <v>402</v>
+      </c>
+      <c r="G267" s="25" t="s">
         <v>403</v>
-      </c>
-      <c r="G267" s="25" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A268" s="3" t="s">
-        <v>142</v>
+        <v>525</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C268" s="3" t="s">
         <v>7</v>
@@ -9947,10 +9947,10 @@
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A269" s="3" t="s">
-        <v>142</v>
+        <v>525</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C269" s="3" t="s">
         <v>8</v>
@@ -9961,10 +9961,10 @@
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A270" s="3" t="s">
-        <v>142</v>
+        <v>525</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C270" s="3" t="s">
         <v>9</v>
@@ -9974,11 +9974,11 @@
       </c>
     </row>
     <row r="271" spans="1:7" s="23" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A271" s="23" t="s">
-        <v>142</v>
+      <c r="A271" s="3" t="s">
+        <v>525</v>
       </c>
       <c r="B271" s="23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C271" s="23" t="s">
         <v>10</v>
@@ -9987,21 +9987,21 @@
         <v>4</v>
       </c>
       <c r="E271" s="25" t="s">
+        <v>408</v>
+      </c>
+      <c r="F271" s="25" t="s">
+        <v>411</v>
+      </c>
+      <c r="G271" s="25" t="s">
         <v>409</v>
       </c>
-      <c r="F271" s="25" t="s">
-        <v>412</v>
-      </c>
-      <c r="G271" s="25" t="s">
-        <v>410</v>
-      </c>
     </row>
     <row r="272" spans="1:7" s="23" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A272" s="23" t="s">
-        <v>142</v>
+      <c r="A272" s="3" t="s">
+        <v>525</v>
       </c>
       <c r="B272" s="23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C272" s="23" t="s">
         <v>11</v>
@@ -10010,21 +10010,21 @@
         <v>4</v>
       </c>
       <c r="E272" s="25" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F272" s="25" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G272" s="25" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A273" s="3" t="s">
-        <v>142</v>
+        <v>525</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C273" s="3" t="s">
         <v>80</v>
@@ -10035,10 +10035,10 @@
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A274" s="3" t="s">
-        <v>142</v>
+        <v>525</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C274" s="3" t="s">
         <v>13</v>
@@ -10049,10 +10049,10 @@
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A275" s="3" t="s">
-        <v>142</v>
+        <v>525</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C275" s="3" t="s">
         <v>14</v>
@@ -10062,11 +10062,11 @@
       </c>
     </row>
     <row r="276" spans="1:7" s="23" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A276" s="23" t="s">
-        <v>142</v>
+      <c r="A276" s="3" t="s">
+        <v>525</v>
       </c>
       <c r="B276" s="23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C276" s="23" t="s">
         <v>15</v>
@@ -10075,21 +10075,21 @@
         <v>5</v>
       </c>
       <c r="E276" s="25" t="s">
+        <v>415</v>
+      </c>
+      <c r="F276" s="25" t="s">
+        <v>414</v>
+      </c>
+      <c r="G276" s="25" t="s">
         <v>416</v>
-      </c>
-      <c r="F276" s="25" t="s">
-        <v>415</v>
-      </c>
-      <c r="G276" s="25" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A277" s="3" t="s">
-        <v>142</v>
+        <v>525</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C277" s="3" t="s">
         <v>16</v>
@@ -10099,11 +10099,11 @@
       </c>
     </row>
     <row r="278" spans="1:7" s="23" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A278" s="23" t="s">
-        <v>142</v>
+      <c r="A278" s="3" t="s">
+        <v>525</v>
       </c>
       <c r="B278" s="23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C278" s="23" t="s">
         <v>17</v>
@@ -10112,21 +10112,21 @@
         <v>4</v>
       </c>
       <c r="E278" s="25" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F278" s="25" t="s">
+        <v>417</v>
+      </c>
+      <c r="G278" s="25" t="s">
         <v>418</v>
-      </c>
-      <c r="G278" s="25" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A279" s="3" t="s">
-        <v>142</v>
+        <v>525</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C279" s="3" t="s">
         <v>18</v>
@@ -10136,11 +10136,11 @@
       </c>
     </row>
     <row r="280" spans="1:7" s="23" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A280" s="23" t="s">
-        <v>142</v>
+      <c r="A280" s="3" t="s">
+        <v>525</v>
       </c>
       <c r="B280" s="23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C280" s="23" t="s">
         <v>19</v>
@@ -10149,21 +10149,21 @@
         <v>4</v>
       </c>
       <c r="E280" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="F280" s="25" t="s">
+        <v>420</v>
+      </c>
+      <c r="G280" s="25" t="s">
         <v>422</v>
       </c>
-      <c r="F280" s="25" t="s">
-        <v>421</v>
-      </c>
-      <c r="G280" s="25" t="s">
-        <v>423</v>
-      </c>
     </row>
     <row r="281" spans="1:7" s="23" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A281" s="23" t="s">
-        <v>142</v>
+      <c r="A281" s="3" t="s">
+        <v>525</v>
       </c>
       <c r="B281" s="23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C281" s="23" t="s">
         <v>20</v>
@@ -10172,21 +10172,21 @@
         <v>4</v>
       </c>
       <c r="E281" s="25" t="s">
+        <v>423</v>
+      </c>
+      <c r="F281" s="25" t="s">
         <v>424</v>
       </c>
-      <c r="F281" s="25" t="s">
+      <c r="G281" s="25" t="s">
         <v>425</v>
       </c>
-      <c r="G281" s="25" t="s">
-        <v>426</v>
-      </c>
     </row>
     <row r="282" spans="1:7" s="23" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A282" s="23" t="s">
-        <v>142</v>
+      <c r="A282" s="3" t="s">
+        <v>525</v>
       </c>
       <c r="B282" s="23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C282" s="23" t="s">
         <v>21</v>
@@ -10195,21 +10195,21 @@
         <v>5</v>
       </c>
       <c r="E282" s="25" t="s">
+        <v>426</v>
+      </c>
+      <c r="F282" s="25" t="s">
         <v>427</v>
       </c>
-      <c r="F282" s="25" t="s">
+      <c r="G282" s="25" t="s">
         <v>428</v>
-      </c>
-      <c r="G282" s="25" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A283" s="3" t="s">
-        <v>142</v>
+        <v>525</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C283" s="3" t="s">
         <v>103</v>
@@ -10220,10 +10220,10 @@
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A284" s="3" t="s">
-        <v>142</v>
+        <v>525</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C284" s="3" t="s">
         <v>23</v>
@@ -10234,10 +10234,10 @@
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A285" s="3" t="s">
-        <v>142</v>
+        <v>525</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C285" s="3" t="s">
         <v>111</v>
@@ -10247,11 +10247,11 @@
       </c>
     </row>
     <row r="286" spans="1:7" s="23" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A286" s="23" t="s">
-        <v>142</v>
+      <c r="A286" s="3" t="s">
+        <v>525</v>
       </c>
       <c r="B286" s="23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C286" s="23" t="s">
         <v>116</v>
@@ -10260,21 +10260,21 @@
         <v>5</v>
       </c>
       <c r="E286" s="25" t="s">
+        <v>429</v>
+      </c>
+      <c r="F286" s="25" t="s">
         <v>430</v>
       </c>
-      <c r="F286" s="25" t="s">
+      <c r="G286" s="25" t="s">
         <v>431</v>
-      </c>
-      <c r="G286" s="25" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="287" spans="1:7" s="23" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A287" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B287" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C287" s="23" t="s">
         <v>7</v>
@@ -10283,21 +10283,21 @@
         <v>4</v>
       </c>
       <c r="E287" s="25" t="s">
+        <v>432</v>
+      </c>
+      <c r="F287" s="25" t="s">
         <v>433</v>
       </c>
-      <c r="F287" s="25" t="s">
+      <c r="G287" s="25" t="s">
         <v>434</v>
-      </c>
-      <c r="G287" s="25" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="288" spans="1:7" s="23" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A288" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B288" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C288" s="23" t="s">
         <v>8</v>
@@ -10306,21 +10306,21 @@
         <v>5</v>
       </c>
       <c r="E288" s="25" t="s">
+        <v>435</v>
+      </c>
+      <c r="F288" s="25" t="s">
         <v>436</v>
       </c>
-      <c r="F288" s="25" t="s">
+      <c r="G288" s="25" t="s">
         <v>437</v>
-      </c>
-      <c r="G288" s="25" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A289" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C289" s="3" t="s">
         <v>9</v>
@@ -10331,10 +10331,10 @@
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A290" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C290" s="3" t="s">
         <v>10</v>
@@ -10345,10 +10345,10 @@
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A291" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C291" s="3" t="s">
         <v>11</v>
@@ -10359,10 +10359,10 @@
     </row>
     <row r="292" spans="1:7" s="23" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A292" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B292" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C292" s="23" t="s">
         <v>80</v>
@@ -10371,21 +10371,21 @@
         <v>4</v>
       </c>
       <c r="E292" s="25" t="s">
+        <v>438</v>
+      </c>
+      <c r="F292" s="25" t="s">
+        <v>440</v>
+      </c>
+      <c r="G292" s="25" t="s">
         <v>439</v>
-      </c>
-      <c r="F292" s="25" t="s">
-        <v>441</v>
-      </c>
-      <c r="G292" s="25" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="293" spans="1:7" s="23" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A293" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B293" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C293" s="23" t="s">
         <v>13</v>
@@ -10394,21 +10394,21 @@
         <v>5</v>
       </c>
       <c r="E293" s="25" t="s">
+        <v>441</v>
+      </c>
+      <c r="F293" s="25" t="s">
         <v>442</v>
       </c>
-      <c r="F293" s="25" t="s">
+      <c r="G293" s="25" t="s">
         <v>443</v>
-      </c>
-      <c r="G293" s="25" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="294" spans="1:7" s="23" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A294" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B294" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C294" s="23" t="s">
         <v>14</v>
@@ -10417,21 +10417,21 @@
         <v>5</v>
       </c>
       <c r="E294" s="25" t="s">
+        <v>444</v>
+      </c>
+      <c r="F294" s="25" t="s">
+        <v>446</v>
+      </c>
+      <c r="G294" s="25" t="s">
         <v>445</v>
-      </c>
-      <c r="F294" s="25" t="s">
-        <v>447</v>
-      </c>
-      <c r="G294" s="25" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A295" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C295" s="3" t="s">
         <v>15</v>
@@ -10442,10 +10442,10 @@
     </row>
     <row r="296" spans="1:7" s="23" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A296" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B296" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C296" s="23" t="s">
         <v>16</v>
@@ -10454,21 +10454,21 @@
         <v>4</v>
       </c>
       <c r="E296" s="25" t="s">
+        <v>447</v>
+      </c>
+      <c r="F296" s="25" t="s">
         <v>448</v>
       </c>
-      <c r="F296" s="25" t="s">
+      <c r="G296" s="25" t="s">
         <v>449</v>
-      </c>
-      <c r="G296" s="25" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A297" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C297" s="3" t="s">
         <v>17</v>
@@ -10479,10 +10479,10 @@
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A298" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C298" s="3" t="s">
         <v>18</v>
@@ -10493,10 +10493,10 @@
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A299" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C299" s="3" t="s">
         <v>19</v>
@@ -10507,10 +10507,10 @@
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A300" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C300" s="3" t="s">
         <v>20</v>
@@ -10521,10 +10521,10 @@
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A301" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C301" s="3" t="s">
         <v>21</v>
@@ -10535,10 +10535,10 @@
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A302" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C302" s="3" t="s">
         <v>103</v>
@@ -10549,10 +10549,10 @@
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A303" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C303" s="3" t="s">
         <v>23</v>
@@ -10563,10 +10563,10 @@
     </row>
     <row r="304" spans="1:7" s="23" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A304" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B304" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C304" s="23" t="s">
         <v>111</v>
@@ -10575,21 +10575,21 @@
         <v>4</v>
       </c>
       <c r="E304" s="25" t="s">
+        <v>450</v>
+      </c>
+      <c r="F304" s="25" t="s">
         <v>451</v>
       </c>
-      <c r="F304" s="25" t="s">
+      <c r="G304" s="25" t="s">
         <v>452</v>
-      </c>
-      <c r="G304" s="25" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A305" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C305" s="3" t="s">
         <v>116</v>
@@ -10603,7 +10603,7 @@
         <v>42</v>
       </c>
       <c r="B306" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C306" s="23" t="s">
         <v>7</v>
@@ -10612,13 +10612,13 @@
         <v>4</v>
       </c>
       <c r="E306" s="25" t="s">
+        <v>454</v>
+      </c>
+      <c r="F306" s="25" t="s">
+        <v>453</v>
+      </c>
+      <c r="G306" s="25" t="s">
         <v>455</v>
-      </c>
-      <c r="F306" s="25" t="s">
-        <v>454</v>
-      </c>
-      <c r="G306" s="25" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="307" spans="1:7" s="23" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -10626,7 +10626,7 @@
         <v>42</v>
       </c>
       <c r="B307" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C307" s="23" t="s">
         <v>8</v>
@@ -10635,13 +10635,13 @@
         <v>5</v>
       </c>
       <c r="E307" s="25" t="s">
+        <v>456</v>
+      </c>
+      <c r="F307" s="25" t="s">
         <v>457</v>
       </c>
-      <c r="F307" s="25" t="s">
+      <c r="G307" s="25" t="s">
         <v>458</v>
-      </c>
-      <c r="G307" s="25" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.2">
@@ -10649,7 +10649,7 @@
         <v>42</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C308" s="3" t="s">
         <v>9</v>
@@ -10663,7 +10663,7 @@
         <v>42</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C309" s="3" t="s">
         <v>10</v>
@@ -10677,7 +10677,7 @@
         <v>42</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C310" s="3" t="s">
         <v>11</v>
@@ -10691,7 +10691,7 @@
         <v>42</v>
       </c>
       <c r="B311" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C311" s="23" t="s">
         <v>80</v>
@@ -10700,13 +10700,13 @@
         <v>4</v>
       </c>
       <c r="E311" s="25" t="s">
+        <v>459</v>
+      </c>
+      <c r="F311" s="25" t="s">
         <v>460</v>
       </c>
-      <c r="F311" s="25" t="s">
+      <c r="G311" s="25" t="s">
         <v>461</v>
-      </c>
-      <c r="G311" s="25" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="312" spans="1:7" s="23" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -10714,7 +10714,7 @@
         <v>42</v>
       </c>
       <c r="B312" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C312" s="23" t="s">
         <v>13</v>
@@ -10723,13 +10723,13 @@
         <v>5</v>
       </c>
       <c r="E312" s="25" t="s">
+        <v>462</v>
+      </c>
+      <c r="F312" s="25" t="s">
         <v>463</v>
       </c>
-      <c r="F312" s="25" t="s">
+      <c r="G312" s="25" t="s">
         <v>464</v>
-      </c>
-      <c r="G312" s="25" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="313" spans="1:7" s="23" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -10737,7 +10737,7 @@
         <v>42</v>
       </c>
       <c r="B313" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C313" s="23" t="s">
         <v>14</v>
@@ -10746,13 +10746,13 @@
         <v>5</v>
       </c>
       <c r="E313" s="25" t="s">
+        <v>465</v>
+      </c>
+      <c r="F313" s="25" t="s">
+        <v>467</v>
+      </c>
+      <c r="G313" s="25" t="s">
         <v>466</v>
-      </c>
-      <c r="F313" s="25" t="s">
-        <v>468</v>
-      </c>
-      <c r="G313" s="25" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="314" spans="1:7" s="23" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -10760,7 +10760,7 @@
         <v>42</v>
       </c>
       <c r="B314" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C314" s="23" t="s">
         <v>15</v>
@@ -10769,13 +10769,13 @@
         <v>4</v>
       </c>
       <c r="E314" s="25" t="s">
+        <v>468</v>
+      </c>
+      <c r="F314" s="25" t="s">
         <v>469</v>
       </c>
-      <c r="F314" s="25" t="s">
+      <c r="G314" s="25" t="s">
         <v>470</v>
-      </c>
-      <c r="G314" s="25" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.2">
@@ -10783,7 +10783,7 @@
         <v>42</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C315" s="3" t="s">
         <v>16</v>
@@ -10797,7 +10797,7 @@
         <v>42</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C316" s="3" t="s">
         <v>17</v>
@@ -10811,7 +10811,7 @@
         <v>42</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C317" s="3" t="s">
         <v>18</v>
@@ -10825,7 +10825,7 @@
         <v>42</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C318" s="3" t="s">
         <v>19</v>
@@ -10839,7 +10839,7 @@
         <v>42</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C319" s="3" t="s">
         <v>20</v>
@@ -10853,7 +10853,7 @@
         <v>42</v>
       </c>
       <c r="B320" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C320" s="23" t="s">
         <v>21</v>
@@ -10862,13 +10862,13 @@
         <v>5</v>
       </c>
       <c r="E320" s="25" t="s">
+        <v>471</v>
+      </c>
+      <c r="F320" s="25" t="s">
+        <v>473</v>
+      </c>
+      <c r="G320" s="25" t="s">
         <v>472</v>
-      </c>
-      <c r="F320" s="25" t="s">
-        <v>474</v>
-      </c>
-      <c r="G320" s="25" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.2">
@@ -10876,7 +10876,7 @@
         <v>42</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C321" s="3" t="s">
         <v>103</v>
@@ -10890,7 +10890,7 @@
         <v>42</v>
       </c>
       <c r="B322" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C322" s="23" t="s">
         <v>23</v>
@@ -10899,13 +10899,13 @@
         <v>5</v>
       </c>
       <c r="E322" s="25" t="s">
+        <v>474</v>
+      </c>
+      <c r="F322" s="25" t="s">
+        <v>476</v>
+      </c>
+      <c r="G322" s="25" t="s">
         <v>475</v>
-      </c>
-      <c r="F322" s="25" t="s">
-        <v>477</v>
-      </c>
-      <c r="G322" s="25" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="323" spans="1:7" s="23" customFormat="1" ht="64" x14ac:dyDescent="0.2">
@@ -10913,7 +10913,7 @@
         <v>42</v>
       </c>
       <c r="B323" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C323" s="23" t="s">
         <v>111</v>
@@ -10922,13 +10922,13 @@
         <v>4</v>
       </c>
       <c r="E323" s="25" t="s">
+        <v>477</v>
+      </c>
+      <c r="F323" s="25" t="s">
         <v>478</v>
       </c>
-      <c r="F323" s="25" t="s">
+      <c r="G323" s="25" t="s">
         <v>479</v>
-      </c>
-      <c r="G323" s="25" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.2">
@@ -10936,7 +10936,7 @@
         <v>42</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C324" s="3" t="s">
         <v>116</v>
@@ -10947,10 +10947,10 @@
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A325" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C325" s="3" t="s">
         <v>7</v>
@@ -10961,10 +10961,10 @@
     </row>
     <row r="326" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A326" s="23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B326" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C326" s="23" t="s">
         <v>8</v>
@@ -10973,21 +10973,21 @@
         <v>5</v>
       </c>
       <c r="E326" s="25" t="s">
+        <v>480</v>
+      </c>
+      <c r="F326" s="25" t="s">
+        <v>482</v>
+      </c>
+      <c r="G326" s="25" t="s">
         <v>481</v>
-      </c>
-      <c r="F326" s="25" t="s">
-        <v>483</v>
-      </c>
-      <c r="G326" s="25" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A327" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C327" s="3" t="s">
         <v>9</v>
@@ -10998,10 +10998,10 @@
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A328" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C328" s="3" t="s">
         <v>10</v>
@@ -11012,10 +11012,10 @@
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A329" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C329" s="3" t="s">
         <v>11</v>
@@ -11026,10 +11026,10 @@
     </row>
     <row r="330" spans="1:7" s="23" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A330" s="23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B330" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C330" s="23" t="s">
         <v>80</v>
@@ -11038,21 +11038,21 @@
         <v>5</v>
       </c>
       <c r="E330" s="25" t="s">
+        <v>483</v>
+      </c>
+      <c r="F330" s="25" t="s">
         <v>484</v>
       </c>
-      <c r="F330" s="25" t="s">
+      <c r="G330" s="25" t="s">
         <v>485</v>
-      </c>
-      <c r="G330" s="25" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="331" spans="1:7" s="23" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A331" s="23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B331" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C331" s="23" t="s">
         <v>13</v>
@@ -11061,21 +11061,21 @@
         <v>4</v>
       </c>
       <c r="E331" s="25" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F331" s="25" t="s">
+        <v>486</v>
+      </c>
+      <c r="G331" s="25" t="s">
         <v>487</v>
-      </c>
-      <c r="G331" s="25" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A332" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C332" s="3" t="s">
         <v>14</v>
@@ -11086,10 +11086,10 @@
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A333" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C333" s="3" t="s">
         <v>15</v>
@@ -11100,10 +11100,10 @@
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A334" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C334" s="3" t="s">
         <v>16</v>
@@ -11114,10 +11114,10 @@
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A335" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C335" s="3" t="s">
         <v>17</v>
@@ -11128,10 +11128,10 @@
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A336" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C336" s="3" t="s">
         <v>18</v>
@@ -11142,10 +11142,10 @@
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A337" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C337" s="3" t="s">
         <v>19</v>
@@ -11156,10 +11156,10 @@
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A338" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C338" s="3" t="s">
         <v>20</v>
@@ -11170,10 +11170,10 @@
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A339" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C339" s="3" t="s">
         <v>21</v>
@@ -11184,10 +11184,10 @@
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A340" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C340" s="3" t="s">
         <v>103</v>
@@ -11198,10 +11198,10 @@
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A341" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C341" s="3" t="s">
         <v>23</v>
@@ -11212,10 +11212,10 @@
     </row>
     <row r="342" spans="1:7" s="23" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A342" s="23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B342" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C342" s="23" t="s">
         <v>111</v>
@@ -11224,21 +11224,21 @@
         <v>4</v>
       </c>
       <c r="E342" s="25" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F342" s="25" t="s">
+        <v>489</v>
+      </c>
+      <c r="G342" s="25" t="s">
         <v>490</v>
-      </c>
-      <c r="G342" s="25" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A343" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C343" s="3" t="s">
         <v>116</v>
